--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="383">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -817,10 +817,16 @@
     <t>['17']</t>
   </si>
   <si>
-    <t>['65']</t>
+    <t>['22', '33', '39', '82']</t>
+  </si>
+  <si>
+    <t>['16', '20', '62']</t>
   </si>
   <si>
     <t>['59']</t>
+  </si>
+  <si>
+    <t>['65']</t>
   </si>
   <si>
     <t>['18', '36', '79', '90+5']</t>
@@ -1148,6 +1154,15 @@
   </si>
   <si>
     <t>['17', '45']</t>
+  </si>
+  <si>
+    <t>['3', '57', '74', '90+2']</t>
+  </si>
+  <si>
+    <t>['42', '50']</t>
+  </si>
+  <si>
+    <t>['9', '13', '34', '52', '66']</t>
   </si>
 </sst>
 </file>
@@ -1509,7 +1524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP265"/>
+  <dimension ref="A1:BP271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1768,7 +1783,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q2">
         <v>1.91</v>
@@ -1849,7 +1864,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2055,7 +2070,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ3">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2464,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ5">
         <v>0.75</v>
@@ -2670,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="AQ6">
         <v>0.88</v>
@@ -2798,7 +2813,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -3082,10 +3097,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ8">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3622,7 +3637,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q11">
         <v>2.4</v>
@@ -3906,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ12">
         <v>1.76</v>
@@ -4034,7 +4049,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4240,7 +4255,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q14">
         <v>3.25</v>
@@ -4446,7 +4461,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4730,10 +4745,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ16">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4858,7 +4873,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -4936,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ17">
         <v>0.9399999999999999</v>
@@ -5142,10 +5157,10 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR18">
         <v>0.9399999999999999</v>
@@ -5476,7 +5491,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q20">
         <v>4.1</v>
@@ -5557,7 +5572,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ20">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR20">
         <v>1.27</v>
@@ -5760,7 +5775,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ21">
         <v>0.65</v>
@@ -5888,7 +5903,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5966,10 +5981,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="AQ22">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR22">
         <v>1.58</v>
@@ -6094,7 +6109,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q23">
         <v>1.91</v>
@@ -6378,7 +6393,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ24">
         <v>1.35</v>
@@ -6506,7 +6521,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q25">
         <v>1.93</v>
@@ -6918,7 +6933,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q27">
         <v>3.9</v>
@@ -7124,7 +7139,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q28">
         <v>3.06</v>
@@ -7330,7 +7345,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7617,7 +7632,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ30">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR30">
         <v>2.35</v>
@@ -7820,7 +7835,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ31">
         <v>0.71</v>
@@ -8232,7 +8247,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ33">
         <v>0.9399999999999999</v>
@@ -8360,7 +8375,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q34">
         <v>2.45</v>
@@ -8647,7 +8662,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR35">
         <v>2.22</v>
@@ -8772,7 +8787,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -8853,7 +8868,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ36">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR36">
         <v>0.9399999999999999</v>
@@ -9059,7 +9074,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ37">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR37">
         <v>1.03</v>
@@ -9262,7 +9277,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ38">
         <v>0.12</v>
@@ -9468,7 +9483,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ39">
         <v>0.75</v>
@@ -9674,7 +9689,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="AQ40">
         <v>0.9399999999999999</v>
@@ -9802,7 +9817,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -10008,7 +10023,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10292,7 +10307,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ43">
         <v>0.88</v>
@@ -10704,10 +10719,10 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ45">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR45">
         <v>1.63</v>
@@ -11244,7 +11259,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11450,7 +11465,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11656,7 +11671,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q50">
         <v>5.85</v>
@@ -11737,7 +11752,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ50">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR50">
         <v>1.76</v>
@@ -11862,7 +11877,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q51">
         <v>2.2</v>
@@ -11940,7 +11955,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ51">
         <v>0.9399999999999999</v>
@@ -12149,7 +12164,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ52">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR52">
         <v>2.07</v>
@@ -12558,7 +12573,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ54">
         <v>0.12</v>
@@ -12764,10 +12779,10 @@
         <v>1.67</v>
       </c>
       <c r="AP55">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR55">
         <v>1.72</v>
@@ -12892,7 +12907,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q56">
         <v>2.75</v>
@@ -12970,7 +12985,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ56">
         <v>1.76</v>
@@ -13176,10 +13191,10 @@
         <v>0.5</v>
       </c>
       <c r="AP57">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ57">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR57">
         <v>1.08</v>
@@ -13304,7 +13319,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13510,7 +13525,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q59">
         <v>3.52</v>
@@ -13591,7 +13606,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ59">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR59">
         <v>1.61</v>
@@ -13794,7 +13809,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ60">
         <v>1</v>
@@ -13922,7 +13937,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -14412,7 +14427,7 @@
         <v>2.33</v>
       </c>
       <c r="AP63">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="AQ63">
         <v>0.9399999999999999</v>
@@ -14618,7 +14633,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ64">
         <v>0.75</v>
@@ -14746,7 +14761,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q65">
         <v>3.02</v>
@@ -15030,10 +15045,10 @@
         <v>1.5</v>
       </c>
       <c r="AP66">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ66">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR66">
         <v>1.81</v>
@@ -15236,10 +15251,10 @@
         <v>1.25</v>
       </c>
       <c r="AP67">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR67">
         <v>1.91</v>
@@ -15364,7 +15379,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q68">
         <v>3.2</v>
@@ -15442,7 +15457,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ68">
         <v>0.9399999999999999</v>
@@ -15570,7 +15585,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q69">
         <v>3.76</v>
@@ -16266,7 +16281,7 @@
         <v>0.75</v>
       </c>
       <c r="AP72">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ72">
         <v>0.65</v>
@@ -16600,7 +16615,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -17502,7 +17517,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ78">
         <v>0.88</v>
@@ -17917,7 +17932,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ80">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR80">
         <v>2.17</v>
@@ -18454,7 +18469,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18535,7 +18550,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ83">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR83">
         <v>1.89</v>
@@ -19072,7 +19087,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q86">
         <v>1.91</v>
@@ -19150,7 +19165,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="AQ86">
         <v>0.75</v>
@@ -19356,10 +19371,10 @@
         <v>1.75</v>
       </c>
       <c r="AP87">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ87">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR87">
         <v>1.36</v>
@@ -19562,7 +19577,7 @@
         <v>0.8</v>
       </c>
       <c r="AP88">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ88">
         <v>1</v>
@@ -20102,7 +20117,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20180,7 +20195,7 @@
         <v>0.5</v>
       </c>
       <c r="AP91">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ91">
         <v>0.65</v>
@@ -20308,7 +20323,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20389,7 +20404,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ92">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR92">
         <v>1.14</v>
@@ -20720,7 +20735,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -21132,7 +21147,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -21210,7 +21225,7 @@
         <v>1.8</v>
       </c>
       <c r="AP96">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ96">
         <v>1.76</v>
@@ -21338,7 +21353,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -21750,7 +21765,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q99">
         <v>2.9</v>
@@ -21828,7 +21843,7 @@
         <v>0.83</v>
       </c>
       <c r="AP99">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ99">
         <v>0.75</v>
@@ -21956,7 +21971,7 @@
         <v>87</v>
       </c>
       <c r="P100" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22034,10 +22049,10 @@
         <v>1.67</v>
       </c>
       <c r="AP100">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ100">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR100">
         <v>1.3</v>
@@ -22162,7 +22177,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -22243,7 +22258,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ101">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR101">
         <v>1.52</v>
@@ -22446,10 +22461,10 @@
         <v>1.6</v>
       </c>
       <c r="AP102">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="AQ102">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR102">
         <v>1.86</v>
@@ -22858,7 +22873,7 @@
         <v>0.67</v>
       </c>
       <c r="AP104">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ104">
         <v>0.75</v>
@@ -23192,7 +23207,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -23273,7 +23288,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ106">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR106">
         <v>1.33</v>
@@ -23398,7 +23413,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23479,7 +23494,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ107">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR107">
         <v>1.5</v>
@@ -23604,7 +23619,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q108">
         <v>3.5</v>
@@ -23888,7 +23903,7 @@
         <v>1.17</v>
       </c>
       <c r="AP109">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ109">
         <v>0.9399999999999999</v>
@@ -24016,7 +24031,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q110">
         <v>3.2</v>
@@ -24300,7 +24315,7 @@
         <v>0.67</v>
       </c>
       <c r="AP111">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ111">
         <v>0.88</v>
@@ -24634,7 +24649,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q113">
         <v>7.5</v>
@@ -24715,7 +24730,7 @@
         <v>1</v>
       </c>
       <c r="AQ113">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR113">
         <v>0.88</v>
@@ -25330,7 +25345,7 @@
         <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ116">
         <v>0.71</v>
@@ -25536,7 +25551,7 @@
         <v>0.57</v>
       </c>
       <c r="AP117">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="AQ117">
         <v>1</v>
@@ -25870,7 +25885,7 @@
         <v>150</v>
       </c>
       <c r="P119" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q119">
         <v>4.5</v>
@@ -25948,10 +25963,10 @@
         <v>0.71</v>
       </c>
       <c r="AP119">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ119">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR119">
         <v>1.33</v>
@@ -26154,7 +26169,7 @@
         <v>1.29</v>
       </c>
       <c r="AP120">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ120">
         <v>1.35</v>
@@ -26488,7 +26503,7 @@
         <v>179</v>
       </c>
       <c r="P122" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26569,7 +26584,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ122">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR122">
         <v>1.47</v>
@@ -26978,7 +26993,7 @@
         <v>0.57</v>
       </c>
       <c r="AP124">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ124">
         <v>0.88</v>
@@ -27106,7 +27121,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q125">
         <v>4.75</v>
@@ -27390,7 +27405,7 @@
         <v>1.57</v>
       </c>
       <c r="AP126">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ126">
         <v>1.41</v>
@@ -27518,7 +27533,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27805,7 +27820,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ128">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR128">
         <v>1.7</v>
@@ -27930,7 +27945,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q129">
         <v>2.75</v>
@@ -28136,7 +28151,7 @@
         <v>185</v>
       </c>
       <c r="P130" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q130">
         <v>1.72</v>
@@ -28214,7 +28229,7 @@
         <v>0.5</v>
       </c>
       <c r="AP130">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="AQ130">
         <v>0.75</v>
@@ -28420,7 +28435,7 @@
         <v>0.88</v>
       </c>
       <c r="AP131">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ131">
         <v>0.65</v>
@@ -28548,7 +28563,7 @@
         <v>186</v>
       </c>
       <c r="P132" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -28629,7 +28644,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ132">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR132">
         <v>1.55</v>
@@ -28832,7 +28847,7 @@
         <v>0.63</v>
       </c>
       <c r="AP133">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ133">
         <v>0.75</v>
@@ -28960,7 +28975,7 @@
         <v>188</v>
       </c>
       <c r="P134" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q134">
         <v>2.55</v>
@@ -29247,7 +29262,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ135">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR135">
         <v>1.6</v>
@@ -29372,7 +29387,7 @@
         <v>189</v>
       </c>
       <c r="P136" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q136">
         <v>1.7</v>
@@ -29450,7 +29465,7 @@
         <v>0.13</v>
       </c>
       <c r="AP136">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ136">
         <v>0.12</v>
@@ -29865,7 +29880,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ138">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR138">
         <v>1.55</v>
@@ -30274,7 +30289,7 @@
         <v>0.78</v>
       </c>
       <c r="AP140">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ140">
         <v>1</v>
@@ -30402,7 +30417,7 @@
         <v>87</v>
       </c>
       <c r="P141" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30814,7 +30829,7 @@
         <v>194</v>
       </c>
       <c r="P143" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q143">
         <v>1.95</v>
@@ -31020,7 +31035,7 @@
         <v>87</v>
       </c>
       <c r="P144" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -31304,7 +31319,7 @@
         <v>0.5</v>
       </c>
       <c r="AP145">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ145">
         <v>0.71</v>
@@ -31432,7 +31447,7 @@
         <v>196</v>
       </c>
       <c r="P146" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q146">
         <v>2.7</v>
@@ -31513,7 +31528,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ146">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR146">
         <v>1.85</v>
@@ -31716,7 +31731,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP147">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ147">
         <v>0.75</v>
@@ -31844,7 +31859,7 @@
         <v>167</v>
       </c>
       <c r="P148" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -31925,7 +31940,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ148">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR148">
         <v>1.11</v>
@@ -32050,7 +32065,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q149">
         <v>3.1</v>
@@ -32334,7 +32349,7 @@
         <v>1.67</v>
       </c>
       <c r="AP150">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="AQ150">
         <v>1.41</v>
@@ -32540,7 +32555,7 @@
         <v>1.11</v>
       </c>
       <c r="AP151">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ151">
         <v>1.35</v>
@@ -32668,7 +32683,7 @@
         <v>200</v>
       </c>
       <c r="P152" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q152">
         <v>3.25</v>
@@ -32749,7 +32764,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ152">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR152">
         <v>1.81</v>
@@ -33080,7 +33095,7 @@
         <v>202</v>
       </c>
       <c r="P154" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -33286,7 +33301,7 @@
         <v>87</v>
       </c>
       <c r="P155" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33492,7 +33507,7 @@
         <v>203</v>
       </c>
       <c r="P156" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q156">
         <v>1.7</v>
@@ -33904,7 +33919,7 @@
         <v>93</v>
       </c>
       <c r="P158" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q158">
         <v>3.7</v>
@@ -33982,10 +33997,10 @@
         <v>0.78</v>
       </c>
       <c r="AP158">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ158">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR158">
         <v>1.6</v>
@@ -34188,7 +34203,7 @@
         <v>0.11</v>
       </c>
       <c r="AP159">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ159">
         <v>0.12</v>
@@ -34522,7 +34537,7 @@
         <v>205</v>
       </c>
       <c r="P161" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q161">
         <v>1.9</v>
@@ -34600,7 +34615,7 @@
         <v>1.33</v>
       </c>
       <c r="AP161">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ161">
         <v>0.9399999999999999</v>
@@ -34806,7 +34821,7 @@
         <v>0.5</v>
       </c>
       <c r="AP162">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ162">
         <v>0.75</v>
@@ -34934,7 +34949,7 @@
         <v>207</v>
       </c>
       <c r="P163" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q163">
         <v>2.45</v>
@@ -35218,7 +35233,7 @@
         <v>0.8</v>
       </c>
       <c r="AP164">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="AQ164">
         <v>0.65</v>
@@ -35346,7 +35361,7 @@
         <v>144</v>
       </c>
       <c r="P165" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q165">
         <v>3.5</v>
@@ -35424,10 +35439,10 @@
         <v>1</v>
       </c>
       <c r="AP165">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ165">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR165">
         <v>1.75</v>
@@ -35552,7 +35567,7 @@
         <v>209</v>
       </c>
       <c r="P166" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q166">
         <v>4.2</v>
@@ -35633,7 +35648,7 @@
         <v>1</v>
       </c>
       <c r="AQ166">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR166">
         <v>1.26</v>
@@ -35964,7 +35979,7 @@
         <v>87</v>
       </c>
       <c r="P168" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q168">
         <v>3.6</v>
@@ -36042,10 +36057,10 @@
         <v>1.8</v>
       </c>
       <c r="AP168">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ168">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR168">
         <v>1.71</v>
@@ -36251,7 +36266,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ169">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR169">
         <v>1.59</v>
@@ -36454,7 +36469,7 @@
         <v>0.91</v>
       </c>
       <c r="AP170">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ170">
         <v>1</v>
@@ -36582,7 +36597,7 @@
         <v>87</v>
       </c>
       <c r="P171" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q171">
         <v>3.5</v>
@@ -36788,7 +36803,7 @@
         <v>159</v>
       </c>
       <c r="P172" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q172">
         <v>3.4</v>
@@ -36994,7 +37009,7 @@
         <v>210</v>
       </c>
       <c r="P173" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q173">
         <v>1.5</v>
@@ -37200,7 +37215,7 @@
         <v>87</v>
       </c>
       <c r="P174" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q174">
         <v>4.33</v>
@@ -37612,7 +37627,7 @@
         <v>212</v>
       </c>
       <c r="P176" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37818,7 +37833,7 @@
         <v>213</v>
       </c>
       <c r="P177" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q177">
         <v>2.3</v>
@@ -38105,7 +38120,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ178">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR178">
         <v>1.57</v>
@@ -38230,7 +38245,7 @@
         <v>215</v>
       </c>
       <c r="P179" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38436,7 +38451,7 @@
         <v>216</v>
       </c>
       <c r="P180" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q180">
         <v>2.55</v>
@@ -38514,7 +38529,7 @@
         <v>0.82</v>
       </c>
       <c r="AP180">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ180">
         <v>0.71</v>
@@ -38926,7 +38941,7 @@
         <v>1.5</v>
       </c>
       <c r="AP182">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ182">
         <v>0.9399999999999999</v>
@@ -39054,7 +39069,7 @@
         <v>87</v>
       </c>
       <c r="P183" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q183">
         <v>5.5</v>
@@ -39135,7 +39150,7 @@
         <v>1</v>
       </c>
       <c r="AQ183">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR183">
         <v>1.3</v>
@@ -39260,7 +39275,7 @@
         <v>219</v>
       </c>
       <c r="P184" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -39338,10 +39353,10 @@
         <v>0.9</v>
       </c>
       <c r="AP184">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ184">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR184">
         <v>1.69</v>
@@ -39544,7 +39559,7 @@
         <v>1.27</v>
       </c>
       <c r="AP185">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ185">
         <v>1.35</v>
@@ -39750,10 +39765,10 @@
         <v>0.82</v>
       </c>
       <c r="AP186">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ186">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR186">
         <v>1.34</v>
@@ -39956,7 +39971,7 @@
         <v>1.36</v>
       </c>
       <c r="AP187">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ187">
         <v>0.9399999999999999</v>
@@ -40084,7 +40099,7 @@
         <v>96</v>
       </c>
       <c r="P188" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q188">
         <v>2.35</v>
@@ -40368,7 +40383,7 @@
         <v>0.09</v>
       </c>
       <c r="AP189">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="AQ189">
         <v>0.12</v>
@@ -40577,7 +40592,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ190">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR190">
         <v>1.72</v>
@@ -40702,7 +40717,7 @@
         <v>224</v>
       </c>
       <c r="P191" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q191">
         <v>1.95</v>
@@ -40986,7 +41001,7 @@
         <v>1.64</v>
       </c>
       <c r="AP192">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ192">
         <v>1.41</v>
@@ -41114,7 +41129,7 @@
         <v>225</v>
       </c>
       <c r="P193" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q193">
         <v>3.6</v>
@@ -41320,7 +41335,7 @@
         <v>226</v>
       </c>
       <c r="P194" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -42016,7 +42031,7 @@
         <v>0.83</v>
       </c>
       <c r="AP197">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="AQ197">
         <v>0.71</v>
@@ -42222,10 +42237,10 @@
         <v>1.42</v>
       </c>
       <c r="AP198">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ198">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR198">
         <v>1.68</v>
@@ -42350,7 +42365,7 @@
         <v>188</v>
       </c>
       <c r="P199" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -42431,7 +42446,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ199">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR199">
         <v>1.34</v>
@@ -42556,7 +42571,7 @@
         <v>231</v>
       </c>
       <c r="P200" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q200">
         <v>2.25</v>
@@ -42968,7 +42983,7 @@
         <v>233</v>
       </c>
       <c r="P202" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -43046,7 +43061,7 @@
         <v>1.67</v>
       </c>
       <c r="AP202">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ202">
         <v>1.76</v>
@@ -43174,7 +43189,7 @@
         <v>234</v>
       </c>
       <c r="P203" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q203">
         <v>2.6</v>
@@ -43252,7 +43267,7 @@
         <v>1.25</v>
       </c>
       <c r="AP203">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ203">
         <v>0.9399999999999999</v>
@@ -43380,7 +43395,7 @@
         <v>235</v>
       </c>
       <c r="P204" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q204">
         <v>2.15</v>
@@ -43586,7 +43601,7 @@
         <v>236</v>
       </c>
       <c r="P205" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q205">
         <v>4.6</v>
@@ -43667,7 +43682,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ205">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR205">
         <v>1.6</v>
@@ -43792,7 +43807,7 @@
         <v>237</v>
       </c>
       <c r="P206" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q206">
         <v>1.95</v>
@@ -43870,7 +43885,7 @@
         <v>0.08</v>
       </c>
       <c r="AP206">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ206">
         <v>0.12</v>
@@ -44079,7 +44094,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ207">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR207">
         <v>1.77</v>
@@ -44282,7 +44297,7 @@
         <v>1.5</v>
       </c>
       <c r="AP208">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ208">
         <v>1.41</v>
@@ -45028,7 +45043,7 @@
         <v>227</v>
       </c>
       <c r="P212" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q212">
         <v>2.75</v>
@@ -45234,7 +45249,7 @@
         <v>239</v>
       </c>
       <c r="P213" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q213">
         <v>2.5</v>
@@ -45440,7 +45455,7 @@
         <v>86</v>
       </c>
       <c r="P214" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q214">
         <v>1.71</v>
@@ -45724,7 +45739,7 @@
         <v>1.23</v>
       </c>
       <c r="AP215">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="AQ215">
         <v>1.35</v>
@@ -45852,7 +45867,7 @@
         <v>87</v>
       </c>
       <c r="P216" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q216">
         <v>3.25</v>
@@ -45930,10 +45945,10 @@
         <v>1.46</v>
       </c>
       <c r="AP216">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ216">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR216">
         <v>1.66</v>
@@ -46342,7 +46357,7 @@
         <v>1.77</v>
       </c>
       <c r="AP218">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ218">
         <v>1.76</v>
@@ -46470,7 +46485,7 @@
         <v>88</v>
       </c>
       <c r="P219" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q219">
         <v>4.33</v>
@@ -46548,10 +46563,10 @@
         <v>1.69</v>
       </c>
       <c r="AP219">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ219">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR219">
         <v>1.58</v>
@@ -46757,7 +46772,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ220">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR220">
         <v>1.72</v>
@@ -46882,7 +46897,7 @@
         <v>241</v>
       </c>
       <c r="P221" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q221">
         <v>2.25</v>
@@ -47375,7 +47390,7 @@
         <v>1</v>
       </c>
       <c r="AQ223">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR223">
         <v>1.28</v>
@@ -47500,7 +47515,7 @@
         <v>87</v>
       </c>
       <c r="P224" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q224">
         <v>4.33</v>
@@ -47578,7 +47593,7 @@
         <v>1.62</v>
       </c>
       <c r="AP224">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ224">
         <v>1.41</v>
@@ -47784,7 +47799,7 @@
         <v>0.85</v>
       </c>
       <c r="AP225">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ225">
         <v>0.9399999999999999</v>
@@ -48402,10 +48417,10 @@
         <v>0.86</v>
       </c>
       <c r="AP228">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ228">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR228">
         <v>1.7</v>
@@ -48736,7 +48751,7 @@
         <v>174</v>
       </c>
       <c r="P230" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q230">
         <v>4.75</v>
@@ -48817,7 +48832,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ230">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR230">
         <v>1.79</v>
@@ -49148,7 +49163,7 @@
         <v>87</v>
       </c>
       <c r="P232" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q232">
         <v>2.88</v>
@@ -49638,10 +49653,10 @@
         <v>1.57</v>
       </c>
       <c r="AP234">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="AQ234">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR234">
         <v>1.77</v>
@@ -49844,10 +49859,10 @@
         <v>1.29</v>
       </c>
       <c r="AP235">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ235">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR235">
         <v>1.24</v>
@@ -50050,7 +50065,7 @@
         <v>0.79</v>
       </c>
       <c r="AP236">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ236">
         <v>0.71</v>
@@ -50178,7 +50193,7 @@
         <v>249</v>
       </c>
       <c r="P237" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q237">
         <v>2.5</v>
@@ -50384,7 +50399,7 @@
         <v>250</v>
       </c>
       <c r="P238" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q238">
         <v>3.1</v>
@@ -50462,7 +50477,7 @@
         <v>0.64</v>
       </c>
       <c r="AP238">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ238">
         <v>0.75</v>
@@ -50590,7 +50605,7 @@
         <v>118</v>
       </c>
       <c r="P239" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q239">
         <v>3.75</v>
@@ -50796,7 +50811,7 @@
         <v>251</v>
       </c>
       <c r="P240" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q240">
         <v>2.1</v>
@@ -51002,7 +51017,7 @@
         <v>105</v>
       </c>
       <c r="P241" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q241">
         <v>2.3</v>
@@ -51080,7 +51095,7 @@
         <v>0.43</v>
       </c>
       <c r="AP241">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ241">
         <v>0.75</v>
@@ -51286,7 +51301,7 @@
         <v>1</v>
       </c>
       <c r="AP242">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ242">
         <v>1</v>
@@ -51414,7 +51429,7 @@
         <v>87</v>
       </c>
       <c r="P243" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q243">
         <v>3.75</v>
@@ -51620,7 +51635,7 @@
         <v>252</v>
       </c>
       <c r="P244" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q244">
         <v>3.4</v>
@@ -51698,10 +51713,10 @@
         <v>1</v>
       </c>
       <c r="AP244">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ244">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR244">
         <v>1.24</v>
@@ -51907,7 +51922,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ245">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR245">
         <v>1.84</v>
@@ -52238,7 +52253,7 @@
         <v>255</v>
       </c>
       <c r="P247" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q247">
         <v>3.4</v>
@@ -52522,7 +52537,7 @@
         <v>1.33</v>
       </c>
       <c r="AP248">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="AQ248">
         <v>1.35</v>
@@ -52856,7 +52871,7 @@
         <v>257</v>
       </c>
       <c r="P250" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q250">
         <v>2.5</v>
@@ -53062,7 +53077,7 @@
         <v>258</v>
       </c>
       <c r="P251" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q251">
         <v>2.05</v>
@@ -53268,7 +53283,7 @@
         <v>259</v>
       </c>
       <c r="P252" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q252">
         <v>2.63</v>
@@ -53474,7 +53489,7 @@
         <v>87</v>
       </c>
       <c r="P253" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q253">
         <v>4.33</v>
@@ -53552,10 +53567,10 @@
         <v>1.47</v>
       </c>
       <c r="AP253">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ253">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR253">
         <v>1.54</v>
@@ -53680,7 +53695,7 @@
         <v>260</v>
       </c>
       <c r="P254" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q254">
         <v>4.75</v>
@@ -53761,7 +53776,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ254">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR254">
         <v>1.75</v>
@@ -53886,7 +53901,7 @@
         <v>87</v>
       </c>
       <c r="P255" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q255">
         <v>2.5</v>
@@ -54092,7 +54107,7 @@
         <v>261</v>
       </c>
       <c r="P256" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q256">
         <v>3.4</v>
@@ -54170,7 +54185,7 @@
         <v>1.8</v>
       </c>
       <c r="AP256">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ256">
         <v>1.76</v>
@@ -54376,7 +54391,7 @@
         <v>0.93</v>
       </c>
       <c r="AP257">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ257">
         <v>0.88</v>
@@ -54504,7 +54519,7 @@
         <v>262</v>
       </c>
       <c r="P258" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q258">
         <v>3.1</v>
@@ -54710,7 +54725,7 @@
         <v>263</v>
       </c>
       <c r="P259" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q259">
         <v>2.1</v>
@@ -55328,7 +55343,7 @@
         <v>87</v>
       </c>
       <c r="P262" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q262">
         <v>2.75</v>
@@ -55534,7 +55549,7 @@
         <v>266</v>
       </c>
       <c r="P263" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q263">
         <v>2.5</v>
@@ -55946,7 +55961,7 @@
         <v>217</v>
       </c>
       <c r="P265" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q265">
         <v>3</v>
@@ -56103,6 +56118,1242 @@
       </c>
       <c r="BP265">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="266" spans="1:68">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>7858331</v>
+      </c>
+      <c r="C266" t="s">
+        <v>68</v>
+      </c>
+      <c r="D266" t="s">
+        <v>69</v>
+      </c>
+      <c r="E266" s="2">
+        <v>45766.45833333334</v>
+      </c>
+      <c r="F266">
+        <v>4</v>
+      </c>
+      <c r="G266" t="s">
+        <v>80</v>
+      </c>
+      <c r="H266" t="s">
+        <v>71</v>
+      </c>
+      <c r="I266">
+        <v>3</v>
+      </c>
+      <c r="J266">
+        <v>1</v>
+      </c>
+      <c r="K266">
+        <v>4</v>
+      </c>
+      <c r="L266">
+        <v>4</v>
+      </c>
+      <c r="M266">
+        <v>4</v>
+      </c>
+      <c r="N266">
+        <v>8</v>
+      </c>
+      <c r="O266" t="s">
+        <v>267</v>
+      </c>
+      <c r="P266" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q266">
+        <v>2.88</v>
+      </c>
+      <c r="R266">
+        <v>2.1</v>
+      </c>
+      <c r="S266">
+        <v>4</v>
+      </c>
+      <c r="T266">
+        <v>1.4</v>
+      </c>
+      <c r="U266">
+        <v>2.75</v>
+      </c>
+      <c r="V266">
+        <v>3</v>
+      </c>
+      <c r="W266">
+        <v>1.36</v>
+      </c>
+      <c r="X266">
+        <v>9</v>
+      </c>
+      <c r="Y266">
+        <v>1.07</v>
+      </c>
+      <c r="Z266">
+        <v>2.13</v>
+      </c>
+      <c r="AA266">
+        <v>3.3</v>
+      </c>
+      <c r="AB266">
+        <v>3.36</v>
+      </c>
+      <c r="AC266">
+        <v>1.06</v>
+      </c>
+      <c r="AD266">
+        <v>8.5</v>
+      </c>
+      <c r="AE266">
+        <v>1.33</v>
+      </c>
+      <c r="AF266">
+        <v>3.25</v>
+      </c>
+      <c r="AG266">
+        <v>1.95</v>
+      </c>
+      <c r="AH266">
+        <v>1.79</v>
+      </c>
+      <c r="AI266">
+        <v>1.75</v>
+      </c>
+      <c r="AJ266">
+        <v>2</v>
+      </c>
+      <c r="AK266">
+        <v>1.32</v>
+      </c>
+      <c r="AL266">
+        <v>1.3</v>
+      </c>
+      <c r="AM266">
+        <v>1.66</v>
+      </c>
+      <c r="AN266">
+        <v>1.81</v>
+      </c>
+      <c r="AO266">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP266">
+        <v>1.76</v>
+      </c>
+      <c r="AQ266">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR266">
+        <v>1.28</v>
+      </c>
+      <c r="AS266">
+        <v>1.26</v>
+      </c>
+      <c r="AT266">
+        <v>2.54</v>
+      </c>
+      <c r="AU266">
+        <v>8</v>
+      </c>
+      <c r="AV266">
+        <v>7</v>
+      </c>
+      <c r="AW266">
+        <v>10</v>
+      </c>
+      <c r="AX266">
+        <v>7</v>
+      </c>
+      <c r="AY266">
+        <v>20</v>
+      </c>
+      <c r="AZ266">
+        <v>14</v>
+      </c>
+      <c r="BA266">
+        <v>7</v>
+      </c>
+      <c r="BB266">
+        <v>4</v>
+      </c>
+      <c r="BC266">
+        <v>11</v>
+      </c>
+      <c r="BD266">
+        <v>1.68</v>
+      </c>
+      <c r="BE266">
+        <v>6.5</v>
+      </c>
+      <c r="BF266">
+        <v>2.43</v>
+      </c>
+      <c r="BG266">
+        <v>1.33</v>
+      </c>
+      <c r="BH266">
+        <v>2.95</v>
+      </c>
+      <c r="BI266">
+        <v>1.56</v>
+      </c>
+      <c r="BJ266">
+        <v>2.23</v>
+      </c>
+      <c r="BK266">
+        <v>1.9</v>
+      </c>
+      <c r="BL266">
+        <v>1.79</v>
+      </c>
+      <c r="BM266">
+        <v>2.4</v>
+      </c>
+      <c r="BN266">
+        <v>1.49</v>
+      </c>
+      <c r="BO266">
+        <v>3.15</v>
+      </c>
+      <c r="BP266">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:68">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>7858332</v>
+      </c>
+      <c r="C267" t="s">
+        <v>68</v>
+      </c>
+      <c r="D267" t="s">
+        <v>69</v>
+      </c>
+      <c r="E267" s="2">
+        <v>45766.55208333334</v>
+      </c>
+      <c r="F267">
+        <v>4</v>
+      </c>
+      <c r="G267" t="s">
+        <v>76</v>
+      </c>
+      <c r="H267" t="s">
+        <v>79</v>
+      </c>
+      <c r="I267">
+        <v>2</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="K267">
+        <v>2</v>
+      </c>
+      <c r="L267">
+        <v>3</v>
+      </c>
+      <c r="M267">
+        <v>0</v>
+      </c>
+      <c r="N267">
+        <v>3</v>
+      </c>
+      <c r="O267" t="s">
+        <v>268</v>
+      </c>
+      <c r="P267" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q267">
+        <v>2.88</v>
+      </c>
+      <c r="R267">
+        <v>2.2</v>
+      </c>
+      <c r="S267">
+        <v>3.75</v>
+      </c>
+      <c r="T267">
+        <v>1.36</v>
+      </c>
+      <c r="U267">
+        <v>3</v>
+      </c>
+      <c r="V267">
+        <v>2.75</v>
+      </c>
+      <c r="W267">
+        <v>1.4</v>
+      </c>
+      <c r="X267">
+        <v>7</v>
+      </c>
+      <c r="Y267">
+        <v>1.1</v>
+      </c>
+      <c r="Z267">
+        <v>2.15</v>
+      </c>
+      <c r="AA267">
+        <v>3.39</v>
+      </c>
+      <c r="AB267">
+        <v>3.21</v>
+      </c>
+      <c r="AC267">
+        <v>1.05</v>
+      </c>
+      <c r="AD267">
+        <v>9.5</v>
+      </c>
+      <c r="AE267">
+        <v>1.28</v>
+      </c>
+      <c r="AF267">
+        <v>3.65</v>
+      </c>
+      <c r="AG267">
+        <v>1.8</v>
+      </c>
+      <c r="AH267">
+        <v>1.94</v>
+      </c>
+      <c r="AI267">
+        <v>1.67</v>
+      </c>
+      <c r="AJ267">
+        <v>2.1</v>
+      </c>
+      <c r="AK267">
+        <v>1.34</v>
+      </c>
+      <c r="AL267">
+        <v>1.29</v>
+      </c>
+      <c r="AM267">
+        <v>1.65</v>
+      </c>
+      <c r="AN267">
+        <v>1.56</v>
+      </c>
+      <c r="AO267">
+        <v>1</v>
+      </c>
+      <c r="AP267">
+        <v>1.65</v>
+      </c>
+      <c r="AQ267">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR267">
+        <v>1.67</v>
+      </c>
+      <c r="AS267">
+        <v>1.52</v>
+      </c>
+      <c r="AT267">
+        <v>3.19</v>
+      </c>
+      <c r="AU267">
+        <v>7</v>
+      </c>
+      <c r="AV267">
+        <v>8</v>
+      </c>
+      <c r="AW267">
+        <v>7</v>
+      </c>
+      <c r="AX267">
+        <v>12</v>
+      </c>
+      <c r="AY267">
+        <v>16</v>
+      </c>
+      <c r="AZ267">
+        <v>26</v>
+      </c>
+      <c r="BA267">
+        <v>5</v>
+      </c>
+      <c r="BB267">
+        <v>5</v>
+      </c>
+      <c r="BC267">
+        <v>10</v>
+      </c>
+      <c r="BD267">
+        <v>1.72</v>
+      </c>
+      <c r="BE267">
+        <v>6.75</v>
+      </c>
+      <c r="BF267">
+        <v>2.35</v>
+      </c>
+      <c r="BG267">
+        <v>1.28</v>
+      </c>
+      <c r="BH267">
+        <v>3.2</v>
+      </c>
+      <c r="BI267">
+        <v>1.49</v>
+      </c>
+      <c r="BJ267">
+        <v>2.4</v>
+      </c>
+      <c r="BK267">
+        <v>1.79</v>
+      </c>
+      <c r="BL267">
+        <v>1.9</v>
+      </c>
+      <c r="BM267">
+        <v>2.23</v>
+      </c>
+      <c r="BN267">
+        <v>1.57</v>
+      </c>
+      <c r="BO267">
+        <v>2.8</v>
+      </c>
+      <c r="BP267">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="268" spans="1:68">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>7858333</v>
+      </c>
+      <c r="C268" t="s">
+        <v>68</v>
+      </c>
+      <c r="D268" t="s">
+        <v>69</v>
+      </c>
+      <c r="E268" s="2">
+        <v>45766.65625</v>
+      </c>
+      <c r="F268">
+        <v>4</v>
+      </c>
+      <c r="G268" t="s">
+        <v>84</v>
+      </c>
+      <c r="H268" t="s">
+        <v>77</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="K268">
+        <v>0</v>
+      </c>
+      <c r="L268">
+        <v>1</v>
+      </c>
+      <c r="M268">
+        <v>1</v>
+      </c>
+      <c r="N268">
+        <v>2</v>
+      </c>
+      <c r="O268" t="s">
+        <v>269</v>
+      </c>
+      <c r="P268" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q268">
+        <v>3.1</v>
+      </c>
+      <c r="R268">
+        <v>2.2</v>
+      </c>
+      <c r="S268">
+        <v>3.4</v>
+      </c>
+      <c r="T268">
+        <v>1.36</v>
+      </c>
+      <c r="U268">
+        <v>3</v>
+      </c>
+      <c r="V268">
+        <v>2.75</v>
+      </c>
+      <c r="W268">
+        <v>1.4</v>
+      </c>
+      <c r="X268">
+        <v>7</v>
+      </c>
+      <c r="Y268">
+        <v>1.1</v>
+      </c>
+      <c r="Z268">
+        <v>2.54</v>
+      </c>
+      <c r="AA268">
+        <v>3.34</v>
+      </c>
+      <c r="AB268">
+        <v>2.65</v>
+      </c>
+      <c r="AC268">
+        <v>1.05</v>
+      </c>
+      <c r="AD268">
+        <v>9.5</v>
+      </c>
+      <c r="AE268">
+        <v>1.25</v>
+      </c>
+      <c r="AF268">
+        <v>3.7</v>
+      </c>
+      <c r="AG268">
+        <v>1.77</v>
+      </c>
+      <c r="AH268">
+        <v>1.98</v>
+      </c>
+      <c r="AI268">
+        <v>1.67</v>
+      </c>
+      <c r="AJ268">
+        <v>2.1</v>
+      </c>
+      <c r="AK268">
+        <v>1.43</v>
+      </c>
+      <c r="AL268">
+        <v>1.3</v>
+      </c>
+      <c r="AM268">
+        <v>1.53</v>
+      </c>
+      <c r="AN268">
+        <v>1.63</v>
+      </c>
+      <c r="AO268">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP268">
+        <v>1.59</v>
+      </c>
+      <c r="AQ268">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR268">
+        <v>1.27</v>
+      </c>
+      <c r="AS268">
+        <v>1.57</v>
+      </c>
+      <c r="AT268">
+        <v>2.84</v>
+      </c>
+      <c r="AU268">
+        <v>4</v>
+      </c>
+      <c r="AV268">
+        <v>5</v>
+      </c>
+      <c r="AW268">
+        <v>7</v>
+      </c>
+      <c r="AX268">
+        <v>6</v>
+      </c>
+      <c r="AY268">
+        <v>14</v>
+      </c>
+      <c r="AZ268">
+        <v>12</v>
+      </c>
+      <c r="BA268">
+        <v>7</v>
+      </c>
+      <c r="BB268">
+        <v>5</v>
+      </c>
+      <c r="BC268">
+        <v>12</v>
+      </c>
+      <c r="BD268">
+        <v>2.05</v>
+      </c>
+      <c r="BE268">
+        <v>6.5</v>
+      </c>
+      <c r="BF268">
+        <v>1.93</v>
+      </c>
+      <c r="BG268">
+        <v>1.25</v>
+      </c>
+      <c r="BH268">
+        <v>3.45</v>
+      </c>
+      <c r="BI268">
+        <v>1.45</v>
+      </c>
+      <c r="BJ268">
+        <v>2.55</v>
+      </c>
+      <c r="BK268">
+        <v>1.72</v>
+      </c>
+      <c r="BL268">
+        <v>1.98</v>
+      </c>
+      <c r="BM268">
+        <v>2.08</v>
+      </c>
+      <c r="BN268">
+        <v>1.65</v>
+      </c>
+      <c r="BO268">
+        <v>2.65</v>
+      </c>
+      <c r="BP268">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="269" spans="1:68">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>7858334</v>
+      </c>
+      <c r="C269" t="s">
+        <v>68</v>
+      </c>
+      <c r="D269" t="s">
+        <v>69</v>
+      </c>
+      <c r="E269" s="2">
+        <v>45767.35416666666</v>
+      </c>
+      <c r="F269">
+        <v>4</v>
+      </c>
+      <c r="G269" t="s">
+        <v>73</v>
+      </c>
+      <c r="H269" t="s">
+        <v>82</v>
+      </c>
+      <c r="I269">
+        <v>0</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>0</v>
+      </c>
+      <c r="L269">
+        <v>0</v>
+      </c>
+      <c r="M269">
+        <v>0</v>
+      </c>
+      <c r="N269">
+        <v>0</v>
+      </c>
+      <c r="O269" t="s">
+        <v>87</v>
+      </c>
+      <c r="P269" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q269">
+        <v>2.5</v>
+      </c>
+      <c r="R269">
+        <v>2.25</v>
+      </c>
+      <c r="S269">
+        <v>4.33</v>
+      </c>
+      <c r="T269">
+        <v>1.36</v>
+      </c>
+      <c r="U269">
+        <v>3</v>
+      </c>
+      <c r="V269">
+        <v>2.63</v>
+      </c>
+      <c r="W269">
+        <v>1.44</v>
+      </c>
+      <c r="X269">
+        <v>7</v>
+      </c>
+      <c r="Y269">
+        <v>1.1</v>
+      </c>
+      <c r="Z269">
+        <v>1.84</v>
+      </c>
+      <c r="AA269">
+        <v>3.65</v>
+      </c>
+      <c r="AB269">
+        <v>3.98</v>
+      </c>
+      <c r="AC269">
+        <v>1.05</v>
+      </c>
+      <c r="AD269">
+        <v>9.5</v>
+      </c>
+      <c r="AE269">
+        <v>1.28</v>
+      </c>
+      <c r="AF269">
+        <v>3.65</v>
+      </c>
+      <c r="AG269">
+        <v>1.77</v>
+      </c>
+      <c r="AH269">
+        <v>1.98</v>
+      </c>
+      <c r="AI269">
+        <v>1.7</v>
+      </c>
+      <c r="AJ269">
+        <v>2.05</v>
+      </c>
+      <c r="AK269">
+        <v>1.24</v>
+      </c>
+      <c r="AL269">
+        <v>1.28</v>
+      </c>
+      <c r="AM269">
+        <v>1.87</v>
+      </c>
+      <c r="AN269">
+        <v>1.69</v>
+      </c>
+      <c r="AO269">
+        <v>1.19</v>
+      </c>
+      <c r="AP269">
+        <v>1.65</v>
+      </c>
+      <c r="AQ269">
+        <v>1.18</v>
+      </c>
+      <c r="AR269">
+        <v>1.63</v>
+      </c>
+      <c r="AS269">
+        <v>1.18</v>
+      </c>
+      <c r="AT269">
+        <v>2.81</v>
+      </c>
+      <c r="AU269">
+        <v>5</v>
+      </c>
+      <c r="AV269">
+        <v>5</v>
+      </c>
+      <c r="AW269">
+        <v>11</v>
+      </c>
+      <c r="AX269">
+        <v>8</v>
+      </c>
+      <c r="AY269">
+        <v>18</v>
+      </c>
+      <c r="AZ269">
+        <v>15</v>
+      </c>
+      <c r="BA269">
+        <v>7</v>
+      </c>
+      <c r="BB269">
+        <v>4</v>
+      </c>
+      <c r="BC269">
+        <v>11</v>
+      </c>
+      <c r="BD269">
+        <v>1.56</v>
+      </c>
+      <c r="BE269">
+        <v>6.5</v>
+      </c>
+      <c r="BF269">
+        <v>2.7</v>
+      </c>
+      <c r="BG269">
+        <v>1.3</v>
+      </c>
+      <c r="BH269">
+        <v>3.05</v>
+      </c>
+      <c r="BI269">
+        <v>1.54</v>
+      </c>
+      <c r="BJ269">
+        <v>2.3</v>
+      </c>
+      <c r="BK269">
+        <v>1.88</v>
+      </c>
+      <c r="BL269">
+        <v>1.82</v>
+      </c>
+      <c r="BM269">
+        <v>2.35</v>
+      </c>
+      <c r="BN269">
+        <v>1.5</v>
+      </c>
+      <c r="BO269">
+        <v>3.05</v>
+      </c>
+      <c r="BP269">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:68">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>7858335</v>
+      </c>
+      <c r="C270" t="s">
+        <v>68</v>
+      </c>
+      <c r="D270" t="s">
+        <v>69</v>
+      </c>
+      <c r="E270" s="2">
+        <v>45767.45833333334</v>
+      </c>
+      <c r="F270">
+        <v>4</v>
+      </c>
+      <c r="G270" t="s">
+        <v>74</v>
+      </c>
+      <c r="H270" t="s">
+        <v>78</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>1</v>
+      </c>
+      <c r="K270">
+        <v>1</v>
+      </c>
+      <c r="L270">
+        <v>1</v>
+      </c>
+      <c r="M270">
+        <v>2</v>
+      </c>
+      <c r="N270">
+        <v>3</v>
+      </c>
+      <c r="O270" t="s">
+        <v>105</v>
+      </c>
+      <c r="P270" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q270">
+        <v>3</v>
+      </c>
+      <c r="R270">
+        <v>2.25</v>
+      </c>
+      <c r="S270">
+        <v>3.25</v>
+      </c>
+      <c r="T270">
+        <v>1.33</v>
+      </c>
+      <c r="U270">
+        <v>3.25</v>
+      </c>
+      <c r="V270">
+        <v>2.63</v>
+      </c>
+      <c r="W270">
+        <v>1.44</v>
+      </c>
+      <c r="X270">
+        <v>7</v>
+      </c>
+      <c r="Y270">
+        <v>1.1</v>
+      </c>
+      <c r="Z270">
+        <v>2.41</v>
+      </c>
+      <c r="AA270">
+        <v>3.39</v>
+      </c>
+      <c r="AB270">
+        <v>2.78</v>
+      </c>
+      <c r="AC270">
+        <v>1.05</v>
+      </c>
+      <c r="AD270">
+        <v>9.5</v>
+      </c>
+      <c r="AE270">
+        <v>1.25</v>
+      </c>
+      <c r="AF270">
+        <v>3.8</v>
+      </c>
+      <c r="AG270">
+        <v>1.73</v>
+      </c>
+      <c r="AH270">
+        <v>2</v>
+      </c>
+      <c r="AI270">
+        <v>1.62</v>
+      </c>
+      <c r="AJ270">
+        <v>2.2</v>
+      </c>
+      <c r="AK270">
+        <v>1.43</v>
+      </c>
+      <c r="AL270">
+        <v>1.29</v>
+      </c>
+      <c r="AM270">
+        <v>1.53</v>
+      </c>
+      <c r="AN270">
+        <v>2.75</v>
+      </c>
+      <c r="AO270">
+        <v>1.56</v>
+      </c>
+      <c r="AP270">
+        <v>2.59</v>
+      </c>
+      <c r="AQ270">
+        <v>1.65</v>
+      </c>
+      <c r="AR270">
+        <v>1.81</v>
+      </c>
+      <c r="AS270">
+        <v>1.44</v>
+      </c>
+      <c r="AT270">
+        <v>3.25</v>
+      </c>
+      <c r="AU270">
+        <v>2</v>
+      </c>
+      <c r="AV270">
+        <v>4</v>
+      </c>
+      <c r="AW270">
+        <v>8</v>
+      </c>
+      <c r="AX270">
+        <v>7</v>
+      </c>
+      <c r="AY270">
+        <v>15</v>
+      </c>
+      <c r="AZ270">
+        <v>13</v>
+      </c>
+      <c r="BA270">
+        <v>5</v>
+      </c>
+      <c r="BB270">
+        <v>4</v>
+      </c>
+      <c r="BC270">
+        <v>9</v>
+      </c>
+      <c r="BD270">
+        <v>1.83</v>
+      </c>
+      <c r="BE270">
+        <v>6.4</v>
+      </c>
+      <c r="BF270">
+        <v>2.18</v>
+      </c>
+      <c r="BG270">
+        <v>1.34</v>
+      </c>
+      <c r="BH270">
+        <v>2.9</v>
+      </c>
+      <c r="BI270">
+        <v>1.57</v>
+      </c>
+      <c r="BJ270">
+        <v>2.23</v>
+      </c>
+      <c r="BK270">
+        <v>1.94</v>
+      </c>
+      <c r="BL270">
+        <v>1.76</v>
+      </c>
+      <c r="BM270">
+        <v>2.48</v>
+      </c>
+      <c r="BN270">
+        <v>1.47</v>
+      </c>
+      <c r="BO270">
+        <v>3.15</v>
+      </c>
+      <c r="BP270">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="271" spans="1:68">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>7858336</v>
+      </c>
+      <c r="C271" t="s">
+        <v>68</v>
+      </c>
+      <c r="D271" t="s">
+        <v>69</v>
+      </c>
+      <c r="E271" s="2">
+        <v>45767.5625</v>
+      </c>
+      <c r="F271">
+        <v>4</v>
+      </c>
+      <c r="G271" t="s">
+        <v>85</v>
+      </c>
+      <c r="H271" t="s">
+        <v>70</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>3</v>
+      </c>
+      <c r="K271">
+        <v>3</v>
+      </c>
+      <c r="L271">
+        <v>0</v>
+      </c>
+      <c r="M271">
+        <v>5</v>
+      </c>
+      <c r="N271">
+        <v>5</v>
+      </c>
+      <c r="O271" t="s">
+        <v>87</v>
+      </c>
+      <c r="P271" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q271">
+        <v>5</v>
+      </c>
+      <c r="R271">
+        <v>2.4</v>
+      </c>
+      <c r="S271">
+        <v>2.1</v>
+      </c>
+      <c r="T271">
+        <v>1.29</v>
+      </c>
+      <c r="U271">
+        <v>3.5</v>
+      </c>
+      <c r="V271">
+        <v>2.38</v>
+      </c>
+      <c r="W271">
+        <v>1.53</v>
+      </c>
+      <c r="X271">
+        <v>5.5</v>
+      </c>
+      <c r="Y271">
+        <v>1.14</v>
+      </c>
+      <c r="Z271">
+        <v>4.7</v>
+      </c>
+      <c r="AA271">
+        <v>4.1</v>
+      </c>
+      <c r="AB271">
+        <v>1.63</v>
+      </c>
+      <c r="AC271">
+        <v>1.03</v>
+      </c>
+      <c r="AD271">
+        <v>11</v>
+      </c>
+      <c r="AE271">
+        <v>1.2</v>
+      </c>
+      <c r="AF271">
+        <v>4.5</v>
+      </c>
+      <c r="AG271">
+        <v>1.6</v>
+      </c>
+      <c r="AH271">
+        <v>2.25</v>
+      </c>
+      <c r="AI271">
+        <v>1.62</v>
+      </c>
+      <c r="AJ271">
+        <v>2.2</v>
+      </c>
+      <c r="AK271">
+        <v>2.2</v>
+      </c>
+      <c r="AL271">
+        <v>1.22</v>
+      </c>
+      <c r="AM271">
+        <v>1.18</v>
+      </c>
+      <c r="AN271">
+        <v>1.56</v>
+      </c>
+      <c r="AO271">
+        <v>1.81</v>
+      </c>
+      <c r="AP271">
+        <v>1.47</v>
+      </c>
+      <c r="AQ271">
+        <v>1.88</v>
+      </c>
+      <c r="AR271">
+        <v>1.51</v>
+      </c>
+      <c r="AS271">
+        <v>1.72</v>
+      </c>
+      <c r="AT271">
+        <v>3.23</v>
+      </c>
+      <c r="AU271">
+        <v>0</v>
+      </c>
+      <c r="AV271">
+        <v>6</v>
+      </c>
+      <c r="AW271">
+        <v>4</v>
+      </c>
+      <c r="AX271">
+        <v>12</v>
+      </c>
+      <c r="AY271">
+        <v>5</v>
+      </c>
+      <c r="AZ271">
+        <v>23</v>
+      </c>
+      <c r="BA271">
+        <v>3</v>
+      </c>
+      <c r="BB271">
+        <v>5</v>
+      </c>
+      <c r="BC271">
+        <v>8</v>
+      </c>
+      <c r="BD271">
+        <v>2.7</v>
+      </c>
+      <c r="BE271">
+        <v>6.75</v>
+      </c>
+      <c r="BF271">
+        <v>1.54</v>
+      </c>
+      <c r="BG271">
+        <v>1.28</v>
+      </c>
+      <c r="BH271">
+        <v>3.3</v>
+      </c>
+      <c r="BI271">
+        <v>1.48</v>
+      </c>
+      <c r="BJ271">
+        <v>2.45</v>
+      </c>
+      <c r="BK271">
+        <v>1.77</v>
+      </c>
+      <c r="BL271">
+        <v>1.92</v>
+      </c>
+      <c r="BM271">
+        <v>2.2</v>
+      </c>
+      <c r="BN271">
+        <v>1.58</v>
+      </c>
+      <c r="BO271">
+        <v>2.8</v>
+      </c>
+      <c r="BP271">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="386">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -826,6 +826,12 @@
     <t>['59']</t>
   </si>
   <si>
+    <t>['54', '69']</t>
+  </si>
+  <si>
+    <t>['30', '71']</t>
+  </si>
+  <si>
     <t>['65']</t>
   </si>
   <si>
@@ -1163,6 +1169,9 @@
   </si>
   <si>
     <t>['9', '13', '34', '52', '66']</t>
+  </si>
+  <si>
+    <t>['28', '64', '77']</t>
   </si>
 </sst>
 </file>
@@ -1524,7 +1533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP271"/>
+  <dimension ref="A1:BP274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1783,7 +1792,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q2">
         <v>1.91</v>
@@ -2067,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ3">
         <v>1.65</v>
@@ -2276,7 +2285,7 @@
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -3637,7 +3646,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q11">
         <v>2.4</v>
@@ -3715,10 +3724,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4049,7 +4058,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4130,7 +4139,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4255,7 +4264,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q14">
         <v>3.25</v>
@@ -4461,7 +4470,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4745,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16">
         <v>1.88</v>
@@ -4873,7 +4882,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -5157,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18">
         <v>0.9399999999999999</v>
@@ -5363,7 +5372,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ19">
         <v>0.75</v>
@@ -5491,7 +5500,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q20">
         <v>4.1</v>
@@ -5778,7 +5787,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ21">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR21">
         <v>1.37</v>
@@ -5903,7 +5912,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -6109,7 +6118,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q23">
         <v>1.91</v>
@@ -6521,7 +6530,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q25">
         <v>1.93</v>
@@ -6808,7 +6817,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR26">
         <v>1.53</v>
@@ -6933,7 +6942,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q27">
         <v>3.9</v>
@@ -7139,7 +7148,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q28">
         <v>3.06</v>
@@ -7345,7 +7354,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7423,7 +7432,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ29">
         <v>1.41</v>
@@ -8250,7 +8259,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ33">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR33">
         <v>1.52</v>
@@ -8375,7 +8384,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q34">
         <v>2.45</v>
@@ -8456,7 +8465,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ34">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR34">
         <v>1.74</v>
@@ -8787,7 +8796,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -8865,7 +8874,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ36">
         <v>1.88</v>
@@ -9277,7 +9286,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ38">
         <v>0.12</v>
@@ -9692,7 +9701,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ40">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR40">
         <v>1.69</v>
@@ -9817,7 +9826,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9895,10 +9904,10 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR41">
         <v>1.62</v>
@@ -10023,7 +10032,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -11259,7 +11268,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11337,7 +11346,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ48">
         <v>0.88</v>
@@ -11465,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11671,7 +11680,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q50">
         <v>5.85</v>
@@ -11877,7 +11886,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q51">
         <v>2.2</v>
@@ -11958,7 +11967,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ51">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR51">
         <v>1.42</v>
@@ -12370,7 +12379,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ53">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR53">
         <v>0.82</v>
@@ -12907,7 +12916,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q56">
         <v>2.75</v>
@@ -13191,7 +13200,7 @@
         <v>0.5</v>
       </c>
       <c r="AP57">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ57">
         <v>1.65</v>
@@ -13319,7 +13328,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13525,7 +13534,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q59">
         <v>3.52</v>
@@ -13812,7 +13821,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR60">
         <v>1.66</v>
@@ -13937,7 +13946,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -14221,7 +14230,7 @@
         <v>0.33</v>
       </c>
       <c r="AP62">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ62">
         <v>0.71</v>
@@ -14761,7 +14770,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q65">
         <v>3.02</v>
@@ -15379,7 +15388,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q68">
         <v>3.2</v>
@@ -15457,10 +15466,10 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ68">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR68">
         <v>1.04</v>
@@ -15585,7 +15594,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q69">
         <v>3.76</v>
@@ -15663,7 +15672,7 @@
         <v>2.33</v>
       </c>
       <c r="AP69">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ69">
         <v>1.41</v>
@@ -16284,7 +16293,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ72">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR72">
         <v>1.82</v>
@@ -16615,7 +16624,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -16899,10 +16908,10 @@
         <v>0.6</v>
       </c>
       <c r="AP75">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ75">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR75">
         <v>1.41</v>
@@ -17311,10 +17320,10 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR77">
         <v>1.23</v>
@@ -18469,7 +18478,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -19087,7 +19096,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q86">
         <v>1.91</v>
@@ -19577,10 +19586,10 @@
         <v>0.8</v>
       </c>
       <c r="AP88">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ88">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR88">
         <v>1.14</v>
@@ -19783,7 +19792,7 @@
         <v>0.8</v>
       </c>
       <c r="AP89">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ89">
         <v>0.75</v>
@@ -20117,7 +20126,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20198,7 +20207,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ91">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR91">
         <v>1.77</v>
@@ -20323,7 +20332,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20401,7 +20410,7 @@
         <v>1</v>
       </c>
       <c r="AP92">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ92">
         <v>0.9399999999999999</v>
@@ -20610,7 +20619,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ93">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR93">
         <v>1.23</v>
@@ -20735,7 +20744,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -21147,7 +21156,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -21353,7 +21362,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -21765,7 +21774,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q99">
         <v>2.9</v>
@@ -21843,7 +21852,7 @@
         <v>0.83</v>
       </c>
       <c r="AP99">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ99">
         <v>0.75</v>
@@ -21971,7 +21980,7 @@
         <v>87</v>
       </c>
       <c r="P100" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22177,7 +22186,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -22255,7 +22264,7 @@
         <v>0.67</v>
       </c>
       <c r="AP101">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ101">
         <v>1.65</v>
@@ -22670,7 +22679,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ103">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR103">
         <v>1.64</v>
@@ -23207,7 +23216,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -23413,7 +23422,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23619,7 +23628,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q108">
         <v>3.5</v>
@@ -23697,10 +23706,10 @@
         <v>0.86</v>
       </c>
       <c r="AP108">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ108">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR108">
         <v>1.16</v>
@@ -23906,7 +23915,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ109">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR109">
         <v>1.75</v>
@@ -24031,7 +24040,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q110">
         <v>3.2</v>
@@ -24649,7 +24658,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q113">
         <v>7.5</v>
@@ -25345,7 +25354,7 @@
         <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ116">
         <v>0.71</v>
@@ -25554,7 +25563,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ117">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR117">
         <v>1.85</v>
@@ -25757,7 +25766,7 @@
         <v>0.14</v>
       </c>
       <c r="AP118">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ118">
         <v>0.12</v>
@@ -25885,7 +25894,7 @@
         <v>150</v>
       </c>
       <c r="P119" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q119">
         <v>4.5</v>
@@ -26503,7 +26512,7 @@
         <v>179</v>
       </c>
       <c r="P122" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -27121,7 +27130,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q125">
         <v>4.75</v>
@@ -27533,7 +27542,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27945,7 +27954,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q129">
         <v>2.75</v>
@@ -28151,7 +28160,7 @@
         <v>185</v>
       </c>
       <c r="P130" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q130">
         <v>1.72</v>
@@ -28435,10 +28444,10 @@
         <v>0.88</v>
       </c>
       <c r="AP131">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ131">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR131">
         <v>1.18</v>
@@ -28563,7 +28572,7 @@
         <v>186</v>
       </c>
       <c r="P132" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -28641,7 +28650,7 @@
         <v>1.75</v>
       </c>
       <c r="AP132">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ132">
         <v>1.88</v>
@@ -28975,7 +28984,7 @@
         <v>188</v>
       </c>
       <c r="P134" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q134">
         <v>2.55</v>
@@ -29056,7 +29065,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ134">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR134">
         <v>1.76</v>
@@ -29387,7 +29396,7 @@
         <v>189</v>
       </c>
       <c r="P136" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q136">
         <v>1.7</v>
@@ -29671,10 +29680,10 @@
         <v>1</v>
       </c>
       <c r="AP137">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ137">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR137">
         <v>1.17</v>
@@ -29877,7 +29886,7 @@
         <v>1.38</v>
       </c>
       <c r="AP138">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ138">
         <v>1.18</v>
@@ -30292,7 +30301,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ140">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR140">
         <v>1.25</v>
@@ -30417,7 +30426,7 @@
         <v>87</v>
       </c>
       <c r="P141" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30829,7 +30838,7 @@
         <v>194</v>
       </c>
       <c r="P143" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q143">
         <v>1.95</v>
@@ -30910,7 +30919,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ143">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR143">
         <v>1.68</v>
@@ -31035,7 +31044,7 @@
         <v>87</v>
       </c>
       <c r="P144" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -31447,7 +31456,7 @@
         <v>196</v>
       </c>
       <c r="P146" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q146">
         <v>2.7</v>
@@ -31859,7 +31868,7 @@
         <v>167</v>
       </c>
       <c r="P148" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -31937,7 +31946,7 @@
         <v>1.33</v>
       </c>
       <c r="AP148">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ148">
         <v>1.18</v>
@@ -32065,7 +32074,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q149">
         <v>3.1</v>
@@ -32555,7 +32564,7 @@
         <v>1.11</v>
       </c>
       <c r="AP151">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ151">
         <v>1.35</v>
@@ -32683,7 +32692,7 @@
         <v>200</v>
       </c>
       <c r="P152" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q152">
         <v>3.25</v>
@@ -32970,7 +32979,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ153">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR153">
         <v>1.62</v>
@@ -33095,7 +33104,7 @@
         <v>202</v>
       </c>
       <c r="P154" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -33301,7 +33310,7 @@
         <v>87</v>
       </c>
       <c r="P155" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33382,7 +33391,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ155">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR155">
         <v>1.43</v>
@@ -33507,7 +33516,7 @@
         <v>203</v>
       </c>
       <c r="P156" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q156">
         <v>1.7</v>
@@ -33588,7 +33597,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ156">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR156">
         <v>2.05</v>
@@ -33791,7 +33800,7 @@
         <v>0.67</v>
       </c>
       <c r="AP157">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ157">
         <v>0.88</v>
@@ -33919,7 +33928,7 @@
         <v>93</v>
       </c>
       <c r="P158" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q158">
         <v>3.7</v>
@@ -34537,7 +34546,7 @@
         <v>205</v>
       </c>
       <c r="P161" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q161">
         <v>1.9</v>
@@ -34821,7 +34830,7 @@
         <v>0.5</v>
       </c>
       <c r="AP162">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ162">
         <v>0.75</v>
@@ -34949,7 +34958,7 @@
         <v>207</v>
       </c>
       <c r="P163" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q163">
         <v>2.45</v>
@@ -35236,7 +35245,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ164">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR164">
         <v>1.79</v>
@@ -35361,7 +35370,7 @@
         <v>144</v>
       </c>
       <c r="P165" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q165">
         <v>3.5</v>
@@ -35851,7 +35860,7 @@
         <v>1.3</v>
       </c>
       <c r="AP167">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ167">
         <v>1.35</v>
@@ -35979,7 +35988,7 @@
         <v>87</v>
       </c>
       <c r="P168" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q168">
         <v>3.6</v>
@@ -36472,7 +36481,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ170">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR170">
         <v>1.54</v>
@@ -36597,7 +36606,7 @@
         <v>87</v>
       </c>
       <c r="P171" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q171">
         <v>3.5</v>
@@ -36675,7 +36684,7 @@
         <v>0.6</v>
       </c>
       <c r="AP171">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ171">
         <v>0.71</v>
@@ -36803,7 +36812,7 @@
         <v>159</v>
       </c>
       <c r="P172" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q172">
         <v>3.4</v>
@@ -36881,7 +36890,7 @@
         <v>1.4</v>
       </c>
       <c r="AP172">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ172">
         <v>1.76</v>
@@ -37009,7 +37018,7 @@
         <v>210</v>
       </c>
       <c r="P173" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q173">
         <v>1.5</v>
@@ -37215,7 +37224,7 @@
         <v>87</v>
       </c>
       <c r="P174" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q174">
         <v>4.33</v>
@@ -37502,7 +37511,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ175">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR175">
         <v>1.74</v>
@@ -37627,7 +37636,7 @@
         <v>212</v>
       </c>
       <c r="P176" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37833,7 +37842,7 @@
         <v>213</v>
       </c>
       <c r="P177" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q177">
         <v>2.3</v>
@@ -37914,7 +37923,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ177">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR177">
         <v>1.71</v>
@@ -38245,7 +38254,7 @@
         <v>215</v>
       </c>
       <c r="P179" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38451,7 +38460,7 @@
         <v>216</v>
       </c>
       <c r="P180" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q180">
         <v>2.55</v>
@@ -38941,7 +38950,7 @@
         <v>1.5</v>
       </c>
       <c r="AP182">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ182">
         <v>0.9399999999999999</v>
@@ -39069,7 +39078,7 @@
         <v>87</v>
       </c>
       <c r="P183" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q183">
         <v>5.5</v>
@@ -39275,7 +39284,7 @@
         <v>219</v>
       </c>
       <c r="P184" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -40099,7 +40108,7 @@
         <v>96</v>
       </c>
       <c r="P188" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q188">
         <v>2.35</v>
@@ -40717,7 +40726,7 @@
         <v>224</v>
       </c>
       <c r="P191" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q191">
         <v>1.95</v>
@@ -41129,7 +41138,7 @@
         <v>225</v>
       </c>
       <c r="P193" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q193">
         <v>3.6</v>
@@ -41210,7 +41219,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ193">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR193">
         <v>1.37</v>
@@ -41335,7 +41344,7 @@
         <v>226</v>
       </c>
       <c r="P194" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -41413,7 +41422,7 @@
         <v>1.25</v>
       </c>
       <c r="AP194">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ194">
         <v>1.35</v>
@@ -41622,7 +41631,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ195">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR195">
         <v>2.09</v>
@@ -41825,7 +41834,7 @@
         <v>0.67</v>
       </c>
       <c r="AP196">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ196">
         <v>0.75</v>
@@ -42365,7 +42374,7 @@
         <v>188</v>
       </c>
       <c r="P199" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -42571,7 +42580,7 @@
         <v>231</v>
       </c>
       <c r="P200" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q200">
         <v>2.25</v>
@@ -42858,7 +42867,7 @@
         <v>1</v>
       </c>
       <c r="AQ201">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR201">
         <v>1.28</v>
@@ -42983,7 +42992,7 @@
         <v>233</v>
       </c>
       <c r="P202" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -43061,7 +43070,7 @@
         <v>1.67</v>
       </c>
       <c r="AP202">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ202">
         <v>1.76</v>
@@ -43189,7 +43198,7 @@
         <v>234</v>
       </c>
       <c r="P203" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q203">
         <v>2.6</v>
@@ -43395,7 +43404,7 @@
         <v>235</v>
       </c>
       <c r="P204" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q204">
         <v>2.15</v>
@@ -43601,7 +43610,7 @@
         <v>236</v>
       </c>
       <c r="P205" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q205">
         <v>4.6</v>
@@ -43807,7 +43816,7 @@
         <v>237</v>
       </c>
       <c r="P206" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q206">
         <v>1.95</v>
@@ -44506,7 +44515,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ209">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR209">
         <v>1.64</v>
@@ -44709,7 +44718,7 @@
         <v>0.62</v>
       </c>
       <c r="AP210">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ210">
         <v>0.75</v>
@@ -44915,7 +44924,7 @@
         <v>0.08</v>
       </c>
       <c r="AP211">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ211">
         <v>0.12</v>
@@ -45043,7 +45052,7 @@
         <v>227</v>
       </c>
       <c r="P212" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q212">
         <v>2.75</v>
@@ -45124,7 +45133,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ212">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR212">
         <v>1.93</v>
@@ -45249,7 +45258,7 @@
         <v>239</v>
       </c>
       <c r="P213" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q213">
         <v>2.5</v>
@@ -45330,7 +45339,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ213">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR213">
         <v>1.7</v>
@@ -45455,7 +45464,7 @@
         <v>86</v>
       </c>
       <c r="P214" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q214">
         <v>1.71</v>
@@ -45867,7 +45876,7 @@
         <v>87</v>
       </c>
       <c r="P216" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q216">
         <v>3.25</v>
@@ -46485,7 +46494,7 @@
         <v>88</v>
       </c>
       <c r="P219" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q219">
         <v>4.33</v>
@@ -46897,7 +46906,7 @@
         <v>241</v>
       </c>
       <c r="P221" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q221">
         <v>2.25</v>
@@ -47515,7 +47524,7 @@
         <v>87</v>
       </c>
       <c r="P224" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q224">
         <v>4.33</v>
@@ -47593,7 +47602,7 @@
         <v>1.62</v>
       </c>
       <c r="AP224">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ224">
         <v>1.41</v>
@@ -47802,7 +47811,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ225">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR225">
         <v>1.31</v>
@@ -48214,7 +48223,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ227">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR227">
         <v>1.36</v>
@@ -48623,7 +48632,7 @@
         <v>1.71</v>
       </c>
       <c r="AP229">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ229">
         <v>1.76</v>
@@ -48751,7 +48760,7 @@
         <v>174</v>
       </c>
       <c r="P230" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q230">
         <v>4.75</v>
@@ -49163,7 +49172,7 @@
         <v>87</v>
       </c>
       <c r="P232" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q232">
         <v>2.88</v>
@@ -49859,7 +49868,7 @@
         <v>1.29</v>
       </c>
       <c r="AP235">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ235">
         <v>1.18</v>
@@ -50193,7 +50202,7 @@
         <v>249</v>
       </c>
       <c r="P237" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q237">
         <v>2.5</v>
@@ -50271,7 +50280,7 @@
         <v>1.07</v>
       </c>
       <c r="AP237">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ237">
         <v>0.9399999999999999</v>
@@ -50399,7 +50408,7 @@
         <v>250</v>
       </c>
       <c r="P238" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q238">
         <v>3.1</v>
@@ -50605,7 +50614,7 @@
         <v>118</v>
       </c>
       <c r="P239" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q239">
         <v>3.75</v>
@@ -50686,7 +50695,7 @@
         <v>1</v>
       </c>
       <c r="AQ239">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR239">
         <v>1.3</v>
@@ -50811,7 +50820,7 @@
         <v>251</v>
       </c>
       <c r="P240" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q240">
         <v>2.1</v>
@@ -50892,7 +50901,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ240">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR240">
         <v>2.06</v>
@@ -51017,7 +51026,7 @@
         <v>105</v>
       </c>
       <c r="P241" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q241">
         <v>2.3</v>
@@ -51304,7 +51313,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ242">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR242">
         <v>1.3</v>
@@ -51429,7 +51438,7 @@
         <v>87</v>
       </c>
       <c r="P243" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q243">
         <v>3.75</v>
@@ -51635,7 +51644,7 @@
         <v>252</v>
       </c>
       <c r="P244" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q244">
         <v>3.4</v>
@@ -51713,7 +51722,7 @@
         <v>1</v>
       </c>
       <c r="AP244">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ244">
         <v>0.9399999999999999</v>
@@ -52253,7 +52262,7 @@
         <v>255</v>
       </c>
       <c r="P247" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q247">
         <v>3.4</v>
@@ -52743,10 +52752,10 @@
         <v>1</v>
       </c>
       <c r="AP249">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ249">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR249">
         <v>1.15</v>
@@ -52871,7 +52880,7 @@
         <v>257</v>
       </c>
       <c r="P250" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q250">
         <v>2.5</v>
@@ -52949,7 +52958,7 @@
         <v>1</v>
       </c>
       <c r="AP250">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ250">
         <v>0.9399999999999999</v>
@@ -53077,7 +53086,7 @@
         <v>258</v>
       </c>
       <c r="P251" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q251">
         <v>2.05</v>
@@ -53283,7 +53292,7 @@
         <v>259</v>
       </c>
       <c r="P252" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q252">
         <v>2.63</v>
@@ -53364,7 +53373,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ252">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR252">
         <v>1.83</v>
@@ -53489,7 +53498,7 @@
         <v>87</v>
       </c>
       <c r="P253" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q253">
         <v>4.33</v>
@@ -53695,7 +53704,7 @@
         <v>260</v>
       </c>
       <c r="P254" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q254">
         <v>4.75</v>
@@ -53901,7 +53910,7 @@
         <v>87</v>
       </c>
       <c r="P255" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q255">
         <v>2.5</v>
@@ -54107,7 +54116,7 @@
         <v>261</v>
       </c>
       <c r="P256" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q256">
         <v>3.4</v>
@@ -54519,7 +54528,7 @@
         <v>262</v>
       </c>
       <c r="P258" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q258">
         <v>3.1</v>
@@ -54600,7 +54609,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ258">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR258">
         <v>1.82</v>
@@ -54725,7 +54734,7 @@
         <v>263</v>
       </c>
       <c r="P259" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q259">
         <v>2.1</v>
@@ -55343,7 +55352,7 @@
         <v>87</v>
       </c>
       <c r="P262" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q262">
         <v>2.75</v>
@@ -55549,7 +55558,7 @@
         <v>266</v>
       </c>
       <c r="P263" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q263">
         <v>2.5</v>
@@ -55627,10 +55636,10 @@
         <v>0.63</v>
       </c>
       <c r="AP263">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ263">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR263">
         <v>1.59</v>
@@ -55961,7 +55970,7 @@
         <v>217</v>
       </c>
       <c r="P265" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q265">
         <v>3</v>
@@ -56039,7 +56048,7 @@
         <v>0.88</v>
       </c>
       <c r="AP265">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ265">
         <v>0.88</v>
@@ -56167,7 +56176,7 @@
         <v>267</v>
       </c>
       <c r="P266" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q266">
         <v>2.88</v>
@@ -56657,10 +56666,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP268">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ268">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR268">
         <v>1.27</v>
@@ -56991,7 +57000,7 @@
         <v>105</v>
       </c>
       <c r="P270" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q270">
         <v>3</v>
@@ -57197,7 +57206,7 @@
         <v>87</v>
       </c>
       <c r="P271" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q271">
         <v>5</v>
@@ -57354,6 +57363,624 @@
       </c>
       <c r="BP271">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="272" spans="1:68">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>7858339</v>
+      </c>
+      <c r="C272" t="s">
+        <v>68</v>
+      </c>
+      <c r="D272" t="s">
+        <v>69</v>
+      </c>
+      <c r="E272" s="2">
+        <v>45769.64583333334</v>
+      </c>
+      <c r="F272">
+        <v>5</v>
+      </c>
+      <c r="G272" t="s">
+        <v>71</v>
+      </c>
+      <c r="H272" t="s">
+        <v>76</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>1</v>
+      </c>
+      <c r="K272">
+        <v>1</v>
+      </c>
+      <c r="L272">
+        <v>2</v>
+      </c>
+      <c r="M272">
+        <v>1</v>
+      </c>
+      <c r="N272">
+        <v>3</v>
+      </c>
+      <c r="O272" t="s">
+        <v>270</v>
+      </c>
+      <c r="P272" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q272">
+        <v>3.5</v>
+      </c>
+      <c r="R272">
+        <v>2.05</v>
+      </c>
+      <c r="S272">
+        <v>2.85</v>
+      </c>
+      <c r="T272">
+        <v>1.38</v>
+      </c>
+      <c r="U272">
+        <v>2.8</v>
+      </c>
+      <c r="V272">
+        <v>2.65</v>
+      </c>
+      <c r="W272">
+        <v>1.42</v>
+      </c>
+      <c r="X272">
+        <v>7.1</v>
+      </c>
+      <c r="Y272">
+        <v>1.04</v>
+      </c>
+      <c r="Z272">
+        <v>3.01</v>
+      </c>
+      <c r="AA272">
+        <v>3.3</v>
+      </c>
+      <c r="AB272">
+        <v>2.3</v>
+      </c>
+      <c r="AC272">
+        <v>1.06</v>
+      </c>
+      <c r="AD272">
+        <v>8.5</v>
+      </c>
+      <c r="AE272">
+        <v>1.28</v>
+      </c>
+      <c r="AF272">
+        <v>3.81</v>
+      </c>
+      <c r="AG272">
+        <v>1.87</v>
+      </c>
+      <c r="AH272">
+        <v>1.87</v>
+      </c>
+      <c r="AI272">
+        <v>1.67</v>
+      </c>
+      <c r="AJ272">
+        <v>2.05</v>
+      </c>
+      <c r="AK272">
+        <v>1.57</v>
+      </c>
+      <c r="AL272">
+        <v>1.28</v>
+      </c>
+      <c r="AM272">
+        <v>1.36</v>
+      </c>
+      <c r="AN272">
+        <v>1.24</v>
+      </c>
+      <c r="AO272">
+        <v>1</v>
+      </c>
+      <c r="AP272">
+        <v>1.33</v>
+      </c>
+      <c r="AQ272">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR272">
+        <v>1.21</v>
+      </c>
+      <c r="AS272">
+        <v>1.47</v>
+      </c>
+      <c r="AT272">
+        <v>2.68</v>
+      </c>
+      <c r="AU272">
+        <v>5</v>
+      </c>
+      <c r="AV272">
+        <v>7</v>
+      </c>
+      <c r="AW272">
+        <v>4</v>
+      </c>
+      <c r="AX272">
+        <v>19</v>
+      </c>
+      <c r="AY272">
+        <v>11</v>
+      </c>
+      <c r="AZ272">
+        <v>32</v>
+      </c>
+      <c r="BA272">
+        <v>3</v>
+      </c>
+      <c r="BB272">
+        <v>6</v>
+      </c>
+      <c r="BC272">
+        <v>9</v>
+      </c>
+      <c r="BD272">
+        <v>2.17</v>
+      </c>
+      <c r="BE272">
+        <v>8.4</v>
+      </c>
+      <c r="BF272">
+        <v>1.95</v>
+      </c>
+      <c r="BG272">
+        <v>1.25</v>
+      </c>
+      <c r="BH272">
+        <v>3.28</v>
+      </c>
+      <c r="BI272">
+        <v>1.49</v>
+      </c>
+      <c r="BJ272">
+        <v>2.38</v>
+      </c>
+      <c r="BK272">
+        <v>1.85</v>
+      </c>
+      <c r="BL272">
+        <v>1.85</v>
+      </c>
+      <c r="BM272">
+        <v>2.42</v>
+      </c>
+      <c r="BN272">
+        <v>1.47</v>
+      </c>
+      <c r="BO272">
+        <v>3.2</v>
+      </c>
+      <c r="BP272">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="273" spans="1:68">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>7858338</v>
+      </c>
+      <c r="C273" t="s">
+        <v>68</v>
+      </c>
+      <c r="D273" t="s">
+        <v>69</v>
+      </c>
+      <c r="E273" s="2">
+        <v>45769.64583333334</v>
+      </c>
+      <c r="F273">
+        <v>5</v>
+      </c>
+      <c r="G273" t="s">
+        <v>79</v>
+      </c>
+      <c r="H273" t="s">
+        <v>77</v>
+      </c>
+      <c r="I273">
+        <v>1</v>
+      </c>
+      <c r="J273">
+        <v>1</v>
+      </c>
+      <c r="K273">
+        <v>2</v>
+      </c>
+      <c r="L273">
+        <v>2</v>
+      </c>
+      <c r="M273">
+        <v>3</v>
+      </c>
+      <c r="N273">
+        <v>5</v>
+      </c>
+      <c r="O273" t="s">
+        <v>271</v>
+      </c>
+      <c r="P273" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q273">
+        <v>2.35</v>
+      </c>
+      <c r="R273">
+        <v>2.3</v>
+      </c>
+      <c r="S273">
+        <v>3.85</v>
+      </c>
+      <c r="T273">
+        <v>1.28</v>
+      </c>
+      <c r="U273">
+        <v>3.4</v>
+      </c>
+      <c r="V273">
+        <v>2.2</v>
+      </c>
+      <c r="W273">
+        <v>1.6</v>
+      </c>
+      <c r="X273">
+        <v>5</v>
+      </c>
+      <c r="Y273">
+        <v>1.17</v>
+      </c>
+      <c r="Z273">
+        <v>2.05</v>
+      </c>
+      <c r="AA273">
+        <v>3.68</v>
+      </c>
+      <c r="AB273">
+        <v>3.23</v>
+      </c>
+      <c r="AC273">
+        <v>1.02</v>
+      </c>
+      <c r="AD273">
+        <v>14</v>
+      </c>
+      <c r="AE273">
+        <v>1.17</v>
+      </c>
+      <c r="AF273">
+        <v>5.04</v>
+      </c>
+      <c r="AG273">
+        <v>1.52</v>
+      </c>
+      <c r="AH273">
+        <v>2.43</v>
+      </c>
+      <c r="AI273">
+        <v>1.48</v>
+      </c>
+      <c r="AJ273">
+        <v>2.4</v>
+      </c>
+      <c r="AK273">
+        <v>1.28</v>
+      </c>
+      <c r="AL273">
+        <v>1.22</v>
+      </c>
+      <c r="AM273">
+        <v>1.85</v>
+      </c>
+      <c r="AN273">
+        <v>1.59</v>
+      </c>
+      <c r="AO273">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP273">
+        <v>1.5</v>
+      </c>
+      <c r="AQ273">
+        <v>1.06</v>
+      </c>
+      <c r="AR273">
+        <v>1.63</v>
+      </c>
+      <c r="AS273">
+        <v>1.55</v>
+      </c>
+      <c r="AT273">
+        <v>3.18</v>
+      </c>
+      <c r="AU273">
+        <v>7</v>
+      </c>
+      <c r="AV273">
+        <v>9</v>
+      </c>
+      <c r="AW273">
+        <v>10</v>
+      </c>
+      <c r="AX273">
+        <v>10</v>
+      </c>
+      <c r="AY273">
+        <v>20</v>
+      </c>
+      <c r="AZ273">
+        <v>22</v>
+      </c>
+      <c r="BA273">
+        <v>7</v>
+      </c>
+      <c r="BB273">
+        <v>5</v>
+      </c>
+      <c r="BC273">
+        <v>12</v>
+      </c>
+      <c r="BD273">
+        <v>1.61</v>
+      </c>
+      <c r="BE273">
+        <v>8.9</v>
+      </c>
+      <c r="BF273">
+        <v>2.78</v>
+      </c>
+      <c r="BG273">
+        <v>1.18</v>
+      </c>
+      <c r="BH273">
+        <v>3.9</v>
+      </c>
+      <c r="BI273">
+        <v>1.37</v>
+      </c>
+      <c r="BJ273">
+        <v>2.75</v>
+      </c>
+      <c r="BK273">
+        <v>1.7</v>
+      </c>
+      <c r="BL273">
+        <v>2.05</v>
+      </c>
+      <c r="BM273">
+        <v>2.09</v>
+      </c>
+      <c r="BN273">
+        <v>1.63</v>
+      </c>
+      <c r="BO273">
+        <v>2.7</v>
+      </c>
+      <c r="BP273">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="274" spans="1:68">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>7858337</v>
+      </c>
+      <c r="C274" t="s">
+        <v>68</v>
+      </c>
+      <c r="D274" t="s">
+        <v>69</v>
+      </c>
+      <c r="E274" s="2">
+        <v>45769.64583333334</v>
+      </c>
+      <c r="F274">
+        <v>5</v>
+      </c>
+      <c r="G274" t="s">
+        <v>84</v>
+      </c>
+      <c r="H274" t="s">
+        <v>80</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274">
+        <v>0</v>
+      </c>
+      <c r="L274">
+        <v>0</v>
+      </c>
+      <c r="M274">
+        <v>1</v>
+      </c>
+      <c r="N274">
+        <v>1</v>
+      </c>
+      <c r="O274" t="s">
+        <v>87</v>
+      </c>
+      <c r="P274" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q274">
+        <v>2.85</v>
+      </c>
+      <c r="R274">
+        <v>2.05</v>
+      </c>
+      <c r="S274">
+        <v>3.55</v>
+      </c>
+      <c r="T274">
+        <v>1.4</v>
+      </c>
+      <c r="U274">
+        <v>2.7</v>
+      </c>
+      <c r="V274">
+        <v>2.8</v>
+      </c>
+      <c r="W274">
+        <v>1.38</v>
+      </c>
+      <c r="X274">
+        <v>8</v>
+      </c>
+      <c r="Y274">
+        <v>1.07</v>
+      </c>
+      <c r="Z274">
+        <v>2.3</v>
+      </c>
+      <c r="AA274">
+        <v>3.17</v>
+      </c>
+      <c r="AB274">
+        <v>3.12</v>
+      </c>
+      <c r="AC274">
+        <v>1.02</v>
+      </c>
+      <c r="AD274">
+        <v>8.5</v>
+      </c>
+      <c r="AE274">
+        <v>1.33</v>
+      </c>
+      <c r="AF274">
+        <v>3.19</v>
+      </c>
+      <c r="AG274">
+        <v>2</v>
+      </c>
+      <c r="AH274">
+        <v>1.7</v>
+      </c>
+      <c r="AI274">
+        <v>1.77</v>
+      </c>
+      <c r="AJ274">
+        <v>1.9</v>
+      </c>
+      <c r="AK274">
+        <v>1.35</v>
+      </c>
+      <c r="AL274">
+        <v>1.28</v>
+      </c>
+      <c r="AM274">
+        <v>1.57</v>
+      </c>
+      <c r="AN274">
+        <v>1.59</v>
+      </c>
+      <c r="AO274">
+        <v>0.65</v>
+      </c>
+      <c r="AP274">
+        <v>1.5</v>
+      </c>
+      <c r="AQ274">
+        <v>0.78</v>
+      </c>
+      <c r="AR274">
+        <v>1.27</v>
+      </c>
+      <c r="AS274">
+        <v>1.21</v>
+      </c>
+      <c r="AT274">
+        <v>2.48</v>
+      </c>
+      <c r="AU274">
+        <v>4</v>
+      </c>
+      <c r="AV274">
+        <v>2</v>
+      </c>
+      <c r="AW274">
+        <v>10</v>
+      </c>
+      <c r="AX274">
+        <v>10</v>
+      </c>
+      <c r="AY274">
+        <v>15</v>
+      </c>
+      <c r="AZ274">
+        <v>13</v>
+      </c>
+      <c r="BA274">
+        <v>4</v>
+      </c>
+      <c r="BB274">
+        <v>5</v>
+      </c>
+      <c r="BC274">
+        <v>9</v>
+      </c>
+      <c r="BD274">
+        <v>1.79</v>
+      </c>
+      <c r="BE274">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF274">
+        <v>2.38</v>
+      </c>
+      <c r="BG274">
+        <v>1.19</v>
+      </c>
+      <c r="BH274">
+        <v>3.78</v>
+      </c>
+      <c r="BI274">
+        <v>1.4</v>
+      </c>
+      <c r="BJ274">
+        <v>2.64</v>
+      </c>
+      <c r="BK274">
+        <v>1.77</v>
+      </c>
+      <c r="BL274">
+        <v>1.95</v>
+      </c>
+      <c r="BM274">
+        <v>2.14</v>
+      </c>
+      <c r="BN274">
+        <v>1.6</v>
+      </c>
+      <c r="BO274">
+        <v>2.83</v>
+      </c>
+      <c r="BP274">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="387">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -832,6 +832,9 @@
     <t>['30', '71']</t>
   </si>
   <si>
+    <t>['30', '37', '42', '54', '58']</t>
+  </si>
+  <si>
     <t>['65']</t>
   </si>
   <si>
@@ -1533,7 +1536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP274"/>
+  <dimension ref="A1:BP276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1792,7 +1795,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q2">
         <v>1.91</v>
@@ -2488,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ5">
         <v>0.75</v>
@@ -2903,7 +2906,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ7">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3646,7 +3649,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q11">
         <v>2.4</v>
@@ -3933,7 +3936,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ12">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4058,7 +4061,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4264,7 +4267,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q14">
         <v>3.25</v>
@@ -4342,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ14">
         <v>1.41</v>
@@ -4470,7 +4473,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4882,7 +4885,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -5500,7 +5503,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q20">
         <v>4.1</v>
@@ -5784,7 +5787,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ21">
         <v>0.78</v>
@@ -5912,7 +5915,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -6118,7 +6121,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q23">
         <v>1.91</v>
@@ -6196,7 +6199,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ23">
         <v>0.75</v>
@@ -6405,7 +6408,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ24">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR24">
         <v>1.65</v>
@@ -6530,7 +6533,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q25">
         <v>1.93</v>
@@ -6942,7 +6945,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q27">
         <v>3.9</v>
@@ -7023,7 +7026,7 @@
         <v>1</v>
       </c>
       <c r="AQ27">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR27">
         <v>0.45</v>
@@ -7148,7 +7151,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q28">
         <v>3.06</v>
@@ -7354,7 +7357,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -8384,7 +8387,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q34">
         <v>2.45</v>
@@ -8668,7 +8671,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ35">
         <v>0.9399999999999999</v>
@@ -8796,7 +8799,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -9826,7 +9829,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -10032,7 +10035,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -11268,7 +11271,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11474,7 +11477,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11555,7 +11558,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ49">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR49">
         <v>2.18</v>
@@ -11680,7 +11683,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q50">
         <v>5.85</v>
@@ -11886,7 +11889,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q51">
         <v>2.2</v>
@@ -11964,7 +11967,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ51">
         <v>1.06</v>
@@ -12170,7 +12173,7 @@
         <v>0.67</v>
       </c>
       <c r="AP52">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ52">
         <v>1.65</v>
@@ -12916,7 +12919,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q56">
         <v>2.75</v>
@@ -12994,10 +12997,10 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ56">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR56">
         <v>1.68</v>
@@ -13328,7 +13331,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13534,7 +13537,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q59">
         <v>3.52</v>
@@ -13818,7 +13821,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ60">
         <v>0.9399999999999999</v>
@@ -13946,7 +13949,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -14027,7 +14030,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ61">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR61">
         <v>2.01</v>
@@ -14770,7 +14773,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q65">
         <v>3.02</v>
@@ -14851,7 +14854,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ65">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR65">
         <v>1.79</v>
@@ -15388,7 +15391,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q68">
         <v>3.2</v>
@@ -15594,7 +15597,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q69">
         <v>3.76</v>
@@ -15878,7 +15881,7 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ70">
         <v>0.12</v>
@@ -16624,7 +16627,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -17117,7 +17120,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ76">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR76">
         <v>1.57</v>
@@ -17526,7 +17529,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ78">
         <v>0.88</v>
@@ -17732,7 +17735,7 @@
         <v>0.25</v>
       </c>
       <c r="AP79">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ79">
         <v>0.71</v>
@@ -18147,7 +18150,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ81">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR81">
         <v>0.89</v>
@@ -18478,7 +18481,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18971,7 +18974,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ85">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR85">
         <v>1.67</v>
@@ -19096,7 +19099,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q86">
         <v>1.91</v>
@@ -20126,7 +20129,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20332,7 +20335,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20744,7 +20747,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -21028,7 +21031,7 @@
         <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ95">
         <v>0.88</v>
@@ -21156,7 +21159,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -21237,7 +21240,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ96">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR96">
         <v>1.72</v>
@@ -21362,7 +21365,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -21774,7 +21777,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q99">
         <v>2.9</v>
@@ -21980,7 +21983,7 @@
         <v>87</v>
       </c>
       <c r="P100" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22186,7 +22189,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -22882,7 +22885,7 @@
         <v>0.67</v>
       </c>
       <c r="AP104">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ104">
         <v>0.75</v>
@@ -23091,7 +23094,7 @@
         <v>1</v>
       </c>
       <c r="AQ105">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR105">
         <v>0.83</v>
@@ -23216,7 +23219,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -23422,7 +23425,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23628,7 +23631,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q108">
         <v>3.5</v>
@@ -24040,7 +24043,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q110">
         <v>3.2</v>
@@ -24533,7 +24536,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ112">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR112">
         <v>1.71</v>
@@ -24658,7 +24661,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q113">
         <v>7.5</v>
@@ -24942,7 +24945,7 @@
         <v>1.33</v>
       </c>
       <c r="AP114">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ114">
         <v>0.9399999999999999</v>
@@ -25894,7 +25897,7 @@
         <v>150</v>
       </c>
       <c r="P119" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q119">
         <v>4.5</v>
@@ -26178,10 +26181,10 @@
         <v>1.29</v>
       </c>
       <c r="AP120">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ120">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR120">
         <v>1.64</v>
@@ -26512,7 +26515,7 @@
         <v>179</v>
       </c>
       <c r="P122" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -27130,7 +27133,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q125">
         <v>4.75</v>
@@ -27211,7 +27214,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ125">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR125">
         <v>1.37</v>
@@ -27542,7 +27545,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27954,7 +27957,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q129">
         <v>2.75</v>
@@ -28035,7 +28038,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ129">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR129">
         <v>1.82</v>
@@ -28160,7 +28163,7 @@
         <v>185</v>
       </c>
       <c r="P130" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q130">
         <v>1.72</v>
@@ -28572,7 +28575,7 @@
         <v>186</v>
       </c>
       <c r="P132" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -28984,7 +28987,7 @@
         <v>188</v>
       </c>
       <c r="P134" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q134">
         <v>2.55</v>
@@ -29062,7 +29065,7 @@
         <v>0.5</v>
       </c>
       <c r="AP134">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ134">
         <v>0.9399999999999999</v>
@@ -29396,7 +29399,7 @@
         <v>189</v>
       </c>
       <c r="P136" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q136">
         <v>1.7</v>
@@ -29474,7 +29477,7 @@
         <v>0.13</v>
       </c>
       <c r="AP136">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ136">
         <v>0.12</v>
@@ -30426,7 +30429,7 @@
         <v>87</v>
       </c>
       <c r="P141" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30713,7 +30716,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ142">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR142">
         <v>2.07</v>
@@ -30838,7 +30841,7 @@
         <v>194</v>
       </c>
       <c r="P143" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q143">
         <v>1.95</v>
@@ -31044,7 +31047,7 @@
         <v>87</v>
       </c>
       <c r="P144" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -31456,7 +31459,7 @@
         <v>196</v>
       </c>
       <c r="P146" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q146">
         <v>2.7</v>
@@ -31868,7 +31871,7 @@
         <v>167</v>
       </c>
       <c r="P148" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -32074,7 +32077,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q149">
         <v>3.1</v>
@@ -32567,7 +32570,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ151">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR151">
         <v>1.23</v>
@@ -32692,7 +32695,7 @@
         <v>200</v>
       </c>
       <c r="P152" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q152">
         <v>3.25</v>
@@ -33104,7 +33107,7 @@
         <v>202</v>
       </c>
       <c r="P154" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -33182,10 +33185,10 @@
         <v>1.44</v>
       </c>
       <c r="AP154">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ154">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR154">
         <v>1.81</v>
@@ -33310,7 +33313,7 @@
         <v>87</v>
       </c>
       <c r="P155" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33516,7 +33519,7 @@
         <v>203</v>
       </c>
       <c r="P156" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q156">
         <v>1.7</v>
@@ -33928,7 +33931,7 @@
         <v>93</v>
       </c>
       <c r="P158" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q158">
         <v>3.7</v>
@@ -34546,7 +34549,7 @@
         <v>205</v>
       </c>
       <c r="P161" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q161">
         <v>1.9</v>
@@ -34624,7 +34627,7 @@
         <v>1.33</v>
       </c>
       <c r="AP161">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ161">
         <v>0.9399999999999999</v>
@@ -34958,7 +34961,7 @@
         <v>207</v>
       </c>
       <c r="P163" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q163">
         <v>2.45</v>
@@ -35370,7 +35373,7 @@
         <v>144</v>
       </c>
       <c r="P165" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q165">
         <v>3.5</v>
@@ -35863,7 +35866,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ167">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR167">
         <v>1.07</v>
@@ -35988,7 +35991,7 @@
         <v>87</v>
       </c>
       <c r="P168" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q168">
         <v>3.6</v>
@@ -36066,7 +36069,7 @@
         <v>1.8</v>
       </c>
       <c r="AP168">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ168">
         <v>1.88</v>
@@ -36606,7 +36609,7 @@
         <v>87</v>
       </c>
       <c r="P171" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q171">
         <v>3.5</v>
@@ -36812,7 +36815,7 @@
         <v>159</v>
       </c>
       <c r="P172" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q172">
         <v>3.4</v>
@@ -36893,7 +36896,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ172">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR172">
         <v>1.56</v>
@@ -37018,7 +37021,7 @@
         <v>210</v>
       </c>
       <c r="P173" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q173">
         <v>1.5</v>
@@ -37224,7 +37227,7 @@
         <v>87</v>
       </c>
       <c r="P174" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q174">
         <v>4.33</v>
@@ -37636,7 +37639,7 @@
         <v>212</v>
       </c>
       <c r="P176" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37842,7 +37845,7 @@
         <v>213</v>
       </c>
       <c r="P177" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q177">
         <v>2.3</v>
@@ -37920,7 +37923,7 @@
         <v>0.7</v>
       </c>
       <c r="AP177">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ177">
         <v>1.06</v>
@@ -38254,7 +38257,7 @@
         <v>215</v>
       </c>
       <c r="P179" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38335,7 +38338,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ179">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR179">
         <v>1.9</v>
@@ -38460,7 +38463,7 @@
         <v>216</v>
       </c>
       <c r="P180" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q180">
         <v>2.55</v>
@@ -39078,7 +39081,7 @@
         <v>87</v>
       </c>
       <c r="P183" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q183">
         <v>5.5</v>
@@ -39284,7 +39287,7 @@
         <v>219</v>
       </c>
       <c r="P184" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -39362,7 +39365,7 @@
         <v>0.9</v>
       </c>
       <c r="AP184">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ184">
         <v>0.9399999999999999</v>
@@ -39571,7 +39574,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ185">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR185">
         <v>1.29</v>
@@ -40108,7 +40111,7 @@
         <v>96</v>
       </c>
       <c r="P188" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q188">
         <v>2.35</v>
@@ -40598,7 +40601,7 @@
         <v>1.91</v>
       </c>
       <c r="AP190">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ190">
         <v>1.88</v>
@@ -40726,7 +40729,7 @@
         <v>224</v>
       </c>
       <c r="P191" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q191">
         <v>1.95</v>
@@ -41138,7 +41141,7 @@
         <v>225</v>
       </c>
       <c r="P193" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q193">
         <v>3.6</v>
@@ -41344,7 +41347,7 @@
         <v>226</v>
       </c>
       <c r="P194" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -41425,7 +41428,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ194">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR194">
         <v>1.52</v>
@@ -42246,7 +42249,7 @@
         <v>1.42</v>
       </c>
       <c r="AP198">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ198">
         <v>1.18</v>
@@ -42374,7 +42377,7 @@
         <v>188</v>
       </c>
       <c r="P199" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -42580,7 +42583,7 @@
         <v>231</v>
       </c>
       <c r="P200" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q200">
         <v>2.25</v>
@@ -42992,7 +42995,7 @@
         <v>233</v>
       </c>
       <c r="P202" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -43073,7 +43076,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ202">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR202">
         <v>1.22</v>
@@ -43198,7 +43201,7 @@
         <v>234</v>
       </c>
       <c r="P203" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q203">
         <v>2.6</v>
@@ -43404,7 +43407,7 @@
         <v>235</v>
       </c>
       <c r="P204" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q204">
         <v>2.15</v>
@@ -43482,7 +43485,7 @@
         <v>0.5</v>
       </c>
       <c r="AP204">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ204">
         <v>0.75</v>
@@ -43610,7 +43613,7 @@
         <v>236</v>
       </c>
       <c r="P205" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q205">
         <v>4.6</v>
@@ -43816,7 +43819,7 @@
         <v>237</v>
       </c>
       <c r="P206" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q206">
         <v>1.95</v>
@@ -45052,7 +45055,7 @@
         <v>227</v>
       </c>
       <c r="P212" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q212">
         <v>2.75</v>
@@ -45258,7 +45261,7 @@
         <v>239</v>
       </c>
       <c r="P213" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q213">
         <v>2.5</v>
@@ -45336,7 +45339,7 @@
         <v>0.62</v>
       </c>
       <c r="AP213">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ213">
         <v>0.78</v>
@@ -45464,7 +45467,7 @@
         <v>86</v>
       </c>
       <c r="P214" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q214">
         <v>1.71</v>
@@ -45751,7 +45754,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ215">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR215">
         <v>1.77</v>
@@ -45876,7 +45879,7 @@
         <v>87</v>
       </c>
       <c r="P216" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q216">
         <v>3.25</v>
@@ -45954,7 +45957,7 @@
         <v>1.46</v>
       </c>
       <c r="AP216">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ216">
         <v>1.65</v>
@@ -46369,7 +46372,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ218">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR218">
         <v>1.71</v>
@@ -46494,7 +46497,7 @@
         <v>88</v>
       </c>
       <c r="P219" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q219">
         <v>4.33</v>
@@ -46906,7 +46909,7 @@
         <v>241</v>
       </c>
       <c r="P221" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q221">
         <v>2.25</v>
@@ -47524,7 +47527,7 @@
         <v>87</v>
       </c>
       <c r="P224" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q224">
         <v>4.33</v>
@@ -48635,7 +48638,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ229">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR229">
         <v>1.11</v>
@@ -48760,7 +48763,7 @@
         <v>174</v>
       </c>
       <c r="P230" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q230">
         <v>4.75</v>
@@ -49172,7 +49175,7 @@
         <v>87</v>
       </c>
       <c r="P232" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q232">
         <v>2.88</v>
@@ -49250,10 +49253,10 @@
         <v>1.21</v>
       </c>
       <c r="AP232">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ232">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR232">
         <v>1.76</v>
@@ -50074,7 +50077,7 @@
         <v>0.79</v>
       </c>
       <c r="AP236">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ236">
         <v>0.71</v>
@@ -50202,7 +50205,7 @@
         <v>249</v>
       </c>
       <c r="P237" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q237">
         <v>2.5</v>
@@ -50408,7 +50411,7 @@
         <v>250</v>
       </c>
       <c r="P238" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q238">
         <v>3.1</v>
@@ -50614,7 +50617,7 @@
         <v>118</v>
       </c>
       <c r="P239" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q239">
         <v>3.75</v>
@@ -50820,7 +50823,7 @@
         <v>251</v>
       </c>
       <c r="P240" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q240">
         <v>2.1</v>
@@ -51026,7 +51029,7 @@
         <v>105</v>
       </c>
       <c r="P241" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q241">
         <v>2.3</v>
@@ -51438,7 +51441,7 @@
         <v>87</v>
       </c>
       <c r="P243" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q243">
         <v>3.75</v>
@@ -51644,7 +51647,7 @@
         <v>252</v>
       </c>
       <c r="P244" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q244">
         <v>3.4</v>
@@ -52262,7 +52265,7 @@
         <v>255</v>
       </c>
       <c r="P247" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q247">
         <v>3.4</v>
@@ -52549,7 +52552,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ248">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR248">
         <v>1.81</v>
@@ -52880,7 +52883,7 @@
         <v>257</v>
       </c>
       <c r="P250" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q250">
         <v>2.5</v>
@@ -53086,7 +53089,7 @@
         <v>258</v>
       </c>
       <c r="P251" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q251">
         <v>2.05</v>
@@ -53292,7 +53295,7 @@
         <v>259</v>
       </c>
       <c r="P252" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q252">
         <v>2.63</v>
@@ -53498,7 +53501,7 @@
         <v>87</v>
       </c>
       <c r="P253" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q253">
         <v>4.33</v>
@@ -53704,7 +53707,7 @@
         <v>260</v>
       </c>
       <c r="P254" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q254">
         <v>4.75</v>
@@ -53782,7 +53785,7 @@
         <v>1.73</v>
       </c>
       <c r="AP254">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ254">
         <v>1.88</v>
@@ -53910,7 +53913,7 @@
         <v>87</v>
       </c>
       <c r="P255" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q255">
         <v>2.5</v>
@@ -54116,7 +54119,7 @@
         <v>261</v>
       </c>
       <c r="P256" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q256">
         <v>3.4</v>
@@ -54194,10 +54197,10 @@
         <v>1.8</v>
       </c>
       <c r="AP256">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ256">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR256">
         <v>1.65</v>
@@ -54528,7 +54531,7 @@
         <v>262</v>
       </c>
       <c r="P258" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q258">
         <v>3.1</v>
@@ -54734,7 +54737,7 @@
         <v>263</v>
       </c>
       <c r="P259" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q259">
         <v>2.1</v>
@@ -55352,7 +55355,7 @@
         <v>87</v>
       </c>
       <c r="P262" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q262">
         <v>2.75</v>
@@ -55430,10 +55433,10 @@
         <v>1.25</v>
       </c>
       <c r="AP262">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ262">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR262">
         <v>1.7</v>
@@ -55558,7 +55561,7 @@
         <v>266</v>
       </c>
       <c r="P263" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q263">
         <v>2.5</v>
@@ -55845,7 +55848,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ264">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR264">
         <v>2.11</v>
@@ -55970,7 +55973,7 @@
         <v>217</v>
       </c>
       <c r="P265" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q265">
         <v>3</v>
@@ -56176,7 +56179,7 @@
         <v>267</v>
       </c>
       <c r="P266" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q266">
         <v>2.88</v>
@@ -56872,7 +56875,7 @@
         <v>1.19</v>
       </c>
       <c r="AP269">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ269">
         <v>1.18</v>
@@ -57000,7 +57003,7 @@
         <v>105</v>
       </c>
       <c r="P270" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q270">
         <v>3</v>
@@ -57206,7 +57209,7 @@
         <v>87</v>
       </c>
       <c r="P271" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q271">
         <v>5</v>
@@ -57412,7 +57415,7 @@
         <v>270</v>
       </c>
       <c r="P272" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q272">
         <v>3.5</v>
@@ -57618,7 +57621,7 @@
         <v>271</v>
       </c>
       <c r="P273" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q273">
         <v>2.35</v>
@@ -57981,6 +57984,418 @@
       </c>
       <c r="BP274">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="275" spans="1:68">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>7858340</v>
+      </c>
+      <c r="C275" t="s">
+        <v>68</v>
+      </c>
+      <c r="D275" t="s">
+        <v>69</v>
+      </c>
+      <c r="E275" s="2">
+        <v>45770.64583333334</v>
+      </c>
+      <c r="F275">
+        <v>5</v>
+      </c>
+      <c r="G275" t="s">
+        <v>82</v>
+      </c>
+      <c r="H275" t="s">
+        <v>74</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="K275">
+        <v>0</v>
+      </c>
+      <c r="L275">
+        <v>1</v>
+      </c>
+      <c r="M275">
+        <v>1</v>
+      </c>
+      <c r="N275">
+        <v>2</v>
+      </c>
+      <c r="O275" t="s">
+        <v>93</v>
+      </c>
+      <c r="P275" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q275">
+        <v>3.4</v>
+      </c>
+      <c r="R275">
+        <v>2.15</v>
+      </c>
+      <c r="S275">
+        <v>2.75</v>
+      </c>
+      <c r="T275">
+        <v>1.33</v>
+      </c>
+      <c r="U275">
+        <v>3.1</v>
+      </c>
+      <c r="V275">
+        <v>2.4</v>
+      </c>
+      <c r="W275">
+        <v>1.5</v>
+      </c>
+      <c r="X275">
+        <v>5.3</v>
+      </c>
+      <c r="Y275">
+        <v>1.09</v>
+      </c>
+      <c r="Z275">
+        <v>3.04</v>
+      </c>
+      <c r="AA275">
+        <v>3.47</v>
+      </c>
+      <c r="AB275">
+        <v>2.2</v>
+      </c>
+      <c r="AC275">
+        <v>1.05</v>
+      </c>
+      <c r="AD275">
+        <v>9.5</v>
+      </c>
+      <c r="AE275">
+        <v>1.22</v>
+      </c>
+      <c r="AF275">
+        <v>4.51</v>
+      </c>
+      <c r="AG275">
+        <v>1.65</v>
+      </c>
+      <c r="AH275">
+        <v>2.15</v>
+      </c>
+      <c r="AI275">
+        <v>1.53</v>
+      </c>
+      <c r="AJ275">
+        <v>2.3</v>
+      </c>
+      <c r="AK275">
+        <v>1.62</v>
+      </c>
+      <c r="AL275">
+        <v>1.25</v>
+      </c>
+      <c r="AM275">
+        <v>1.38</v>
+      </c>
+      <c r="AN275">
+        <v>1.59</v>
+      </c>
+      <c r="AO275">
+        <v>1.76</v>
+      </c>
+      <c r="AP275">
+        <v>1.56</v>
+      </c>
+      <c r="AQ275">
+        <v>1.72</v>
+      </c>
+      <c r="AR275">
+        <v>1.73</v>
+      </c>
+      <c r="AS275">
+        <v>1.63</v>
+      </c>
+      <c r="AT275">
+        <v>3.36</v>
+      </c>
+      <c r="AU275">
+        <v>6</v>
+      </c>
+      <c r="AV275">
+        <v>4</v>
+      </c>
+      <c r="AW275">
+        <v>10</v>
+      </c>
+      <c r="AX275">
+        <v>11</v>
+      </c>
+      <c r="AY275">
+        <v>18</v>
+      </c>
+      <c r="AZ275">
+        <v>15</v>
+      </c>
+      <c r="BA275">
+        <v>5</v>
+      </c>
+      <c r="BB275">
+        <v>4</v>
+      </c>
+      <c r="BC275">
+        <v>9</v>
+      </c>
+      <c r="BD275">
+        <v>0</v>
+      </c>
+      <c r="BE275">
+        <v>0</v>
+      </c>
+      <c r="BF275">
+        <v>0</v>
+      </c>
+      <c r="BG275">
+        <v>0</v>
+      </c>
+      <c r="BH275">
+        <v>0</v>
+      </c>
+      <c r="BI275">
+        <v>0</v>
+      </c>
+      <c r="BJ275">
+        <v>0</v>
+      </c>
+      <c r="BK275">
+        <v>0</v>
+      </c>
+      <c r="BL275">
+        <v>0</v>
+      </c>
+      <c r="BM275">
+        <v>0</v>
+      </c>
+      <c r="BN275">
+        <v>0</v>
+      </c>
+      <c r="BO275">
+        <v>0</v>
+      </c>
+      <c r="BP275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:68">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>7858341</v>
+      </c>
+      <c r="C276" t="s">
+        <v>68</v>
+      </c>
+      <c r="D276" t="s">
+        <v>69</v>
+      </c>
+      <c r="E276" s="2">
+        <v>45770.64583333334</v>
+      </c>
+      <c r="F276">
+        <v>5</v>
+      </c>
+      <c r="G276" t="s">
+        <v>73</v>
+      </c>
+      <c r="H276" t="s">
+        <v>85</v>
+      </c>
+      <c r="I276">
+        <v>3</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276">
+        <v>3</v>
+      </c>
+      <c r="L276">
+        <v>5</v>
+      </c>
+      <c r="M276">
+        <v>0</v>
+      </c>
+      <c r="N276">
+        <v>5</v>
+      </c>
+      <c r="O276" t="s">
+        <v>272</v>
+      </c>
+      <c r="P276" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q276">
+        <v>2.38</v>
+      </c>
+      <c r="R276">
+        <v>2.2</v>
+      </c>
+      <c r="S276">
+        <v>4</v>
+      </c>
+      <c r="T276">
+        <v>1.33</v>
+      </c>
+      <c r="U276">
+        <v>3</v>
+      </c>
+      <c r="V276">
+        <v>2.45</v>
+      </c>
+      <c r="W276">
+        <v>1.48</v>
+      </c>
+      <c r="X276">
+        <v>6.35</v>
+      </c>
+      <c r="Y276">
+        <v>1.06</v>
+      </c>
+      <c r="Z276">
+        <v>1.84</v>
+      </c>
+      <c r="AA276">
+        <v>3.68</v>
+      </c>
+      <c r="AB276">
+        <v>3.93</v>
+      </c>
+      <c r="AC276">
+        <v>1.05</v>
+      </c>
+      <c r="AD276">
+        <v>9.5</v>
+      </c>
+      <c r="AE276">
+        <v>1.23</v>
+      </c>
+      <c r="AF276">
+        <v>4</v>
+      </c>
+      <c r="AG276">
+        <v>1.8</v>
+      </c>
+      <c r="AH276">
+        <v>1.94</v>
+      </c>
+      <c r="AI276">
+        <v>1.6</v>
+      </c>
+      <c r="AJ276">
+        <v>2.15</v>
+      </c>
+      <c r="AK276">
+        <v>1.25</v>
+      </c>
+      <c r="AL276">
+        <v>1.22</v>
+      </c>
+      <c r="AM276">
+        <v>1.85</v>
+      </c>
+      <c r="AN276">
+        <v>1.65</v>
+      </c>
+      <c r="AO276">
+        <v>1.35</v>
+      </c>
+      <c r="AP276">
+        <v>1.72</v>
+      </c>
+      <c r="AQ276">
+        <v>1.28</v>
+      </c>
+      <c r="AR276">
+        <v>1.64</v>
+      </c>
+      <c r="AS276">
+        <v>1.34</v>
+      </c>
+      <c r="AT276">
+        <v>2.98</v>
+      </c>
+      <c r="AU276">
+        <v>7</v>
+      </c>
+      <c r="AV276">
+        <v>0</v>
+      </c>
+      <c r="AW276">
+        <v>6</v>
+      </c>
+      <c r="AX276">
+        <v>4</v>
+      </c>
+      <c r="AY276">
+        <v>14</v>
+      </c>
+      <c r="AZ276">
+        <v>5</v>
+      </c>
+      <c r="BA276">
+        <v>4</v>
+      </c>
+      <c r="BB276">
+        <v>4</v>
+      </c>
+      <c r="BC276">
+        <v>8</v>
+      </c>
+      <c r="BD276">
+        <v>0</v>
+      </c>
+      <c r="BE276">
+        <v>0</v>
+      </c>
+      <c r="BF276">
+        <v>0</v>
+      </c>
+      <c r="BG276">
+        <v>0</v>
+      </c>
+      <c r="BH276">
+        <v>0</v>
+      </c>
+      <c r="BI276">
+        <v>0</v>
+      </c>
+      <c r="BJ276">
+        <v>0</v>
+      </c>
+      <c r="BK276">
+        <v>0</v>
+      </c>
+      <c r="BL276">
+        <v>0</v>
+      </c>
+      <c r="BM276">
+        <v>0</v>
+      </c>
+      <c r="BN276">
+        <v>0</v>
+      </c>
+      <c r="BO276">
+        <v>0</v>
+      </c>
+      <c r="BP276">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="387">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -832,7 +832,7 @@
     <t>['30', '71']</t>
   </si>
   <si>
-    <t>['30', '37', '42', '54', '58']</t>
+    <t>['30', '37', '42', '54', '59']</t>
   </si>
   <si>
     <t>['65']</t>
@@ -1536,7 +1536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP276"/>
+  <dimension ref="A1:BP277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AQ2">
         <v>0.9399999999999999</v>
@@ -2082,7 +2082,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ3">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -5584,7 +5584,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ20">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR20">
         <v>1.27</v>
@@ -7641,7 +7641,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AQ30">
         <v>1.18</v>
@@ -9086,7 +9086,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ37">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR37">
         <v>1.03</v>
@@ -10525,7 +10525,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AQ44">
         <v>0.71</v>
@@ -12176,7 +12176,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ52">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR52">
         <v>2.07</v>
@@ -13206,7 +13206,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ57">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR57">
         <v>1.08</v>
@@ -14027,7 +14027,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AQ61">
         <v>1.28</v>
@@ -17941,10 +17941,10 @@
         <v>0.6</v>
       </c>
       <c r="AP80">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AQ80">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR80">
         <v>2.17</v>
@@ -20825,7 +20825,7 @@
         <v>1.6</v>
       </c>
       <c r="AP94">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AQ94">
         <v>1.41</v>
@@ -22270,7 +22270,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ101">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR101">
         <v>1.52</v>
@@ -25151,7 +25151,7 @@
         <v>0.71</v>
       </c>
       <c r="AP115">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AQ115">
         <v>0.75</v>
@@ -25978,7 +25978,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ119">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR119">
         <v>1.33</v>
@@ -26799,7 +26799,7 @@
         <v>1.29</v>
       </c>
       <c r="AP123">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AQ123">
         <v>0.9399999999999999</v>
@@ -29274,7 +29274,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ135">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR135">
         <v>1.6</v>
@@ -30713,7 +30713,7 @@
         <v>1.63</v>
       </c>
       <c r="AP142">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AQ142">
         <v>1.72</v>
@@ -33597,7 +33597,7 @@
         <v>0.78</v>
       </c>
       <c r="AP156">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AQ156">
         <v>1.06</v>
@@ -34012,7 +34012,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ158">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR158">
         <v>1.6</v>
@@ -35454,7 +35454,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ165">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR165">
         <v>1.75</v>
@@ -37099,7 +37099,7 @@
         <v>0.1</v>
       </c>
       <c r="AP173">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AQ173">
         <v>0.12</v>
@@ -38747,7 +38747,7 @@
         <v>0.45</v>
       </c>
       <c r="AP181">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AQ181">
         <v>0.75</v>
@@ -39162,7 +39162,7 @@
         <v>1</v>
       </c>
       <c r="AQ183">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR183">
         <v>1.3</v>
@@ -41631,7 +41631,7 @@
         <v>0.67</v>
       </c>
       <c r="AP195">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AQ195">
         <v>0.78</v>
@@ -42458,7 +42458,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ199">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR199">
         <v>1.34</v>
@@ -45545,7 +45545,7 @@
         <v>0.85</v>
       </c>
       <c r="AP214">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AQ214">
         <v>0.88</v>
@@ -45960,7 +45960,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ216">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR216">
         <v>1.66</v>
@@ -49668,7 +49668,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ234">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR234">
         <v>1.77</v>
@@ -50901,7 +50901,7 @@
         <v>1.07</v>
       </c>
       <c r="AP240">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AQ240">
         <v>0.9399999999999999</v>
@@ -52137,7 +52137,7 @@
         <v>1.6</v>
       </c>
       <c r="AP246">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AQ246">
         <v>1.41</v>
@@ -53582,7 +53582,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ253">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR253">
         <v>1.54</v>
@@ -55845,7 +55845,7 @@
         <v>1.88</v>
       </c>
       <c r="AP264">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AQ264">
         <v>1.72</v>
@@ -57084,7 +57084,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ270">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR270">
         <v>1.81</v>
@@ -58396,6 +58396,212 @@
       </c>
       <c r="BP276">
         <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:68">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>7858342</v>
+      </c>
+      <c r="C277" t="s">
+        <v>68</v>
+      </c>
+      <c r="D277" t="s">
+        <v>69</v>
+      </c>
+      <c r="E277" s="2">
+        <v>45771.64583333334</v>
+      </c>
+      <c r="F277">
+        <v>5</v>
+      </c>
+      <c r="G277" t="s">
+        <v>70</v>
+      </c>
+      <c r="H277" t="s">
+        <v>78</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="J277">
+        <v>1</v>
+      </c>
+      <c r="K277">
+        <v>1</v>
+      </c>
+      <c r="L277">
+        <v>0</v>
+      </c>
+      <c r="M277">
+        <v>1</v>
+      </c>
+      <c r="N277">
+        <v>1</v>
+      </c>
+      <c r="O277" t="s">
+        <v>87</v>
+      </c>
+      <c r="P277" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q277">
+        <v>2.4</v>
+      </c>
+      <c r="R277">
+        <v>2.15</v>
+      </c>
+      <c r="S277">
+        <v>4.2</v>
+      </c>
+      <c r="T277">
+        <v>1.35</v>
+      </c>
+      <c r="U277">
+        <v>2.95</v>
+      </c>
+      <c r="V277">
+        <v>2.55</v>
+      </c>
+      <c r="W277">
+        <v>1.45</v>
+      </c>
+      <c r="X277">
+        <v>6.25</v>
+      </c>
+      <c r="Y277">
+        <v>1.06</v>
+      </c>
+      <c r="Z277">
+        <v>1.87</v>
+      </c>
+      <c r="AA277">
+        <v>3.63</v>
+      </c>
+      <c r="AB277">
+        <v>3.87</v>
+      </c>
+      <c r="AC277">
+        <v>1.05</v>
+      </c>
+      <c r="AD277">
+        <v>9.5</v>
+      </c>
+      <c r="AE277">
+        <v>1.25</v>
+      </c>
+      <c r="AF277">
+        <v>4.1</v>
+      </c>
+      <c r="AG277">
+        <v>1.82</v>
+      </c>
+      <c r="AH277">
+        <v>1.92</v>
+      </c>
+      <c r="AI277">
+        <v>1.65</v>
+      </c>
+      <c r="AJ277">
+        <v>2.05</v>
+      </c>
+      <c r="AK277">
+        <v>1.25</v>
+      </c>
+      <c r="AL277">
+        <v>1.22</v>
+      </c>
+      <c r="AM277">
+        <v>1.85</v>
+      </c>
+      <c r="AN277">
+        <v>2.29</v>
+      </c>
+      <c r="AO277">
+        <v>1.65</v>
+      </c>
+      <c r="AP277">
+        <v>2.17</v>
+      </c>
+      <c r="AQ277">
+        <v>1.72</v>
+      </c>
+      <c r="AR277">
+        <v>2.15</v>
+      </c>
+      <c r="AS277">
+        <v>1.43</v>
+      </c>
+      <c r="AT277">
+        <v>3.58</v>
+      </c>
+      <c r="AU277">
+        <v>4</v>
+      </c>
+      <c r="AV277">
+        <v>4</v>
+      </c>
+      <c r="AW277">
+        <v>8</v>
+      </c>
+      <c r="AX277">
+        <v>1</v>
+      </c>
+      <c r="AY277">
+        <v>14</v>
+      </c>
+      <c r="AZ277">
+        <v>6</v>
+      </c>
+      <c r="BA277">
+        <v>2</v>
+      </c>
+      <c r="BB277">
+        <v>2</v>
+      </c>
+      <c r="BC277">
+        <v>4</v>
+      </c>
+      <c r="BD277">
+        <v>1.64</v>
+      </c>
+      <c r="BE277">
+        <v>6.75</v>
+      </c>
+      <c r="BF277">
+        <v>2.5</v>
+      </c>
+      <c r="BG277">
+        <v>1.33</v>
+      </c>
+      <c r="BH277">
+        <v>2.95</v>
+      </c>
+      <c r="BI277">
+        <v>1.56</v>
+      </c>
+      <c r="BJ277">
+        <v>2.23</v>
+      </c>
+      <c r="BK277">
+        <v>1.93</v>
+      </c>
+      <c r="BL277">
+        <v>1.77</v>
+      </c>
+      <c r="BM277">
+        <v>2.43</v>
+      </c>
+      <c r="BN277">
+        <v>1.48</v>
+      </c>
+      <c r="BO277">
+        <v>3.15</v>
+      </c>
+      <c r="BP277">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="388">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -835,6 +835,9 @@
     <t>['30', '37', '42', '54', '59']</t>
   </si>
   <si>
+    <t>['10', '40']</t>
+  </si>
+  <si>
     <t>['65']</t>
   </si>
   <si>
@@ -1536,7 +1539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP277"/>
+  <dimension ref="A1:BP278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1795,7 +1798,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q2">
         <v>1.91</v>
@@ -2285,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ4">
         <v>0.78</v>
@@ -3649,7 +3652,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q11">
         <v>2.4</v>
@@ -4061,7 +4064,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4267,7 +4270,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q14">
         <v>3.25</v>
@@ -4473,7 +4476,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4554,7 +4557,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ15">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4885,7 +4888,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -5378,7 +5381,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ19">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR19">
         <v>0.45</v>
@@ -5503,7 +5506,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q20">
         <v>4.1</v>
@@ -5915,7 +5918,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -6121,7 +6124,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q23">
         <v>1.91</v>
@@ -6533,7 +6536,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q25">
         <v>1.93</v>
@@ -6945,7 +6948,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q27">
         <v>3.9</v>
@@ -7023,7 +7026,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ27">
         <v>1.72</v>
@@ -7151,7 +7154,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q28">
         <v>3.06</v>
@@ -7357,7 +7360,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -8387,7 +8390,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q34">
         <v>2.45</v>
@@ -8799,7 +8802,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -9498,7 +9501,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ39">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR39">
         <v>1.72</v>
@@ -9829,7 +9832,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -10035,7 +10038,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10113,7 +10116,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ42">
         <v>0.9399999999999999</v>
@@ -11271,7 +11274,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11477,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11683,7 +11686,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q50">
         <v>5.85</v>
@@ -11889,7 +11892,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q51">
         <v>2.2</v>
@@ -12919,7 +12922,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q56">
         <v>2.75</v>
@@ -13331,7 +13334,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13409,7 +13412,7 @@
         <v>0.33</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ58">
         <v>0.75</v>
@@ -13537,7 +13540,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q59">
         <v>3.52</v>
@@ -13949,7 +13952,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -14648,7 +14651,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ64">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR64">
         <v>1.33</v>
@@ -14773,7 +14776,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q65">
         <v>3.02</v>
@@ -15391,7 +15394,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q68">
         <v>3.2</v>
@@ -15597,7 +15600,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q69">
         <v>3.76</v>
@@ -16090,7 +16093,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ71">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR71">
         <v>1.7</v>
@@ -16627,7 +16630,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -18353,7 +18356,7 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ82">
         <v>1.41</v>
@@ -18481,7 +18484,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -19099,7 +19102,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q86">
         <v>1.91</v>
@@ -19798,7 +19801,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ89">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR89">
         <v>1.48</v>
@@ -20129,7 +20132,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20335,7 +20338,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20747,7 +20750,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -21159,7 +21162,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -21365,7 +21368,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -21777,7 +21780,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q99">
         <v>2.9</v>
@@ -21983,7 +21986,7 @@
         <v>87</v>
       </c>
       <c r="P100" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22189,7 +22192,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -22888,7 +22891,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ104">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR104">
         <v>1.57</v>
@@ -23091,7 +23094,7 @@
         <v>1.33</v>
       </c>
       <c r="AP105">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ105">
         <v>1.28</v>
@@ -23219,7 +23222,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -23425,7 +23428,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23631,7 +23634,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q108">
         <v>3.5</v>
@@ -24043,7 +24046,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q110">
         <v>3.2</v>
@@ -24661,7 +24664,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q113">
         <v>7.5</v>
@@ -24739,7 +24742,7 @@
         <v>1.86</v>
       </c>
       <c r="AP113">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ113">
         <v>1.88</v>
@@ -25897,7 +25900,7 @@
         <v>150</v>
       </c>
       <c r="P119" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q119">
         <v>4.5</v>
@@ -26390,7 +26393,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ121">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR121">
         <v>1.8</v>
@@ -26515,7 +26518,7 @@
         <v>179</v>
       </c>
       <c r="P122" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -27133,7 +27136,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q125">
         <v>4.75</v>
@@ -27545,7 +27548,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27623,7 +27626,7 @@
         <v>0.57</v>
       </c>
       <c r="AP127">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ127">
         <v>0.71</v>
@@ -27957,7 +27960,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q129">
         <v>2.75</v>
@@ -28163,7 +28166,7 @@
         <v>185</v>
       </c>
       <c r="P130" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q130">
         <v>1.72</v>
@@ -28244,7 +28247,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ130">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR130">
         <v>1.84</v>
@@ -28575,7 +28578,7 @@
         <v>186</v>
       </c>
       <c r="P132" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -28987,7 +28990,7 @@
         <v>188</v>
       </c>
       <c r="P134" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q134">
         <v>2.55</v>
@@ -29399,7 +29402,7 @@
         <v>189</v>
       </c>
       <c r="P136" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q136">
         <v>1.7</v>
@@ -30095,7 +30098,7 @@
         <v>0.63</v>
       </c>
       <c r="AP139">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ139">
         <v>0.88</v>
@@ -30429,7 +30432,7 @@
         <v>87</v>
       </c>
       <c r="P141" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30841,7 +30844,7 @@
         <v>194</v>
       </c>
       <c r="P143" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q143">
         <v>1.95</v>
@@ -31047,7 +31050,7 @@
         <v>87</v>
       </c>
       <c r="P144" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -31459,7 +31462,7 @@
         <v>196</v>
       </c>
       <c r="P146" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q146">
         <v>2.7</v>
@@ -31871,7 +31874,7 @@
         <v>167</v>
       </c>
       <c r="P148" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -32077,7 +32080,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q149">
         <v>3.1</v>
@@ -32155,10 +32158,10 @@
         <v>0.44</v>
       </c>
       <c r="AP149">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ149">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR149">
         <v>1.18</v>
@@ -32695,7 +32698,7 @@
         <v>200</v>
       </c>
       <c r="P152" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q152">
         <v>3.25</v>
@@ -33107,7 +33110,7 @@
         <v>202</v>
       </c>
       <c r="P154" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -33313,7 +33316,7 @@
         <v>87</v>
       </c>
       <c r="P155" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33519,7 +33522,7 @@
         <v>203</v>
       </c>
       <c r="P156" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q156">
         <v>1.7</v>
@@ -33931,7 +33934,7 @@
         <v>93</v>
       </c>
       <c r="P158" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q158">
         <v>3.7</v>
@@ -34549,7 +34552,7 @@
         <v>205</v>
       </c>
       <c r="P161" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q161">
         <v>1.9</v>
@@ -34836,7 +34839,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ162">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR162">
         <v>1.18</v>
@@ -34961,7 +34964,7 @@
         <v>207</v>
       </c>
       <c r="P163" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q163">
         <v>2.45</v>
@@ -35373,7 +35376,7 @@
         <v>144</v>
       </c>
       <c r="P165" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q165">
         <v>3.5</v>
@@ -35657,7 +35660,7 @@
         <v>1.5</v>
       </c>
       <c r="AP166">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ166">
         <v>1.18</v>
@@ -35991,7 +35994,7 @@
         <v>87</v>
       </c>
       <c r="P168" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q168">
         <v>3.6</v>
@@ -36609,7 +36612,7 @@
         <v>87</v>
       </c>
       <c r="P171" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q171">
         <v>3.5</v>
@@ -36815,7 +36818,7 @@
         <v>159</v>
       </c>
       <c r="P172" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q172">
         <v>3.4</v>
@@ -37021,7 +37024,7 @@
         <v>210</v>
       </c>
       <c r="P173" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q173">
         <v>1.5</v>
@@ -37227,7 +37230,7 @@
         <v>87</v>
       </c>
       <c r="P174" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q174">
         <v>4.33</v>
@@ -37639,7 +37642,7 @@
         <v>212</v>
       </c>
       <c r="P176" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37845,7 +37848,7 @@
         <v>213</v>
       </c>
       <c r="P177" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q177">
         <v>2.3</v>
@@ -38257,7 +38260,7 @@
         <v>215</v>
       </c>
       <c r="P179" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38463,7 +38466,7 @@
         <v>216</v>
       </c>
       <c r="P180" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q180">
         <v>2.55</v>
@@ -38750,7 +38753,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ181">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR181">
         <v>2.05</v>
@@ -39081,7 +39084,7 @@
         <v>87</v>
       </c>
       <c r="P183" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q183">
         <v>5.5</v>
@@ -39159,7 +39162,7 @@
         <v>1.18</v>
       </c>
       <c r="AP183">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ183">
         <v>1.72</v>
@@ -39287,7 +39290,7 @@
         <v>219</v>
       </c>
       <c r="P184" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -40111,7 +40114,7 @@
         <v>96</v>
       </c>
       <c r="P188" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q188">
         <v>2.35</v>
@@ -40729,7 +40732,7 @@
         <v>224</v>
       </c>
       <c r="P191" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q191">
         <v>1.95</v>
@@ -41141,7 +41144,7 @@
         <v>225</v>
       </c>
       <c r="P193" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q193">
         <v>3.6</v>
@@ -41347,7 +41350,7 @@
         <v>226</v>
       </c>
       <c r="P194" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -42377,7 +42380,7 @@
         <v>188</v>
       </c>
       <c r="P199" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -42583,7 +42586,7 @@
         <v>231</v>
       </c>
       <c r="P200" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q200">
         <v>2.25</v>
@@ -42867,7 +42870,7 @@
         <v>0.92</v>
       </c>
       <c r="AP201">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ201">
         <v>0.9399999999999999</v>
@@ -42995,7 +42998,7 @@
         <v>233</v>
       </c>
       <c r="P202" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -43201,7 +43204,7 @@
         <v>234</v>
       </c>
       <c r="P203" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q203">
         <v>2.6</v>
@@ -43407,7 +43410,7 @@
         <v>235</v>
       </c>
       <c r="P204" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q204">
         <v>2.15</v>
@@ -43488,7 +43491,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ204">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR204">
         <v>1.66</v>
@@ -43613,7 +43616,7 @@
         <v>236</v>
       </c>
       <c r="P205" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q205">
         <v>4.6</v>
@@ -43819,7 +43822,7 @@
         <v>237</v>
       </c>
       <c r="P206" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q206">
         <v>1.95</v>
@@ -45055,7 +45058,7 @@
         <v>227</v>
       </c>
       <c r="P212" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q212">
         <v>2.75</v>
@@ -45261,7 +45264,7 @@
         <v>239</v>
       </c>
       <c r="P213" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q213">
         <v>2.5</v>
@@ -45467,7 +45470,7 @@
         <v>86</v>
       </c>
       <c r="P214" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q214">
         <v>1.71</v>
@@ -45879,7 +45882,7 @@
         <v>87</v>
       </c>
       <c r="P216" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q216">
         <v>3.25</v>
@@ -46497,7 +46500,7 @@
         <v>88</v>
       </c>
       <c r="P219" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q219">
         <v>4.33</v>
@@ -46909,7 +46912,7 @@
         <v>241</v>
       </c>
       <c r="P221" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q221">
         <v>2.25</v>
@@ -46990,7 +46993,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ221">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR221">
         <v>1.54</v>
@@ -47399,7 +47402,7 @@
         <v>0.92</v>
       </c>
       <c r="AP223">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ223">
         <v>0.9399999999999999</v>
@@ -47527,7 +47530,7 @@
         <v>87</v>
       </c>
       <c r="P224" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q224">
         <v>4.33</v>
@@ -48763,7 +48766,7 @@
         <v>174</v>
       </c>
       <c r="P230" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q230">
         <v>4.75</v>
@@ -49175,7 +49178,7 @@
         <v>87</v>
       </c>
       <c r="P232" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q232">
         <v>2.88</v>
@@ -50205,7 +50208,7 @@
         <v>249</v>
       </c>
       <c r="P237" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q237">
         <v>2.5</v>
@@ -50411,7 +50414,7 @@
         <v>250</v>
       </c>
       <c r="P238" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q238">
         <v>3.1</v>
@@ -50617,7 +50620,7 @@
         <v>118</v>
       </c>
       <c r="P239" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q239">
         <v>3.75</v>
@@ -50695,7 +50698,7 @@
         <v>0.86</v>
       </c>
       <c r="AP239">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ239">
         <v>1.06</v>
@@ -50823,7 +50826,7 @@
         <v>251</v>
       </c>
       <c r="P240" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q240">
         <v>2.1</v>
@@ -51029,7 +51032,7 @@
         <v>105</v>
       </c>
       <c r="P241" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q241">
         <v>2.3</v>
@@ -51110,7 +51113,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ241">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR241">
         <v>1.58</v>
@@ -51441,7 +51444,7 @@
         <v>87</v>
       </c>
       <c r="P243" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q243">
         <v>3.75</v>
@@ -51519,7 +51522,7 @@
         <v>0.6</v>
       </c>
       <c r="AP243">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ243">
         <v>0.75</v>
@@ -51647,7 +51650,7 @@
         <v>252</v>
       </c>
       <c r="P244" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q244">
         <v>3.4</v>
@@ -52265,7 +52268,7 @@
         <v>255</v>
       </c>
       <c r="P247" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q247">
         <v>3.4</v>
@@ -52883,7 +52886,7 @@
         <v>257</v>
       </c>
       <c r="P250" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q250">
         <v>2.5</v>
@@ -53089,7 +53092,7 @@
         <v>258</v>
       </c>
       <c r="P251" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q251">
         <v>2.05</v>
@@ -53295,7 +53298,7 @@
         <v>259</v>
       </c>
       <c r="P252" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q252">
         <v>2.63</v>
@@ -53501,7 +53504,7 @@
         <v>87</v>
       </c>
       <c r="P253" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q253">
         <v>4.33</v>
@@ -53707,7 +53710,7 @@
         <v>260</v>
       </c>
       <c r="P254" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q254">
         <v>4.75</v>
@@ -53913,7 +53916,7 @@
         <v>87</v>
       </c>
       <c r="P255" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q255">
         <v>2.5</v>
@@ -53994,7 +53997,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ255">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR255">
         <v>1.53</v>
@@ -54119,7 +54122,7 @@
         <v>261</v>
       </c>
       <c r="P256" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q256">
         <v>3.4</v>
@@ -54531,7 +54534,7 @@
         <v>262</v>
       </c>
       <c r="P258" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q258">
         <v>3.1</v>
@@ -54737,7 +54740,7 @@
         <v>263</v>
       </c>
       <c r="P259" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q259">
         <v>2.1</v>
@@ -55355,7 +55358,7 @@
         <v>87</v>
       </c>
       <c r="P262" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q262">
         <v>2.75</v>
@@ -55561,7 +55564,7 @@
         <v>266</v>
       </c>
       <c r="P263" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q263">
         <v>2.5</v>
@@ -55973,7 +55976,7 @@
         <v>217</v>
       </c>
       <c r="P265" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q265">
         <v>3</v>
@@ -56179,7 +56182,7 @@
         <v>267</v>
       </c>
       <c r="P266" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q266">
         <v>2.88</v>
@@ -57003,7 +57006,7 @@
         <v>105</v>
       </c>
       <c r="P270" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q270">
         <v>3</v>
@@ -57209,7 +57212,7 @@
         <v>87</v>
       </c>
       <c r="P271" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q271">
         <v>5</v>
@@ -57415,7 +57418,7 @@
         <v>270</v>
       </c>
       <c r="P272" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q272">
         <v>3.5</v>
@@ -57621,7 +57624,7 @@
         <v>271</v>
       </c>
       <c r="P273" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q273">
         <v>2.35</v>
@@ -58602,6 +58605,212 @@
       </c>
       <c r="BP277">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="278" spans="1:68">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>7858343</v>
+      </c>
+      <c r="C278" t="s">
+        <v>68</v>
+      </c>
+      <c r="D278" t="s">
+        <v>69</v>
+      </c>
+      <c r="E278" s="2">
+        <v>45772.65625</v>
+      </c>
+      <c r="F278">
+        <v>4</v>
+      </c>
+      <c r="G278" t="s">
+        <v>72</v>
+      </c>
+      <c r="H278" t="s">
+        <v>75</v>
+      </c>
+      <c r="I278">
+        <v>2</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278">
+        <v>2</v>
+      </c>
+      <c r="L278">
+        <v>2</v>
+      </c>
+      <c r="M278">
+        <v>0</v>
+      </c>
+      <c r="N278">
+        <v>2</v>
+      </c>
+      <c r="O278" t="s">
+        <v>273</v>
+      </c>
+      <c r="P278" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q278">
+        <v>4.75</v>
+      </c>
+      <c r="R278">
+        <v>2.25</v>
+      </c>
+      <c r="S278">
+        <v>2.15</v>
+      </c>
+      <c r="T278">
+        <v>1.33</v>
+      </c>
+      <c r="U278">
+        <v>3.1</v>
+      </c>
+      <c r="V278">
+        <v>2.45</v>
+      </c>
+      <c r="W278">
+        <v>1.48</v>
+      </c>
+      <c r="X278">
+        <v>5.75</v>
+      </c>
+      <c r="Y278">
+        <v>1.07</v>
+      </c>
+      <c r="Z278">
+        <v>4.3</v>
+      </c>
+      <c r="AA278">
+        <v>3.75</v>
+      </c>
+      <c r="AB278">
+        <v>1.76</v>
+      </c>
+      <c r="AC278">
+        <v>1.05</v>
+      </c>
+      <c r="AD278">
+        <v>9.5</v>
+      </c>
+      <c r="AE278">
+        <v>1.25</v>
+      </c>
+      <c r="AF278">
+        <v>3.85</v>
+      </c>
+      <c r="AG278">
+        <v>1.77</v>
+      </c>
+      <c r="AH278">
+        <v>1.98</v>
+      </c>
+      <c r="AI278">
+        <v>1.7</v>
+      </c>
+      <c r="AJ278">
+        <v>2</v>
+      </c>
+      <c r="AK278">
+        <v>2.15</v>
+      </c>
+      <c r="AL278">
+        <v>1.2</v>
+      </c>
+      <c r="AM278">
+        <v>1.17</v>
+      </c>
+      <c r="AN278">
+        <v>1</v>
+      </c>
+      <c r="AO278">
+        <v>0.75</v>
+      </c>
+      <c r="AP278">
+        <v>1.12</v>
+      </c>
+      <c r="AQ278">
+        <v>0.71</v>
+      </c>
+      <c r="AR278">
+        <v>1.24</v>
+      </c>
+      <c r="AS278">
+        <v>1.23</v>
+      </c>
+      <c r="AT278">
+        <v>2.47</v>
+      </c>
+      <c r="AU278">
+        <v>5</v>
+      </c>
+      <c r="AV278">
+        <v>2</v>
+      </c>
+      <c r="AW278">
+        <v>5</v>
+      </c>
+      <c r="AX278">
+        <v>9</v>
+      </c>
+      <c r="AY278">
+        <v>10</v>
+      </c>
+      <c r="AZ278">
+        <v>13</v>
+      </c>
+      <c r="BA278">
+        <v>1</v>
+      </c>
+      <c r="BB278">
+        <v>9</v>
+      </c>
+      <c r="BC278">
+        <v>10</v>
+      </c>
+      <c r="BD278">
+        <v>2.5</v>
+      </c>
+      <c r="BE278">
+        <v>6.75</v>
+      </c>
+      <c r="BF278">
+        <v>1.63</v>
+      </c>
+      <c r="BG278">
+        <v>1.22</v>
+      </c>
+      <c r="BH278">
+        <v>3.8</v>
+      </c>
+      <c r="BI278">
+        <v>1.38</v>
+      </c>
+      <c r="BJ278">
+        <v>2.8</v>
+      </c>
+      <c r="BK278">
+        <v>1.61</v>
+      </c>
+      <c r="BL278">
+        <v>2.15</v>
+      </c>
+      <c r="BM278">
+        <v>1.96</v>
+      </c>
+      <c r="BN278">
+        <v>1.74</v>
+      </c>
+      <c r="BO278">
+        <v>2.43</v>
+      </c>
+      <c r="BP278">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="389">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -838,6 +838,9 @@
     <t>['10', '40']</t>
   </si>
   <si>
+    <t>['38']</t>
+  </si>
+  <si>
     <t>['65']</t>
   </si>
   <si>
@@ -1539,7 +1542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP278"/>
+  <dimension ref="A1:BP279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1798,7 +1801,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q2">
         <v>1.91</v>
@@ -2703,7 +2706,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ6">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3652,7 +3655,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q11">
         <v>2.4</v>
@@ -3936,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ12">
         <v>1.72</v>
@@ -4064,7 +4067,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4270,7 +4273,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q14">
         <v>3.25</v>
@@ -4476,7 +4479,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4888,7 +4891,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -5506,7 +5509,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q20">
         <v>4.1</v>
@@ -5918,7 +5921,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -6124,7 +6127,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q23">
         <v>1.91</v>
@@ -6536,7 +6539,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q25">
         <v>1.93</v>
@@ -6948,7 +6951,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q27">
         <v>3.9</v>
@@ -7154,7 +7157,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q28">
         <v>3.06</v>
@@ -7360,7 +7363,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7850,7 +7853,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ31">
         <v>0.71</v>
@@ -8059,7 +8062,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ32">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR32">
         <v>1.43</v>
@@ -8390,7 +8393,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q34">
         <v>2.45</v>
@@ -8802,7 +8805,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -9832,7 +9835,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -10038,7 +10041,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10322,10 +10325,10 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ43">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR43">
         <v>1.33</v>
@@ -11274,7 +11277,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11355,7 +11358,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ48">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR48">
         <v>1.15</v>
@@ -11480,7 +11483,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11686,7 +11689,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q50">
         <v>5.85</v>
@@ -11892,7 +11895,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q51">
         <v>2.2</v>
@@ -12922,7 +12925,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q56">
         <v>2.75</v>
@@ -13334,7 +13337,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13540,7 +13543,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q59">
         <v>3.52</v>
@@ -13952,7 +13955,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -14648,7 +14651,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ64">
         <v>0.71</v>
@@ -14776,7 +14779,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q65">
         <v>3.02</v>
@@ -15394,7 +15397,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q68">
         <v>3.2</v>
@@ -15600,7 +15603,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q69">
         <v>3.76</v>
@@ -16630,7 +16633,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -17535,7 +17538,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ78">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR78">
         <v>1.59</v>
@@ -18484,7 +18487,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -19102,7 +19105,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q86">
         <v>1.91</v>
@@ -19386,7 +19389,7 @@
         <v>1.75</v>
       </c>
       <c r="AP87">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ87">
         <v>1.18</v>
@@ -20132,7 +20135,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20338,7 +20341,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20750,7 +20753,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -21037,7 +21040,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ95">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR95">
         <v>1.79</v>
@@ -21162,7 +21165,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -21368,7 +21371,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -21780,7 +21783,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q99">
         <v>2.9</v>
@@ -21986,7 +21989,7 @@
         <v>87</v>
       </c>
       <c r="P100" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22064,7 +22067,7 @@
         <v>1.67</v>
       </c>
       <c r="AP100">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ100">
         <v>1.88</v>
@@ -22192,7 +22195,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -23222,7 +23225,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -23428,7 +23431,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23634,7 +23637,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q108">
         <v>3.5</v>
@@ -24046,7 +24049,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q110">
         <v>3.2</v>
@@ -24333,7 +24336,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ111">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR111">
         <v>1.55</v>
@@ -24664,7 +24667,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q113">
         <v>7.5</v>
@@ -25900,7 +25903,7 @@
         <v>150</v>
       </c>
       <c r="P119" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q119">
         <v>4.5</v>
@@ -25978,7 +25981,7 @@
         <v>0.71</v>
       </c>
       <c r="AP119">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ119">
         <v>1.72</v>
@@ -26518,7 +26521,7 @@
         <v>179</v>
       </c>
       <c r="P122" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -27011,7 +27014,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ124">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR124">
         <v>1.8</v>
@@ -27136,7 +27139,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q125">
         <v>4.75</v>
@@ -27420,7 +27423,7 @@
         <v>1.57</v>
       </c>
       <c r="AP126">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ126">
         <v>1.41</v>
@@ -27548,7 +27551,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27960,7 +27963,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q129">
         <v>2.75</v>
@@ -28166,7 +28169,7 @@
         <v>185</v>
       </c>
       <c r="P130" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q130">
         <v>1.72</v>
@@ -28578,7 +28581,7 @@
         <v>186</v>
       </c>
       <c r="P132" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -28990,7 +28993,7 @@
         <v>188</v>
       </c>
       <c r="P134" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q134">
         <v>2.55</v>
@@ -29402,7 +29405,7 @@
         <v>189</v>
       </c>
       <c r="P136" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q136">
         <v>1.7</v>
@@ -30101,7 +30104,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ139">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR139">
         <v>1.07</v>
@@ -30304,7 +30307,7 @@
         <v>0.78</v>
       </c>
       <c r="AP140">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ140">
         <v>0.9399999999999999</v>
@@ -30432,7 +30435,7 @@
         <v>87</v>
       </c>
       <c r="P141" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30844,7 +30847,7 @@
         <v>194</v>
       </c>
       <c r="P143" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q143">
         <v>1.95</v>
@@ -31050,7 +31053,7 @@
         <v>87</v>
       </c>
       <c r="P144" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -31462,7 +31465,7 @@
         <v>196</v>
       </c>
       <c r="P146" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q146">
         <v>2.7</v>
@@ -31874,7 +31877,7 @@
         <v>167</v>
       </c>
       <c r="P148" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -32080,7 +32083,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q149">
         <v>3.1</v>
@@ -32698,7 +32701,7 @@
         <v>200</v>
       </c>
       <c r="P152" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q152">
         <v>3.25</v>
@@ -33110,7 +33113,7 @@
         <v>202</v>
       </c>
       <c r="P154" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -33316,7 +33319,7 @@
         <v>87</v>
       </c>
       <c r="P155" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33522,7 +33525,7 @@
         <v>203</v>
       </c>
       <c r="P156" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q156">
         <v>1.7</v>
@@ -33809,7 +33812,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ157">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR157">
         <v>1.54</v>
@@ -33934,7 +33937,7 @@
         <v>93</v>
       </c>
       <c r="P158" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q158">
         <v>3.7</v>
@@ -34218,7 +34221,7 @@
         <v>0.11</v>
       </c>
       <c r="AP159">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ159">
         <v>0.12</v>
@@ -34552,7 +34555,7 @@
         <v>205</v>
       </c>
       <c r="P161" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q161">
         <v>1.9</v>
@@ -34964,7 +34967,7 @@
         <v>207</v>
       </c>
       <c r="P163" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q163">
         <v>2.45</v>
@@ -35376,7 +35379,7 @@
         <v>144</v>
       </c>
       <c r="P165" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q165">
         <v>3.5</v>
@@ -35994,7 +35997,7 @@
         <v>87</v>
       </c>
       <c r="P168" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q168">
         <v>3.6</v>
@@ -36612,7 +36615,7 @@
         <v>87</v>
       </c>
       <c r="P171" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q171">
         <v>3.5</v>
@@ -36818,7 +36821,7 @@
         <v>159</v>
       </c>
       <c r="P172" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q172">
         <v>3.4</v>
@@ -37024,7 +37027,7 @@
         <v>210</v>
       </c>
       <c r="P173" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q173">
         <v>1.5</v>
@@ -37230,7 +37233,7 @@
         <v>87</v>
       </c>
       <c r="P174" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q174">
         <v>4.33</v>
@@ -37642,7 +37645,7 @@
         <v>212</v>
       </c>
       <c r="P176" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37723,7 +37726,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ176">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR176">
         <v>1.54</v>
@@ -37848,7 +37851,7 @@
         <v>213</v>
       </c>
       <c r="P177" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q177">
         <v>2.3</v>
@@ -38260,7 +38263,7 @@
         <v>215</v>
       </c>
       <c r="P179" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38466,7 +38469,7 @@
         <v>216</v>
       </c>
       <c r="P180" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q180">
         <v>2.55</v>
@@ -39084,7 +39087,7 @@
         <v>87</v>
       </c>
       <c r="P183" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q183">
         <v>5.5</v>
@@ -39290,7 +39293,7 @@
         <v>219</v>
       </c>
       <c r="P184" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -39574,7 +39577,7 @@
         <v>1.27</v>
       </c>
       <c r="AP185">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ185">
         <v>1.28</v>
@@ -39780,7 +39783,7 @@
         <v>0.82</v>
       </c>
       <c r="AP186">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ186">
         <v>0.9399999999999999</v>
@@ -40114,7 +40117,7 @@
         <v>96</v>
       </c>
       <c r="P188" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q188">
         <v>2.35</v>
@@ -40195,7 +40198,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ188">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR188">
         <v>1.65</v>
@@ -40732,7 +40735,7 @@
         <v>224</v>
       </c>
       <c r="P191" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q191">
         <v>1.95</v>
@@ -41144,7 +41147,7 @@
         <v>225</v>
       </c>
       <c r="P193" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q193">
         <v>3.6</v>
@@ -41350,7 +41353,7 @@
         <v>226</v>
       </c>
       <c r="P194" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -42380,7 +42383,7 @@
         <v>188</v>
       </c>
       <c r="P199" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -42586,7 +42589,7 @@
         <v>231</v>
       </c>
       <c r="P200" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q200">
         <v>2.25</v>
@@ -42667,7 +42670,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ200">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR200">
         <v>1.89</v>
@@ -42998,7 +43001,7 @@
         <v>233</v>
       </c>
       <c r="P202" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -43204,7 +43207,7 @@
         <v>234</v>
       </c>
       <c r="P203" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q203">
         <v>2.6</v>
@@ -43282,7 +43285,7 @@
         <v>1.25</v>
       </c>
       <c r="AP203">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ203">
         <v>0.9399999999999999</v>
@@ -43410,7 +43413,7 @@
         <v>235</v>
       </c>
       <c r="P204" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q204">
         <v>2.15</v>
@@ -43616,7 +43619,7 @@
         <v>236</v>
       </c>
       <c r="P205" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q205">
         <v>4.6</v>
@@ -43822,7 +43825,7 @@
         <v>237</v>
       </c>
       <c r="P206" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q206">
         <v>1.95</v>
@@ -45058,7 +45061,7 @@
         <v>227</v>
       </c>
       <c r="P212" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q212">
         <v>2.75</v>
@@ -45264,7 +45267,7 @@
         <v>239</v>
       </c>
       <c r="P213" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q213">
         <v>2.5</v>
@@ -45470,7 +45473,7 @@
         <v>86</v>
       </c>
       <c r="P214" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q214">
         <v>1.71</v>
@@ -45551,7 +45554,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ214">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR214">
         <v>2.08</v>
@@ -45882,7 +45885,7 @@
         <v>87</v>
       </c>
       <c r="P216" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q216">
         <v>3.25</v>
@@ -46500,7 +46503,7 @@
         <v>88</v>
       </c>
       <c r="P219" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q219">
         <v>4.33</v>
@@ -46912,7 +46915,7 @@
         <v>241</v>
       </c>
       <c r="P221" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q221">
         <v>2.25</v>
@@ -47530,7 +47533,7 @@
         <v>87</v>
       </c>
       <c r="P224" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q224">
         <v>4.33</v>
@@ -47814,7 +47817,7 @@
         <v>0.85</v>
       </c>
       <c r="AP225">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ225">
         <v>1.06</v>
@@ -48766,7 +48769,7 @@
         <v>174</v>
       </c>
       <c r="P230" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q230">
         <v>4.75</v>
@@ -49178,7 +49181,7 @@
         <v>87</v>
       </c>
       <c r="P232" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q232">
         <v>2.88</v>
@@ -49465,7 +49468,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ233">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR233">
         <v>1.88</v>
@@ -50208,7 +50211,7 @@
         <v>249</v>
       </c>
       <c r="P237" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q237">
         <v>2.5</v>
@@ -50414,7 +50417,7 @@
         <v>250</v>
       </c>
       <c r="P238" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q238">
         <v>3.1</v>
@@ -50492,7 +50495,7 @@
         <v>0.64</v>
       </c>
       <c r="AP238">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ238">
         <v>0.75</v>
@@ -50620,7 +50623,7 @@
         <v>118</v>
       </c>
       <c r="P239" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q239">
         <v>3.75</v>
@@ -50826,7 +50829,7 @@
         <v>251</v>
       </c>
       <c r="P240" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q240">
         <v>2.1</v>
@@ -51032,7 +51035,7 @@
         <v>105</v>
       </c>
       <c r="P241" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q241">
         <v>2.3</v>
@@ -51316,7 +51319,7 @@
         <v>1</v>
       </c>
       <c r="AP242">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ242">
         <v>0.9399999999999999</v>
@@ -51444,7 +51447,7 @@
         <v>87</v>
       </c>
       <c r="P243" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q243">
         <v>3.75</v>
@@ -51650,7 +51653,7 @@
         <v>252</v>
       </c>
       <c r="P244" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q244">
         <v>3.4</v>
@@ -52268,7 +52271,7 @@
         <v>255</v>
       </c>
       <c r="P247" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q247">
         <v>3.4</v>
@@ -52886,7 +52889,7 @@
         <v>257</v>
       </c>
       <c r="P250" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q250">
         <v>2.5</v>
@@ -53092,7 +53095,7 @@
         <v>258</v>
       </c>
       <c r="P251" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q251">
         <v>2.05</v>
@@ -53298,7 +53301,7 @@
         <v>259</v>
       </c>
       <c r="P252" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q252">
         <v>2.63</v>
@@ -53504,7 +53507,7 @@
         <v>87</v>
       </c>
       <c r="P253" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q253">
         <v>4.33</v>
@@ -53710,7 +53713,7 @@
         <v>260</v>
       </c>
       <c r="P254" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q254">
         <v>4.75</v>
@@ -53916,7 +53919,7 @@
         <v>87</v>
       </c>
       <c r="P255" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q255">
         <v>2.5</v>
@@ -54122,7 +54125,7 @@
         <v>261</v>
       </c>
       <c r="P256" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q256">
         <v>3.4</v>
@@ -54409,7 +54412,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ257">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR257">
         <v>1.68</v>
@@ -54534,7 +54537,7 @@
         <v>262</v>
       </c>
       <c r="P258" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q258">
         <v>3.1</v>
@@ -54740,7 +54743,7 @@
         <v>263</v>
       </c>
       <c r="P259" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q259">
         <v>2.1</v>
@@ -55358,7 +55361,7 @@
         <v>87</v>
       </c>
       <c r="P262" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q262">
         <v>2.75</v>
@@ -55564,7 +55567,7 @@
         <v>266</v>
       </c>
       <c r="P263" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q263">
         <v>2.5</v>
@@ -55976,7 +55979,7 @@
         <v>217</v>
       </c>
       <c r="P265" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q265">
         <v>3</v>
@@ -56057,7 +56060,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ265">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR265">
         <v>1.23</v>
@@ -56182,7 +56185,7 @@
         <v>267</v>
       </c>
       <c r="P266" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q266">
         <v>2.88</v>
@@ -56260,7 +56263,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP266">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ266">
         <v>0.9399999999999999</v>
@@ -57006,7 +57009,7 @@
         <v>105</v>
       </c>
       <c r="P270" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q270">
         <v>3</v>
@@ -57212,7 +57215,7 @@
         <v>87</v>
       </c>
       <c r="P271" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q271">
         <v>5</v>
@@ -57418,7 +57421,7 @@
         <v>270</v>
       </c>
       <c r="P272" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q272">
         <v>3.5</v>
@@ -57624,7 +57627,7 @@
         <v>271</v>
       </c>
       <c r="P273" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q273">
         <v>2.35</v>
@@ -58811,6 +58814,212 @@
       </c>
       <c r="BP278">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="279" spans="1:68">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>7858344</v>
+      </c>
+      <c r="C279" t="s">
+        <v>68</v>
+      </c>
+      <c r="D279" t="s">
+        <v>69</v>
+      </c>
+      <c r="E279" s="2">
+        <v>45773.45833333334</v>
+      </c>
+      <c r="F279">
+        <v>6</v>
+      </c>
+      <c r="G279" t="s">
+        <v>80</v>
+      </c>
+      <c r="H279" t="s">
+        <v>84</v>
+      </c>
+      <c r="I279">
+        <v>1</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="K279">
+        <v>1</v>
+      </c>
+      <c r="L279">
+        <v>1</v>
+      </c>
+      <c r="M279">
+        <v>1</v>
+      </c>
+      <c r="N279">
+        <v>2</v>
+      </c>
+      <c r="O279" t="s">
+        <v>274</v>
+      </c>
+      <c r="P279" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q279">
+        <v>2.88</v>
+      </c>
+      <c r="R279">
+        <v>2.1</v>
+      </c>
+      <c r="S279">
+        <v>4</v>
+      </c>
+      <c r="T279">
+        <v>1.44</v>
+      </c>
+      <c r="U279">
+        <v>2.63</v>
+      </c>
+      <c r="V279">
+        <v>3.25</v>
+      </c>
+      <c r="W279">
+        <v>1.33</v>
+      </c>
+      <c r="X279">
+        <v>9</v>
+      </c>
+      <c r="Y279">
+        <v>1.07</v>
+      </c>
+      <c r="Z279">
+        <v>2.22</v>
+      </c>
+      <c r="AA279">
+        <v>3.2</v>
+      </c>
+      <c r="AB279">
+        <v>3.26</v>
+      </c>
+      <c r="AC279">
+        <v>0</v>
+      </c>
+      <c r="AD279">
+        <v>0</v>
+      </c>
+      <c r="AE279">
+        <v>1.82</v>
+      </c>
+      <c r="AF279">
+        <v>2.04</v>
+      </c>
+      <c r="AG279">
+        <v>2.05</v>
+      </c>
+      <c r="AH279">
+        <v>1.7</v>
+      </c>
+      <c r="AI279">
+        <v>1.91</v>
+      </c>
+      <c r="AJ279">
+        <v>1.91</v>
+      </c>
+      <c r="AK279">
+        <v>0</v>
+      </c>
+      <c r="AL279">
+        <v>0</v>
+      </c>
+      <c r="AM279">
+        <v>0</v>
+      </c>
+      <c r="AN279">
+        <v>1.76</v>
+      </c>
+      <c r="AO279">
+        <v>0.88</v>
+      </c>
+      <c r="AP279">
+        <v>1.72</v>
+      </c>
+      <c r="AQ279">
+        <v>0.89</v>
+      </c>
+      <c r="AR279">
+        <v>1.32</v>
+      </c>
+      <c r="AS279">
+        <v>1.1</v>
+      </c>
+      <c r="AT279">
+        <v>2.42</v>
+      </c>
+      <c r="AU279">
+        <v>5</v>
+      </c>
+      <c r="AV279">
+        <v>2</v>
+      </c>
+      <c r="AW279">
+        <v>10</v>
+      </c>
+      <c r="AX279">
+        <v>10</v>
+      </c>
+      <c r="AY279">
+        <v>17</v>
+      </c>
+      <c r="AZ279">
+        <v>16</v>
+      </c>
+      <c r="BA279">
+        <v>3</v>
+      </c>
+      <c r="BB279">
+        <v>2</v>
+      </c>
+      <c r="BC279">
+        <v>5</v>
+      </c>
+      <c r="BD279">
+        <v>0</v>
+      </c>
+      <c r="BE279">
+        <v>0</v>
+      </c>
+      <c r="BF279">
+        <v>0</v>
+      </c>
+      <c r="BG279">
+        <v>0</v>
+      </c>
+      <c r="BH279">
+        <v>0</v>
+      </c>
+      <c r="BI279">
+        <v>0</v>
+      </c>
+      <c r="BJ279">
+        <v>0</v>
+      </c>
+      <c r="BK279">
+        <v>0</v>
+      </c>
+      <c r="BL279">
+        <v>0</v>
+      </c>
+      <c r="BM279">
+        <v>0</v>
+      </c>
+      <c r="BN279">
+        <v>0</v>
+      </c>
+      <c r="BO279">
+        <v>0</v>
+      </c>
+      <c r="BP279">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="394">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -841,6 +841,15 @@
     <t>['38']</t>
   </si>
   <si>
+    <t>['73', '90+7']</t>
+  </si>
+  <si>
+    <t>['17', '63', '87', '90']</t>
+  </si>
+  <si>
+    <t>['25', '43', '90+1']</t>
+  </si>
+  <si>
     <t>['65']</t>
   </si>
   <si>
@@ -1181,6 +1190,12 @@
   </si>
   <si>
     <t>['28', '64', '77']</t>
+  </si>
+  <si>
+    <t>['58', '77']</t>
+  </si>
+  <si>
+    <t>['69']</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP279"/>
+  <dimension ref="A1:BP282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1801,7 +1816,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q2">
         <v>1.91</v>
@@ -2500,7 +2515,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ5">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -3115,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ8">
         <v>1.18</v>
@@ -3321,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ9">
         <v>0.71</v>
@@ -3655,7 +3670,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q11">
         <v>2.4</v>
@@ -4067,7 +4082,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4273,7 +4288,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q14">
         <v>3.25</v>
@@ -4479,7 +4494,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4557,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ15">
         <v>0.71</v>
@@ -4891,7 +4906,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -4972,7 +4987,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ17">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5509,7 +5524,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q20">
         <v>4.1</v>
@@ -5587,7 +5602,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ20">
         <v>1.72</v>
@@ -5921,7 +5936,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -6127,7 +6142,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q23">
         <v>1.91</v>
@@ -6208,7 +6223,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ23">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR23">
         <v>2.53</v>
@@ -6411,7 +6426,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ24">
         <v>1.28</v>
@@ -6539,7 +6554,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q25">
         <v>1.93</v>
@@ -6617,7 +6632,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ25">
         <v>0.12</v>
@@ -6951,7 +6966,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q27">
         <v>3.9</v>
@@ -7157,7 +7172,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q28">
         <v>3.06</v>
@@ -7238,7 +7253,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ28">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR28">
         <v>0.79</v>
@@ -7363,7 +7378,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -8393,7 +8408,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q34">
         <v>2.45</v>
@@ -8471,7 +8486,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ34">
         <v>0.78</v>
@@ -8805,7 +8820,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -9501,7 +9516,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ39">
         <v>0.71</v>
@@ -9835,7 +9850,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -10041,7 +10056,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10122,7 +10137,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ42">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR42">
         <v>0.95</v>
@@ -11152,7 +11167,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ47">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR47">
         <v>1.76</v>
@@ -11277,7 +11292,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11483,7 +11498,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11561,7 +11576,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ49">
         <v>1.72</v>
@@ -11689,7 +11704,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q50">
         <v>5.85</v>
@@ -11895,7 +11910,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q51">
         <v>2.2</v>
@@ -12591,7 +12606,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ54">
         <v>0.12</v>
@@ -12925,7 +12940,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q56">
         <v>2.75</v>
@@ -13337,7 +13352,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13418,7 +13433,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ58">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR58">
         <v>0.9399999999999999</v>
@@ -13543,7 +13558,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q59">
         <v>3.52</v>
@@ -13621,7 +13636,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ59">
         <v>1.18</v>
@@ -13955,7 +13970,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -14448,7 +14463,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ63">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR63">
         <v>1.69</v>
@@ -14779,7 +14794,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q65">
         <v>3.02</v>
@@ -14857,7 +14872,7 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ65">
         <v>1.28</v>
@@ -15063,7 +15078,7 @@
         <v>1.5</v>
       </c>
       <c r="AP66">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ66">
         <v>1.88</v>
@@ -15397,7 +15412,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q68">
         <v>3.2</v>
@@ -15603,7 +15618,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q69">
         <v>3.76</v>
@@ -16505,10 +16520,10 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ73">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR73">
         <v>1.73</v>
@@ -16633,7 +16648,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -16711,7 +16726,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ74">
         <v>0.12</v>
@@ -18487,7 +18502,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18565,7 +18580,7 @@
         <v>1.4</v>
       </c>
       <c r="AP83">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ83">
         <v>1.88</v>
@@ -18771,10 +18786,10 @@
         <v>1.75</v>
       </c>
       <c r="AP84">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ84">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR84">
         <v>1.61</v>
@@ -19105,7 +19120,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q86">
         <v>1.91</v>
@@ -19186,7 +19201,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ86">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR86">
         <v>1.86</v>
@@ -20135,7 +20150,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20213,7 +20228,7 @@
         <v>0.5</v>
       </c>
       <c r="AP91">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ91">
         <v>0.78</v>
@@ -20341,7 +20356,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20753,7 +20768,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -21165,7 +21180,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -21371,7 +21386,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -21655,10 +21670,10 @@
         <v>1.6</v>
       </c>
       <c r="AP98">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ98">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR98">
         <v>1.83</v>
@@ -21783,7 +21798,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q99">
         <v>2.9</v>
@@ -21864,7 +21879,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ99">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR99">
         <v>1.16</v>
@@ -21989,7 +22004,7 @@
         <v>87</v>
       </c>
       <c r="P100" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22195,7 +22210,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -22685,7 +22700,7 @@
         <v>0.67</v>
       </c>
       <c r="AP103">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ103">
         <v>0.9399999999999999</v>
@@ -23225,7 +23240,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -23431,7 +23446,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23637,7 +23652,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q108">
         <v>3.5</v>
@@ -23921,7 +23936,7 @@
         <v>1.17</v>
       </c>
       <c r="AP109">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ109">
         <v>1.06</v>
@@ -24049,7 +24064,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q110">
         <v>3.2</v>
@@ -24127,7 +24142,7 @@
         <v>1.33</v>
       </c>
       <c r="AP110">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ110">
         <v>1.41</v>
@@ -24667,7 +24682,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q113">
         <v>7.5</v>
@@ -24954,7 +24969,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ114">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR114">
         <v>1.76</v>
@@ -25160,7 +25175,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ115">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR115">
         <v>2.07</v>
@@ -25903,7 +25918,7 @@
         <v>150</v>
       </c>
       <c r="P119" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q119">
         <v>4.5</v>
@@ -26393,7 +26408,7 @@
         <v>0.57</v>
       </c>
       <c r="AP121">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ121">
         <v>0.71</v>
@@ -26521,7 +26536,7 @@
         <v>179</v>
       </c>
       <c r="P122" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26808,7 +26823,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ123">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR123">
         <v>2.07</v>
@@ -27011,7 +27026,7 @@
         <v>0.57</v>
       </c>
       <c r="AP124">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ124">
         <v>0.89</v>
@@ -27139,7 +27154,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q125">
         <v>4.75</v>
@@ -27551,7 +27566,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27963,7 +27978,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q129">
         <v>2.75</v>
@@ -28041,7 +28056,7 @@
         <v>1.13</v>
       </c>
       <c r="AP129">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ129">
         <v>1.28</v>
@@ -28169,7 +28184,7 @@
         <v>185</v>
       </c>
       <c r="P130" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q130">
         <v>1.72</v>
@@ -28581,7 +28596,7 @@
         <v>186</v>
       </c>
       <c r="P132" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -28868,7 +28883,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ133">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR133">
         <v>1.68</v>
@@ -28993,7 +29008,7 @@
         <v>188</v>
       </c>
       <c r="P134" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q134">
         <v>2.55</v>
@@ -29277,7 +29292,7 @@
         <v>0.75</v>
       </c>
       <c r="AP135">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ135">
         <v>1.72</v>
@@ -29405,7 +29420,7 @@
         <v>189</v>
       </c>
       <c r="P136" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q136">
         <v>1.7</v>
@@ -30435,7 +30450,7 @@
         <v>87</v>
       </c>
       <c r="P141" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30516,7 +30531,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ141">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR141">
         <v>1.44</v>
@@ -30847,7 +30862,7 @@
         <v>194</v>
       </c>
       <c r="P143" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q143">
         <v>1.95</v>
@@ -31053,7 +31068,7 @@
         <v>87</v>
       </c>
       <c r="P144" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -31465,7 +31480,7 @@
         <v>196</v>
       </c>
       <c r="P146" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q146">
         <v>2.7</v>
@@ -31543,7 +31558,7 @@
         <v>1</v>
       </c>
       <c r="AP146">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ146">
         <v>0.9399999999999999</v>
@@ -31749,10 +31764,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP147">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ147">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR147">
         <v>1.75</v>
@@ -31877,7 +31892,7 @@
         <v>167</v>
       </c>
       <c r="P148" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -32083,7 +32098,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q149">
         <v>3.1</v>
@@ -32701,7 +32716,7 @@
         <v>200</v>
       </c>
       <c r="P152" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q152">
         <v>3.25</v>
@@ -32985,7 +33000,7 @@
         <v>0.89</v>
       </c>
       <c r="AP153">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ153">
         <v>0.78</v>
@@ -33113,7 +33128,7 @@
         <v>202</v>
       </c>
       <c r="P154" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -33319,7 +33334,7 @@
         <v>87</v>
       </c>
       <c r="P155" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33525,7 +33540,7 @@
         <v>203</v>
       </c>
       <c r="P156" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q156">
         <v>1.7</v>
@@ -33937,7 +33952,7 @@
         <v>93</v>
       </c>
       <c r="P158" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q158">
         <v>3.7</v>
@@ -34555,7 +34570,7 @@
         <v>205</v>
       </c>
       <c r="P161" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q161">
         <v>1.9</v>
@@ -34636,7 +34651,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ161">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR161">
         <v>1.75</v>
@@ -34967,7 +34982,7 @@
         <v>207</v>
       </c>
       <c r="P163" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q163">
         <v>2.45</v>
@@ -35045,10 +35060,10 @@
         <v>0.5</v>
       </c>
       <c r="AP163">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ163">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR163">
         <v>1.85</v>
@@ -35379,7 +35394,7 @@
         <v>144</v>
       </c>
       <c r="P165" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q165">
         <v>3.5</v>
@@ -35457,7 +35472,7 @@
         <v>1</v>
       </c>
       <c r="AP165">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ165">
         <v>1.72</v>
@@ -35997,7 +36012,7 @@
         <v>87</v>
       </c>
       <c r="P168" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q168">
         <v>3.6</v>
@@ -36281,7 +36296,7 @@
         <v>1</v>
       </c>
       <c r="AP169">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ169">
         <v>0.9399999999999999</v>
@@ -36615,7 +36630,7 @@
         <v>87</v>
       </c>
       <c r="P171" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q171">
         <v>3.5</v>
@@ -36821,7 +36836,7 @@
         <v>159</v>
       </c>
       <c r="P172" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q172">
         <v>3.4</v>
@@ -37027,7 +37042,7 @@
         <v>210</v>
       </c>
       <c r="P173" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q173">
         <v>1.5</v>
@@ -37233,7 +37248,7 @@
         <v>87</v>
       </c>
       <c r="P174" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q174">
         <v>4.33</v>
@@ -37645,7 +37660,7 @@
         <v>212</v>
       </c>
       <c r="P176" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37851,7 +37866,7 @@
         <v>213</v>
       </c>
       <c r="P177" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q177">
         <v>2.3</v>
@@ -38263,7 +38278,7 @@
         <v>215</v>
       </c>
       <c r="P179" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38341,7 +38356,7 @@
         <v>1.55</v>
       </c>
       <c r="AP179">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ179">
         <v>1.72</v>
@@ -38469,7 +38484,7 @@
         <v>216</v>
       </c>
       <c r="P180" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q180">
         <v>2.55</v>
@@ -38547,7 +38562,7 @@
         <v>0.82</v>
       </c>
       <c r="AP180">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ180">
         <v>0.71</v>
@@ -38962,7 +38977,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ182">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR182">
         <v>1.21</v>
@@ -39087,7 +39102,7 @@
         <v>87</v>
       </c>
       <c r="P183" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q183">
         <v>5.5</v>
@@ -39293,7 +39308,7 @@
         <v>219</v>
       </c>
       <c r="P184" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -39989,10 +40004,10 @@
         <v>1.36</v>
       </c>
       <c r="AP187">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ187">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR187">
         <v>1.65</v>
@@ -40117,7 +40132,7 @@
         <v>96</v>
       </c>
       <c r="P188" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q188">
         <v>2.35</v>
@@ -40195,7 +40210,7 @@
         <v>0.91</v>
       </c>
       <c r="AP188">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ188">
         <v>0.89</v>
@@ -40735,7 +40750,7 @@
         <v>224</v>
       </c>
       <c r="P191" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q191">
         <v>1.95</v>
@@ -40816,7 +40831,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ191">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR191">
         <v>1.79</v>
@@ -41147,7 +41162,7 @@
         <v>225</v>
       </c>
       <c r="P193" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q193">
         <v>3.6</v>
@@ -41353,7 +41368,7 @@
         <v>226</v>
       </c>
       <c r="P194" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -41846,7 +41861,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ196">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR196">
         <v>1.08</v>
@@ -42383,7 +42398,7 @@
         <v>188</v>
       </c>
       <c r="P199" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -42589,7 +42604,7 @@
         <v>231</v>
       </c>
       <c r="P200" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q200">
         <v>2.25</v>
@@ -42667,7 +42682,7 @@
         <v>0.92</v>
       </c>
       <c r="AP200">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ200">
         <v>0.89</v>
@@ -43001,7 +43016,7 @@
         <v>233</v>
       </c>
       <c r="P202" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -43207,7 +43222,7 @@
         <v>234</v>
       </c>
       <c r="P203" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q203">
         <v>2.6</v>
@@ -43288,7 +43303,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ203">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR203">
         <v>1.28</v>
@@ -43413,7 +43428,7 @@
         <v>235</v>
       </c>
       <c r="P204" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q204">
         <v>2.15</v>
@@ -43619,7 +43634,7 @@
         <v>236</v>
       </c>
       <c r="P205" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q205">
         <v>4.6</v>
@@ -43825,7 +43840,7 @@
         <v>237</v>
       </c>
       <c r="P206" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q206">
         <v>1.95</v>
@@ -44315,7 +44330,7 @@
         <v>1.5</v>
       </c>
       <c r="AP208">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ208">
         <v>1.41</v>
@@ -44521,7 +44536,7 @@
         <v>0.83</v>
       </c>
       <c r="AP209">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ209">
         <v>1.06</v>
@@ -44730,7 +44745,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ210">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR210">
         <v>1.55</v>
@@ -45061,7 +45076,7 @@
         <v>227</v>
       </c>
       <c r="P212" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q212">
         <v>2.75</v>
@@ -45139,7 +45154,7 @@
         <v>0.92</v>
       </c>
       <c r="AP212">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ212">
         <v>0.9399999999999999</v>
@@ -45267,7 +45282,7 @@
         <v>239</v>
       </c>
       <c r="P213" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q213">
         <v>2.5</v>
@@ -45473,7 +45488,7 @@
         <v>86</v>
       </c>
       <c r="P214" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q214">
         <v>1.71</v>
@@ -45885,7 +45900,7 @@
         <v>87</v>
       </c>
       <c r="P216" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q216">
         <v>3.25</v>
@@ -46375,7 +46390,7 @@
         <v>1.77</v>
       </c>
       <c r="AP218">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ218">
         <v>1.72</v>
@@ -46503,7 +46518,7 @@
         <v>88</v>
       </c>
       <c r="P219" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q219">
         <v>4.33</v>
@@ -46787,7 +46802,7 @@
         <v>1.31</v>
       </c>
       <c r="AP220">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ220">
         <v>1.18</v>
@@ -46915,7 +46930,7 @@
         <v>241</v>
       </c>
       <c r="P221" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q221">
         <v>2.25</v>
@@ -47202,7 +47217,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ222">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR222">
         <v>1.82</v>
@@ -47533,7 +47548,7 @@
         <v>87</v>
       </c>
       <c r="P224" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q224">
         <v>4.33</v>
@@ -48435,7 +48450,7 @@
         <v>0.86</v>
       </c>
       <c r="AP228">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ228">
         <v>0.9399999999999999</v>
@@ -48769,7 +48784,7 @@
         <v>174</v>
       </c>
       <c r="P230" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q230">
         <v>4.75</v>
@@ -48847,7 +48862,7 @@
         <v>1.64</v>
       </c>
       <c r="AP230">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ230">
         <v>1.88</v>
@@ -49053,7 +49068,7 @@
         <v>1.71</v>
       </c>
       <c r="AP231">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ231">
         <v>1.41</v>
@@ -49181,7 +49196,7 @@
         <v>87</v>
       </c>
       <c r="P232" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q232">
         <v>2.88</v>
@@ -50211,7 +50226,7 @@
         <v>249</v>
       </c>
       <c r="P237" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q237">
         <v>2.5</v>
@@ -50292,7 +50307,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ237">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR237">
         <v>1.5</v>
@@ -50417,7 +50432,7 @@
         <v>250</v>
       </c>
       <c r="P238" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q238">
         <v>3.1</v>
@@ -50498,7 +50513,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ238">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR238">
         <v>1.28</v>
@@ -50623,7 +50638,7 @@
         <v>118</v>
       </c>
       <c r="P239" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q239">
         <v>3.75</v>
@@ -50829,7 +50844,7 @@
         <v>251</v>
       </c>
       <c r="P240" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q240">
         <v>2.1</v>
@@ -51035,7 +51050,7 @@
         <v>105</v>
       </c>
       <c r="P241" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q241">
         <v>2.3</v>
@@ -51447,7 +51462,7 @@
         <v>87</v>
       </c>
       <c r="P243" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q243">
         <v>3.75</v>
@@ -51528,7 +51543,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ243">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR243">
         <v>1.29</v>
@@ -51653,7 +51668,7 @@
         <v>252</v>
       </c>
       <c r="P244" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q244">
         <v>3.4</v>
@@ -52271,7 +52286,7 @@
         <v>255</v>
       </c>
       <c r="P247" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q247">
         <v>3.4</v>
@@ -52889,7 +52904,7 @@
         <v>257</v>
       </c>
       <c r="P250" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q250">
         <v>2.5</v>
@@ -52970,7 +52985,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ250">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR250">
         <v>1.54</v>
@@ -53095,7 +53110,7 @@
         <v>258</v>
       </c>
       <c r="P251" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q251">
         <v>2.05</v>
@@ -53173,7 +53188,7 @@
         <v>0.13</v>
       </c>
       <c r="AP251">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ251">
         <v>0.12</v>
@@ -53301,7 +53316,7 @@
         <v>259</v>
       </c>
       <c r="P252" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q252">
         <v>2.63</v>
@@ -53379,7 +53394,7 @@
         <v>0.6</v>
       </c>
       <c r="AP252">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ252">
         <v>0.78</v>
@@ -53507,7 +53522,7 @@
         <v>87</v>
       </c>
       <c r="P253" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q253">
         <v>4.33</v>
@@ -53713,7 +53728,7 @@
         <v>260</v>
       </c>
       <c r="P254" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q254">
         <v>4.75</v>
@@ -53919,7 +53934,7 @@
         <v>87</v>
       </c>
       <c r="P255" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q255">
         <v>2.5</v>
@@ -54125,7 +54140,7 @@
         <v>261</v>
       </c>
       <c r="P256" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q256">
         <v>3.4</v>
@@ -54409,7 +54424,7 @@
         <v>0.93</v>
       </c>
       <c r="AP257">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ257">
         <v>0.89</v>
@@ -54537,7 +54552,7 @@
         <v>262</v>
       </c>
       <c r="P258" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q258">
         <v>3.1</v>
@@ -54615,7 +54630,7 @@
         <v>1</v>
       </c>
       <c r="AP258">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ258">
         <v>0.9399999999999999</v>
@@ -54743,7 +54758,7 @@
         <v>263</v>
       </c>
       <c r="P259" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q259">
         <v>2.1</v>
@@ -55361,7 +55376,7 @@
         <v>87</v>
       </c>
       <c r="P262" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q262">
         <v>2.75</v>
@@ -55567,7 +55582,7 @@
         <v>266</v>
       </c>
       <c r="P263" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q263">
         <v>2.5</v>
@@ -55979,7 +55994,7 @@
         <v>217</v>
       </c>
       <c r="P265" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q265">
         <v>3</v>
@@ -56185,7 +56200,7 @@
         <v>267</v>
       </c>
       <c r="P266" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q266">
         <v>2.88</v>
@@ -56266,7 +56281,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ266">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR266">
         <v>1.28</v>
@@ -56469,7 +56484,7 @@
         <v>1</v>
       </c>
       <c r="AP267">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ267">
         <v>0.9399999999999999</v>
@@ -57009,7 +57024,7 @@
         <v>105</v>
       </c>
       <c r="P270" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q270">
         <v>3</v>
@@ -57215,7 +57230,7 @@
         <v>87</v>
       </c>
       <c r="P271" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q271">
         <v>5</v>
@@ -57421,7 +57436,7 @@
         <v>270</v>
       </c>
       <c r="P272" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q272">
         <v>3.5</v>
@@ -57627,7 +57642,7 @@
         <v>271</v>
       </c>
       <c r="P273" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q273">
         <v>2.35</v>
@@ -58624,7 +58639,7 @@
         <v>69</v>
       </c>
       <c r="E278" s="2">
-        <v>45772.65625</v>
+        <v>45772.66666666666</v>
       </c>
       <c r="F278">
         <v>4</v>
@@ -59020,6 +59035,624 @@
       </c>
       <c r="BP279">
         <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:68">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>7858345</v>
+      </c>
+      <c r="C280" t="s">
+        <v>68</v>
+      </c>
+      <c r="D280" t="s">
+        <v>69</v>
+      </c>
+      <c r="E280" s="2">
+        <v>45773.55208333334</v>
+      </c>
+      <c r="F280">
+        <v>6</v>
+      </c>
+      <c r="G280" t="s">
+        <v>77</v>
+      </c>
+      <c r="H280" t="s">
+        <v>79</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="K280">
+        <v>0</v>
+      </c>
+      <c r="L280">
+        <v>2</v>
+      </c>
+      <c r="M280">
+        <v>2</v>
+      </c>
+      <c r="N280">
+        <v>4</v>
+      </c>
+      <c r="O280" t="s">
+        <v>275</v>
+      </c>
+      <c r="P280" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q280">
+        <v>2.88</v>
+      </c>
+      <c r="R280">
+        <v>2.38</v>
+      </c>
+      <c r="S280">
+        <v>3.25</v>
+      </c>
+      <c r="T280">
+        <v>1.29</v>
+      </c>
+      <c r="U280">
+        <v>3.5</v>
+      </c>
+      <c r="V280">
+        <v>2.38</v>
+      </c>
+      <c r="W280">
+        <v>1.53</v>
+      </c>
+      <c r="X280">
+        <v>5.5</v>
+      </c>
+      <c r="Y280">
+        <v>1.14</v>
+      </c>
+      <c r="Z280">
+        <v>2.36</v>
+      </c>
+      <c r="AA280">
+        <v>3.56</v>
+      </c>
+      <c r="AB280">
+        <v>2.74</v>
+      </c>
+      <c r="AC280">
+        <v>0</v>
+      </c>
+      <c r="AD280">
+        <v>0</v>
+      </c>
+      <c r="AE280">
+        <v>0</v>
+      </c>
+      <c r="AF280">
+        <v>0</v>
+      </c>
+      <c r="AG280">
+        <v>1.6</v>
+      </c>
+      <c r="AH280">
+        <v>2.34</v>
+      </c>
+      <c r="AI280">
+        <v>1.5</v>
+      </c>
+      <c r="AJ280">
+        <v>2.5</v>
+      </c>
+      <c r="AK280">
+        <v>0</v>
+      </c>
+      <c r="AL280">
+        <v>0</v>
+      </c>
+      <c r="AM280">
+        <v>0</v>
+      </c>
+      <c r="AN280">
+        <v>1.41</v>
+      </c>
+      <c r="AO280">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP280">
+        <v>1.39</v>
+      </c>
+      <c r="AQ280">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR280">
+        <v>1.82</v>
+      </c>
+      <c r="AS280">
+        <v>1.55</v>
+      </c>
+      <c r="AT280">
+        <v>3.37</v>
+      </c>
+      <c r="AU280">
+        <v>5</v>
+      </c>
+      <c r="AV280">
+        <v>7</v>
+      </c>
+      <c r="AW280">
+        <v>8</v>
+      </c>
+      <c r="AX280">
+        <v>9</v>
+      </c>
+      <c r="AY280">
+        <v>14</v>
+      </c>
+      <c r="AZ280">
+        <v>17</v>
+      </c>
+      <c r="BA280">
+        <v>4</v>
+      </c>
+      <c r="BB280">
+        <v>4</v>
+      </c>
+      <c r="BC280">
+        <v>8</v>
+      </c>
+      <c r="BD280">
+        <v>0</v>
+      </c>
+      <c r="BE280">
+        <v>0</v>
+      </c>
+      <c r="BF280">
+        <v>0</v>
+      </c>
+      <c r="BG280">
+        <v>0</v>
+      </c>
+      <c r="BH280">
+        <v>0</v>
+      </c>
+      <c r="BI280">
+        <v>0</v>
+      </c>
+      <c r="BJ280">
+        <v>0</v>
+      </c>
+      <c r="BK280">
+        <v>0</v>
+      </c>
+      <c r="BL280">
+        <v>0</v>
+      </c>
+      <c r="BM280">
+        <v>0</v>
+      </c>
+      <c r="BN280">
+        <v>0</v>
+      </c>
+      <c r="BO280">
+        <v>0</v>
+      </c>
+      <c r="BP280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:68">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>7858346</v>
+      </c>
+      <c r="C281" t="s">
+        <v>68</v>
+      </c>
+      <c r="D281" t="s">
+        <v>69</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45773.65625</v>
+      </c>
+      <c r="F281">
+        <v>6</v>
+      </c>
+      <c r="G281" t="s">
+        <v>76</v>
+      </c>
+      <c r="H281" t="s">
+        <v>71</v>
+      </c>
+      <c r="I281">
+        <v>1</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>1</v>
+      </c>
+      <c r="L281">
+        <v>4</v>
+      </c>
+      <c r="M281">
+        <v>1</v>
+      </c>
+      <c r="N281">
+        <v>5</v>
+      </c>
+      <c r="O281" t="s">
+        <v>276</v>
+      </c>
+      <c r="P281" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q281">
+        <v>2.25</v>
+      </c>
+      <c r="R281">
+        <v>2.3</v>
+      </c>
+      <c r="S281">
+        <v>5</v>
+      </c>
+      <c r="T281">
+        <v>1.33</v>
+      </c>
+      <c r="U281">
+        <v>3.25</v>
+      </c>
+      <c r="V281">
+        <v>2.63</v>
+      </c>
+      <c r="W281">
+        <v>1.44</v>
+      </c>
+      <c r="X281">
+        <v>6.5</v>
+      </c>
+      <c r="Y281">
+        <v>1.11</v>
+      </c>
+      <c r="Z281">
+        <v>1.68</v>
+      </c>
+      <c r="AA281">
+        <v>3.9</v>
+      </c>
+      <c r="AB281">
+        <v>4.6</v>
+      </c>
+      <c r="AC281">
+        <v>0</v>
+      </c>
+      <c r="AD281">
+        <v>0</v>
+      </c>
+      <c r="AE281">
+        <v>0</v>
+      </c>
+      <c r="AF281">
+        <v>0</v>
+      </c>
+      <c r="AG281">
+        <v>1.7</v>
+      </c>
+      <c r="AH281">
+        <v>2.05</v>
+      </c>
+      <c r="AI281">
+        <v>1.75</v>
+      </c>
+      <c r="AJ281">
+        <v>2</v>
+      </c>
+      <c r="AK281">
+        <v>0</v>
+      </c>
+      <c r="AL281">
+        <v>0</v>
+      </c>
+      <c r="AM281">
+        <v>0</v>
+      </c>
+      <c r="AN281">
+        <v>1.65</v>
+      </c>
+      <c r="AO281">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP281">
+        <v>1.72</v>
+      </c>
+      <c r="AQ281">
+        <v>0.89</v>
+      </c>
+      <c r="AR281">
+        <v>1.67</v>
+      </c>
+      <c r="AS281">
+        <v>1.3</v>
+      </c>
+      <c r="AT281">
+        <v>2.97</v>
+      </c>
+      <c r="AU281">
+        <v>7</v>
+      </c>
+      <c r="AV281">
+        <v>5</v>
+      </c>
+      <c r="AW281">
+        <v>15</v>
+      </c>
+      <c r="AX281">
+        <v>4</v>
+      </c>
+      <c r="AY281">
+        <v>24</v>
+      </c>
+      <c r="AZ281">
+        <v>9</v>
+      </c>
+      <c r="BA281">
+        <v>9</v>
+      </c>
+      <c r="BB281">
+        <v>3</v>
+      </c>
+      <c r="BC281">
+        <v>12</v>
+      </c>
+      <c r="BD281">
+        <v>0</v>
+      </c>
+      <c r="BE281">
+        <v>0</v>
+      </c>
+      <c r="BF281">
+        <v>0</v>
+      </c>
+      <c r="BG281">
+        <v>0</v>
+      </c>
+      <c r="BH281">
+        <v>0</v>
+      </c>
+      <c r="BI281">
+        <v>0</v>
+      </c>
+      <c r="BJ281">
+        <v>0</v>
+      </c>
+      <c r="BK281">
+        <v>0</v>
+      </c>
+      <c r="BL281">
+        <v>0</v>
+      </c>
+      <c r="BM281">
+        <v>0</v>
+      </c>
+      <c r="BN281">
+        <v>0</v>
+      </c>
+      <c r="BO281">
+        <v>0</v>
+      </c>
+      <c r="BP281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:68">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>7858347</v>
+      </c>
+      <c r="C282" t="s">
+        <v>68</v>
+      </c>
+      <c r="D282" t="s">
+        <v>69</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45773.65625</v>
+      </c>
+      <c r="F282">
+        <v>4</v>
+      </c>
+      <c r="G282" t="s">
+        <v>83</v>
+      </c>
+      <c r="H282" t="s">
+        <v>81</v>
+      </c>
+      <c r="I282">
+        <v>2</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282">
+        <v>2</v>
+      </c>
+      <c r="L282">
+        <v>3</v>
+      </c>
+      <c r="M282">
+        <v>1</v>
+      </c>
+      <c r="N282">
+        <v>4</v>
+      </c>
+      <c r="O282" t="s">
+        <v>277</v>
+      </c>
+      <c r="P282" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q282">
+        <v>2.5</v>
+      </c>
+      <c r="R282">
+        <v>2.2</v>
+      </c>
+      <c r="S282">
+        <v>3.75</v>
+      </c>
+      <c r="T282">
+        <v>1.33</v>
+      </c>
+      <c r="U282">
+        <v>3.1</v>
+      </c>
+      <c r="V282">
+        <v>2.4</v>
+      </c>
+      <c r="W282">
+        <v>1.5</v>
+      </c>
+      <c r="X282">
+        <v>5.3</v>
+      </c>
+      <c r="Y282">
+        <v>1.09</v>
+      </c>
+      <c r="Z282">
+        <v>2</v>
+      </c>
+      <c r="AA282">
+        <v>3.58</v>
+      </c>
+      <c r="AB282">
+        <v>3.45</v>
+      </c>
+      <c r="AC282">
+        <v>1.04</v>
+      </c>
+      <c r="AD282">
+        <v>10</v>
+      </c>
+      <c r="AE282">
+        <v>1.22</v>
+      </c>
+      <c r="AF282">
+        <v>4.2</v>
+      </c>
+      <c r="AG282">
+        <v>1.89</v>
+      </c>
+      <c r="AH282">
+        <v>1.85</v>
+      </c>
+      <c r="AI282">
+        <v>1.55</v>
+      </c>
+      <c r="AJ282">
+        <v>2.25</v>
+      </c>
+      <c r="AK282">
+        <v>1.3</v>
+      </c>
+      <c r="AL282">
+        <v>1.22</v>
+      </c>
+      <c r="AM282">
+        <v>1.77</v>
+      </c>
+      <c r="AN282">
+        <v>1.5</v>
+      </c>
+      <c r="AO282">
+        <v>0.75</v>
+      </c>
+      <c r="AP282">
+        <v>1.59</v>
+      </c>
+      <c r="AQ282">
+        <v>0.71</v>
+      </c>
+      <c r="AR282">
+        <v>1.85</v>
+      </c>
+      <c r="AS282">
+        <v>1.35</v>
+      </c>
+      <c r="AT282">
+        <v>3.2</v>
+      </c>
+      <c r="AU282">
+        <v>7</v>
+      </c>
+      <c r="AV282">
+        <v>3</v>
+      </c>
+      <c r="AW282">
+        <v>5</v>
+      </c>
+      <c r="AX282">
+        <v>6</v>
+      </c>
+      <c r="AY282">
+        <v>15</v>
+      </c>
+      <c r="AZ282">
+        <v>10</v>
+      </c>
+      <c r="BA282">
+        <v>3</v>
+      </c>
+      <c r="BB282">
+        <v>3</v>
+      </c>
+      <c r="BC282">
+        <v>6</v>
+      </c>
+      <c r="BD282">
+        <v>1.57</v>
+      </c>
+      <c r="BE282">
+        <v>7</v>
+      </c>
+      <c r="BF282">
+        <v>2.63</v>
+      </c>
+      <c r="BG282">
+        <v>1.22</v>
+      </c>
+      <c r="BH282">
+        <v>3.8</v>
+      </c>
+      <c r="BI282">
+        <v>1.38</v>
+      </c>
+      <c r="BJ282">
+        <v>2.8</v>
+      </c>
+      <c r="BK282">
+        <v>1.63</v>
+      </c>
+      <c r="BL282">
+        <v>2.15</v>
+      </c>
+      <c r="BM282">
+        <v>1.98</v>
+      </c>
+      <c r="BN282">
+        <v>1.74</v>
+      </c>
+      <c r="BO282">
+        <v>2.48</v>
+      </c>
+      <c r="BP282">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="394">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1557,7 +1557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP282"/>
+  <dimension ref="A1:BP285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.59</v>
+        <v>2.44</v>
       </c>
       <c r="AQ6">
         <v>0.89</v>
@@ -3133,7 +3133,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ8">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AQ10">
         <v>0.12</v>
@@ -4369,7 +4369,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ14">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4781,7 +4781,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ16">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4984,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ17">
         <v>0.89</v>
@@ -6014,10 +6014,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.59</v>
+        <v>2.44</v>
       </c>
       <c r="AQ22">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR22">
         <v>1.58</v>
@@ -6838,7 +6838,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AQ26">
         <v>0.9399999999999999</v>
@@ -7459,7 +7459,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ29">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR29">
         <v>0.96</v>
@@ -7665,7 +7665,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ30">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR30">
         <v>2.35</v>
@@ -8280,7 +8280,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ33">
         <v>1.06</v>
@@ -8901,7 +8901,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ36">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR36">
         <v>0.9399999999999999</v>
@@ -9722,7 +9722,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>2.59</v>
+        <v>2.44</v>
       </c>
       <c r="AQ40">
         <v>1.06</v>
@@ -10752,10 +10752,10 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ45">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR45">
         <v>1.63</v>
@@ -10958,10 +10958,10 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AQ46">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR46">
         <v>1.58</v>
@@ -11785,7 +11785,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ50">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR50">
         <v>1.76</v>
@@ -12812,7 +12812,7 @@
         <v>1.67</v>
       </c>
       <c r="AP55">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ55">
         <v>0.9399999999999999</v>
@@ -13639,7 +13639,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ59">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR59">
         <v>1.61</v>
@@ -14460,7 +14460,7 @@
         <v>2.33</v>
       </c>
       <c r="AP63">
-        <v>2.59</v>
+        <v>2.44</v>
       </c>
       <c r="AQ63">
         <v>0.89</v>
@@ -15081,7 +15081,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ66">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR66">
         <v>1.81</v>
@@ -15284,7 +15284,7 @@
         <v>1.25</v>
       </c>
       <c r="AP67">
-        <v>2.59</v>
+        <v>2.44</v>
       </c>
       <c r="AQ67">
         <v>0.9399999999999999</v>
@@ -15699,7 +15699,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ69">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR69">
         <v>1.21</v>
@@ -16108,7 +16108,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AQ71">
         <v>0.71</v>
@@ -16314,7 +16314,7 @@
         <v>0.75</v>
       </c>
       <c r="AP72">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ72">
         <v>0.78</v>
@@ -18377,7 +18377,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ82">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR82">
         <v>0.92</v>
@@ -18583,7 +18583,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ83">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR83">
         <v>1.89</v>
@@ -18992,7 +18992,7 @@
         <v>1.4</v>
       </c>
       <c r="AP85">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AQ85">
         <v>1.28</v>
@@ -19198,7 +19198,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>2.59</v>
+        <v>2.44</v>
       </c>
       <c r="AQ86">
         <v>0.71</v>
@@ -19407,7 +19407,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ87">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR87">
         <v>1.36</v>
@@ -20849,7 +20849,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ94">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR94">
         <v>2.03</v>
@@ -21258,7 +21258,7 @@
         <v>1.8</v>
       </c>
       <c r="AP96">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ96">
         <v>1.72</v>
@@ -21464,7 +21464,7 @@
         <v>0.2</v>
       </c>
       <c r="AP97">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AQ97">
         <v>0.71</v>
@@ -22085,7 +22085,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ100">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR100">
         <v>1.3</v>
@@ -22494,10 +22494,10 @@
         <v>1.6</v>
       </c>
       <c r="AP102">
-        <v>2.59</v>
+        <v>2.44</v>
       </c>
       <c r="AQ102">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR102">
         <v>1.86</v>
@@ -23527,7 +23527,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ107">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR107">
         <v>1.5</v>
@@ -24145,7 +24145,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ110">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR110">
         <v>1.65</v>
@@ -24348,7 +24348,7 @@
         <v>0.67</v>
       </c>
       <c r="AP111">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ111">
         <v>0.89</v>
@@ -24554,7 +24554,7 @@
         <v>2</v>
       </c>
       <c r="AP112">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AQ112">
         <v>1.72</v>
@@ -24763,7 +24763,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ113">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR113">
         <v>0.88</v>
@@ -25584,7 +25584,7 @@
         <v>0.57</v>
       </c>
       <c r="AP117">
-        <v>2.59</v>
+        <v>2.44</v>
       </c>
       <c r="AQ117">
         <v>0.9399999999999999</v>
@@ -27441,7 +27441,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ126">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR126">
         <v>1.26</v>
@@ -27850,10 +27850,10 @@
         <v>1.57</v>
       </c>
       <c r="AP128">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AQ128">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR128">
         <v>1.7</v>
@@ -28262,7 +28262,7 @@
         <v>0.5</v>
       </c>
       <c r="AP130">
-        <v>2.59</v>
+        <v>2.44</v>
       </c>
       <c r="AQ130">
         <v>0.71</v>
@@ -28677,7 +28677,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ132">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR132">
         <v>1.55</v>
@@ -28880,7 +28880,7 @@
         <v>0.63</v>
       </c>
       <c r="AP133">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ133">
         <v>0.71</v>
@@ -29913,7 +29913,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ138">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR138">
         <v>1.55</v>
@@ -30940,7 +30940,7 @@
         <v>0.88</v>
       </c>
       <c r="AP143">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AQ143">
         <v>1.06</v>
@@ -31149,7 +31149,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ144">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR144">
         <v>1.4</v>
@@ -31352,7 +31352,7 @@
         <v>0.5</v>
       </c>
       <c r="AP145">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ145">
         <v>0.71</v>
@@ -31973,7 +31973,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ148">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR148">
         <v>1.11</v>
@@ -32382,10 +32382,10 @@
         <v>1.67</v>
       </c>
       <c r="AP150">
-        <v>2.59</v>
+        <v>2.44</v>
       </c>
       <c r="AQ150">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR150">
         <v>1.79</v>
@@ -32794,10 +32794,10 @@
         <v>1.89</v>
       </c>
       <c r="AP152">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AQ152">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR152">
         <v>1.81</v>
@@ -34030,7 +34030,7 @@
         <v>0.78</v>
       </c>
       <c r="AP158">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ158">
         <v>1.72</v>
@@ -35266,7 +35266,7 @@
         <v>0.8</v>
       </c>
       <c r="AP164">
-        <v>2.59</v>
+        <v>2.44</v>
       </c>
       <c r="AQ164">
         <v>0.78</v>
@@ -35681,7 +35681,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ166">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR166">
         <v>1.26</v>
@@ -36093,7 +36093,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ168">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR168">
         <v>1.71</v>
@@ -36502,7 +36502,7 @@
         <v>0.91</v>
       </c>
       <c r="AP170">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ170">
         <v>0.9399999999999999</v>
@@ -37329,7 +37329,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ174">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR174">
         <v>1.38</v>
@@ -37532,7 +37532,7 @@
         <v>0.73</v>
       </c>
       <c r="AP175">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AQ175">
         <v>0.78</v>
@@ -38153,7 +38153,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ178">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR178">
         <v>1.57</v>
@@ -40416,7 +40416,7 @@
         <v>0.09</v>
       </c>
       <c r="AP189">
-        <v>2.59</v>
+        <v>2.44</v>
       </c>
       <c r="AQ189">
         <v>0.12</v>
@@ -40625,7 +40625,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ190">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR190">
         <v>1.72</v>
@@ -40828,7 +40828,7 @@
         <v>0.73</v>
       </c>
       <c r="AP191">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AQ191">
         <v>0.71</v>
@@ -41034,10 +41034,10 @@
         <v>1.64</v>
       </c>
       <c r="AP192">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ192">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR192">
         <v>1.52</v>
@@ -42064,7 +42064,7 @@
         <v>0.83</v>
       </c>
       <c r="AP197">
-        <v>2.59</v>
+        <v>2.44</v>
       </c>
       <c r="AQ197">
         <v>0.71</v>
@@ -42273,7 +42273,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ198">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR198">
         <v>1.68</v>
@@ -43715,7 +43715,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ205">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR205">
         <v>1.6</v>
@@ -43918,7 +43918,7 @@
         <v>0.08</v>
       </c>
       <c r="AP206">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ206">
         <v>0.12</v>
@@ -44124,7 +44124,7 @@
         <v>0.75</v>
       </c>
       <c r="AP207">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AQ207">
         <v>0.9399999999999999</v>
@@ -44333,7 +44333,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ208">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR208">
         <v>1.72</v>
@@ -45772,7 +45772,7 @@
         <v>1.23</v>
       </c>
       <c r="AP215">
-        <v>2.59</v>
+        <v>2.44</v>
       </c>
       <c r="AQ215">
         <v>1.28</v>
@@ -46596,10 +46596,10 @@
         <v>1.69</v>
       </c>
       <c r="AP219">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ219">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR219">
         <v>1.58</v>
@@ -46805,7 +46805,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ220">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR220">
         <v>1.72</v>
@@ -47214,7 +47214,7 @@
         <v>1.15</v>
       </c>
       <c r="AP222">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AQ222">
         <v>0.89</v>
@@ -47629,7 +47629,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ224">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR224">
         <v>1.22</v>
@@ -48865,7 +48865,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ230">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR230">
         <v>1.79</v>
@@ -49071,7 +49071,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ231">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR231">
         <v>1.88</v>
@@ -49480,7 +49480,7 @@
         <v>1</v>
       </c>
       <c r="AP233">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AQ233">
         <v>0.89</v>
@@ -49686,7 +49686,7 @@
         <v>1.57</v>
       </c>
       <c r="AP234">
-        <v>2.59</v>
+        <v>2.44</v>
       </c>
       <c r="AQ234">
         <v>1.72</v>
@@ -49895,7 +49895,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ235">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR235">
         <v>1.24</v>
@@ -51128,7 +51128,7 @@
         <v>0.43</v>
       </c>
       <c r="AP241">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ241">
         <v>0.71</v>
@@ -51952,10 +51952,10 @@
         <v>1.27</v>
       </c>
       <c r="AP245">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AQ245">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR245">
         <v>1.84</v>
@@ -52161,7 +52161,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ246">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR246">
         <v>2.09</v>
@@ -52570,7 +52570,7 @@
         <v>1.33</v>
       </c>
       <c r="AP248">
-        <v>2.59</v>
+        <v>2.44</v>
       </c>
       <c r="AQ248">
         <v>1.28</v>
@@ -53600,7 +53600,7 @@
         <v>1.47</v>
       </c>
       <c r="AP253">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ253">
         <v>1.72</v>
@@ -53809,7 +53809,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ254">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR254">
         <v>1.75</v>
@@ -55248,10 +55248,10 @@
         <v>1.5</v>
       </c>
       <c r="AP261">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AQ261">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR261">
         <v>1.85</v>
@@ -56899,7 +56899,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ269">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR269">
         <v>1.63</v>
@@ -57102,7 +57102,7 @@
         <v>1.56</v>
       </c>
       <c r="AP270">
-        <v>2.59</v>
+        <v>2.44</v>
       </c>
       <c r="AQ270">
         <v>1.72</v>
@@ -57308,10 +57308,10 @@
         <v>1.81</v>
       </c>
       <c r="AP271">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ271">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR271">
         <v>1.51</v>
@@ -59653,6 +59653,624 @@
       </c>
       <c r="BP282">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="283" spans="1:68">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>7858348</v>
+      </c>
+      <c r="C283" t="s">
+        <v>68</v>
+      </c>
+      <c r="D283" t="s">
+        <v>69</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45774.35416666666</v>
+      </c>
+      <c r="F283">
+        <v>6</v>
+      </c>
+      <c r="G283" t="s">
+        <v>85</v>
+      </c>
+      <c r="H283" t="s">
+        <v>73</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283">
+        <v>0</v>
+      </c>
+      <c r="L283">
+        <v>0</v>
+      </c>
+      <c r="M283">
+        <v>1</v>
+      </c>
+      <c r="N283">
+        <v>1</v>
+      </c>
+      <c r="O283" t="s">
+        <v>87</v>
+      </c>
+      <c r="P283" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q283">
+        <v>3.4</v>
+      </c>
+      <c r="R283">
+        <v>2.2</v>
+      </c>
+      <c r="S283">
+        <v>3</v>
+      </c>
+      <c r="T283">
+        <v>1.36</v>
+      </c>
+      <c r="U283">
+        <v>3</v>
+      </c>
+      <c r="V283">
+        <v>2.75</v>
+      </c>
+      <c r="W283">
+        <v>1.4</v>
+      </c>
+      <c r="X283">
+        <v>7</v>
+      </c>
+      <c r="Y283">
+        <v>1.1</v>
+      </c>
+      <c r="Z283">
+        <v>2.81</v>
+      </c>
+      <c r="AA283">
+        <v>2.95</v>
+      </c>
+      <c r="AB283">
+        <v>2.66</v>
+      </c>
+      <c r="AC283">
+        <v>1.75</v>
+      </c>
+      <c r="AD283">
+        <v>2.09</v>
+      </c>
+      <c r="AE283">
+        <v>0</v>
+      </c>
+      <c r="AF283">
+        <v>0</v>
+      </c>
+      <c r="AG283">
+        <v>1.79</v>
+      </c>
+      <c r="AH283">
+        <v>1.95</v>
+      </c>
+      <c r="AI283">
+        <v>1.62</v>
+      </c>
+      <c r="AJ283">
+        <v>2.2</v>
+      </c>
+      <c r="AK283">
+        <v>0</v>
+      </c>
+      <c r="AL283">
+        <v>0</v>
+      </c>
+      <c r="AM283">
+        <v>0</v>
+      </c>
+      <c r="AN283">
+        <v>1.47</v>
+      </c>
+      <c r="AO283">
+        <v>1.41</v>
+      </c>
+      <c r="AP283">
+        <v>1.39</v>
+      </c>
+      <c r="AQ283">
+        <v>1.5</v>
+      </c>
+      <c r="AR283">
+        <v>1.44</v>
+      </c>
+      <c r="AS283">
+        <v>1.32</v>
+      </c>
+      <c r="AT283">
+        <v>2.76</v>
+      </c>
+      <c r="AU283">
+        <v>6</v>
+      </c>
+      <c r="AV283">
+        <v>3</v>
+      </c>
+      <c r="AW283">
+        <v>7</v>
+      </c>
+      <c r="AX283">
+        <v>8</v>
+      </c>
+      <c r="AY283">
+        <v>15</v>
+      </c>
+      <c r="AZ283">
+        <v>17</v>
+      </c>
+      <c r="BA283">
+        <v>2</v>
+      </c>
+      <c r="BB283">
+        <v>9</v>
+      </c>
+      <c r="BC283">
+        <v>11</v>
+      </c>
+      <c r="BD283">
+        <v>0</v>
+      </c>
+      <c r="BE283">
+        <v>0</v>
+      </c>
+      <c r="BF283">
+        <v>0</v>
+      </c>
+      <c r="BG283">
+        <v>0</v>
+      </c>
+      <c r="BH283">
+        <v>0</v>
+      </c>
+      <c r="BI283">
+        <v>0</v>
+      </c>
+      <c r="BJ283">
+        <v>0</v>
+      </c>
+      <c r="BK283">
+        <v>0</v>
+      </c>
+      <c r="BL283">
+        <v>0</v>
+      </c>
+      <c r="BM283">
+        <v>0</v>
+      </c>
+      <c r="BN283">
+        <v>0</v>
+      </c>
+      <c r="BO283">
+        <v>0</v>
+      </c>
+      <c r="BP283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:68">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>7858349</v>
+      </c>
+      <c r="C284" t="s">
+        <v>68</v>
+      </c>
+      <c r="D284" t="s">
+        <v>69</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45774.45833333334</v>
+      </c>
+      <c r="F284">
+        <v>6</v>
+      </c>
+      <c r="G284" t="s">
+        <v>74</v>
+      </c>
+      <c r="H284" t="s">
+        <v>82</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>1</v>
+      </c>
+      <c r="K284">
+        <v>1</v>
+      </c>
+      <c r="L284">
+        <v>0</v>
+      </c>
+      <c r="M284">
+        <v>1</v>
+      </c>
+      <c r="N284">
+        <v>1</v>
+      </c>
+      <c r="O284" t="s">
+        <v>87</v>
+      </c>
+      <c r="P284" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q284">
+        <v>2.1</v>
+      </c>
+      <c r="R284">
+        <v>2.4</v>
+      </c>
+      <c r="S284">
+        <v>5</v>
+      </c>
+      <c r="T284">
+        <v>1.29</v>
+      </c>
+      <c r="U284">
+        <v>3.5</v>
+      </c>
+      <c r="V284">
+        <v>2.38</v>
+      </c>
+      <c r="W284">
+        <v>1.53</v>
+      </c>
+      <c r="X284">
+        <v>5.5</v>
+      </c>
+      <c r="Y284">
+        <v>1.14</v>
+      </c>
+      <c r="Z284">
+        <v>1.57</v>
+      </c>
+      <c r="AA284">
+        <v>4.2</v>
+      </c>
+      <c r="AB284">
+        <v>5.1</v>
+      </c>
+      <c r="AC284">
+        <v>0</v>
+      </c>
+      <c r="AD284">
+        <v>0</v>
+      </c>
+      <c r="AE284">
+        <v>3.69</v>
+      </c>
+      <c r="AF284">
+        <v>1.29</v>
+      </c>
+      <c r="AG284">
+        <v>1.55</v>
+      </c>
+      <c r="AH284">
+        <v>2.3</v>
+      </c>
+      <c r="AI284">
+        <v>1.67</v>
+      </c>
+      <c r="AJ284">
+        <v>2.1</v>
+      </c>
+      <c r="AK284">
+        <v>0</v>
+      </c>
+      <c r="AL284">
+        <v>0</v>
+      </c>
+      <c r="AM284">
+        <v>0</v>
+      </c>
+      <c r="AN284">
+        <v>2.59</v>
+      </c>
+      <c r="AO284">
+        <v>1.18</v>
+      </c>
+      <c r="AP284">
+        <v>2.44</v>
+      </c>
+      <c r="AQ284">
+        <v>1.28</v>
+      </c>
+      <c r="AR284">
+        <v>1.77</v>
+      </c>
+      <c r="AS284">
+        <v>1.2</v>
+      </c>
+      <c r="AT284">
+        <v>2.97</v>
+      </c>
+      <c r="AU284">
+        <v>6</v>
+      </c>
+      <c r="AV284">
+        <v>4</v>
+      </c>
+      <c r="AW284">
+        <v>11</v>
+      </c>
+      <c r="AX284">
+        <v>8</v>
+      </c>
+      <c r="AY284">
+        <v>18</v>
+      </c>
+      <c r="AZ284">
+        <v>12</v>
+      </c>
+      <c r="BA284">
+        <v>6</v>
+      </c>
+      <c r="BB284">
+        <v>1</v>
+      </c>
+      <c r="BC284">
+        <v>7</v>
+      </c>
+      <c r="BD284">
+        <v>0</v>
+      </c>
+      <c r="BE284">
+        <v>0</v>
+      </c>
+      <c r="BF284">
+        <v>0</v>
+      </c>
+      <c r="BG284">
+        <v>0</v>
+      </c>
+      <c r="BH284">
+        <v>0</v>
+      </c>
+      <c r="BI284">
+        <v>0</v>
+      </c>
+      <c r="BJ284">
+        <v>0</v>
+      </c>
+      <c r="BK284">
+        <v>0</v>
+      </c>
+      <c r="BL284">
+        <v>0</v>
+      </c>
+      <c r="BM284">
+        <v>0</v>
+      </c>
+      <c r="BN284">
+        <v>0</v>
+      </c>
+      <c r="BO284">
+        <v>0</v>
+      </c>
+      <c r="BP284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:68">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>7858350</v>
+      </c>
+      <c r="C285" t="s">
+        <v>68</v>
+      </c>
+      <c r="D285" t="s">
+        <v>69</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45774.5625</v>
+      </c>
+      <c r="F285">
+        <v>6</v>
+      </c>
+      <c r="G285" t="s">
+        <v>78</v>
+      </c>
+      <c r="H285" t="s">
+        <v>70</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
+      <c r="L285">
+        <v>0</v>
+      </c>
+      <c r="M285">
+        <v>0</v>
+      </c>
+      <c r="N285">
+        <v>0</v>
+      </c>
+      <c r="O285" t="s">
+        <v>87</v>
+      </c>
+      <c r="P285" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q285">
+        <v>3.1</v>
+      </c>
+      <c r="R285">
+        <v>2.2</v>
+      </c>
+      <c r="S285">
+        <v>3.4</v>
+      </c>
+      <c r="T285">
+        <v>1.4</v>
+      </c>
+      <c r="U285">
+        <v>2.75</v>
+      </c>
+      <c r="V285">
+        <v>2.75</v>
+      </c>
+      <c r="W285">
+        <v>1.4</v>
+      </c>
+      <c r="X285">
+        <v>8</v>
+      </c>
+      <c r="Y285">
+        <v>1.08</v>
+      </c>
+      <c r="Z285">
+        <v>2.6</v>
+      </c>
+      <c r="AA285">
+        <v>3.34</v>
+      </c>
+      <c r="AB285">
+        <v>2.6</v>
+      </c>
+      <c r="AC285">
+        <v>1.78</v>
+      </c>
+      <c r="AD285">
+        <v>2.08</v>
+      </c>
+      <c r="AE285">
+        <v>0</v>
+      </c>
+      <c r="AF285">
+        <v>0</v>
+      </c>
+      <c r="AG285">
+        <v>1.8</v>
+      </c>
+      <c r="AH285">
+        <v>1.94</v>
+      </c>
+      <c r="AI285">
+        <v>1.7</v>
+      </c>
+      <c r="AJ285">
+        <v>2.05</v>
+      </c>
+      <c r="AK285">
+        <v>0</v>
+      </c>
+      <c r="AL285">
+        <v>0</v>
+      </c>
+      <c r="AM285">
+        <v>0</v>
+      </c>
+      <c r="AN285">
+        <v>2.29</v>
+      </c>
+      <c r="AO285">
+        <v>1.88</v>
+      </c>
+      <c r="AP285">
+        <v>2.22</v>
+      </c>
+      <c r="AQ285">
+        <v>1.83</v>
+      </c>
+      <c r="AR285">
+        <v>1.82</v>
+      </c>
+      <c r="AS285">
+        <v>1.72</v>
+      </c>
+      <c r="AT285">
+        <v>3.54</v>
+      </c>
+      <c r="AU285">
+        <v>0</v>
+      </c>
+      <c r="AV285">
+        <v>3</v>
+      </c>
+      <c r="AW285">
+        <v>7</v>
+      </c>
+      <c r="AX285">
+        <v>13</v>
+      </c>
+      <c r="AY285">
+        <v>10</v>
+      </c>
+      <c r="AZ285">
+        <v>19</v>
+      </c>
+      <c r="BA285">
+        <v>5</v>
+      </c>
+      <c r="BB285">
+        <v>5</v>
+      </c>
+      <c r="BC285">
+        <v>10</v>
+      </c>
+      <c r="BD285">
+        <v>0</v>
+      </c>
+      <c r="BE285">
+        <v>0</v>
+      </c>
+      <c r="BF285">
+        <v>0</v>
+      </c>
+      <c r="BG285">
+        <v>0</v>
+      </c>
+      <c r="BH285">
+        <v>0</v>
+      </c>
+      <c r="BI285">
+        <v>0</v>
+      </c>
+      <c r="BJ285">
+        <v>0</v>
+      </c>
+      <c r="BK285">
+        <v>0</v>
+      </c>
+      <c r="BL285">
+        <v>0</v>
+      </c>
+      <c r="BM285">
+        <v>0</v>
+      </c>
+      <c r="BN285">
+        <v>0</v>
+      </c>
+      <c r="BO285">
+        <v>0</v>
+      </c>
+      <c r="BP285">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
@@ -59401,13 +59401,13 @@
         <v>9</v>
       </c>
       <c r="BA281">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB281">
         <v>3</v>
       </c>
       <c r="BC281">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD281">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="397">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -850,6 +850,12 @@
     <t>['25', '43', '90+1']</t>
   </si>
   <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['45+1', '50', '57', '60']</t>
+  </si>
+  <si>
     <t>['65']</t>
   </si>
   <si>
@@ -947,9 +953,6 @@
   </si>
   <si>
     <t>['53', '60', '90+1', '90+4', '90+7']</t>
-  </si>
-  <si>
-    <t>['88']</t>
   </si>
   <si>
     <t>['46', '58']</t>
@@ -1196,6 +1199,12 @@
   </si>
   <si>
     <t>['69']</t>
+  </si>
+  <si>
+    <t>['55', '69', '86']</t>
+  </si>
+  <si>
+    <t>['33']</t>
   </si>
 </sst>
 </file>
@@ -1557,7 +1566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP285"/>
+  <dimension ref="A1:BP287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1816,7 +1825,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q2">
         <v>1.91</v>
@@ -1894,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ2">
         <v>0.9399999999999999</v>
@@ -2927,7 +2936,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ7">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3670,7 +3679,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q11">
         <v>2.4</v>
@@ -4082,7 +4091,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4288,7 +4297,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q14">
         <v>3.25</v>
@@ -4366,10 +4375,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4494,7 +4503,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4906,7 +4915,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -5524,7 +5533,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q20">
         <v>4.1</v>
@@ -5936,7 +5945,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -6142,7 +6151,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q23">
         <v>1.91</v>
@@ -6220,7 +6229,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ23">
         <v>0.71</v>
@@ -6429,7 +6438,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ24">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR24">
         <v>1.65</v>
@@ -6554,7 +6563,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q25">
         <v>1.93</v>
@@ -6966,7 +6975,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q27">
         <v>3.9</v>
@@ -7172,7 +7181,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q28">
         <v>3.06</v>
@@ -7378,7 +7387,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7459,7 +7468,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ29">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR29">
         <v>0.96</v>
@@ -7662,7 +7671,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ30">
         <v>1.28</v>
@@ -8408,7 +8417,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q34">
         <v>2.45</v>
@@ -8692,7 +8701,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ35">
         <v>0.9399999999999999</v>
@@ -8820,7 +8829,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -9850,7 +9859,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -10056,7 +10065,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10546,7 +10555,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ44">
         <v>0.71</v>
@@ -10961,7 +10970,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ46">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR46">
         <v>1.58</v>
@@ -11292,7 +11301,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11498,7 +11507,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11704,7 +11713,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q50">
         <v>5.85</v>
@@ -11910,7 +11919,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q51">
         <v>2.2</v>
@@ -12194,7 +12203,7 @@
         <v>0.67</v>
       </c>
       <c r="AP52">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ52">
         <v>1.72</v>
@@ -12940,7 +12949,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q56">
         <v>2.75</v>
@@ -13352,7 +13361,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13558,7 +13567,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q59">
         <v>3.52</v>
@@ -13970,7 +13979,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -14048,10 +14057,10 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ61">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR61">
         <v>2.01</v>
@@ -14794,7 +14803,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q65">
         <v>3.02</v>
@@ -14875,7 +14884,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ65">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR65">
         <v>1.79</v>
@@ -15412,7 +15421,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q68">
         <v>3.2</v>
@@ -15618,7 +15627,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q69">
         <v>3.76</v>
@@ -15699,7 +15708,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ69">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR69">
         <v>1.21</v>
@@ -15902,7 +15911,7 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ70">
         <v>0.12</v>
@@ -16648,7 +16657,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -17756,7 +17765,7 @@
         <v>0.25</v>
       </c>
       <c r="AP79">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ79">
         <v>0.71</v>
@@ -17962,7 +17971,7 @@
         <v>0.6</v>
       </c>
       <c r="AP80">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ80">
         <v>1.72</v>
@@ -18171,7 +18180,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ81">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR81">
         <v>0.89</v>
@@ -18377,7 +18386,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ82">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR82">
         <v>0.92</v>
@@ -18502,7 +18511,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18995,7 +19004,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ85">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR85">
         <v>1.67</v>
@@ -19120,7 +19129,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q86">
         <v>1.91</v>
@@ -20150,7 +20159,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20356,7 +20365,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20768,7 +20777,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20846,10 +20855,10 @@
         <v>1.6</v>
       </c>
       <c r="AP94">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ94">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR94">
         <v>2.03</v>
@@ -21052,7 +21061,7 @@
         <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ95">
         <v>0.89</v>
@@ -21180,7 +21189,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -21386,7 +21395,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -21798,7 +21807,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q99">
         <v>2.9</v>
@@ -22004,7 +22013,7 @@
         <v>87</v>
       </c>
       <c r="P100" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22210,7 +22219,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -23115,7 +23124,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ105">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR105">
         <v>0.83</v>
@@ -23240,7 +23249,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -23446,7 +23455,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23652,7 +23661,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q108">
         <v>3.5</v>
@@ -24064,7 +24073,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q110">
         <v>3.2</v>
@@ -24145,7 +24154,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ110">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR110">
         <v>1.65</v>
@@ -24682,7 +24691,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q113">
         <v>7.5</v>
@@ -24966,7 +24975,7 @@
         <v>1.33</v>
       </c>
       <c r="AP114">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ114">
         <v>0.89</v>
@@ -25172,7 +25181,7 @@
         <v>0.71</v>
       </c>
       <c r="AP115">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ115">
         <v>0.71</v>
@@ -25918,7 +25927,7 @@
         <v>150</v>
       </c>
       <c r="P119" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q119">
         <v>4.5</v>
@@ -26205,7 +26214,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ120">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR120">
         <v>1.64</v>
@@ -26536,7 +26545,7 @@
         <v>179</v>
       </c>
       <c r="P122" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26820,7 +26829,7 @@
         <v>1.29</v>
       </c>
       <c r="AP123">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ123">
         <v>0.89</v>
@@ -27154,7 +27163,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q125">
         <v>4.75</v>
@@ -27441,7 +27450,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ126">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR126">
         <v>1.26</v>
@@ -27566,7 +27575,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27978,7 +27987,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q129">
         <v>2.75</v>
@@ -28059,7 +28068,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ129">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR129">
         <v>1.82</v>
@@ -28184,7 +28193,7 @@
         <v>185</v>
       </c>
       <c r="P130" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q130">
         <v>1.72</v>
@@ -28596,7 +28605,7 @@
         <v>186</v>
       </c>
       <c r="P132" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -29008,7 +29017,7 @@
         <v>188</v>
       </c>
       <c r="P134" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q134">
         <v>2.55</v>
@@ -29086,7 +29095,7 @@
         <v>0.5</v>
       </c>
       <c r="AP134">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ134">
         <v>0.9399999999999999</v>
@@ -29420,7 +29429,7 @@
         <v>189</v>
       </c>
       <c r="P136" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q136">
         <v>1.7</v>
@@ -30450,7 +30459,7 @@
         <v>87</v>
       </c>
       <c r="P141" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30734,7 +30743,7 @@
         <v>1.63</v>
       </c>
       <c r="AP142">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ142">
         <v>1.72</v>
@@ -30862,7 +30871,7 @@
         <v>194</v>
       </c>
       <c r="P143" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q143">
         <v>1.95</v>
@@ -31068,7 +31077,7 @@
         <v>87</v>
       </c>
       <c r="P144" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -31149,7 +31158,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ144">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR144">
         <v>1.4</v>
@@ -31480,7 +31489,7 @@
         <v>196</v>
       </c>
       <c r="P146" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q146">
         <v>2.7</v>
@@ -31892,7 +31901,7 @@
         <v>167</v>
       </c>
       <c r="P148" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -32098,7 +32107,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q149">
         <v>3.1</v>
@@ -32385,7 +32394,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ150">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR150">
         <v>1.79</v>
@@ -32591,7 +32600,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ151">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR151">
         <v>1.23</v>
@@ -32716,7 +32725,7 @@
         <v>200</v>
       </c>
       <c r="P152" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q152">
         <v>3.25</v>
@@ -33128,7 +33137,7 @@
         <v>202</v>
       </c>
       <c r="P154" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -33206,7 +33215,7 @@
         <v>1.44</v>
       </c>
       <c r="AP154">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ154">
         <v>1.72</v>
@@ -33334,7 +33343,7 @@
         <v>87</v>
       </c>
       <c r="P155" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33540,7 +33549,7 @@
         <v>203</v>
       </c>
       <c r="P156" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q156">
         <v>1.7</v>
@@ -33618,7 +33627,7 @@
         <v>0.78</v>
       </c>
       <c r="AP156">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ156">
         <v>1.06</v>
@@ -33952,7 +33961,7 @@
         <v>93</v>
       </c>
       <c r="P158" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q158">
         <v>3.7</v>
@@ -34570,7 +34579,7 @@
         <v>205</v>
       </c>
       <c r="P161" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q161">
         <v>1.9</v>
@@ -34982,7 +34991,7 @@
         <v>207</v>
       </c>
       <c r="P163" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q163">
         <v>2.45</v>
@@ -35394,7 +35403,7 @@
         <v>144</v>
       </c>
       <c r="P165" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q165">
         <v>3.5</v>
@@ -35887,7 +35896,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ167">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR167">
         <v>1.07</v>
@@ -36012,7 +36021,7 @@
         <v>87</v>
       </c>
       <c r="P168" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q168">
         <v>3.6</v>
@@ -36630,7 +36639,7 @@
         <v>87</v>
       </c>
       <c r="P171" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q171">
         <v>3.5</v>
@@ -36836,7 +36845,7 @@
         <v>159</v>
       </c>
       <c r="P172" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q172">
         <v>3.4</v>
@@ -37042,7 +37051,7 @@
         <v>210</v>
       </c>
       <c r="P173" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q173">
         <v>1.5</v>
@@ -37120,7 +37129,7 @@
         <v>0.1</v>
       </c>
       <c r="AP173">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ173">
         <v>0.12</v>
@@ -37248,7 +37257,7 @@
         <v>87</v>
       </c>
       <c r="P174" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q174">
         <v>4.33</v>
@@ -37329,7 +37338,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ174">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR174">
         <v>1.38</v>
@@ -37660,7 +37669,7 @@
         <v>212</v>
       </c>
       <c r="P176" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37866,7 +37875,7 @@
         <v>213</v>
       </c>
       <c r="P177" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q177">
         <v>2.3</v>
@@ -37944,7 +37953,7 @@
         <v>0.7</v>
       </c>
       <c r="AP177">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ177">
         <v>1.06</v>
@@ -38278,7 +38287,7 @@
         <v>215</v>
       </c>
       <c r="P179" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38484,7 +38493,7 @@
         <v>216</v>
       </c>
       <c r="P180" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q180">
         <v>2.55</v>
@@ -38768,7 +38777,7 @@
         <v>0.45</v>
       </c>
       <c r="AP181">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ181">
         <v>0.71</v>
@@ -39102,7 +39111,7 @@
         <v>87</v>
       </c>
       <c r="P183" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q183">
         <v>5.5</v>
@@ -39308,7 +39317,7 @@
         <v>219</v>
       </c>
       <c r="P184" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -39595,7 +39604,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ185">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR185">
         <v>1.29</v>
@@ -40132,7 +40141,7 @@
         <v>96</v>
       </c>
       <c r="P188" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q188">
         <v>2.35</v>
@@ -40622,7 +40631,7 @@
         <v>1.91</v>
       </c>
       <c r="AP190">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ190">
         <v>1.83</v>
@@ -40750,7 +40759,7 @@
         <v>224</v>
       </c>
       <c r="P191" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q191">
         <v>1.95</v>
@@ -41037,7 +41046,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ192">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR192">
         <v>1.52</v>
@@ -41162,7 +41171,7 @@
         <v>225</v>
       </c>
       <c r="P193" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q193">
         <v>3.6</v>
@@ -41368,7 +41377,7 @@
         <v>226</v>
       </c>
       <c r="P194" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -41449,7 +41458,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ194">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR194">
         <v>1.52</v>
@@ -41652,7 +41661,7 @@
         <v>0.67</v>
       </c>
       <c r="AP195">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ195">
         <v>0.78</v>
@@ -42398,7 +42407,7 @@
         <v>188</v>
       </c>
       <c r="P199" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -42604,7 +42613,7 @@
         <v>231</v>
       </c>
       <c r="P200" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q200">
         <v>2.25</v>
@@ -43016,7 +43025,7 @@
         <v>233</v>
       </c>
       <c r="P202" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -43222,7 +43231,7 @@
         <v>234</v>
       </c>
       <c r="P203" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q203">
         <v>2.6</v>
@@ -43428,7 +43437,7 @@
         <v>235</v>
       </c>
       <c r="P204" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q204">
         <v>2.15</v>
@@ -43506,7 +43515,7 @@
         <v>0.5</v>
       </c>
       <c r="AP204">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ204">
         <v>0.71</v>
@@ -43634,7 +43643,7 @@
         <v>236</v>
       </c>
       <c r="P205" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q205">
         <v>4.6</v>
@@ -43840,7 +43849,7 @@
         <v>237</v>
       </c>
       <c r="P206" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q206">
         <v>1.95</v>
@@ -44333,7 +44342,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ208">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR208">
         <v>1.72</v>
@@ -45076,7 +45085,7 @@
         <v>227</v>
       </c>
       <c r="P212" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q212">
         <v>2.75</v>
@@ -45282,7 +45291,7 @@
         <v>239</v>
       </c>
       <c r="P213" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q213">
         <v>2.5</v>
@@ -45360,7 +45369,7 @@
         <v>0.62</v>
       </c>
       <c r="AP213">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ213">
         <v>0.78</v>
@@ -45488,7 +45497,7 @@
         <v>86</v>
       </c>
       <c r="P214" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q214">
         <v>1.71</v>
@@ -45566,7 +45575,7 @@
         <v>0.85</v>
       </c>
       <c r="AP214">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ214">
         <v>0.89</v>
@@ -45775,7 +45784,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ215">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR215">
         <v>1.77</v>
@@ -45900,7 +45909,7 @@
         <v>87</v>
       </c>
       <c r="P216" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q216">
         <v>3.25</v>
@@ -46518,7 +46527,7 @@
         <v>88</v>
       </c>
       <c r="P219" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q219">
         <v>4.33</v>
@@ -46930,7 +46939,7 @@
         <v>241</v>
       </c>
       <c r="P221" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q221">
         <v>2.25</v>
@@ -47548,7 +47557,7 @@
         <v>87</v>
       </c>
       <c r="P224" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q224">
         <v>4.33</v>
@@ -47629,7 +47638,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ224">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR224">
         <v>1.22</v>
@@ -48784,7 +48793,7 @@
         <v>174</v>
       </c>
       <c r="P230" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q230">
         <v>4.75</v>
@@ -49071,7 +49080,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ231">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR231">
         <v>1.88</v>
@@ -49196,7 +49205,7 @@
         <v>87</v>
       </c>
       <c r="P232" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q232">
         <v>2.88</v>
@@ -49274,10 +49283,10 @@
         <v>1.21</v>
       </c>
       <c r="AP232">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ232">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR232">
         <v>1.76</v>
@@ -50226,7 +50235,7 @@
         <v>249</v>
       </c>
       <c r="P237" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q237">
         <v>2.5</v>
@@ -50432,7 +50441,7 @@
         <v>250</v>
       </c>
       <c r="P238" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q238">
         <v>3.1</v>
@@ -50638,7 +50647,7 @@
         <v>118</v>
       </c>
       <c r="P239" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q239">
         <v>3.75</v>
@@ -50844,7 +50853,7 @@
         <v>251</v>
       </c>
       <c r="P240" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q240">
         <v>2.1</v>
@@ -50922,7 +50931,7 @@
         <v>1.07</v>
       </c>
       <c r="AP240">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ240">
         <v>0.9399999999999999</v>
@@ -51050,7 +51059,7 @@
         <v>105</v>
       </c>
       <c r="P241" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q241">
         <v>2.3</v>
@@ -51462,7 +51471,7 @@
         <v>87</v>
       </c>
       <c r="P243" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q243">
         <v>3.75</v>
@@ -51668,7 +51677,7 @@
         <v>252</v>
       </c>
       <c r="P244" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q244">
         <v>3.4</v>
@@ -52158,10 +52167,10 @@
         <v>1.6</v>
       </c>
       <c r="AP246">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ246">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR246">
         <v>2.09</v>
@@ -52286,7 +52295,7 @@
         <v>255</v>
       </c>
       <c r="P247" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q247">
         <v>3.4</v>
@@ -52573,7 +52582,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ248">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR248">
         <v>1.81</v>
@@ -52904,7 +52913,7 @@
         <v>257</v>
       </c>
       <c r="P250" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q250">
         <v>2.5</v>
@@ -53110,7 +53119,7 @@
         <v>258</v>
       </c>
       <c r="P251" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q251">
         <v>2.05</v>
@@ -53316,7 +53325,7 @@
         <v>259</v>
       </c>
       <c r="P252" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q252">
         <v>2.63</v>
@@ -53522,7 +53531,7 @@
         <v>87</v>
       </c>
       <c r="P253" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q253">
         <v>4.33</v>
@@ -53728,7 +53737,7 @@
         <v>260</v>
       </c>
       <c r="P254" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q254">
         <v>4.75</v>
@@ -53806,7 +53815,7 @@
         <v>1.73</v>
       </c>
       <c r="AP254">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ254">
         <v>1.83</v>
@@ -53934,7 +53943,7 @@
         <v>87</v>
       </c>
       <c r="P255" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q255">
         <v>2.5</v>
@@ -54140,7 +54149,7 @@
         <v>261</v>
       </c>
       <c r="P256" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q256">
         <v>3.4</v>
@@ -54552,7 +54561,7 @@
         <v>262</v>
       </c>
       <c r="P258" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q258">
         <v>3.1</v>
@@ -54758,7 +54767,7 @@
         <v>263</v>
       </c>
       <c r="P259" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q259">
         <v>2.1</v>
@@ -55251,7 +55260,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ261">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR261">
         <v>1.85</v>
@@ -55376,7 +55385,7 @@
         <v>87</v>
       </c>
       <c r="P262" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q262">
         <v>2.75</v>
@@ -55454,10 +55463,10 @@
         <v>1.25</v>
       </c>
       <c r="AP262">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ262">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR262">
         <v>1.7</v>
@@ -55582,7 +55591,7 @@
         <v>266</v>
       </c>
       <c r="P263" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q263">
         <v>2.5</v>
@@ -55866,7 +55875,7 @@
         <v>1.88</v>
       </c>
       <c r="AP264">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ264">
         <v>1.72</v>
@@ -55994,7 +56003,7 @@
         <v>217</v>
       </c>
       <c r="P265" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q265">
         <v>3</v>
@@ -56200,7 +56209,7 @@
         <v>267</v>
       </c>
       <c r="P266" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q266">
         <v>2.88</v>
@@ -57024,7 +57033,7 @@
         <v>105</v>
       </c>
       <c r="P270" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q270">
         <v>3</v>
@@ -57230,7 +57239,7 @@
         <v>87</v>
       </c>
       <c r="P271" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q271">
         <v>5</v>
@@ -57436,7 +57445,7 @@
         <v>270</v>
       </c>
       <c r="P272" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q272">
         <v>3.5</v>
@@ -57642,7 +57651,7 @@
         <v>271</v>
       </c>
       <c r="P273" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q273">
         <v>2.35</v>
@@ -58132,7 +58141,7 @@
         <v>1.76</v>
       </c>
       <c r="AP275">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ275">
         <v>1.72</v>
@@ -58341,7 +58350,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ276">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR276">
         <v>1.64</v>
@@ -58544,7 +58553,7 @@
         <v>1.65</v>
       </c>
       <c r="AP277">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ277">
         <v>1.72</v>
@@ -59084,7 +59093,7 @@
         <v>275</v>
       </c>
       <c r="P280" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q280">
         <v>2.88</v>
@@ -59290,7 +59299,7 @@
         <v>276</v>
       </c>
       <c r="P281" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q281">
         <v>2.25</v>
@@ -59496,7 +59505,7 @@
         <v>277</v>
       </c>
       <c r="P282" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q282">
         <v>2.5</v>
@@ -59702,7 +59711,7 @@
         <v>87</v>
       </c>
       <c r="P283" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q283">
         <v>3.4</v>
@@ -59783,7 +59792,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ283">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR283">
         <v>1.44</v>
@@ -59908,7 +59917,7 @@
         <v>87</v>
       </c>
       <c r="P284" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q284">
         <v>2.1</v>
@@ -60271,6 +60280,418 @@
       </c>
       <c r="BP285">
         <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:68">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>7858351</v>
+      </c>
+      <c r="C286" t="s">
+        <v>68</v>
+      </c>
+      <c r="D286" t="s">
+        <v>69</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45778.35416666666</v>
+      </c>
+      <c r="F286">
+        <v>7</v>
+      </c>
+      <c r="G286" t="s">
+        <v>82</v>
+      </c>
+      <c r="H286" t="s">
+        <v>73</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286">
+        <v>0</v>
+      </c>
+      <c r="L286">
+        <v>1</v>
+      </c>
+      <c r="M286">
+        <v>3</v>
+      </c>
+      <c r="N286">
+        <v>4</v>
+      </c>
+      <c r="O286" t="s">
+        <v>278</v>
+      </c>
+      <c r="P286" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q286">
+        <v>3.25</v>
+      </c>
+      <c r="R286">
+        <v>2.25</v>
+      </c>
+      <c r="S286">
+        <v>3</v>
+      </c>
+      <c r="T286">
+        <v>1.33</v>
+      </c>
+      <c r="U286">
+        <v>3.25</v>
+      </c>
+      <c r="V286">
+        <v>2.63</v>
+      </c>
+      <c r="W286">
+        <v>1.44</v>
+      </c>
+      <c r="X286">
+        <v>6.5</v>
+      </c>
+      <c r="Y286">
+        <v>1.11</v>
+      </c>
+      <c r="Z286">
+        <v>2.68</v>
+      </c>
+      <c r="AA286">
+        <v>3.41</v>
+      </c>
+      <c r="AB286">
+        <v>2.48</v>
+      </c>
+      <c r="AC286">
+        <v>1.05</v>
+      </c>
+      <c r="AD286">
+        <v>9.5</v>
+      </c>
+      <c r="AE286">
+        <v>1.25</v>
+      </c>
+      <c r="AF286">
+        <v>3.8</v>
+      </c>
+      <c r="AG286">
+        <v>1.75</v>
+      </c>
+      <c r="AH286">
+        <v>2</v>
+      </c>
+      <c r="AI286">
+        <v>1.62</v>
+      </c>
+      <c r="AJ286">
+        <v>2.2</v>
+      </c>
+      <c r="AK286">
+        <v>1.52</v>
+      </c>
+      <c r="AL286">
+        <v>1.29</v>
+      </c>
+      <c r="AM286">
+        <v>1.44</v>
+      </c>
+      <c r="AN286">
+        <v>1.56</v>
+      </c>
+      <c r="AO286">
+        <v>1.5</v>
+      </c>
+      <c r="AP286">
+        <v>1.47</v>
+      </c>
+      <c r="AQ286">
+        <v>1.58</v>
+      </c>
+      <c r="AR286">
+        <v>1.73</v>
+      </c>
+      <c r="AS286">
+        <v>1.31</v>
+      </c>
+      <c r="AT286">
+        <v>3.04</v>
+      </c>
+      <c r="AU286">
+        <v>2</v>
+      </c>
+      <c r="AV286">
+        <v>6</v>
+      </c>
+      <c r="AW286">
+        <v>13</v>
+      </c>
+      <c r="AX286">
+        <v>3</v>
+      </c>
+      <c r="AY286">
+        <v>19</v>
+      </c>
+      <c r="AZ286">
+        <v>9</v>
+      </c>
+      <c r="BA286">
+        <v>9</v>
+      </c>
+      <c r="BB286">
+        <v>2</v>
+      </c>
+      <c r="BC286">
+        <v>11</v>
+      </c>
+      <c r="BD286">
+        <v>1.86</v>
+      </c>
+      <c r="BE286">
+        <v>8.5</v>
+      </c>
+      <c r="BF286">
+        <v>2.28</v>
+      </c>
+      <c r="BG286">
+        <v>1.24</v>
+      </c>
+      <c r="BH286">
+        <v>3.34</v>
+      </c>
+      <c r="BI286">
+        <v>1.47</v>
+      </c>
+      <c r="BJ286">
+        <v>2.42</v>
+      </c>
+      <c r="BK286">
+        <v>1.85</v>
+      </c>
+      <c r="BL286">
+        <v>1.85</v>
+      </c>
+      <c r="BM286">
+        <v>2.34</v>
+      </c>
+      <c r="BN286">
+        <v>1.5</v>
+      </c>
+      <c r="BO286">
+        <v>3.08</v>
+      </c>
+      <c r="BP286">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="287" spans="1:68">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>7858352</v>
+      </c>
+      <c r="C287" t="s">
+        <v>68</v>
+      </c>
+      <c r="D287" t="s">
+        <v>69</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45778.46875</v>
+      </c>
+      <c r="F287">
+        <v>7</v>
+      </c>
+      <c r="G287" t="s">
+        <v>70</v>
+      </c>
+      <c r="H287" t="s">
+        <v>85</v>
+      </c>
+      <c r="I287">
+        <v>1</v>
+      </c>
+      <c r="J287">
+        <v>1</v>
+      </c>
+      <c r="K287">
+        <v>2</v>
+      </c>
+      <c r="L287">
+        <v>4</v>
+      </c>
+      <c r="M287">
+        <v>1</v>
+      </c>
+      <c r="N287">
+        <v>5</v>
+      </c>
+      <c r="O287" t="s">
+        <v>279</v>
+      </c>
+      <c r="P287" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q287">
+        <v>1.73</v>
+      </c>
+      <c r="R287">
+        <v>2.75</v>
+      </c>
+      <c r="S287">
+        <v>7.5</v>
+      </c>
+      <c r="T287">
+        <v>1.25</v>
+      </c>
+      <c r="U287">
+        <v>3.75</v>
+      </c>
+      <c r="V287">
+        <v>2.1</v>
+      </c>
+      <c r="W287">
+        <v>1.67</v>
+      </c>
+      <c r="X287">
+        <v>4.5</v>
+      </c>
+      <c r="Y287">
+        <v>1.18</v>
+      </c>
+      <c r="Z287">
+        <v>1.28</v>
+      </c>
+      <c r="AA287">
+        <v>5.8</v>
+      </c>
+      <c r="AB287">
+        <v>8.4</v>
+      </c>
+      <c r="AC287">
+        <v>1.01</v>
+      </c>
+      <c r="AD287">
+        <v>17</v>
+      </c>
+      <c r="AE287">
+        <v>1.12</v>
+      </c>
+      <c r="AF287">
+        <v>5.75</v>
+      </c>
+      <c r="AG287">
+        <v>1.45</v>
+      </c>
+      <c r="AH287">
+        <v>2.55</v>
+      </c>
+      <c r="AI287">
+        <v>1.8</v>
+      </c>
+      <c r="AJ287">
+        <v>1.95</v>
+      </c>
+      <c r="AK287">
+        <v>1.07</v>
+      </c>
+      <c r="AL287">
+        <v>1.14</v>
+      </c>
+      <c r="AM287">
+        <v>3.4</v>
+      </c>
+      <c r="AN287">
+        <v>2.17</v>
+      </c>
+      <c r="AO287">
+        <v>1.28</v>
+      </c>
+      <c r="AP287">
+        <v>2.21</v>
+      </c>
+      <c r="AQ287">
+        <v>1.21</v>
+      </c>
+      <c r="AR287">
+        <v>2.11</v>
+      </c>
+      <c r="AS287">
+        <v>1.29</v>
+      </c>
+      <c r="AT287">
+        <v>3.4</v>
+      </c>
+      <c r="AU287">
+        <v>14</v>
+      </c>
+      <c r="AV287">
+        <v>5</v>
+      </c>
+      <c r="AW287">
+        <v>18</v>
+      </c>
+      <c r="AX287">
+        <v>4</v>
+      </c>
+      <c r="AY287">
+        <v>39</v>
+      </c>
+      <c r="AZ287">
+        <v>9</v>
+      </c>
+      <c r="BA287">
+        <v>9</v>
+      </c>
+      <c r="BB287">
+        <v>3</v>
+      </c>
+      <c r="BC287">
+        <v>12</v>
+      </c>
+      <c r="BD287">
+        <v>1.19</v>
+      </c>
+      <c r="BE287">
+        <v>11.5</v>
+      </c>
+      <c r="BF287">
+        <v>6.05</v>
+      </c>
+      <c r="BG287">
+        <v>1.28</v>
+      </c>
+      <c r="BH287">
+        <v>3.08</v>
+      </c>
+      <c r="BI287">
+        <v>1.53</v>
+      </c>
+      <c r="BJ287">
+        <v>2.28</v>
+      </c>
+      <c r="BK287">
+        <v>1.91</v>
+      </c>
+      <c r="BL287">
+        <v>1.8</v>
+      </c>
+      <c r="BM287">
+        <v>2.51</v>
+      </c>
+      <c r="BN287">
+        <v>1.44</v>
+      </c>
+      <c r="BO287">
+        <v>3.34</v>
+      </c>
+      <c r="BP287">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="399">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -856,6 +856,9 @@
     <t>['45+1', '50', '57', '60']</t>
   </si>
   <si>
+    <t>['45+3', '76', '88', '90+6']</t>
+  </si>
+  <si>
     <t>['65']</t>
   </si>
   <si>
@@ -1205,6 +1208,9 @@
   </si>
   <si>
     <t>['33']</t>
+  </si>
+  <si>
+    <t>['37', '62']</t>
   </si>
 </sst>
 </file>
@@ -1566,7 +1572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP287"/>
+  <dimension ref="A1:BP288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1825,7 +1831,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q2">
         <v>1.91</v>
@@ -3345,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ9">
         <v>0.71</v>
@@ -3679,7 +3685,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q11">
         <v>2.4</v>
@@ -4091,7 +4097,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4297,7 +4303,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q14">
         <v>3.25</v>
@@ -4503,7 +4509,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4915,7 +4921,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -4996,7 +5002,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ17">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5533,7 +5539,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q20">
         <v>4.1</v>
@@ -5611,7 +5617,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ20">
         <v>1.72</v>
@@ -5945,7 +5951,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -6151,7 +6157,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q23">
         <v>1.91</v>
@@ -6563,7 +6569,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q25">
         <v>1.93</v>
@@ -6975,7 +6981,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q27">
         <v>3.9</v>
@@ -7181,7 +7187,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q28">
         <v>3.06</v>
@@ -7262,7 +7268,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ28">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR28">
         <v>0.79</v>
@@ -7387,7 +7393,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -8417,7 +8423,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q34">
         <v>2.45</v>
@@ -8495,7 +8501,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ34">
         <v>0.78</v>
@@ -8829,7 +8835,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -9859,7 +9865,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -10065,7 +10071,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10146,7 +10152,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ42">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR42">
         <v>0.95</v>
@@ -11301,7 +11307,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11507,7 +11513,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11713,7 +11719,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q50">
         <v>5.85</v>
@@ -11919,7 +11925,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q51">
         <v>2.2</v>
@@ -12949,7 +12955,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q56">
         <v>2.75</v>
@@ -13361,7 +13367,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13567,7 +13573,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q59">
         <v>3.52</v>
@@ -13645,7 +13651,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ59">
         <v>1.28</v>
@@ -13979,7 +13985,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -14472,7 +14478,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ63">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR63">
         <v>1.69</v>
@@ -14803,7 +14809,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q65">
         <v>3.02</v>
@@ -15421,7 +15427,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q68">
         <v>3.2</v>
@@ -15627,7 +15633,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q69">
         <v>3.76</v>
@@ -16657,7 +16663,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -16735,7 +16741,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ74">
         <v>0.12</v>
@@ -18511,7 +18517,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18589,7 +18595,7 @@
         <v>1.4</v>
       </c>
       <c r="AP83">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ83">
         <v>1.83</v>
@@ -18798,7 +18804,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ84">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR84">
         <v>1.61</v>
@@ -19129,7 +19135,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q86">
         <v>1.91</v>
@@ -20159,7 +20165,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20365,7 +20371,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -21189,7 +21195,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -21395,7 +21401,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -21679,10 +21685,10 @@
         <v>1.6</v>
       </c>
       <c r="AP98">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ98">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR98">
         <v>1.83</v>
@@ -21807,7 +21813,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q99">
         <v>2.9</v>
@@ -22013,7 +22019,7 @@
         <v>87</v>
       </c>
       <c r="P100" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22219,7 +22225,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -23249,7 +23255,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -23455,7 +23461,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23661,7 +23667,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q108">
         <v>3.5</v>
@@ -24073,7 +24079,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q110">
         <v>3.2</v>
@@ -24691,7 +24697,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q113">
         <v>7.5</v>
@@ -24978,7 +24984,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ114">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR114">
         <v>1.76</v>
@@ -25927,7 +25933,7 @@
         <v>150</v>
       </c>
       <c r="P119" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q119">
         <v>4.5</v>
@@ -26417,7 +26423,7 @@
         <v>0.57</v>
       </c>
       <c r="AP121">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ121">
         <v>0.71</v>
@@ -26545,7 +26551,7 @@
         <v>179</v>
       </c>
       <c r="P122" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26832,7 +26838,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ123">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR123">
         <v>2.07</v>
@@ -27163,7 +27169,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q125">
         <v>4.75</v>
@@ -27575,7 +27581,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27987,7 +27993,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q129">
         <v>2.75</v>
@@ -28065,7 +28071,7 @@
         <v>1.13</v>
       </c>
       <c r="AP129">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ129">
         <v>1.21</v>
@@ -28193,7 +28199,7 @@
         <v>185</v>
       </c>
       <c r="P130" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q130">
         <v>1.72</v>
@@ -28605,7 +28611,7 @@
         <v>186</v>
       </c>
       <c r="P132" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -29017,7 +29023,7 @@
         <v>188</v>
       </c>
       <c r="P134" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q134">
         <v>2.55</v>
@@ -29429,7 +29435,7 @@
         <v>189</v>
       </c>
       <c r="P136" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q136">
         <v>1.7</v>
@@ -30459,7 +30465,7 @@
         <v>87</v>
       </c>
       <c r="P141" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30540,7 +30546,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ141">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR141">
         <v>1.44</v>
@@ -30871,7 +30877,7 @@
         <v>194</v>
       </c>
       <c r="P143" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q143">
         <v>1.95</v>
@@ -31077,7 +31083,7 @@
         <v>87</v>
       </c>
       <c r="P144" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -31489,7 +31495,7 @@
         <v>196</v>
       </c>
       <c r="P146" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q146">
         <v>2.7</v>
@@ -31567,7 +31573,7 @@
         <v>1</v>
       </c>
       <c r="AP146">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ146">
         <v>0.9399999999999999</v>
@@ -31901,7 +31907,7 @@
         <v>167</v>
       </c>
       <c r="P148" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -32107,7 +32113,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q149">
         <v>3.1</v>
@@ -32725,7 +32731,7 @@
         <v>200</v>
       </c>
       <c r="P152" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q152">
         <v>3.25</v>
@@ -33137,7 +33143,7 @@
         <v>202</v>
       </c>
       <c r="P154" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -33343,7 +33349,7 @@
         <v>87</v>
       </c>
       <c r="P155" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33549,7 +33555,7 @@
         <v>203</v>
       </c>
       <c r="P156" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q156">
         <v>1.7</v>
@@ -33961,7 +33967,7 @@
         <v>93</v>
       </c>
       <c r="P158" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q158">
         <v>3.7</v>
@@ -34579,7 +34585,7 @@
         <v>205</v>
       </c>
       <c r="P161" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q161">
         <v>1.9</v>
@@ -34660,7 +34666,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ161">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR161">
         <v>1.75</v>
@@ -34991,7 +34997,7 @@
         <v>207</v>
       </c>
       <c r="P163" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q163">
         <v>2.45</v>
@@ -35069,7 +35075,7 @@
         <v>0.5</v>
       </c>
       <c r="AP163">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ163">
         <v>0.71</v>
@@ -35403,7 +35409,7 @@
         <v>144</v>
       </c>
       <c r="P165" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q165">
         <v>3.5</v>
@@ -36021,7 +36027,7 @@
         <v>87</v>
       </c>
       <c r="P168" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q168">
         <v>3.6</v>
@@ -36639,7 +36645,7 @@
         <v>87</v>
       </c>
       <c r="P171" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q171">
         <v>3.5</v>
@@ -36845,7 +36851,7 @@
         <v>159</v>
       </c>
       <c r="P172" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q172">
         <v>3.4</v>
@@ -37051,7 +37057,7 @@
         <v>210</v>
       </c>
       <c r="P173" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q173">
         <v>1.5</v>
@@ -37257,7 +37263,7 @@
         <v>87</v>
       </c>
       <c r="P174" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q174">
         <v>4.33</v>
@@ -37669,7 +37675,7 @@
         <v>212</v>
       </c>
       <c r="P176" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37875,7 +37881,7 @@
         <v>213</v>
       </c>
       <c r="P177" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q177">
         <v>2.3</v>
@@ -38287,7 +38293,7 @@
         <v>215</v>
       </c>
       <c r="P179" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38365,7 +38371,7 @@
         <v>1.55</v>
       </c>
       <c r="AP179">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ179">
         <v>1.72</v>
@@ -38493,7 +38499,7 @@
         <v>216</v>
       </c>
       <c r="P180" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q180">
         <v>2.55</v>
@@ -38986,7 +38992,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ182">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR182">
         <v>1.21</v>
@@ -39111,7 +39117,7 @@
         <v>87</v>
       </c>
       <c r="P183" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q183">
         <v>5.5</v>
@@ -39317,7 +39323,7 @@
         <v>219</v>
       </c>
       <c r="P184" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -40016,7 +40022,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ187">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR187">
         <v>1.65</v>
@@ -40141,7 +40147,7 @@
         <v>96</v>
       </c>
       <c r="P188" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q188">
         <v>2.35</v>
@@ -40759,7 +40765,7 @@
         <v>224</v>
       </c>
       <c r="P191" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q191">
         <v>1.95</v>
@@ -41171,7 +41177,7 @@
         <v>225</v>
       </c>
       <c r="P193" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q193">
         <v>3.6</v>
@@ -41377,7 +41383,7 @@
         <v>226</v>
       </c>
       <c r="P194" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -42407,7 +42413,7 @@
         <v>188</v>
       </c>
       <c r="P199" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -42613,7 +42619,7 @@
         <v>231</v>
       </c>
       <c r="P200" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q200">
         <v>2.25</v>
@@ -42691,7 +42697,7 @@
         <v>0.92</v>
       </c>
       <c r="AP200">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ200">
         <v>0.89</v>
@@ -43025,7 +43031,7 @@
         <v>233</v>
       </c>
       <c r="P202" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -43231,7 +43237,7 @@
         <v>234</v>
       </c>
       <c r="P203" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q203">
         <v>2.6</v>
@@ -43312,7 +43318,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ203">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR203">
         <v>1.28</v>
@@ -43437,7 +43443,7 @@
         <v>235</v>
       </c>
       <c r="P204" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q204">
         <v>2.15</v>
@@ -43643,7 +43649,7 @@
         <v>236</v>
       </c>
       <c r="P205" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q205">
         <v>4.6</v>
@@ -43849,7 +43855,7 @@
         <v>237</v>
       </c>
       <c r="P206" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q206">
         <v>1.95</v>
@@ -45085,7 +45091,7 @@
         <v>227</v>
       </c>
       <c r="P212" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q212">
         <v>2.75</v>
@@ -45163,7 +45169,7 @@
         <v>0.92</v>
       </c>
       <c r="AP212">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ212">
         <v>0.9399999999999999</v>
@@ -45291,7 +45297,7 @@
         <v>239</v>
       </c>
       <c r="P213" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q213">
         <v>2.5</v>
@@ -45497,7 +45503,7 @@
         <v>86</v>
       </c>
       <c r="P214" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q214">
         <v>1.71</v>
@@ -45909,7 +45915,7 @@
         <v>87</v>
       </c>
       <c r="P216" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q216">
         <v>3.25</v>
@@ -46527,7 +46533,7 @@
         <v>88</v>
       </c>
       <c r="P219" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q219">
         <v>4.33</v>
@@ -46939,7 +46945,7 @@
         <v>241</v>
       </c>
       <c r="P221" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q221">
         <v>2.25</v>
@@ -47226,7 +47232,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ222">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR222">
         <v>1.82</v>
@@ -47557,7 +47563,7 @@
         <v>87</v>
       </c>
       <c r="P224" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q224">
         <v>4.33</v>
@@ -48793,7 +48799,7 @@
         <v>174</v>
       </c>
       <c r="P230" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q230">
         <v>4.75</v>
@@ -49077,7 +49083,7 @@
         <v>1.71</v>
       </c>
       <c r="AP231">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ231">
         <v>1.58</v>
@@ -49205,7 +49211,7 @@
         <v>87</v>
       </c>
       <c r="P232" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q232">
         <v>2.88</v>
@@ -50235,7 +50241,7 @@
         <v>249</v>
       </c>
       <c r="P237" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q237">
         <v>2.5</v>
@@ -50316,7 +50322,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ237">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR237">
         <v>1.5</v>
@@ -50441,7 +50447,7 @@
         <v>250</v>
       </c>
       <c r="P238" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q238">
         <v>3.1</v>
@@ -50647,7 +50653,7 @@
         <v>118</v>
       </c>
       <c r="P239" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q239">
         <v>3.75</v>
@@ -50853,7 +50859,7 @@
         <v>251</v>
       </c>
       <c r="P240" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q240">
         <v>2.1</v>
@@ -51059,7 +51065,7 @@
         <v>105</v>
       </c>
       <c r="P241" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q241">
         <v>2.3</v>
@@ -51471,7 +51477,7 @@
         <v>87</v>
       </c>
       <c r="P243" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q243">
         <v>3.75</v>
@@ -51677,7 +51683,7 @@
         <v>252</v>
       </c>
       <c r="P244" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q244">
         <v>3.4</v>
@@ -52295,7 +52301,7 @@
         <v>255</v>
       </c>
       <c r="P247" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q247">
         <v>3.4</v>
@@ -52913,7 +52919,7 @@
         <v>257</v>
       </c>
       <c r="P250" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q250">
         <v>2.5</v>
@@ -52994,7 +53000,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ250">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR250">
         <v>1.54</v>
@@ -53119,7 +53125,7 @@
         <v>258</v>
       </c>
       <c r="P251" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q251">
         <v>2.05</v>
@@ -53325,7 +53331,7 @@
         <v>259</v>
       </c>
       <c r="P252" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q252">
         <v>2.63</v>
@@ -53403,7 +53409,7 @@
         <v>0.6</v>
       </c>
       <c r="AP252">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ252">
         <v>0.78</v>
@@ -53531,7 +53537,7 @@
         <v>87</v>
       </c>
       <c r="P253" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q253">
         <v>4.33</v>
@@ -53737,7 +53743,7 @@
         <v>260</v>
       </c>
       <c r="P254" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q254">
         <v>4.75</v>
@@ -53943,7 +53949,7 @@
         <v>87</v>
       </c>
       <c r="P255" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q255">
         <v>2.5</v>
@@ -54149,7 +54155,7 @@
         <v>261</v>
       </c>
       <c r="P256" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q256">
         <v>3.4</v>
@@ -54561,7 +54567,7 @@
         <v>262</v>
       </c>
       <c r="P258" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q258">
         <v>3.1</v>
@@ -54639,7 +54645,7 @@
         <v>1</v>
       </c>
       <c r="AP258">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ258">
         <v>0.9399999999999999</v>
@@ -54767,7 +54773,7 @@
         <v>263</v>
       </c>
       <c r="P259" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q259">
         <v>2.1</v>
@@ -55385,7 +55391,7 @@
         <v>87</v>
       </c>
       <c r="P262" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q262">
         <v>2.75</v>
@@ -55591,7 +55597,7 @@
         <v>266</v>
       </c>
       <c r="P263" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q263">
         <v>2.5</v>
@@ -56003,7 +56009,7 @@
         <v>217</v>
       </c>
       <c r="P265" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q265">
         <v>3</v>
@@ -56209,7 +56215,7 @@
         <v>267</v>
       </c>
       <c r="P266" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q266">
         <v>2.88</v>
@@ -56290,7 +56296,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ266">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR266">
         <v>1.28</v>
@@ -57033,7 +57039,7 @@
         <v>105</v>
       </c>
       <c r="P270" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q270">
         <v>3</v>
@@ -57239,7 +57245,7 @@
         <v>87</v>
       </c>
       <c r="P271" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q271">
         <v>5</v>
@@ -57445,7 +57451,7 @@
         <v>270</v>
       </c>
       <c r="P272" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q272">
         <v>3.5</v>
@@ -57651,7 +57657,7 @@
         <v>271</v>
       </c>
       <c r="P273" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q273">
         <v>2.35</v>
@@ -59093,7 +59099,7 @@
         <v>275</v>
       </c>
       <c r="P280" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q280">
         <v>2.88</v>
@@ -59171,7 +59177,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP280">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ280">
         <v>0.9399999999999999</v>
@@ -59299,7 +59305,7 @@
         <v>276</v>
       </c>
       <c r="P281" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q281">
         <v>2.25</v>
@@ -59380,7 +59386,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ281">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR281">
         <v>1.67</v>
@@ -59505,7 +59511,7 @@
         <v>277</v>
       </c>
       <c r="P282" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q282">
         <v>2.5</v>
@@ -59711,7 +59717,7 @@
         <v>87</v>
       </c>
       <c r="P283" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q283">
         <v>3.4</v>
@@ -59917,7 +59923,7 @@
         <v>87</v>
       </c>
       <c r="P284" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q284">
         <v>2.1</v>
@@ -60329,7 +60335,7 @@
         <v>278</v>
       </c>
       <c r="P286" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q286">
         <v>3.25</v>
@@ -60535,7 +60541,7 @@
         <v>279</v>
       </c>
       <c r="P287" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q287">
         <v>1.73</v>
@@ -60692,6 +60698,212 @@
       </c>
       <c r="BP287">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="288" spans="1:68">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>7858353</v>
+      </c>
+      <c r="C288" t="s">
+        <v>68</v>
+      </c>
+      <c r="D288" t="s">
+        <v>69</v>
+      </c>
+      <c r="E288" s="2">
+        <v>45779.65625</v>
+      </c>
+      <c r="F288">
+        <v>7</v>
+      </c>
+      <c r="G288" t="s">
+        <v>77</v>
+      </c>
+      <c r="H288" t="s">
+        <v>71</v>
+      </c>
+      <c r="I288">
+        <v>1</v>
+      </c>
+      <c r="J288">
+        <v>1</v>
+      </c>
+      <c r="K288">
+        <v>2</v>
+      </c>
+      <c r="L288">
+        <v>4</v>
+      </c>
+      <c r="M288">
+        <v>2</v>
+      </c>
+      <c r="N288">
+        <v>6</v>
+      </c>
+      <c r="O288" t="s">
+        <v>280</v>
+      </c>
+      <c r="P288" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q288">
+        <v>2.2</v>
+      </c>
+      <c r="R288">
+        <v>2.5</v>
+      </c>
+      <c r="S288">
+        <v>4.5</v>
+      </c>
+      <c r="T288">
+        <v>1.25</v>
+      </c>
+      <c r="U288">
+        <v>3.75</v>
+      </c>
+      <c r="V288">
+        <v>2.25</v>
+      </c>
+      <c r="W288">
+        <v>1.57</v>
+      </c>
+      <c r="X288">
+        <v>5.5</v>
+      </c>
+      <c r="Y288">
+        <v>1.14</v>
+      </c>
+      <c r="Z288">
+        <v>1.8</v>
+      </c>
+      <c r="AA288">
+        <v>3.89</v>
+      </c>
+      <c r="AB288">
+        <v>3.88</v>
+      </c>
+      <c r="AC288">
+        <v>1.04</v>
+      </c>
+      <c r="AD288">
+        <v>10</v>
+      </c>
+      <c r="AE288">
+        <v>1.18</v>
+      </c>
+      <c r="AF288">
+        <v>4.75</v>
+      </c>
+      <c r="AG288">
+        <v>1.57</v>
+      </c>
+      <c r="AH288">
+        <v>2.3</v>
+      </c>
+      <c r="AI288">
+        <v>1.57</v>
+      </c>
+      <c r="AJ288">
+        <v>2.25</v>
+      </c>
+      <c r="AK288">
+        <v>1.22</v>
+      </c>
+      <c r="AL288">
+        <v>1.23</v>
+      </c>
+      <c r="AM288">
+        <v>2.05</v>
+      </c>
+      <c r="AN288">
+        <v>1.39</v>
+      </c>
+      <c r="AO288">
+        <v>0.89</v>
+      </c>
+      <c r="AP288">
+        <v>1.47</v>
+      </c>
+      <c r="AQ288">
+        <v>0.84</v>
+      </c>
+      <c r="AR288">
+        <v>1.81</v>
+      </c>
+      <c r="AS288">
+        <v>1.29</v>
+      </c>
+      <c r="AT288">
+        <v>3.1</v>
+      </c>
+      <c r="AU288">
+        <v>6</v>
+      </c>
+      <c r="AV288">
+        <v>4</v>
+      </c>
+      <c r="AW288">
+        <v>10</v>
+      </c>
+      <c r="AX288">
+        <v>9</v>
+      </c>
+      <c r="AY288">
+        <v>20</v>
+      </c>
+      <c r="AZ288">
+        <v>17</v>
+      </c>
+      <c r="BA288">
+        <v>8</v>
+      </c>
+      <c r="BB288">
+        <v>5</v>
+      </c>
+      <c r="BC288">
+        <v>13</v>
+      </c>
+      <c r="BD288">
+        <v>1.5</v>
+      </c>
+      <c r="BE288">
+        <v>6.75</v>
+      </c>
+      <c r="BF288">
+        <v>2.8</v>
+      </c>
+      <c r="BG288">
+        <v>1.25</v>
+      </c>
+      <c r="BH288">
+        <v>3.4</v>
+      </c>
+      <c r="BI288">
+        <v>1.45</v>
+      </c>
+      <c r="BJ288">
+        <v>2.55</v>
+      </c>
+      <c r="BK288">
+        <v>1.77</v>
+      </c>
+      <c r="BL288">
+        <v>1.95</v>
+      </c>
+      <c r="BM288">
+        <v>2.12</v>
+      </c>
+      <c r="BN288">
+        <v>1.64</v>
+      </c>
+      <c r="BO288">
+        <v>2.65</v>
+      </c>
+      <c r="BP288">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="401">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1212,6 +1212,12 @@
   <si>
     <t>['37', '62']</t>
   </si>
+  <si>
+    <t>['11', '38']</t>
+  </si>
+  <si>
+    <t>['45+1', '81']</t>
+  </si>
 </sst>
 </file>
 
@@ -1572,7 +1578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP288"/>
+  <dimension ref="A1:BP291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1912,7 +1918,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ2">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -3557,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ10">
         <v>0.12</v>
@@ -3969,10 +3975,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ12">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4587,10 +4593,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ15">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -5208,7 +5214,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ18">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR18">
         <v>0.9399999999999999</v>
@@ -5414,7 +5420,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ19">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR19">
         <v>0.45</v>
@@ -6647,7 +6653,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
         <v>0.12</v>
@@ -6853,7 +6859,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ26">
         <v>0.9399999999999999</v>
@@ -7062,7 +7068,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ27">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AR27">
         <v>0.45</v>
@@ -7883,7 +7889,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ31">
         <v>0.71</v>
@@ -8710,7 +8716,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ35">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR35">
         <v>2.22</v>
@@ -9534,7 +9540,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ39">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR39">
         <v>1.72</v>
@@ -10355,7 +10361,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ43">
         <v>0.89</v>
@@ -10973,7 +10979,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ46">
         <v>1.58</v>
@@ -11591,10 +11597,10 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ49">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AR49">
         <v>2.18</v>
@@ -12830,7 +12836,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ55">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR55">
         <v>1.72</v>
@@ -13036,7 +13042,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ56">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AR56">
         <v>1.68</v>
@@ -14681,10 +14687,10 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ64">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR64">
         <v>1.33</v>
@@ -14887,7 +14893,7 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ65">
         <v>1.21</v>
@@ -15302,7 +15308,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ67">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR67">
         <v>1.91</v>
@@ -16123,10 +16129,10 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ71">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR71">
         <v>1.7</v>
@@ -16535,7 +16541,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ73">
         <v>0.71</v>
@@ -17156,7 +17162,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ76">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AR76">
         <v>1.57</v>
@@ -18801,7 +18807,7 @@
         <v>1.75</v>
       </c>
       <c r="AP84">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ84">
         <v>0.84</v>
@@ -19007,7 +19013,7 @@
         <v>1.4</v>
       </c>
       <c r="AP85">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ85">
         <v>1.21</v>
@@ -19419,7 +19425,7 @@
         <v>1.75</v>
       </c>
       <c r="AP87">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ87">
         <v>1.28</v>
@@ -19834,7 +19840,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ89">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR89">
         <v>1.48</v>
@@ -20452,7 +20458,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ92">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR92">
         <v>1.14</v>
@@ -21276,7 +21282,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ96">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AR96">
         <v>1.72</v>
@@ -21479,7 +21485,7 @@
         <v>0.2</v>
       </c>
       <c r="AP97">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ97">
         <v>0.71</v>
@@ -22097,7 +22103,7 @@
         <v>1.67</v>
       </c>
       <c r="AP100">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ100">
         <v>1.83</v>
@@ -22715,7 +22721,7 @@
         <v>0.67</v>
       </c>
       <c r="AP103">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ103">
         <v>0.9399999999999999</v>
@@ -22924,7 +22930,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ104">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR104">
         <v>1.57</v>
@@ -23336,7 +23342,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ106">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR106">
         <v>1.33</v>
@@ -24157,7 +24163,7 @@
         <v>1.33</v>
       </c>
       <c r="AP110">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ110">
         <v>1.58</v>
@@ -24569,10 +24575,10 @@
         <v>2</v>
       </c>
       <c r="AP112">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ112">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AR112">
         <v>1.71</v>
@@ -26011,7 +26017,7 @@
         <v>0.71</v>
       </c>
       <c r="AP119">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ119">
         <v>1.72</v>
@@ -26426,7 +26432,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ121">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR121">
         <v>1.8</v>
@@ -26632,7 +26638,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ122">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR122">
         <v>1.47</v>
@@ -27250,7 +27256,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ125">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AR125">
         <v>1.37</v>
@@ -27453,7 +27459,7 @@
         <v>1.57</v>
       </c>
       <c r="AP126">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ126">
         <v>1.58</v>
@@ -27865,7 +27871,7 @@
         <v>1.57</v>
       </c>
       <c r="AP128">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ128">
         <v>1.28</v>
@@ -28280,7 +28286,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ130">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR130">
         <v>1.84</v>
@@ -29307,7 +29313,7 @@
         <v>0.75</v>
       </c>
       <c r="AP135">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ135">
         <v>1.72</v>
@@ -30337,7 +30343,7 @@
         <v>0.78</v>
       </c>
       <c r="AP140">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ140">
         <v>0.9399999999999999</v>
@@ -30752,7 +30758,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ142">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AR142">
         <v>2.07</v>
@@ -30955,7 +30961,7 @@
         <v>0.88</v>
       </c>
       <c r="AP143">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ143">
         <v>1.06</v>
@@ -31576,7 +31582,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ146">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR146">
         <v>1.85</v>
@@ -32194,7 +32200,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ149">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR149">
         <v>1.18</v>
@@ -32809,7 +32815,7 @@
         <v>1.89</v>
       </c>
       <c r="AP152">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ152">
         <v>1.83</v>
@@ -33015,7 +33021,7 @@
         <v>0.89</v>
       </c>
       <c r="AP153">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ153">
         <v>0.78</v>
@@ -33224,7 +33230,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ154">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AR154">
         <v>1.81</v>
@@ -34251,7 +34257,7 @@
         <v>0.11</v>
       </c>
       <c r="AP159">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ159">
         <v>0.12</v>
@@ -34872,7 +34878,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ162">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR162">
         <v>1.18</v>
@@ -36311,10 +36317,10 @@
         <v>1</v>
       </c>
       <c r="AP169">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ169">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR169">
         <v>1.59</v>
@@ -36932,7 +36938,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ172">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AR172">
         <v>1.56</v>
@@ -37547,7 +37553,7 @@
         <v>0.73</v>
       </c>
       <c r="AP175">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ175">
         <v>0.78</v>
@@ -38374,7 +38380,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ179">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AR179">
         <v>1.9</v>
@@ -38786,7 +38792,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ181">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR181">
         <v>2.05</v>
@@ -39404,7 +39410,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ184">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR184">
         <v>1.69</v>
@@ -39607,7 +39613,7 @@
         <v>1.27</v>
       </c>
       <c r="AP185">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ185">
         <v>1.21</v>
@@ -39813,10 +39819,10 @@
         <v>0.82</v>
       </c>
       <c r="AP186">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ186">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR186">
         <v>1.34</v>
@@ -40225,7 +40231,7 @@
         <v>0.91</v>
       </c>
       <c r="AP188">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ188">
         <v>0.89</v>
@@ -40843,7 +40849,7 @@
         <v>0.73</v>
       </c>
       <c r="AP191">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ191">
         <v>0.71</v>
@@ -43112,7 +43118,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ202">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AR202">
         <v>1.22</v>
@@ -43315,7 +43321,7 @@
         <v>1.25</v>
       </c>
       <c r="AP203">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ203">
         <v>0.84</v>
@@ -43524,7 +43530,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ204">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR204">
         <v>1.66</v>
@@ -44139,10 +44145,10 @@
         <v>0.75</v>
       </c>
       <c r="AP207">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ207">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR207">
         <v>1.77</v>
@@ -44551,7 +44557,7 @@
         <v>0.83</v>
       </c>
       <c r="AP209">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ209">
         <v>1.06</v>
@@ -46408,7 +46414,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ218">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AR218">
         <v>1.71</v>
@@ -46817,7 +46823,7 @@
         <v>1.31</v>
       </c>
       <c r="AP220">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ220">
         <v>1.28</v>
@@ -47026,7 +47032,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ221">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR221">
         <v>1.54</v>
@@ -47229,7 +47235,7 @@
         <v>1.15</v>
       </c>
       <c r="AP222">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ222">
         <v>0.84</v>
@@ -47438,7 +47444,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ223">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR223">
         <v>1.28</v>
@@ -47847,7 +47853,7 @@
         <v>0.85</v>
       </c>
       <c r="AP225">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ225">
         <v>1.06</v>
@@ -48468,7 +48474,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ228">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR228">
         <v>1.7</v>
@@ -48674,7 +48680,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ229">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AR229">
         <v>1.11</v>
@@ -48877,7 +48883,7 @@
         <v>1.64</v>
       </c>
       <c r="AP230">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ230">
         <v>1.83</v>
@@ -49495,7 +49501,7 @@
         <v>1</v>
       </c>
       <c r="AP233">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ233">
         <v>0.89</v>
@@ -50525,7 +50531,7 @@
         <v>0.64</v>
       </c>
       <c r="AP238">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ238">
         <v>0.71</v>
@@ -51146,7 +51152,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ241">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR241">
         <v>1.58</v>
@@ -51349,7 +51355,7 @@
         <v>1</v>
       </c>
       <c r="AP242">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ242">
         <v>0.9399999999999999</v>
@@ -51764,7 +51770,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ244">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR244">
         <v>1.24</v>
@@ -51967,7 +51973,7 @@
         <v>1.27</v>
       </c>
       <c r="AP245">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ245">
         <v>1.28</v>
@@ -53203,7 +53209,7 @@
         <v>0.13</v>
       </c>
       <c r="AP251">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ251">
         <v>0.12</v>
@@ -54030,7 +54036,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ255">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR255">
         <v>1.53</v>
@@ -54236,7 +54242,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ256">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AR256">
         <v>1.65</v>
@@ -55263,7 +55269,7 @@
         <v>1.5</v>
       </c>
       <c r="AP261">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ261">
         <v>1.58</v>
@@ -55884,7 +55890,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ264">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AR264">
         <v>2.11</v>
@@ -56293,7 +56299,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP266">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ266">
         <v>0.84</v>
@@ -56502,7 +56508,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ267">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR267">
         <v>1.67</v>
@@ -58150,7 +58156,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ275">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AR275">
         <v>1.73</v>
@@ -58768,7 +58774,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ278">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR278">
         <v>1.24</v>
@@ -58971,7 +58977,7 @@
         <v>0.88</v>
       </c>
       <c r="AP279">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ279">
         <v>0.89</v>
@@ -59180,7 +59186,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ280">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR280">
         <v>1.82</v>
@@ -59589,7 +59595,7 @@
         <v>0.75</v>
       </c>
       <c r="AP282">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ282">
         <v>0.71</v>
@@ -60207,7 +60213,7 @@
         <v>1.88</v>
       </c>
       <c r="AP285">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ285">
         <v>1.83</v>
@@ -60904,6 +60910,624 @@
       </c>
       <c r="BP288">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:68">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>7858354</v>
+      </c>
+      <c r="C289" t="s">
+        <v>68</v>
+      </c>
+      <c r="D289" t="s">
+        <v>69</v>
+      </c>
+      <c r="E289" s="2">
+        <v>45780.45833333334</v>
+      </c>
+      <c r="F289">
+        <v>5</v>
+      </c>
+      <c r="G289" t="s">
+        <v>83</v>
+      </c>
+      <c r="H289" t="s">
+        <v>75</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>2</v>
+      </c>
+      <c r="K289">
+        <v>2</v>
+      </c>
+      <c r="L289">
+        <v>0</v>
+      </c>
+      <c r="M289">
+        <v>2</v>
+      </c>
+      <c r="N289">
+        <v>2</v>
+      </c>
+      <c r="O289" t="s">
+        <v>87</v>
+      </c>
+      <c r="P289" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q289">
+        <v>2.5</v>
+      </c>
+      <c r="R289">
+        <v>2.25</v>
+      </c>
+      <c r="S289">
+        <v>4.33</v>
+      </c>
+      <c r="T289">
+        <v>1.36</v>
+      </c>
+      <c r="U289">
+        <v>3</v>
+      </c>
+      <c r="V289">
+        <v>2.63</v>
+      </c>
+      <c r="W289">
+        <v>1.44</v>
+      </c>
+      <c r="X289">
+        <v>7</v>
+      </c>
+      <c r="Y289">
+        <v>1.1</v>
+      </c>
+      <c r="Z289">
+        <v>1.89</v>
+      </c>
+      <c r="AA289">
+        <v>3.55</v>
+      </c>
+      <c r="AB289">
+        <v>3.86</v>
+      </c>
+      <c r="AC289">
+        <v>1.05</v>
+      </c>
+      <c r="AD289">
+        <v>9</v>
+      </c>
+      <c r="AE289">
+        <v>1.28</v>
+      </c>
+      <c r="AF289">
+        <v>3.5</v>
+      </c>
+      <c r="AG289">
+        <v>1.83</v>
+      </c>
+      <c r="AH289">
+        <v>1.91</v>
+      </c>
+      <c r="AI289">
+        <v>1.75</v>
+      </c>
+      <c r="AJ289">
+        <v>2</v>
+      </c>
+      <c r="AK289">
+        <v>1.25</v>
+      </c>
+      <c r="AL289">
+        <v>1.28</v>
+      </c>
+      <c r="AM289">
+        <v>1.83</v>
+      </c>
+      <c r="AN289">
+        <v>1.59</v>
+      </c>
+      <c r="AO289">
+        <v>0.71</v>
+      </c>
+      <c r="AP289">
+        <v>1.5</v>
+      </c>
+      <c r="AQ289">
+        <v>0.83</v>
+      </c>
+      <c r="AR289">
+        <v>1.83</v>
+      </c>
+      <c r="AS289">
+        <v>1.24</v>
+      </c>
+      <c r="AT289">
+        <v>3.07</v>
+      </c>
+      <c r="AU289">
+        <v>4</v>
+      </c>
+      <c r="AV289">
+        <v>5</v>
+      </c>
+      <c r="AW289">
+        <v>17</v>
+      </c>
+      <c r="AX289">
+        <v>1</v>
+      </c>
+      <c r="AY289">
+        <v>23</v>
+      </c>
+      <c r="AZ289">
+        <v>6</v>
+      </c>
+      <c r="BA289">
+        <v>7</v>
+      </c>
+      <c r="BB289">
+        <v>2</v>
+      </c>
+      <c r="BC289">
+        <v>9</v>
+      </c>
+      <c r="BD289">
+        <v>1.52</v>
+      </c>
+      <c r="BE289">
+        <v>7</v>
+      </c>
+      <c r="BF289">
+        <v>2.8</v>
+      </c>
+      <c r="BG289">
+        <v>1.21</v>
+      </c>
+      <c r="BH289">
+        <v>3.9</v>
+      </c>
+      <c r="BI289">
+        <v>1.38</v>
+      </c>
+      <c r="BJ289">
+        <v>2.8</v>
+      </c>
+      <c r="BK289">
+        <v>1.77</v>
+      </c>
+      <c r="BL289">
+        <v>1.95</v>
+      </c>
+      <c r="BM289">
+        <v>1.95</v>
+      </c>
+      <c r="BN289">
+        <v>1.75</v>
+      </c>
+      <c r="BO289">
+        <v>2.4</v>
+      </c>
+      <c r="BP289">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="290" spans="1:68">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>7858355</v>
+      </c>
+      <c r="C290" t="s">
+        <v>68</v>
+      </c>
+      <c r="D290" t="s">
+        <v>69</v>
+      </c>
+      <c r="E290" s="2">
+        <v>45780.55208333334</v>
+      </c>
+      <c r="F290">
+        <v>7</v>
+      </c>
+      <c r="G290" t="s">
+        <v>80</v>
+      </c>
+      <c r="H290" t="s">
+        <v>79</v>
+      </c>
+      <c r="I290">
+        <v>0</v>
+      </c>
+      <c r="J290">
+        <v>1</v>
+      </c>
+      <c r="K290">
+        <v>1</v>
+      </c>
+      <c r="L290">
+        <v>1</v>
+      </c>
+      <c r="M290">
+        <v>2</v>
+      </c>
+      <c r="N290">
+        <v>3</v>
+      </c>
+      <c r="O290" t="s">
+        <v>240</v>
+      </c>
+      <c r="P290" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q290">
+        <v>3.25</v>
+      </c>
+      <c r="R290">
+        <v>2.2</v>
+      </c>
+      <c r="S290">
+        <v>3.1</v>
+      </c>
+      <c r="T290">
+        <v>1.36</v>
+      </c>
+      <c r="U290">
+        <v>3</v>
+      </c>
+      <c r="V290">
+        <v>2.63</v>
+      </c>
+      <c r="W290">
+        <v>1.44</v>
+      </c>
+      <c r="X290">
+        <v>7</v>
+      </c>
+      <c r="Y290">
+        <v>1.1</v>
+      </c>
+      <c r="Z290">
+        <v>2.71</v>
+      </c>
+      <c r="AA290">
+        <v>3.3</v>
+      </c>
+      <c r="AB290">
+        <v>2.51</v>
+      </c>
+      <c r="AC290">
+        <v>1.05</v>
+      </c>
+      <c r="AD290">
+        <v>9.5</v>
+      </c>
+      <c r="AE290">
+        <v>1.28</v>
+      </c>
+      <c r="AF290">
+        <v>3.65</v>
+      </c>
+      <c r="AG290">
+        <v>1.79</v>
+      </c>
+      <c r="AH290">
+        <v>1.95</v>
+      </c>
+      <c r="AI290">
+        <v>1.67</v>
+      </c>
+      <c r="AJ290">
+        <v>2.1</v>
+      </c>
+      <c r="AK290">
+        <v>1.51</v>
+      </c>
+      <c r="AL290">
+        <v>1.29</v>
+      </c>
+      <c r="AM290">
+        <v>1.46</v>
+      </c>
+      <c r="AN290">
+        <v>1.72</v>
+      </c>
+      <c r="AO290">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP290">
+        <v>1.63</v>
+      </c>
+      <c r="AQ290">
+        <v>1.05</v>
+      </c>
+      <c r="AR290">
+        <v>1.34</v>
+      </c>
+      <c r="AS290">
+        <v>1.56</v>
+      </c>
+      <c r="AT290">
+        <v>2.9</v>
+      </c>
+      <c r="AU290">
+        <v>4</v>
+      </c>
+      <c r="AV290">
+        <v>5</v>
+      </c>
+      <c r="AW290">
+        <v>4</v>
+      </c>
+      <c r="AX290">
+        <v>10</v>
+      </c>
+      <c r="AY290">
+        <v>9</v>
+      </c>
+      <c r="AZ290">
+        <v>17</v>
+      </c>
+      <c r="BA290">
+        <v>6</v>
+      </c>
+      <c r="BB290">
+        <v>5</v>
+      </c>
+      <c r="BC290">
+        <v>11</v>
+      </c>
+      <c r="BD290">
+        <v>1.95</v>
+      </c>
+      <c r="BE290">
+        <v>6.75</v>
+      </c>
+      <c r="BF290">
+        <v>2.02</v>
+      </c>
+      <c r="BG290">
+        <v>1.21</v>
+      </c>
+      <c r="BH290">
+        <v>3.9</v>
+      </c>
+      <c r="BI290">
+        <v>1.38</v>
+      </c>
+      <c r="BJ290">
+        <v>2.8</v>
+      </c>
+      <c r="BK290">
+        <v>1.63</v>
+      </c>
+      <c r="BL290">
+        <v>2.15</v>
+      </c>
+      <c r="BM290">
+        <v>1.91</v>
+      </c>
+      <c r="BN290">
+        <v>1.8</v>
+      </c>
+      <c r="BO290">
+        <v>2.45</v>
+      </c>
+      <c r="BP290">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="291" spans="1:68">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>7858356</v>
+      </c>
+      <c r="C291" t="s">
+        <v>68</v>
+      </c>
+      <c r="D291" t="s">
+        <v>69</v>
+      </c>
+      <c r="E291" s="2">
+        <v>45780.65625</v>
+      </c>
+      <c r="F291">
+        <v>7</v>
+      </c>
+      <c r="G291" t="s">
+        <v>78</v>
+      </c>
+      <c r="H291" t="s">
+        <v>74</v>
+      </c>
+      <c r="I291">
+        <v>0</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>0</v>
+      </c>
+      <c r="L291">
+        <v>1</v>
+      </c>
+      <c r="M291">
+        <v>0</v>
+      </c>
+      <c r="N291">
+        <v>1</v>
+      </c>
+      <c r="O291" t="s">
+        <v>111</v>
+      </c>
+      <c r="P291" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q291">
+        <v>2.5</v>
+      </c>
+      <c r="R291">
+        <v>2.3</v>
+      </c>
+      <c r="S291">
+        <v>4</v>
+      </c>
+      <c r="T291">
+        <v>1.3</v>
+      </c>
+      <c r="U291">
+        <v>3.4</v>
+      </c>
+      <c r="V291">
+        <v>2.5</v>
+      </c>
+      <c r="W291">
+        <v>1.5</v>
+      </c>
+      <c r="X291">
+        <v>6</v>
+      </c>
+      <c r="Y291">
+        <v>1.13</v>
+      </c>
+      <c r="Z291">
+        <v>1.94</v>
+      </c>
+      <c r="AA291">
+        <v>3.63</v>
+      </c>
+      <c r="AB291">
+        <v>3.58</v>
+      </c>
+      <c r="AC291">
+        <v>1.04</v>
+      </c>
+      <c r="AD291">
+        <v>10</v>
+      </c>
+      <c r="AE291">
+        <v>1.22</v>
+      </c>
+      <c r="AF291">
+        <v>4.2</v>
+      </c>
+      <c r="AG291">
+        <v>1.67</v>
+      </c>
+      <c r="AH291">
+        <v>2.1</v>
+      </c>
+      <c r="AI291">
+        <v>1.62</v>
+      </c>
+      <c r="AJ291">
+        <v>2.2</v>
+      </c>
+      <c r="AK291">
+        <v>1.28</v>
+      </c>
+      <c r="AL291">
+        <v>1.27</v>
+      </c>
+      <c r="AM291">
+        <v>1.8</v>
+      </c>
+      <c r="AN291">
+        <v>2.22</v>
+      </c>
+      <c r="AO291">
+        <v>1.72</v>
+      </c>
+      <c r="AP291">
+        <v>2.26</v>
+      </c>
+      <c r="AQ291">
+        <v>1.63</v>
+      </c>
+      <c r="AR291">
+        <v>1.76</v>
+      </c>
+      <c r="AS291">
+        <v>1.63</v>
+      </c>
+      <c r="AT291">
+        <v>3.39</v>
+      </c>
+      <c r="AU291">
+        <v>4</v>
+      </c>
+      <c r="AV291">
+        <v>2</v>
+      </c>
+      <c r="AW291">
+        <v>7</v>
+      </c>
+      <c r="AX291">
+        <v>2</v>
+      </c>
+      <c r="AY291">
+        <v>13</v>
+      </c>
+      <c r="AZ291">
+        <v>5</v>
+      </c>
+      <c r="BA291">
+        <v>4</v>
+      </c>
+      <c r="BB291">
+        <v>2</v>
+      </c>
+      <c r="BC291">
+        <v>6</v>
+      </c>
+      <c r="BD291">
+        <v>1.63</v>
+      </c>
+      <c r="BE291">
+        <v>6.75</v>
+      </c>
+      <c r="BF291">
+        <v>2.55</v>
+      </c>
+      <c r="BG291">
+        <v>1.3</v>
+      </c>
+      <c r="BH291">
+        <v>3.05</v>
+      </c>
+      <c r="BI291">
+        <v>1.53</v>
+      </c>
+      <c r="BJ291">
+        <v>2.3</v>
+      </c>
+      <c r="BK291">
+        <v>1.85</v>
+      </c>
+      <c r="BL291">
+        <v>1.85</v>
+      </c>
+      <c r="BM291">
+        <v>2.33</v>
+      </c>
+      <c r="BN291">
+        <v>1.5</v>
+      </c>
+      <c r="BO291">
+        <v>3.05</v>
+      </c>
+      <c r="BP291">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="402">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -859,6 +859,9 @@
     <t>['45+3', '76', '88', '90+6']</t>
   </si>
   <si>
+    <t>['39', '69']</t>
+  </si>
+  <si>
     <t>['65']</t>
   </si>
   <si>
@@ -1578,7 +1581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP291"/>
+  <dimension ref="A1:BP293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1837,7 +1840,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q2">
         <v>1.91</v>
@@ -3566,7 +3569,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ10">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3691,7 +3694,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q11">
         <v>2.4</v>
@@ -4103,7 +4106,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4181,10 +4184,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ13">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4309,7 +4312,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q14">
         <v>3.25</v>
@@ -4515,7 +4518,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4799,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ16">
         <v>1.83</v>
@@ -4927,7 +4930,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -5211,7 +5214,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ18">
         <v>1.05</v>
@@ -5545,7 +5548,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q20">
         <v>4.1</v>
@@ -5957,7 +5960,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -6163,7 +6166,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q23">
         <v>1.91</v>
@@ -6575,7 +6578,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q25">
         <v>1.93</v>
@@ -6656,7 +6659,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ25">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR25">
         <v>2.16</v>
@@ -6862,7 +6865,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ26">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR26">
         <v>1.53</v>
@@ -6987,7 +6990,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q27">
         <v>3.9</v>
@@ -7193,7 +7196,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q28">
         <v>3.06</v>
@@ -7271,7 +7274,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ28">
         <v>0.84</v>
@@ -7399,7 +7402,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -8429,7 +8432,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q34">
         <v>2.45</v>
@@ -8841,7 +8844,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -9125,7 +9128,7 @@
         <v>0.5</v>
       </c>
       <c r="AP37">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ37">
         <v>1.72</v>
@@ -9331,10 +9334,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ38">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR38">
         <v>1.16</v>
@@ -9871,7 +9874,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9952,7 +9955,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ41">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR41">
         <v>1.62</v>
@@ -10077,7 +10080,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -11313,7 +11316,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11519,7 +11522,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11725,7 +11728,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q50">
         <v>5.85</v>
@@ -11931,7 +11934,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q51">
         <v>2.2</v>
@@ -12421,7 +12424,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ53">
         <v>0.78</v>
@@ -12630,7 +12633,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ54">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR54">
         <v>1.56</v>
@@ -12961,7 +12964,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q56">
         <v>2.75</v>
@@ -13245,7 +13248,7 @@
         <v>0.5</v>
       </c>
       <c r="AP57">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ57">
         <v>1.72</v>
@@ -13373,7 +13376,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13579,7 +13582,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q59">
         <v>3.52</v>
@@ -13866,7 +13869,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ60">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR60">
         <v>1.66</v>
@@ -13991,7 +13994,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -14815,7 +14818,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q65">
         <v>3.02</v>
@@ -15433,7 +15436,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q68">
         <v>3.2</v>
@@ -15511,7 +15514,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ68">
         <v>1.06</v>
@@ -15639,7 +15642,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q69">
         <v>3.76</v>
@@ -15926,7 +15929,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ70">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR70">
         <v>1.88</v>
@@ -16669,7 +16672,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -16750,7 +16753,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ74">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR74">
         <v>1.66</v>
@@ -17368,7 +17371,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ77">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR77">
         <v>1.23</v>
@@ -18189,7 +18192,7 @@
         <v>1.5</v>
       </c>
       <c r="AP81">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ81">
         <v>1.21</v>
@@ -18523,7 +18526,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -19141,7 +19144,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q86">
         <v>1.91</v>
@@ -19631,10 +19634,10 @@
         <v>0.8</v>
       </c>
       <c r="AP88">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ88">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR88">
         <v>1.14</v>
@@ -20046,7 +20049,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ90">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR90">
         <v>1.5</v>
@@ -20171,7 +20174,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20377,7 +20380,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20661,7 +20664,7 @@
         <v>1.4</v>
       </c>
       <c r="AP93">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ93">
         <v>1.06</v>
@@ -21201,7 +21204,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -21407,7 +21410,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -21819,7 +21822,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q99">
         <v>2.9</v>
@@ -21897,7 +21900,7 @@
         <v>0.83</v>
       </c>
       <c r="AP99">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ99">
         <v>0.71</v>
@@ -22025,7 +22028,7 @@
         <v>87</v>
       </c>
       <c r="P100" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22231,7 +22234,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -22724,7 +22727,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ103">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR103">
         <v>1.64</v>
@@ -23261,7 +23264,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -23339,7 +23342,7 @@
         <v>1.33</v>
       </c>
       <c r="AP106">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ106">
         <v>1.05</v>
@@ -23467,7 +23470,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23673,7 +23676,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q108">
         <v>3.5</v>
@@ -24085,7 +24088,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q110">
         <v>3.2</v>
@@ -24703,7 +24706,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q113">
         <v>7.5</v>
@@ -25399,7 +25402,7 @@
         <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ116">
         <v>0.71</v>
@@ -25608,7 +25611,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ117">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR117">
         <v>1.85</v>
@@ -25814,7 +25817,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ118">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR118">
         <v>1.51</v>
@@ -25939,7 +25942,7 @@
         <v>150</v>
       </c>
       <c r="P119" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q119">
         <v>4.5</v>
@@ -26557,7 +26560,7 @@
         <v>179</v>
       </c>
       <c r="P122" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -27175,7 +27178,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q125">
         <v>4.75</v>
@@ -27253,7 +27256,7 @@
         <v>1.71</v>
       </c>
       <c r="AP125">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ125">
         <v>1.63</v>
@@ -27587,7 +27590,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27999,7 +28002,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q129">
         <v>2.75</v>
@@ -28205,7 +28208,7 @@
         <v>185</v>
       </c>
       <c r="P130" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q130">
         <v>1.72</v>
@@ -28489,7 +28492,7 @@
         <v>0.88</v>
       </c>
       <c r="AP131">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ131">
         <v>0.78</v>
@@ -28617,7 +28620,7 @@
         <v>186</v>
       </c>
       <c r="P132" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -29029,7 +29032,7 @@
         <v>188</v>
       </c>
       <c r="P134" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q134">
         <v>2.55</v>
@@ -29110,7 +29113,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ134">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR134">
         <v>1.76</v>
@@ -29441,7 +29444,7 @@
         <v>189</v>
       </c>
       <c r="P136" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q136">
         <v>1.7</v>
@@ -29522,7 +29525,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ136">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR136">
         <v>1.71</v>
@@ -30346,7 +30349,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ140">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR140">
         <v>1.25</v>
@@ -30471,7 +30474,7 @@
         <v>87</v>
       </c>
       <c r="P141" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30883,7 +30886,7 @@
         <v>194</v>
       </c>
       <c r="P143" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q143">
         <v>1.95</v>
@@ -31089,7 +31092,7 @@
         <v>87</v>
       </c>
       <c r="P144" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -31167,7 +31170,7 @@
         <v>1.5</v>
       </c>
       <c r="AP144">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ144">
         <v>1.58</v>
@@ -31501,7 +31504,7 @@
         <v>196</v>
       </c>
       <c r="P146" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q146">
         <v>2.7</v>
@@ -31913,7 +31916,7 @@
         <v>167</v>
       </c>
       <c r="P148" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -32119,7 +32122,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q149">
         <v>3.1</v>
@@ -32609,7 +32612,7 @@
         <v>1.11</v>
       </c>
       <c r="AP151">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ151">
         <v>1.21</v>
@@ -32737,7 +32740,7 @@
         <v>200</v>
       </c>
       <c r="P152" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q152">
         <v>3.25</v>
@@ -33149,7 +33152,7 @@
         <v>202</v>
       </c>
       <c r="P154" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -33355,7 +33358,7 @@
         <v>87</v>
       </c>
       <c r="P155" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33436,7 +33439,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ155">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR155">
         <v>1.43</v>
@@ -33561,7 +33564,7 @@
         <v>203</v>
       </c>
       <c r="P156" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q156">
         <v>1.7</v>
@@ -33973,7 +33976,7 @@
         <v>93</v>
       </c>
       <c r="P158" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q158">
         <v>3.7</v>
@@ -34260,7 +34263,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ159">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR159">
         <v>1.19</v>
@@ -34463,7 +34466,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP160">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ160">
         <v>0.71</v>
@@ -34591,7 +34594,7 @@
         <v>205</v>
       </c>
       <c r="P161" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q161">
         <v>1.9</v>
@@ -34875,7 +34878,7 @@
         <v>0.5</v>
       </c>
       <c r="AP162">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ162">
         <v>0.83</v>
@@ -35003,7 +35006,7 @@
         <v>207</v>
       </c>
       <c r="P163" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q163">
         <v>2.45</v>
@@ -35415,7 +35418,7 @@
         <v>144</v>
       </c>
       <c r="P165" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q165">
         <v>3.5</v>
@@ -36033,7 +36036,7 @@
         <v>87</v>
       </c>
       <c r="P168" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q168">
         <v>3.6</v>
@@ -36526,7 +36529,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ170">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR170">
         <v>1.54</v>
@@ -36651,7 +36654,7 @@
         <v>87</v>
       </c>
       <c r="P171" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q171">
         <v>3.5</v>
@@ -36857,7 +36860,7 @@
         <v>159</v>
       </c>
       <c r="P172" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q172">
         <v>3.4</v>
@@ -37063,7 +37066,7 @@
         <v>210</v>
       </c>
       <c r="P173" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q173">
         <v>1.5</v>
@@ -37144,7 +37147,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ173">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR173">
         <v>2.04</v>
@@ -37269,7 +37272,7 @@
         <v>87</v>
       </c>
       <c r="P174" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q174">
         <v>4.33</v>
@@ -37681,7 +37684,7 @@
         <v>212</v>
       </c>
       <c r="P176" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37759,7 +37762,7 @@
         <v>0.7</v>
       </c>
       <c r="AP176">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ176">
         <v>0.89</v>
@@ -37887,7 +37890,7 @@
         <v>213</v>
       </c>
       <c r="P177" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q177">
         <v>2.3</v>
@@ -38171,7 +38174,7 @@
         <v>1.45</v>
       </c>
       <c r="AP178">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ178">
         <v>1.28</v>
@@ -38299,7 +38302,7 @@
         <v>215</v>
       </c>
       <c r="P179" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38505,7 +38508,7 @@
         <v>216</v>
       </c>
       <c r="P180" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q180">
         <v>2.55</v>
@@ -38995,7 +38998,7 @@
         <v>1.5</v>
       </c>
       <c r="AP182">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ182">
         <v>0.84</v>
@@ -39123,7 +39126,7 @@
         <v>87</v>
       </c>
       <c r="P183" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q183">
         <v>5.5</v>
@@ -39329,7 +39332,7 @@
         <v>219</v>
       </c>
       <c r="P184" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -40153,7 +40156,7 @@
         <v>96</v>
       </c>
       <c r="P188" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q188">
         <v>2.35</v>
@@ -40440,7 +40443,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ189">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR189">
         <v>1.74</v>
@@ -40771,7 +40774,7 @@
         <v>224</v>
       </c>
       <c r="P191" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q191">
         <v>1.95</v>
@@ -41183,7 +41186,7 @@
         <v>225</v>
       </c>
       <c r="P193" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q193">
         <v>3.6</v>
@@ -41389,7 +41392,7 @@
         <v>226</v>
       </c>
       <c r="P194" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -42419,7 +42422,7 @@
         <v>188</v>
       </c>
       <c r="P199" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -42625,7 +42628,7 @@
         <v>231</v>
       </c>
       <c r="P200" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q200">
         <v>2.25</v>
@@ -42912,7 +42915,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ201">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR201">
         <v>1.28</v>
@@ -43037,7 +43040,7 @@
         <v>233</v>
       </c>
       <c r="P202" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -43115,7 +43118,7 @@
         <v>1.67</v>
       </c>
       <c r="AP202">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ202">
         <v>1.63</v>
@@ -43243,7 +43246,7 @@
         <v>234</v>
       </c>
       <c r="P203" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q203">
         <v>2.6</v>
@@ -43449,7 +43452,7 @@
         <v>235</v>
       </c>
       <c r="P204" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q204">
         <v>2.15</v>
@@ -43655,7 +43658,7 @@
         <v>236</v>
       </c>
       <c r="P205" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q205">
         <v>4.6</v>
@@ -43733,7 +43736,7 @@
         <v>1.75</v>
       </c>
       <c r="AP205">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ205">
         <v>1.83</v>
@@ -43861,7 +43864,7 @@
         <v>237</v>
       </c>
       <c r="P206" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q206">
         <v>1.95</v>
@@ -43942,7 +43945,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ206">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR206">
         <v>1.54</v>
@@ -44972,7 +44975,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ211">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR211">
         <v>1.1</v>
@@ -45097,7 +45100,7 @@
         <v>227</v>
       </c>
       <c r="P212" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q212">
         <v>2.75</v>
@@ -45178,7 +45181,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ212">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR212">
         <v>1.93</v>
@@ -45303,7 +45306,7 @@
         <v>239</v>
       </c>
       <c r="P213" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q213">
         <v>2.5</v>
@@ -45509,7 +45512,7 @@
         <v>86</v>
       </c>
       <c r="P214" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q214">
         <v>1.71</v>
@@ -45921,7 +45924,7 @@
         <v>87</v>
       </c>
       <c r="P216" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q216">
         <v>3.25</v>
@@ -46539,7 +46542,7 @@
         <v>88</v>
       </c>
       <c r="P219" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q219">
         <v>4.33</v>
@@ -46951,7 +46954,7 @@
         <v>241</v>
       </c>
       <c r="P221" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q221">
         <v>2.25</v>
@@ -47029,7 +47032,7 @@
         <v>0.46</v>
       </c>
       <c r="AP221">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ221">
         <v>0.83</v>
@@ -47569,7 +47572,7 @@
         <v>87</v>
       </c>
       <c r="P224" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q224">
         <v>4.33</v>
@@ -47647,7 +47650,7 @@
         <v>1.62</v>
       </c>
       <c r="AP224">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ224">
         <v>1.58</v>
@@ -48059,10 +48062,10 @@
         <v>0.14</v>
       </c>
       <c r="AP226">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ226">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR226">
         <v>1.52</v>
@@ -48805,7 +48808,7 @@
         <v>174</v>
       </c>
       <c r="P230" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q230">
         <v>4.75</v>
@@ -49217,7 +49220,7 @@
         <v>87</v>
       </c>
       <c r="P232" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q232">
         <v>2.88</v>
@@ -49913,7 +49916,7 @@
         <v>1.29</v>
       </c>
       <c r="AP235">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ235">
         <v>1.28</v>
@@ -50247,7 +50250,7 @@
         <v>249</v>
       </c>
       <c r="P237" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q237">
         <v>2.5</v>
@@ -50453,7 +50456,7 @@
         <v>250</v>
       </c>
       <c r="P238" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q238">
         <v>3.1</v>
@@ -50659,7 +50662,7 @@
         <v>118</v>
       </c>
       <c r="P239" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q239">
         <v>3.75</v>
@@ -50865,7 +50868,7 @@
         <v>251</v>
       </c>
       <c r="P240" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q240">
         <v>2.1</v>
@@ -50946,7 +50949,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ240">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR240">
         <v>2.06</v>
@@ -51071,7 +51074,7 @@
         <v>105</v>
       </c>
       <c r="P241" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q241">
         <v>2.3</v>
@@ -51358,7 +51361,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ242">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR242">
         <v>1.3</v>
@@ -51483,7 +51486,7 @@
         <v>87</v>
       </c>
       <c r="P243" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q243">
         <v>3.75</v>
@@ -51689,7 +51692,7 @@
         <v>252</v>
       </c>
       <c r="P244" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q244">
         <v>3.4</v>
@@ -51767,7 +51770,7 @@
         <v>1</v>
       </c>
       <c r="AP244">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ244">
         <v>1.05</v>
@@ -52307,7 +52310,7 @@
         <v>255</v>
       </c>
       <c r="P247" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q247">
         <v>3.4</v>
@@ -52925,7 +52928,7 @@
         <v>257</v>
       </c>
       <c r="P250" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q250">
         <v>2.5</v>
@@ -53131,7 +53134,7 @@
         <v>258</v>
       </c>
       <c r="P251" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q251">
         <v>2.05</v>
@@ -53212,7 +53215,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ251">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR251">
         <v>1.81</v>
@@ -53337,7 +53340,7 @@
         <v>259</v>
       </c>
       <c r="P252" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q252">
         <v>2.63</v>
@@ -53543,7 +53546,7 @@
         <v>87</v>
       </c>
       <c r="P253" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q253">
         <v>4.33</v>
@@ -53749,7 +53752,7 @@
         <v>260</v>
       </c>
       <c r="P254" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q254">
         <v>4.75</v>
@@ -53955,7 +53958,7 @@
         <v>87</v>
       </c>
       <c r="P255" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q255">
         <v>2.5</v>
@@ -54033,7 +54036,7 @@
         <v>0.6</v>
       </c>
       <c r="AP255">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ255">
         <v>0.83</v>
@@ -54161,7 +54164,7 @@
         <v>261</v>
       </c>
       <c r="P256" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q256">
         <v>3.4</v>
@@ -54573,7 +54576,7 @@
         <v>262</v>
       </c>
       <c r="P258" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q258">
         <v>3.1</v>
@@ -54654,7 +54657,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ258">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR258">
         <v>1.82</v>
@@ -54779,7 +54782,7 @@
         <v>263</v>
       </c>
       <c r="P259" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q259">
         <v>2.1</v>
@@ -54860,7 +54863,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ259">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR259">
         <v>1.4</v>
@@ -55063,7 +55066,7 @@
         <v>0.75</v>
       </c>
       <c r="AP260">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ260">
         <v>0.71</v>
@@ -55397,7 +55400,7 @@
         <v>87</v>
       </c>
       <c r="P262" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q262">
         <v>2.75</v>
@@ -55603,7 +55606,7 @@
         <v>266</v>
       </c>
       <c r="P263" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q263">
         <v>2.5</v>
@@ -56015,7 +56018,7 @@
         <v>217</v>
       </c>
       <c r="P265" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q265">
         <v>3</v>
@@ -56221,7 +56224,7 @@
         <v>267</v>
       </c>
       <c r="P266" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q266">
         <v>2.88</v>
@@ -56711,7 +56714,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP268">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ268">
         <v>1.06</v>
@@ -57045,7 +57048,7 @@
         <v>105</v>
       </c>
       <c r="P270" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q270">
         <v>3</v>
@@ -57251,7 +57254,7 @@
         <v>87</v>
       </c>
       <c r="P271" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q271">
         <v>5</v>
@@ -57457,7 +57460,7 @@
         <v>270</v>
       </c>
       <c r="P272" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q272">
         <v>3.5</v>
@@ -57538,7 +57541,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ272">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR272">
         <v>1.21</v>
@@ -57663,7 +57666,7 @@
         <v>271</v>
       </c>
       <c r="P273" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q273">
         <v>2.35</v>
@@ -57947,7 +57950,7 @@
         <v>0.65</v>
       </c>
       <c r="AP274">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ274">
         <v>0.78</v>
@@ -59105,7 +59108,7 @@
         <v>275</v>
       </c>
       <c r="P280" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q280">
         <v>2.88</v>
@@ -59311,7 +59314,7 @@
         <v>276</v>
       </c>
       <c r="P281" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q281">
         <v>2.25</v>
@@ -59517,7 +59520,7 @@
         <v>277</v>
       </c>
       <c r="P282" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q282">
         <v>2.5</v>
@@ -59723,7 +59726,7 @@
         <v>87</v>
       </c>
       <c r="P283" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q283">
         <v>3.4</v>
@@ -59929,7 +59932,7 @@
         <v>87</v>
       </c>
       <c r="P284" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q284">
         <v>2.1</v>
@@ -60341,7 +60344,7 @@
         <v>278</v>
       </c>
       <c r="P286" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q286">
         <v>3.25</v>
@@ -60547,7 +60550,7 @@
         <v>279</v>
       </c>
       <c r="P287" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q287">
         <v>1.73</v>
@@ -60753,7 +60756,7 @@
         <v>280</v>
       </c>
       <c r="P288" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q288">
         <v>2.2</v>
@@ -60959,7 +60962,7 @@
         <v>87</v>
       </c>
       <c r="P289" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q289">
         <v>2.5</v>
@@ -61165,7 +61168,7 @@
         <v>240</v>
       </c>
       <c r="P290" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q290">
         <v>3.25</v>
@@ -61528,6 +61531,418 @@
       </c>
       <c r="BP291">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="292" spans="1:68">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>7858357</v>
+      </c>
+      <c r="C292" t="s">
+        <v>68</v>
+      </c>
+      <c r="D292" t="s">
+        <v>69</v>
+      </c>
+      <c r="E292" s="2">
+        <v>45781.35416666666</v>
+      </c>
+      <c r="F292">
+        <v>7</v>
+      </c>
+      <c r="G292" t="s">
+        <v>84</v>
+      </c>
+      <c r="H292" t="s">
+        <v>76</v>
+      </c>
+      <c r="I292">
+        <v>0</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+      <c r="K292">
+        <v>0</v>
+      </c>
+      <c r="L292">
+        <v>0</v>
+      </c>
+      <c r="M292">
+        <v>1</v>
+      </c>
+      <c r="N292">
+        <v>1</v>
+      </c>
+      <c r="O292" t="s">
+        <v>87</v>
+      </c>
+      <c r="P292" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q292">
+        <v>3.75</v>
+      </c>
+      <c r="R292">
+        <v>2.1</v>
+      </c>
+      <c r="S292">
+        <v>2.88</v>
+      </c>
+      <c r="T292">
+        <v>1.44</v>
+      </c>
+      <c r="U292">
+        <v>2.63</v>
+      </c>
+      <c r="V292">
+        <v>3.25</v>
+      </c>
+      <c r="W292">
+        <v>1.33</v>
+      </c>
+      <c r="X292">
+        <v>9</v>
+      </c>
+      <c r="Y292">
+        <v>1.07</v>
+      </c>
+      <c r="Z292">
+        <v>3</v>
+      </c>
+      <c r="AA292">
+        <v>3.17</v>
+      </c>
+      <c r="AB292">
+        <v>2.37</v>
+      </c>
+      <c r="AC292">
+        <v>1.07</v>
+      </c>
+      <c r="AD292">
+        <v>8</v>
+      </c>
+      <c r="AE292">
+        <v>1.35</v>
+      </c>
+      <c r="AF292">
+        <v>3.2</v>
+      </c>
+      <c r="AG292">
+        <v>2.05</v>
+      </c>
+      <c r="AH292">
+        <v>1.7</v>
+      </c>
+      <c r="AI292">
+        <v>1.91</v>
+      </c>
+      <c r="AJ292">
+        <v>1.91</v>
+      </c>
+      <c r="AK292">
+        <v>1.6</v>
+      </c>
+      <c r="AL292">
+        <v>1.32</v>
+      </c>
+      <c r="AM292">
+        <v>1.35</v>
+      </c>
+      <c r="AN292">
+        <v>1.5</v>
+      </c>
+      <c r="AO292">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP292">
+        <v>1.42</v>
+      </c>
+      <c r="AQ292">
+        <v>1.05</v>
+      </c>
+      <c r="AR292">
+        <v>1.29</v>
+      </c>
+      <c r="AS292">
+        <v>1.54</v>
+      </c>
+      <c r="AT292">
+        <v>2.83</v>
+      </c>
+      <c r="AU292">
+        <v>6</v>
+      </c>
+      <c r="AV292">
+        <v>5</v>
+      </c>
+      <c r="AW292">
+        <v>10</v>
+      </c>
+      <c r="AX292">
+        <v>7</v>
+      </c>
+      <c r="AY292">
+        <v>19</v>
+      </c>
+      <c r="AZ292">
+        <v>14</v>
+      </c>
+      <c r="BA292">
+        <v>5</v>
+      </c>
+      <c r="BB292">
+        <v>5</v>
+      </c>
+      <c r="BC292">
+        <v>10</v>
+      </c>
+      <c r="BD292">
+        <v>2.3</v>
+      </c>
+      <c r="BE292">
+        <v>6.4</v>
+      </c>
+      <c r="BF292">
+        <v>1.75</v>
+      </c>
+      <c r="BG292">
+        <v>1.33</v>
+      </c>
+      <c r="BH292">
+        <v>2.95</v>
+      </c>
+      <c r="BI292">
+        <v>1.58</v>
+      </c>
+      <c r="BJ292">
+        <v>2.2</v>
+      </c>
+      <c r="BK292">
+        <v>1.8</v>
+      </c>
+      <c r="BL292">
+        <v>1.91</v>
+      </c>
+      <c r="BM292">
+        <v>2.43</v>
+      </c>
+      <c r="BN292">
+        <v>1.48</v>
+      </c>
+      <c r="BO292">
+        <v>3.15</v>
+      </c>
+      <c r="BP292">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:68">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>7858358</v>
+      </c>
+      <c r="C293" t="s">
+        <v>68</v>
+      </c>
+      <c r="D293" t="s">
+        <v>69</v>
+      </c>
+      <c r="E293" s="2">
+        <v>45781.45833333334</v>
+      </c>
+      <c r="F293">
+        <v>5</v>
+      </c>
+      <c r="G293" t="s">
+        <v>81</v>
+      </c>
+      <c r="H293" t="s">
+        <v>72</v>
+      </c>
+      <c r="I293">
+        <v>1</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>1</v>
+      </c>
+      <c r="L293">
+        <v>2</v>
+      </c>
+      <c r="M293">
+        <v>1</v>
+      </c>
+      <c r="N293">
+        <v>3</v>
+      </c>
+      <c r="O293" t="s">
+        <v>281</v>
+      </c>
+      <c r="P293" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q293">
+        <v>1.91</v>
+      </c>
+      <c r="R293">
+        <v>2.5</v>
+      </c>
+      <c r="S293">
+        <v>6</v>
+      </c>
+      <c r="T293">
+        <v>1.29</v>
+      </c>
+      <c r="U293">
+        <v>3.5</v>
+      </c>
+      <c r="V293">
+        <v>2.25</v>
+      </c>
+      <c r="W293">
+        <v>1.57</v>
+      </c>
+      <c r="X293">
+        <v>5.5</v>
+      </c>
+      <c r="Y293">
+        <v>1.14</v>
+      </c>
+      <c r="Z293">
+        <v>1.53</v>
+      </c>
+      <c r="AA293">
+        <v>4.4</v>
+      </c>
+      <c r="AB293">
+        <v>5.3</v>
+      </c>
+      <c r="AC293">
+        <v>1.03</v>
+      </c>
+      <c r="AD293">
+        <v>11</v>
+      </c>
+      <c r="AE293">
+        <v>1.2</v>
+      </c>
+      <c r="AF293">
+        <v>4.5</v>
+      </c>
+      <c r="AG293">
+        <v>1.57</v>
+      </c>
+      <c r="AH293">
+        <v>2.3</v>
+      </c>
+      <c r="AI293">
+        <v>1.75</v>
+      </c>
+      <c r="AJ293">
+        <v>2</v>
+      </c>
+      <c r="AK293">
+        <v>1.12</v>
+      </c>
+      <c r="AL293">
+        <v>1.19</v>
+      </c>
+      <c r="AM293">
+        <v>2.6</v>
+      </c>
+      <c r="AN293">
+        <v>1.47</v>
+      </c>
+      <c r="AO293">
+        <v>0.12</v>
+      </c>
+      <c r="AP293">
+        <v>1.56</v>
+      </c>
+      <c r="AQ293">
+        <v>0.11</v>
+      </c>
+      <c r="AR293">
+        <v>1.57</v>
+      </c>
+      <c r="AS293">
+        <v>1.16</v>
+      </c>
+      <c r="AT293">
+        <v>2.73</v>
+      </c>
+      <c r="AU293">
+        <v>4</v>
+      </c>
+      <c r="AV293">
+        <v>3</v>
+      </c>
+      <c r="AW293">
+        <v>9</v>
+      </c>
+      <c r="AX293">
+        <v>2</v>
+      </c>
+      <c r="AY293">
+        <v>17</v>
+      </c>
+      <c r="AZ293">
+        <v>5</v>
+      </c>
+      <c r="BA293">
+        <v>6</v>
+      </c>
+      <c r="BB293">
+        <v>1</v>
+      </c>
+      <c r="BC293">
+        <v>7</v>
+      </c>
+      <c r="BD293">
+        <v>1.47</v>
+      </c>
+      <c r="BE293">
+        <v>7</v>
+      </c>
+      <c r="BF293">
+        <v>2.9</v>
+      </c>
+      <c r="BG293">
+        <v>1.22</v>
+      </c>
+      <c r="BH293">
+        <v>3.8</v>
+      </c>
+      <c r="BI293">
+        <v>1.38</v>
+      </c>
+      <c r="BJ293">
+        <v>2.75</v>
+      </c>
+      <c r="BK293">
+        <v>1.7</v>
+      </c>
+      <c r="BL293">
+        <v>2.05</v>
+      </c>
+      <c r="BM293">
+        <v>2.05</v>
+      </c>
+      <c r="BN293">
+        <v>1.7</v>
+      </c>
+      <c r="BO293">
+        <v>2.48</v>
+      </c>
+      <c r="BP293">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="404">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -862,6 +862,9 @@
     <t>['39', '69']</t>
   </si>
   <si>
+    <t>['10', '57', '71', '84']</t>
+  </si>
+  <si>
     <t>['65']</t>
   </si>
   <si>
@@ -1220,6 +1223,9 @@
   </si>
   <si>
     <t>['45+1', '81']</t>
+  </si>
+  <si>
+    <t>['29', '39', '55']</t>
   </si>
 </sst>
 </file>
@@ -1581,7 +1587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP293"/>
+  <dimension ref="A1:BP294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1840,7 +1846,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q2">
         <v>1.91</v>
@@ -3154,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ8">
         <v>1.28</v>
@@ -3694,7 +3700,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q11">
         <v>2.4</v>
@@ -3775,7 +3781,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4106,7 +4112,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4312,7 +4318,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q14">
         <v>3.25</v>
@@ -4518,7 +4524,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4930,7 +4936,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -5548,7 +5554,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q20">
         <v>4.1</v>
@@ -5960,7 +5966,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -6166,7 +6172,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q23">
         <v>1.91</v>
@@ -6450,7 +6456,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ24">
         <v>1.21</v>
@@ -6578,7 +6584,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q25">
         <v>1.93</v>
@@ -6990,7 +6996,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q27">
         <v>3.9</v>
@@ -7196,7 +7202,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q28">
         <v>3.06</v>
@@ -7402,7 +7408,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -8307,7 +8313,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ33">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR33">
         <v>1.52</v>
@@ -8432,7 +8438,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q34">
         <v>2.45</v>
@@ -8844,7 +8850,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -9540,7 +9546,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ39">
         <v>0.83</v>
@@ -9749,7 +9755,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ40">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.69</v>
@@ -9874,7 +9880,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -10080,7 +10086,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -11316,7 +11322,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11522,7 +11528,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11728,7 +11734,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q50">
         <v>5.85</v>
@@ -11934,7 +11940,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q51">
         <v>2.2</v>
@@ -12015,7 +12021,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ51">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR51">
         <v>1.42</v>
@@ -12630,7 +12636,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ54">
         <v>0.11</v>
@@ -12964,7 +12970,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q56">
         <v>2.75</v>
@@ -13376,7 +13382,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13582,7 +13588,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q59">
         <v>3.52</v>
@@ -13994,7 +14000,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -14818,7 +14824,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q65">
         <v>3.02</v>
@@ -15102,7 +15108,7 @@
         <v>1.5</v>
       </c>
       <c r="AP66">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ66">
         <v>1.83</v>
@@ -15436,7 +15442,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q68">
         <v>3.2</v>
@@ -15517,7 +15523,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ68">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR68">
         <v>1.04</v>
@@ -15642,7 +15648,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q69">
         <v>3.76</v>
@@ -16672,7 +16678,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -18526,7 +18532,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -19144,7 +19150,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q86">
         <v>1.91</v>
@@ -20174,7 +20180,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20252,7 +20258,7 @@
         <v>0.5</v>
       </c>
       <c r="AP91">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ91">
         <v>0.78</v>
@@ -20380,7 +20386,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20667,7 +20673,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ93">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR93">
         <v>1.23</v>
@@ -21204,7 +21210,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -21410,7 +21416,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -21822,7 +21828,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q99">
         <v>2.9</v>
@@ -22028,7 +22034,7 @@
         <v>87</v>
       </c>
       <c r="P100" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22234,7 +22240,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -23264,7 +23270,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -23470,7 +23476,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23676,7 +23682,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q108">
         <v>3.5</v>
@@ -23960,10 +23966,10 @@
         <v>1.17</v>
       </c>
       <c r="AP109">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ109">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR109">
         <v>1.75</v>
@@ -24088,7 +24094,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q110">
         <v>3.2</v>
@@ -24706,7 +24712,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q113">
         <v>7.5</v>
@@ -25942,7 +25948,7 @@
         <v>150</v>
       </c>
       <c r="P119" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q119">
         <v>4.5</v>
@@ -26560,7 +26566,7 @@
         <v>179</v>
       </c>
       <c r="P122" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -27050,7 +27056,7 @@
         <v>0.57</v>
       </c>
       <c r="AP124">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ124">
         <v>0.89</v>
@@ -27178,7 +27184,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q125">
         <v>4.75</v>
@@ -27590,7 +27596,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -28002,7 +28008,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q129">
         <v>2.75</v>
@@ -28208,7 +28214,7 @@
         <v>185</v>
       </c>
       <c r="P130" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q130">
         <v>1.72</v>
@@ -28620,7 +28626,7 @@
         <v>186</v>
       </c>
       <c r="P132" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -29032,7 +29038,7 @@
         <v>188</v>
       </c>
       <c r="P134" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q134">
         <v>2.55</v>
@@ -29444,7 +29450,7 @@
         <v>189</v>
       </c>
       <c r="P136" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q136">
         <v>1.7</v>
@@ -29731,7 +29737,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ137">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR137">
         <v>1.17</v>
@@ -30474,7 +30480,7 @@
         <v>87</v>
       </c>
       <c r="P141" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30886,7 +30892,7 @@
         <v>194</v>
       </c>
       <c r="P143" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q143">
         <v>1.95</v>
@@ -30967,7 +30973,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ143">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR143">
         <v>1.68</v>
@@ -31092,7 +31098,7 @@
         <v>87</v>
       </c>
       <c r="P144" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -31504,7 +31510,7 @@
         <v>196</v>
       </c>
       <c r="P146" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q146">
         <v>2.7</v>
@@ -31788,7 +31794,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP147">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ147">
         <v>0.71</v>
@@ -31916,7 +31922,7 @@
         <v>167</v>
       </c>
       <c r="P148" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -32122,7 +32128,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q149">
         <v>3.1</v>
@@ -32740,7 +32746,7 @@
         <v>200</v>
       </c>
       <c r="P152" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q152">
         <v>3.25</v>
@@ -33152,7 +33158,7 @@
         <v>202</v>
       </c>
       <c r="P154" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -33358,7 +33364,7 @@
         <v>87</v>
       </c>
       <c r="P155" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33564,7 +33570,7 @@
         <v>203</v>
       </c>
       <c r="P156" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q156">
         <v>1.7</v>
@@ -33645,7 +33651,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ156">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR156">
         <v>2.05</v>
@@ -33976,7 +33982,7 @@
         <v>93</v>
       </c>
       <c r="P158" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q158">
         <v>3.7</v>
@@ -34594,7 +34600,7 @@
         <v>205</v>
       </c>
       <c r="P161" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q161">
         <v>1.9</v>
@@ -35006,7 +35012,7 @@
         <v>207</v>
       </c>
       <c r="P163" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q163">
         <v>2.45</v>
@@ -35418,7 +35424,7 @@
         <v>144</v>
       </c>
       <c r="P165" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q165">
         <v>3.5</v>
@@ -35496,7 +35502,7 @@
         <v>1</v>
       </c>
       <c r="AP165">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ165">
         <v>1.72</v>
@@ -36036,7 +36042,7 @@
         <v>87</v>
       </c>
       <c r="P168" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q168">
         <v>3.6</v>
@@ -36654,7 +36660,7 @@
         <v>87</v>
       </c>
       <c r="P171" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q171">
         <v>3.5</v>
@@ -36860,7 +36866,7 @@
         <v>159</v>
       </c>
       <c r="P172" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q172">
         <v>3.4</v>
@@ -37066,7 +37072,7 @@
         <v>210</v>
       </c>
       <c r="P173" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q173">
         <v>1.5</v>
@@ -37272,7 +37278,7 @@
         <v>87</v>
       </c>
       <c r="P174" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q174">
         <v>4.33</v>
@@ -37684,7 +37690,7 @@
         <v>212</v>
       </c>
       <c r="P176" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37890,7 +37896,7 @@
         <v>213</v>
       </c>
       <c r="P177" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q177">
         <v>2.3</v>
@@ -37971,7 +37977,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ177">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR177">
         <v>1.71</v>
@@ -38302,7 +38308,7 @@
         <v>215</v>
       </c>
       <c r="P179" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38508,7 +38514,7 @@
         <v>216</v>
       </c>
       <c r="P180" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q180">
         <v>2.55</v>
@@ -38586,7 +38592,7 @@
         <v>0.82</v>
       </c>
       <c r="AP180">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ180">
         <v>0.71</v>
@@ -39126,7 +39132,7 @@
         <v>87</v>
       </c>
       <c r="P183" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q183">
         <v>5.5</v>
@@ -39332,7 +39338,7 @@
         <v>219</v>
       </c>
       <c r="P184" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -40028,7 +40034,7 @@
         <v>1.36</v>
       </c>
       <c r="AP187">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ187">
         <v>0.84</v>
@@ -40156,7 +40162,7 @@
         <v>96</v>
       </c>
       <c r="P188" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q188">
         <v>2.35</v>
@@ -40774,7 +40780,7 @@
         <v>224</v>
       </c>
       <c r="P191" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q191">
         <v>1.95</v>
@@ -41186,7 +41192,7 @@
         <v>225</v>
       </c>
       <c r="P193" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q193">
         <v>3.6</v>
@@ -41267,7 +41273,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ193">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR193">
         <v>1.37</v>
@@ -41392,7 +41398,7 @@
         <v>226</v>
       </c>
       <c r="P194" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -42422,7 +42428,7 @@
         <v>188</v>
       </c>
       <c r="P199" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -42628,7 +42634,7 @@
         <v>231</v>
       </c>
       <c r="P200" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q200">
         <v>2.25</v>
@@ -43040,7 +43046,7 @@
         <v>233</v>
       </c>
       <c r="P202" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -43246,7 +43252,7 @@
         <v>234</v>
       </c>
       <c r="P203" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q203">
         <v>2.6</v>
@@ -43452,7 +43458,7 @@
         <v>235</v>
       </c>
       <c r="P204" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q204">
         <v>2.15</v>
@@ -43658,7 +43664,7 @@
         <v>236</v>
       </c>
       <c r="P205" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q205">
         <v>4.6</v>
@@ -43864,7 +43870,7 @@
         <v>237</v>
       </c>
       <c r="P206" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q206">
         <v>1.95</v>
@@ -44354,7 +44360,7 @@
         <v>1.5</v>
       </c>
       <c r="AP208">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ208">
         <v>1.58</v>
@@ -44563,7 +44569,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ209">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR209">
         <v>1.64</v>
@@ -45100,7 +45106,7 @@
         <v>227</v>
       </c>
       <c r="P212" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q212">
         <v>2.75</v>
@@ -45306,7 +45312,7 @@
         <v>239</v>
       </c>
       <c r="P213" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q213">
         <v>2.5</v>
@@ -45512,7 +45518,7 @@
         <v>86</v>
       </c>
       <c r="P214" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q214">
         <v>1.71</v>
@@ -45924,7 +45930,7 @@
         <v>87</v>
       </c>
       <c r="P216" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q216">
         <v>3.25</v>
@@ -46414,7 +46420,7 @@
         <v>1.77</v>
       </c>
       <c r="AP218">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ218">
         <v>1.63</v>
@@ -46542,7 +46548,7 @@
         <v>88</v>
       </c>
       <c r="P219" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q219">
         <v>4.33</v>
@@ -46954,7 +46960,7 @@
         <v>241</v>
       </c>
       <c r="P221" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q221">
         <v>2.25</v>
@@ -47572,7 +47578,7 @@
         <v>87</v>
       </c>
       <c r="P224" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q224">
         <v>4.33</v>
@@ -47859,7 +47865,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ225">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR225">
         <v>1.31</v>
@@ -48474,7 +48480,7 @@
         <v>0.86</v>
       </c>
       <c r="AP228">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ228">
         <v>1.05</v>
@@ -48808,7 +48814,7 @@
         <v>174</v>
       </c>
       <c r="P230" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q230">
         <v>4.75</v>
@@ -49220,7 +49226,7 @@
         <v>87</v>
       </c>
       <c r="P232" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q232">
         <v>2.88</v>
@@ -50250,7 +50256,7 @@
         <v>249</v>
       </c>
       <c r="P237" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q237">
         <v>2.5</v>
@@ -50456,7 +50462,7 @@
         <v>250</v>
       </c>
       <c r="P238" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q238">
         <v>3.1</v>
@@ -50662,7 +50668,7 @@
         <v>118</v>
       </c>
       <c r="P239" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q239">
         <v>3.75</v>
@@ -50743,7 +50749,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ239">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR239">
         <v>1.3</v>
@@ -50868,7 +50874,7 @@
         <v>251</v>
       </c>
       <c r="P240" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q240">
         <v>2.1</v>
@@ -51074,7 +51080,7 @@
         <v>105</v>
       </c>
       <c r="P241" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q241">
         <v>2.3</v>
@@ -51486,7 +51492,7 @@
         <v>87</v>
       </c>
       <c r="P243" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q243">
         <v>3.75</v>
@@ -51692,7 +51698,7 @@
         <v>252</v>
       </c>
       <c r="P244" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q244">
         <v>3.4</v>
@@ -52310,7 +52316,7 @@
         <v>255</v>
       </c>
       <c r="P247" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q247">
         <v>3.4</v>
@@ -52803,7 +52809,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ249">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR249">
         <v>1.15</v>
@@ -52928,7 +52934,7 @@
         <v>257</v>
       </c>
       <c r="P250" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q250">
         <v>2.5</v>
@@ -53134,7 +53140,7 @@
         <v>258</v>
       </c>
       <c r="P251" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q251">
         <v>2.05</v>
@@ -53340,7 +53346,7 @@
         <v>259</v>
       </c>
       <c r="P252" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q252">
         <v>2.63</v>
@@ -53546,7 +53552,7 @@
         <v>87</v>
       </c>
       <c r="P253" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q253">
         <v>4.33</v>
@@ -53752,7 +53758,7 @@
         <v>260</v>
       </c>
       <c r="P254" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q254">
         <v>4.75</v>
@@ -53958,7 +53964,7 @@
         <v>87</v>
       </c>
       <c r="P255" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q255">
         <v>2.5</v>
@@ -54164,7 +54170,7 @@
         <v>261</v>
       </c>
       <c r="P256" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q256">
         <v>3.4</v>
@@ -54448,7 +54454,7 @@
         <v>0.93</v>
       </c>
       <c r="AP257">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ257">
         <v>0.89</v>
@@ -54576,7 +54582,7 @@
         <v>262</v>
       </c>
       <c r="P258" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q258">
         <v>3.1</v>
@@ -54782,7 +54788,7 @@
         <v>263</v>
       </c>
       <c r="P259" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q259">
         <v>2.1</v>
@@ -55400,7 +55406,7 @@
         <v>87</v>
       </c>
       <c r="P262" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q262">
         <v>2.75</v>
@@ -55606,7 +55612,7 @@
         <v>266</v>
       </c>
       <c r="P263" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q263">
         <v>2.5</v>
@@ -56018,7 +56024,7 @@
         <v>217</v>
       </c>
       <c r="P265" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q265">
         <v>3</v>
@@ -56224,7 +56230,7 @@
         <v>267</v>
       </c>
       <c r="P266" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q266">
         <v>2.88</v>
@@ -56508,7 +56514,7 @@
         <v>1</v>
       </c>
       <c r="AP267">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ267">
         <v>1.05</v>
@@ -56717,7 +56723,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ268">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR268">
         <v>1.27</v>
@@ -57048,7 +57054,7 @@
         <v>105</v>
       </c>
       <c r="P270" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q270">
         <v>3</v>
@@ -57254,7 +57260,7 @@
         <v>87</v>
       </c>
       <c r="P271" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q271">
         <v>5</v>
@@ -57460,7 +57466,7 @@
         <v>270</v>
       </c>
       <c r="P272" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q272">
         <v>3.5</v>
@@ -57666,7 +57672,7 @@
         <v>271</v>
       </c>
       <c r="P273" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q273">
         <v>2.35</v>
@@ -57747,7 +57753,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ273">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR273">
         <v>1.63</v>
@@ -59108,7 +59114,7 @@
         <v>275</v>
       </c>
       <c r="P280" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q280">
         <v>2.88</v>
@@ -59314,7 +59320,7 @@
         <v>276</v>
       </c>
       <c r="P281" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q281">
         <v>2.25</v>
@@ -59392,7 +59398,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP281">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ281">
         <v>0.84</v>
@@ -59520,7 +59526,7 @@
         <v>277</v>
       </c>
       <c r="P282" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q282">
         <v>2.5</v>
@@ -59726,7 +59732,7 @@
         <v>87</v>
       </c>
       <c r="P283" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q283">
         <v>3.4</v>
@@ -59932,7 +59938,7 @@
         <v>87</v>
       </c>
       <c r="P284" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q284">
         <v>2.1</v>
@@ -60344,7 +60350,7 @@
         <v>278</v>
       </c>
       <c r="P286" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q286">
         <v>3.25</v>
@@ -60550,7 +60556,7 @@
         <v>279</v>
       </c>
       <c r="P287" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q287">
         <v>1.73</v>
@@ -60756,7 +60762,7 @@
         <v>280</v>
       </c>
       <c r="P288" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q288">
         <v>2.2</v>
@@ -60962,7 +60968,7 @@
         <v>87</v>
       </c>
       <c r="P289" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q289">
         <v>2.5</v>
@@ -61168,7 +61174,7 @@
         <v>240</v>
       </c>
       <c r="P290" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q290">
         <v>3.25</v>
@@ -61943,6 +61949,212 @@
       </c>
       <c r="BP293">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="294" spans="1:68">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>7858359</v>
+      </c>
+      <c r="C294" t="s">
+        <v>68</v>
+      </c>
+      <c r="D294" t="s">
+        <v>69</v>
+      </c>
+      <c r="E294" s="2">
+        <v>45786.65625</v>
+      </c>
+      <c r="F294">
+        <v>8</v>
+      </c>
+      <c r="G294" t="s">
+        <v>76</v>
+      </c>
+      <c r="H294" t="s">
+        <v>77</v>
+      </c>
+      <c r="I294">
+        <v>1</v>
+      </c>
+      <c r="J294">
+        <v>2</v>
+      </c>
+      <c r="K294">
+        <v>3</v>
+      </c>
+      <c r="L294">
+        <v>4</v>
+      </c>
+      <c r="M294">
+        <v>3</v>
+      </c>
+      <c r="N294">
+        <v>7</v>
+      </c>
+      <c r="O294" t="s">
+        <v>282</v>
+      </c>
+      <c r="P294" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q294">
+        <v>2.4</v>
+      </c>
+      <c r="R294">
+        <v>2.4</v>
+      </c>
+      <c r="S294">
+        <v>4</v>
+      </c>
+      <c r="T294">
+        <v>1.29</v>
+      </c>
+      <c r="U294">
+        <v>3.5</v>
+      </c>
+      <c r="V294">
+        <v>2.25</v>
+      </c>
+      <c r="W294">
+        <v>1.57</v>
+      </c>
+      <c r="X294">
+        <v>5.5</v>
+      </c>
+      <c r="Y294">
+        <v>1.14</v>
+      </c>
+      <c r="Z294">
+        <v>1.82</v>
+      </c>
+      <c r="AA294">
+        <v>3.63</v>
+      </c>
+      <c r="AB294">
+        <v>3.4</v>
+      </c>
+      <c r="AC294">
+        <v>1.03</v>
+      </c>
+      <c r="AD294">
+        <v>11</v>
+      </c>
+      <c r="AE294">
+        <v>1.18</v>
+      </c>
+      <c r="AF294">
+        <v>4.75</v>
+      </c>
+      <c r="AG294">
+        <v>1.55</v>
+      </c>
+      <c r="AH294">
+        <v>2.36</v>
+      </c>
+      <c r="AI294">
+        <v>1.53</v>
+      </c>
+      <c r="AJ294">
+        <v>2.38</v>
+      </c>
+      <c r="AK294">
+        <v>1.29</v>
+      </c>
+      <c r="AL294">
+        <v>1.26</v>
+      </c>
+      <c r="AM294">
+        <v>1.82</v>
+      </c>
+      <c r="AN294">
+        <v>1.72</v>
+      </c>
+      <c r="AO294">
+        <v>1.06</v>
+      </c>
+      <c r="AP294">
+        <v>1.79</v>
+      </c>
+      <c r="AQ294">
+        <v>1</v>
+      </c>
+      <c r="AR294">
+        <v>1.71</v>
+      </c>
+      <c r="AS294">
+        <v>1.59</v>
+      </c>
+      <c r="AT294">
+        <v>3.3</v>
+      </c>
+      <c r="AU294">
+        <v>-1</v>
+      </c>
+      <c r="AV294">
+        <v>-1</v>
+      </c>
+      <c r="AW294">
+        <v>-1</v>
+      </c>
+      <c r="AX294">
+        <v>-1</v>
+      </c>
+      <c r="AY294">
+        <v>-1</v>
+      </c>
+      <c r="AZ294">
+        <v>-1</v>
+      </c>
+      <c r="BA294">
+        <v>-1</v>
+      </c>
+      <c r="BB294">
+        <v>-1</v>
+      </c>
+      <c r="BC294">
+        <v>-1</v>
+      </c>
+      <c r="BD294">
+        <v>1.61</v>
+      </c>
+      <c r="BE294">
+        <v>6.75</v>
+      </c>
+      <c r="BF294">
+        <v>2.55</v>
+      </c>
+      <c r="BG294">
+        <v>1.25</v>
+      </c>
+      <c r="BH294">
+        <v>3.45</v>
+      </c>
+      <c r="BI294">
+        <v>1.44</v>
+      </c>
+      <c r="BJ294">
+        <v>2.55</v>
+      </c>
+      <c r="BK294">
+        <v>1.71</v>
+      </c>
+      <c r="BL294">
+        <v>2</v>
+      </c>
+      <c r="BM294">
+        <v>2.08</v>
+      </c>
+      <c r="BN294">
+        <v>1.65</v>
+      </c>
+      <c r="BO294">
+        <v>2.65</v>
+      </c>
+      <c r="BP294">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
@@ -62091,31 +62091,31 @@
         <v>3.3</v>
       </c>
       <c r="AU294">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AV294">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AW294">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AX294">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY294">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="AZ294">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BA294">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB294">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC294">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD294">
         <v>1.61</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="408">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -865,6 +865,12 @@
     <t>['10', '57', '71', '84']</t>
   </si>
   <si>
+    <t>['48', '50', '56', '78']</t>
+  </si>
+  <si>
+    <t>['8', '21']</t>
+  </si>
+  <si>
     <t>['65']</t>
   </si>
   <si>
@@ -1227,6 +1233,12 @@
   <si>
     <t>['29', '39', '55']</t>
   </si>
+  <si>
+    <t>['6', '90+5']</t>
+  </si>
+  <si>
+    <t>['5', '37']</t>
+  </si>
 </sst>
 </file>
 
@@ -1587,7 +1599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP294"/>
+  <dimension ref="A1:BP298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1846,7 +1858,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q2">
         <v>1.91</v>
@@ -2133,7 +2145,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ3">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2336,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ4">
         <v>0.78</v>
@@ -2542,10 +2554,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ5">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2954,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ7">
         <v>1.21</v>
@@ -3369,7 +3381,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ9">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3700,7 +3712,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q11">
         <v>2.4</v>
@@ -3778,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -4112,7 +4124,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4318,7 +4330,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q14">
         <v>3.25</v>
@@ -4524,7 +4536,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4936,7 +4948,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -5554,7 +5566,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q20">
         <v>4.1</v>
@@ -5635,7 +5647,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ20">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AR20">
         <v>1.27</v>
@@ -5838,7 +5850,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ21">
         <v>0.78</v>
@@ -5966,7 +5978,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -6172,7 +6184,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q23">
         <v>1.91</v>
@@ -6253,7 +6265,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ23">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR23">
         <v>2.53</v>
@@ -6584,7 +6596,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q25">
         <v>1.93</v>
@@ -6996,7 +7008,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q27">
         <v>3.9</v>
@@ -7074,7 +7086,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ27">
         <v>1.63</v>
@@ -7202,7 +7214,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q28">
         <v>3.06</v>
@@ -7408,7 +7420,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7486,7 +7498,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ29">
         <v>1.58</v>
@@ -7901,7 +7913,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ31">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR31">
         <v>1.23</v>
@@ -8104,7 +8116,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ32">
         <v>0.89</v>
@@ -8438,7 +8450,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q34">
         <v>2.45</v>
@@ -8850,7 +8862,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -9137,7 +9149,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ37">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AR37">
         <v>1.03</v>
@@ -9880,7 +9892,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9958,7 +9970,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ41">
         <v>1.05</v>
@@ -10086,7 +10098,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10164,7 +10176,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ42">
         <v>0.84</v>
@@ -10579,7 +10591,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ44">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR44">
         <v>1.89</v>
@@ -11194,10 +11206,10 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ47">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR47">
         <v>1.76</v>
@@ -11322,7 +11334,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11528,7 +11540,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11734,7 +11746,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q50">
         <v>5.85</v>
@@ -11812,7 +11824,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ50">
         <v>1.83</v>
@@ -11940,7 +11952,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q51">
         <v>2.2</v>
@@ -12018,7 +12030,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -12227,7 +12239,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ52">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AR52">
         <v>2.07</v>
@@ -12970,7 +12982,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q56">
         <v>2.75</v>
@@ -13048,7 +13060,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ56">
         <v>1.63</v>
@@ -13257,7 +13269,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ57">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AR57">
         <v>1.08</v>
@@ -13382,7 +13394,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13460,10 +13472,10 @@
         <v>0.33</v>
       </c>
       <c r="AP58">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ58">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR58">
         <v>0.9399999999999999</v>
@@ -13588,7 +13600,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q59">
         <v>3.52</v>
@@ -13872,7 +13884,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ60">
         <v>1.05</v>
@@ -14000,7 +14012,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -14284,10 +14296,10 @@
         <v>0.33</v>
       </c>
       <c r="AP62">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ62">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR62">
         <v>1.5</v>
@@ -14824,7 +14836,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q65">
         <v>3.02</v>
@@ -15442,7 +15454,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q68">
         <v>3.2</v>
@@ -15648,7 +15660,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q69">
         <v>3.76</v>
@@ -16553,7 +16565,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ73">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR73">
         <v>1.73</v>
@@ -16678,7 +16690,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -16962,7 +16974,7 @@
         <v>0.6</v>
       </c>
       <c r="AP75">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ75">
         <v>0.78</v>
@@ -17168,7 +17180,7 @@
         <v>2.25</v>
       </c>
       <c r="AP76">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ76">
         <v>1.63</v>
@@ -17580,7 +17592,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ78">
         <v>0.89</v>
@@ -17789,7 +17801,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ79">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR79">
         <v>1.88</v>
@@ -17995,7 +18007,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ80">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AR80">
         <v>2.17</v>
@@ -18404,7 +18416,7 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ82">
         <v>1.58</v>
@@ -18532,7 +18544,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -19150,7 +19162,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q86">
         <v>1.91</v>
@@ -19231,7 +19243,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ86">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR86">
         <v>1.86</v>
@@ -19846,7 +19858,7 @@
         <v>0.8</v>
       </c>
       <c r="AP89">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ89">
         <v>0.83</v>
@@ -20052,7 +20064,7 @@
         <v>0.17</v>
       </c>
       <c r="AP90">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ90">
         <v>0.11</v>
@@ -20180,7 +20192,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20386,7 +20398,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -21210,7 +21222,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -21416,7 +21428,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -21497,7 +21509,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ97">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR97">
         <v>1.7</v>
@@ -21828,7 +21840,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q99">
         <v>2.9</v>
@@ -21909,7 +21921,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ99">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR99">
         <v>1.16</v>
@@ -22034,7 +22046,7 @@
         <v>87</v>
       </c>
       <c r="P100" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22240,7 +22252,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -22318,10 +22330,10 @@
         <v>0.67</v>
       </c>
       <c r="AP101">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ101">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AR101">
         <v>1.52</v>
@@ -22936,7 +22948,7 @@
         <v>0.67</v>
       </c>
       <c r="AP104">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ104">
         <v>0.83</v>
@@ -23142,7 +23154,7 @@
         <v>1.33</v>
       </c>
       <c r="AP105">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ105">
         <v>1.21</v>
@@ -23270,7 +23282,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -23476,7 +23488,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23554,7 +23566,7 @@
         <v>1.33</v>
       </c>
       <c r="AP107">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ107">
         <v>1.28</v>
@@ -23682,7 +23694,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q108">
         <v>3.5</v>
@@ -24094,7 +24106,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q110">
         <v>3.2</v>
@@ -24712,7 +24724,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q113">
         <v>7.5</v>
@@ -24790,7 +24802,7 @@
         <v>1.86</v>
       </c>
       <c r="AP113">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ113">
         <v>1.83</v>
@@ -25205,7 +25217,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ115">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR115">
         <v>2.07</v>
@@ -25411,7 +25423,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ116">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR116">
         <v>1.18</v>
@@ -25820,7 +25832,7 @@
         <v>0.14</v>
       </c>
       <c r="AP118">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ118">
         <v>0.11</v>
@@ -25948,7 +25960,7 @@
         <v>150</v>
       </c>
       <c r="P119" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q119">
         <v>4.5</v>
@@ -26029,7 +26041,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ119">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AR119">
         <v>1.33</v>
@@ -26232,7 +26244,7 @@
         <v>1.29</v>
       </c>
       <c r="AP120">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ120">
         <v>1.21</v>
@@ -26566,7 +26578,7 @@
         <v>179</v>
       </c>
       <c r="P122" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26644,7 +26656,7 @@
         <v>1.14</v>
       </c>
       <c r="AP122">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ122">
         <v>1.05</v>
@@ -27184,7 +27196,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q125">
         <v>4.75</v>
@@ -27596,7 +27608,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27674,10 +27686,10 @@
         <v>0.57</v>
       </c>
       <c r="AP127">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ127">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR127">
         <v>0.92</v>
@@ -28008,7 +28020,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q129">
         <v>2.75</v>
@@ -28214,7 +28226,7 @@
         <v>185</v>
       </c>
       <c r="P130" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q130">
         <v>1.72</v>
@@ -28626,7 +28638,7 @@
         <v>186</v>
       </c>
       <c r="P132" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -28704,7 +28716,7 @@
         <v>1.75</v>
       </c>
       <c r="AP132">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ132">
         <v>1.83</v>
@@ -28913,7 +28925,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ133">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR133">
         <v>1.68</v>
@@ -29038,7 +29050,7 @@
         <v>188</v>
       </c>
       <c r="P134" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q134">
         <v>2.55</v>
@@ -29325,7 +29337,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ135">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AR135">
         <v>1.6</v>
@@ -29450,7 +29462,7 @@
         <v>189</v>
       </c>
       <c r="P136" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q136">
         <v>1.7</v>
@@ -29528,7 +29540,7 @@
         <v>0.13</v>
       </c>
       <c r="AP136">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ136">
         <v>0.11</v>
@@ -29940,7 +29952,7 @@
         <v>1.38</v>
       </c>
       <c r="AP138">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ138">
         <v>1.28</v>
@@ -30146,7 +30158,7 @@
         <v>0.63</v>
       </c>
       <c r="AP139">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ139">
         <v>0.89</v>
@@ -30480,7 +30492,7 @@
         <v>87</v>
       </c>
       <c r="P141" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30558,7 +30570,7 @@
         <v>1.13</v>
       </c>
       <c r="AP141">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ141">
         <v>0.84</v>
@@ -30892,7 +30904,7 @@
         <v>194</v>
       </c>
       <c r="P143" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q143">
         <v>1.95</v>
@@ -31098,7 +31110,7 @@
         <v>87</v>
       </c>
       <c r="P144" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -31385,7 +31397,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ145">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR145">
         <v>1.64</v>
@@ -31510,7 +31522,7 @@
         <v>196</v>
       </c>
       <c r="P146" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q146">
         <v>2.7</v>
@@ -31797,7 +31809,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ147">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR147">
         <v>1.75</v>
@@ -31922,7 +31934,7 @@
         <v>167</v>
       </c>
       <c r="P148" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -32128,7 +32140,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q149">
         <v>3.1</v>
@@ -32206,7 +32218,7 @@
         <v>0.44</v>
       </c>
       <c r="AP149">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ149">
         <v>0.83</v>
@@ -32746,7 +32758,7 @@
         <v>200</v>
       </c>
       <c r="P152" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q152">
         <v>3.25</v>
@@ -33158,7 +33170,7 @@
         <v>202</v>
       </c>
       <c r="P154" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -33364,7 +33376,7 @@
         <v>87</v>
       </c>
       <c r="P155" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33442,7 +33454,7 @@
         <v>0.7</v>
       </c>
       <c r="AP155">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ155">
         <v>1.05</v>
@@ -33570,7 +33582,7 @@
         <v>203</v>
       </c>
       <c r="P156" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q156">
         <v>1.7</v>
@@ -33854,7 +33866,7 @@
         <v>0.67</v>
       </c>
       <c r="AP157">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ157">
         <v>0.89</v>
@@ -33982,7 +33994,7 @@
         <v>93</v>
       </c>
       <c r="P158" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q158">
         <v>3.7</v>
@@ -34063,7 +34075,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ158">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AR158">
         <v>1.6</v>
@@ -34475,7 +34487,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ160">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR160">
         <v>1.47</v>
@@ -34600,7 +34612,7 @@
         <v>205</v>
       </c>
       <c r="P161" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q161">
         <v>1.9</v>
@@ -34678,7 +34690,7 @@
         <v>1.33</v>
       </c>
       <c r="AP161">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ161">
         <v>0.84</v>
@@ -35012,7 +35024,7 @@
         <v>207</v>
       </c>
       <c r="P163" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q163">
         <v>2.45</v>
@@ -35093,7 +35105,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ163">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR163">
         <v>1.85</v>
@@ -35424,7 +35436,7 @@
         <v>144</v>
       </c>
       <c r="P165" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q165">
         <v>3.5</v>
@@ -35505,7 +35517,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ165">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AR165">
         <v>1.75</v>
@@ -35708,7 +35720,7 @@
         <v>1.5</v>
       </c>
       <c r="AP166">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ166">
         <v>1.28</v>
@@ -36042,7 +36054,7 @@
         <v>87</v>
       </c>
       <c r="P168" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q168">
         <v>3.6</v>
@@ -36120,7 +36132,7 @@
         <v>1.8</v>
       </c>
       <c r="AP168">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ168">
         <v>1.83</v>
@@ -36660,7 +36672,7 @@
         <v>87</v>
       </c>
       <c r="P171" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q171">
         <v>3.5</v>
@@ -36741,7 +36753,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ171">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR171">
         <v>1.08</v>
@@ -36866,7 +36878,7 @@
         <v>159</v>
       </c>
       <c r="P172" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q172">
         <v>3.4</v>
@@ -36944,7 +36956,7 @@
         <v>1.4</v>
       </c>
       <c r="AP172">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ172">
         <v>1.63</v>
@@ -37072,7 +37084,7 @@
         <v>210</v>
       </c>
       <c r="P173" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q173">
         <v>1.5</v>
@@ -37278,7 +37290,7 @@
         <v>87</v>
       </c>
       <c r="P174" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q174">
         <v>4.33</v>
@@ -37356,7 +37368,7 @@
         <v>1.5</v>
       </c>
       <c r="AP174">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ174">
         <v>1.58</v>
@@ -37690,7 +37702,7 @@
         <v>212</v>
       </c>
       <c r="P176" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37896,7 +37908,7 @@
         <v>213</v>
       </c>
       <c r="P177" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q177">
         <v>2.3</v>
@@ -38308,7 +38320,7 @@
         <v>215</v>
       </c>
       <c r="P179" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38514,7 +38526,7 @@
         <v>216</v>
       </c>
       <c r="P180" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q180">
         <v>2.55</v>
@@ -38595,7 +38607,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ180">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR180">
         <v>1.69</v>
@@ -39132,7 +39144,7 @@
         <v>87</v>
       </c>
       <c r="P183" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q183">
         <v>5.5</v>
@@ -39210,10 +39222,10 @@
         <v>1.18</v>
       </c>
       <c r="AP183">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ183">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AR183">
         <v>1.3</v>
@@ -39338,7 +39350,7 @@
         <v>219</v>
       </c>
       <c r="P184" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -39416,7 +39428,7 @@
         <v>0.9</v>
       </c>
       <c r="AP184">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ184">
         <v>1.05</v>
@@ -40162,7 +40174,7 @@
         <v>96</v>
       </c>
       <c r="P188" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q188">
         <v>2.35</v>
@@ -40780,7 +40792,7 @@
         <v>224</v>
       </c>
       <c r="P191" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q191">
         <v>1.95</v>
@@ -40861,7 +40873,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ191">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR191">
         <v>1.79</v>
@@ -41192,7 +41204,7 @@
         <v>225</v>
       </c>
       <c r="P193" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q193">
         <v>3.6</v>
@@ -41270,7 +41282,7 @@
         <v>0.64</v>
       </c>
       <c r="AP193">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ193">
         <v>1</v>
@@ -41398,7 +41410,7 @@
         <v>226</v>
       </c>
       <c r="P194" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -41476,7 +41488,7 @@
         <v>1.25</v>
       </c>
       <c r="AP194">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ194">
         <v>1.21</v>
@@ -41891,7 +41903,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ196">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR196">
         <v>1.08</v>
@@ -42097,7 +42109,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ197">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR197">
         <v>1.75</v>
@@ -42300,7 +42312,7 @@
         <v>1.42</v>
       </c>
       <c r="AP198">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ198">
         <v>1.28</v>
@@ -42428,7 +42440,7 @@
         <v>188</v>
       </c>
       <c r="P199" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -42506,10 +42518,10 @@
         <v>1.33</v>
       </c>
       <c r="AP199">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ199">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AR199">
         <v>1.34</v>
@@ -42634,7 +42646,7 @@
         <v>231</v>
       </c>
       <c r="P200" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q200">
         <v>2.25</v>
@@ -42918,7 +42930,7 @@
         <v>0.92</v>
       </c>
       <c r="AP201">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ201">
         <v>1.05</v>
@@ -43046,7 +43058,7 @@
         <v>233</v>
       </c>
       <c r="P202" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -43252,7 +43264,7 @@
         <v>234</v>
       </c>
       <c r="P203" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q203">
         <v>2.6</v>
@@ -43458,7 +43470,7 @@
         <v>235</v>
       </c>
       <c r="P204" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q204">
         <v>2.15</v>
@@ -43664,7 +43676,7 @@
         <v>236</v>
       </c>
       <c r="P205" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q205">
         <v>4.6</v>
@@ -43870,7 +43882,7 @@
         <v>237</v>
       </c>
       <c r="P206" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q206">
         <v>1.95</v>
@@ -44772,10 +44784,10 @@
         <v>0.62</v>
       </c>
       <c r="AP210">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ210">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR210">
         <v>1.55</v>
@@ -45106,7 +45118,7 @@
         <v>227</v>
       </c>
       <c r="P212" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q212">
         <v>2.75</v>
@@ -45312,7 +45324,7 @@
         <v>239</v>
       </c>
       <c r="P213" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q213">
         <v>2.5</v>
@@ -45518,7 +45530,7 @@
         <v>86</v>
       </c>
       <c r="P214" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q214">
         <v>1.71</v>
@@ -45930,7 +45942,7 @@
         <v>87</v>
       </c>
       <c r="P216" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q216">
         <v>3.25</v>
@@ -46008,10 +46020,10 @@
         <v>1.46</v>
       </c>
       <c r="AP216">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ216">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AR216">
         <v>1.66</v>
@@ -46214,10 +46226,10 @@
         <v>0.77</v>
       </c>
       <c r="AP217">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ217">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR217">
         <v>1.34</v>
@@ -46548,7 +46560,7 @@
         <v>88</v>
       </c>
       <c r="P219" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q219">
         <v>4.33</v>
@@ -46960,7 +46972,7 @@
         <v>241</v>
       </c>
       <c r="P221" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q221">
         <v>2.25</v>
@@ -47450,7 +47462,7 @@
         <v>0.92</v>
       </c>
       <c r="AP223">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ223">
         <v>1.05</v>
@@ -47578,7 +47590,7 @@
         <v>87</v>
       </c>
       <c r="P224" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q224">
         <v>4.33</v>
@@ -48274,7 +48286,7 @@
         <v>0.64</v>
       </c>
       <c r="AP227">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ227">
         <v>0.78</v>
@@ -48814,7 +48826,7 @@
         <v>174</v>
       </c>
       <c r="P230" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q230">
         <v>4.75</v>
@@ -49226,7 +49238,7 @@
         <v>87</v>
       </c>
       <c r="P232" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q232">
         <v>2.88</v>
@@ -49719,7 +49731,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ234">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AR234">
         <v>1.77</v>
@@ -50128,10 +50140,10 @@
         <v>0.79</v>
       </c>
       <c r="AP236">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ236">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR236">
         <v>1.65</v>
@@ -50256,7 +50268,7 @@
         <v>249</v>
       </c>
       <c r="P237" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q237">
         <v>2.5</v>
@@ -50334,7 +50346,7 @@
         <v>1.07</v>
       </c>
       <c r="AP237">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ237">
         <v>0.84</v>
@@ -50462,7 +50474,7 @@
         <v>250</v>
       </c>
       <c r="P238" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q238">
         <v>3.1</v>
@@ -50543,7 +50555,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ238">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR238">
         <v>1.28</v>
@@ -50668,7 +50680,7 @@
         <v>118</v>
       </c>
       <c r="P239" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q239">
         <v>3.75</v>
@@ -50746,7 +50758,7 @@
         <v>0.86</v>
       </c>
       <c r="AP239">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ239">
         <v>1</v>
@@ -50874,7 +50886,7 @@
         <v>251</v>
       </c>
       <c r="P240" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q240">
         <v>2.1</v>
@@ -51080,7 +51092,7 @@
         <v>105</v>
       </c>
       <c r="P241" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q241">
         <v>2.3</v>
@@ -51492,7 +51504,7 @@
         <v>87</v>
       </c>
       <c r="P243" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q243">
         <v>3.75</v>
@@ -51570,10 +51582,10 @@
         <v>0.6</v>
       </c>
       <c r="AP243">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ243">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR243">
         <v>1.29</v>
@@ -51698,7 +51710,7 @@
         <v>252</v>
       </c>
       <c r="P244" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q244">
         <v>3.4</v>
@@ -52316,7 +52328,7 @@
         <v>255</v>
       </c>
       <c r="P247" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q247">
         <v>3.4</v>
@@ -52394,10 +52406,10 @@
         <v>0.73</v>
       </c>
       <c r="AP247">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ247">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR247">
         <v>1.43</v>
@@ -52934,7 +52946,7 @@
         <v>257</v>
       </c>
       <c r="P250" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q250">
         <v>2.5</v>
@@ -53012,7 +53024,7 @@
         <v>1</v>
       </c>
       <c r="AP250">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ250">
         <v>0.84</v>
@@ -53140,7 +53152,7 @@
         <v>258</v>
       </c>
       <c r="P251" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q251">
         <v>2.05</v>
@@ -53346,7 +53358,7 @@
         <v>259</v>
       </c>
       <c r="P252" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q252">
         <v>2.63</v>
@@ -53552,7 +53564,7 @@
         <v>87</v>
       </c>
       <c r="P253" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q253">
         <v>4.33</v>
@@ -53633,7 +53645,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ253">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AR253">
         <v>1.54</v>
@@ -53758,7 +53770,7 @@
         <v>260</v>
       </c>
       <c r="P254" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q254">
         <v>4.75</v>
@@ -53964,7 +53976,7 @@
         <v>87</v>
       </c>
       <c r="P255" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q255">
         <v>2.5</v>
@@ -54170,7 +54182,7 @@
         <v>261</v>
       </c>
       <c r="P256" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q256">
         <v>3.4</v>
@@ -54248,7 +54260,7 @@
         <v>1.8</v>
       </c>
       <c r="AP256">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ256">
         <v>1.63</v>
@@ -54582,7 +54594,7 @@
         <v>262</v>
       </c>
       <c r="P258" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q258">
         <v>3.1</v>
@@ -54788,7 +54800,7 @@
         <v>263</v>
       </c>
       <c r="P259" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q259">
         <v>2.1</v>
@@ -54866,7 +54878,7 @@
         <v>0.13</v>
       </c>
       <c r="AP259">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ259">
         <v>0.11</v>
@@ -55075,7 +55087,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ260">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR260">
         <v>1.53</v>
@@ -55406,7 +55418,7 @@
         <v>87</v>
       </c>
       <c r="P262" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q262">
         <v>2.75</v>
@@ -55612,7 +55624,7 @@
         <v>266</v>
       </c>
       <c r="P263" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q263">
         <v>2.5</v>
@@ -55690,7 +55702,7 @@
         <v>0.63</v>
       </c>
       <c r="AP263">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ263">
         <v>0.78</v>
@@ -56024,7 +56036,7 @@
         <v>217</v>
       </c>
       <c r="P265" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q265">
         <v>3</v>
@@ -56230,7 +56242,7 @@
         <v>267</v>
       </c>
       <c r="P266" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q266">
         <v>2.88</v>
@@ -56926,7 +56938,7 @@
         <v>1.19</v>
       </c>
       <c r="AP269">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ269">
         <v>1.28</v>
@@ -57054,7 +57066,7 @@
         <v>105</v>
       </c>
       <c r="P270" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q270">
         <v>3</v>
@@ -57135,7 +57147,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ270">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AR270">
         <v>1.81</v>
@@ -57260,7 +57272,7 @@
         <v>87</v>
       </c>
       <c r="P271" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q271">
         <v>5</v>
@@ -57466,7 +57478,7 @@
         <v>270</v>
       </c>
       <c r="P272" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q272">
         <v>3.5</v>
@@ -57672,7 +57684,7 @@
         <v>271</v>
       </c>
       <c r="P273" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q273">
         <v>2.35</v>
@@ -57750,7 +57762,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP273">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ273">
         <v>1</v>
@@ -58368,7 +58380,7 @@
         <v>1.35</v>
       </c>
       <c r="AP276">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ276">
         <v>1.21</v>
@@ -58577,7 +58589,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ277">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AR277">
         <v>2.15</v>
@@ -58780,7 +58792,7 @@
         <v>0.75</v>
       </c>
       <c r="AP278">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ278">
         <v>0.83</v>
@@ -59114,7 +59126,7 @@
         <v>275</v>
       </c>
       <c r="P280" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q280">
         <v>2.88</v>
@@ -59320,7 +59332,7 @@
         <v>276</v>
       </c>
       <c r="P281" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q281">
         <v>2.25</v>
@@ -59526,7 +59538,7 @@
         <v>277</v>
       </c>
       <c r="P282" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q282">
         <v>2.5</v>
@@ -59607,7 +59619,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ282">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR282">
         <v>1.85</v>
@@ -59732,7 +59744,7 @@
         <v>87</v>
       </c>
       <c r="P283" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q283">
         <v>3.4</v>
@@ -59938,7 +59950,7 @@
         <v>87</v>
       </c>
       <c r="P284" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q284">
         <v>2.1</v>
@@ -60350,7 +60362,7 @@
         <v>278</v>
       </c>
       <c r="P286" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q286">
         <v>3.25</v>
@@ -60556,7 +60568,7 @@
         <v>279</v>
       </c>
       <c r="P287" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q287">
         <v>1.73</v>
@@ -60762,7 +60774,7 @@
         <v>280</v>
       </c>
       <c r="P288" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q288">
         <v>2.2</v>
@@ -60968,7 +60980,7 @@
         <v>87</v>
       </c>
       <c r="P289" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q289">
         <v>2.5</v>
@@ -61174,7 +61186,7 @@
         <v>240</v>
       </c>
       <c r="P290" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q290">
         <v>3.25</v>
@@ -61998,7 +62010,7 @@
         <v>282</v>
       </c>
       <c r="P294" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q294">
         <v>2.4</v>
@@ -62155,6 +62167,830 @@
       </c>
       <c r="BP294">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="295" spans="1:68">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>7858360</v>
+      </c>
+      <c r="C295" t="s">
+        <v>68</v>
+      </c>
+      <c r="D295" t="s">
+        <v>69</v>
+      </c>
+      <c r="E295" s="2">
+        <v>45787.45833333334</v>
+      </c>
+      <c r="F295">
+        <v>6</v>
+      </c>
+      <c r="G295" t="s">
+        <v>72</v>
+      </c>
+      <c r="H295" t="s">
+        <v>83</v>
+      </c>
+      <c r="I295">
+        <v>0</v>
+      </c>
+      <c r="J295">
+        <v>1</v>
+      </c>
+      <c r="K295">
+        <v>1</v>
+      </c>
+      <c r="L295">
+        <v>4</v>
+      </c>
+      <c r="M295">
+        <v>2</v>
+      </c>
+      <c r="N295">
+        <v>6</v>
+      </c>
+      <c r="O295" t="s">
+        <v>283</v>
+      </c>
+      <c r="P295" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q295">
+        <v>5.5</v>
+      </c>
+      <c r="R295">
+        <v>2.5</v>
+      </c>
+      <c r="S295">
+        <v>2.05</v>
+      </c>
+      <c r="T295">
+        <v>1.29</v>
+      </c>
+      <c r="U295">
+        <v>3.5</v>
+      </c>
+      <c r="V295">
+        <v>2.38</v>
+      </c>
+      <c r="W295">
+        <v>1.53</v>
+      </c>
+      <c r="X295">
+        <v>5.5</v>
+      </c>
+      <c r="Y295">
+        <v>1.14</v>
+      </c>
+      <c r="Z295">
+        <v>4.7</v>
+      </c>
+      <c r="AA295">
+        <v>3.89</v>
+      </c>
+      <c r="AB295">
+        <v>1.54</v>
+      </c>
+      <c r="AC295">
+        <v>1.03</v>
+      </c>
+      <c r="AD295">
+        <v>11</v>
+      </c>
+      <c r="AE295">
+        <v>1.2</v>
+      </c>
+      <c r="AF295">
+        <v>4.5</v>
+      </c>
+      <c r="AG295">
+        <v>1.65</v>
+      </c>
+      <c r="AH295">
+        <v>2.1</v>
+      </c>
+      <c r="AI295">
+        <v>1.7</v>
+      </c>
+      <c r="AJ295">
+        <v>2.05</v>
+      </c>
+      <c r="AK295">
+        <v>2.25</v>
+      </c>
+      <c r="AL295">
+        <v>1.22</v>
+      </c>
+      <c r="AM295">
+        <v>1.18</v>
+      </c>
+      <c r="AN295">
+        <v>1.12</v>
+      </c>
+      <c r="AO295">
+        <v>0.71</v>
+      </c>
+      <c r="AP295">
+        <v>1.22</v>
+      </c>
+      <c r="AQ295">
+        <v>0.67</v>
+      </c>
+      <c r="AR295">
+        <v>1.24</v>
+      </c>
+      <c r="AS295">
+        <v>1.4</v>
+      </c>
+      <c r="AT295">
+        <v>2.64</v>
+      </c>
+      <c r="AU295">
+        <v>9</v>
+      </c>
+      <c r="AV295">
+        <v>14</v>
+      </c>
+      <c r="AW295">
+        <v>6</v>
+      </c>
+      <c r="AX295">
+        <v>10</v>
+      </c>
+      <c r="AY295">
+        <v>15</v>
+      </c>
+      <c r="AZ295">
+        <v>26</v>
+      </c>
+      <c r="BA295">
+        <v>5</v>
+      </c>
+      <c r="BB295">
+        <v>9</v>
+      </c>
+      <c r="BC295">
+        <v>14</v>
+      </c>
+      <c r="BD295">
+        <v>2.65</v>
+      </c>
+      <c r="BE295">
+        <v>6.75</v>
+      </c>
+      <c r="BF295">
+        <v>1.58</v>
+      </c>
+      <c r="BG295">
+        <v>1.2</v>
+      </c>
+      <c r="BH295">
+        <v>3.95</v>
+      </c>
+      <c r="BI295">
+        <v>1.35</v>
+      </c>
+      <c r="BJ295">
+        <v>2.9</v>
+      </c>
+      <c r="BK295">
+        <v>1.58</v>
+      </c>
+      <c r="BL295">
+        <v>2.2</v>
+      </c>
+      <c r="BM295">
+        <v>1.92</v>
+      </c>
+      <c r="BN295">
+        <v>1.78</v>
+      </c>
+      <c r="BO295">
+        <v>2.38</v>
+      </c>
+      <c r="BP295">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:68">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>7858361</v>
+      </c>
+      <c r="C296" t="s">
+        <v>68</v>
+      </c>
+      <c r="D296" t="s">
+        <v>69</v>
+      </c>
+      <c r="E296" s="2">
+        <v>45787.45833333334</v>
+      </c>
+      <c r="F296">
+        <v>6</v>
+      </c>
+      <c r="G296" t="s">
+        <v>75</v>
+      </c>
+      <c r="H296" t="s">
+        <v>81</v>
+      </c>
+      <c r="I296">
+        <v>2</v>
+      </c>
+      <c r="J296">
+        <v>2</v>
+      </c>
+      <c r="K296">
+        <v>4</v>
+      </c>
+      <c r="L296">
+        <v>2</v>
+      </c>
+      <c r="M296">
+        <v>2</v>
+      </c>
+      <c r="N296">
+        <v>4</v>
+      </c>
+      <c r="O296" t="s">
+        <v>284</v>
+      </c>
+      <c r="P296" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q296">
+        <v>3.5</v>
+      </c>
+      <c r="R296">
+        <v>2.3</v>
+      </c>
+      <c r="S296">
+        <v>2.75</v>
+      </c>
+      <c r="T296">
+        <v>1.33</v>
+      </c>
+      <c r="U296">
+        <v>3.25</v>
+      </c>
+      <c r="V296">
+        <v>2.5</v>
+      </c>
+      <c r="W296">
+        <v>1.5</v>
+      </c>
+      <c r="X296">
+        <v>6.5</v>
+      </c>
+      <c r="Y296">
+        <v>1.11</v>
+      </c>
+      <c r="Z296">
+        <v>2.28</v>
+      </c>
+      <c r="AA296">
+        <v>3.25</v>
+      </c>
+      <c r="AB296">
+        <v>2.68</v>
+      </c>
+      <c r="AC296">
+        <v>1.05</v>
+      </c>
+      <c r="AD296">
+        <v>9.5</v>
+      </c>
+      <c r="AE296">
+        <v>1.25</v>
+      </c>
+      <c r="AF296">
+        <v>3.8</v>
+      </c>
+      <c r="AG296">
+        <v>1.73</v>
+      </c>
+      <c r="AH296">
+        <v>2</v>
+      </c>
+      <c r="AI296">
+        <v>1.62</v>
+      </c>
+      <c r="AJ296">
+        <v>2.2</v>
+      </c>
+      <c r="AK296">
+        <v>1.58</v>
+      </c>
+      <c r="AL296">
+        <v>1.28</v>
+      </c>
+      <c r="AM296">
+        <v>1.4</v>
+      </c>
+      <c r="AN296">
+        <v>1.24</v>
+      </c>
+      <c r="AO296">
+        <v>0.71</v>
+      </c>
+      <c r="AP296">
+        <v>1.22</v>
+      </c>
+      <c r="AQ296">
+        <v>0.72</v>
+      </c>
+      <c r="AR296">
+        <v>1.44</v>
+      </c>
+      <c r="AS296">
+        <v>1.33</v>
+      </c>
+      <c r="AT296">
+        <v>2.77</v>
+      </c>
+      <c r="AU296">
+        <v>7</v>
+      </c>
+      <c r="AV296">
+        <v>7</v>
+      </c>
+      <c r="AW296">
+        <v>11</v>
+      </c>
+      <c r="AX296">
+        <v>10</v>
+      </c>
+      <c r="AY296">
+        <v>20</v>
+      </c>
+      <c r="AZ296">
+        <v>19</v>
+      </c>
+      <c r="BA296">
+        <v>3</v>
+      </c>
+      <c r="BB296">
+        <v>7</v>
+      </c>
+      <c r="BC296">
+        <v>10</v>
+      </c>
+      <c r="BD296">
+        <v>2.1</v>
+      </c>
+      <c r="BE296">
+        <v>6.5</v>
+      </c>
+      <c r="BF296">
+        <v>1.88</v>
+      </c>
+      <c r="BG296">
+        <v>1.24</v>
+      </c>
+      <c r="BH296">
+        <v>3.65</v>
+      </c>
+      <c r="BI296">
+        <v>1.41</v>
+      </c>
+      <c r="BJ296">
+        <v>2.65</v>
+      </c>
+      <c r="BK296">
+        <v>1.66</v>
+      </c>
+      <c r="BL296">
+        <v>2.08</v>
+      </c>
+      <c r="BM296">
+        <v>2.02</v>
+      </c>
+      <c r="BN296">
+        <v>1.7</v>
+      </c>
+      <c r="BO296">
+        <v>2.55</v>
+      </c>
+      <c r="BP296">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="297" spans="1:68">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>7858362</v>
+      </c>
+      <c r="C297" t="s">
+        <v>68</v>
+      </c>
+      <c r="D297" t="s">
+        <v>69</v>
+      </c>
+      <c r="E297" s="2">
+        <v>45787.55208333334</v>
+      </c>
+      <c r="F297">
+        <v>8</v>
+      </c>
+      <c r="G297" t="s">
+        <v>79</v>
+      </c>
+      <c r="H297" t="s">
+        <v>84</v>
+      </c>
+      <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297">
+        <v>0</v>
+      </c>
+      <c r="K297">
+        <v>0</v>
+      </c>
+      <c r="L297">
+        <v>0</v>
+      </c>
+      <c r="M297">
+        <v>0</v>
+      </c>
+      <c r="N297">
+        <v>0</v>
+      </c>
+      <c r="O297" t="s">
+        <v>87</v>
+      </c>
+      <c r="P297" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q297">
+        <v>2.3</v>
+      </c>
+      <c r="R297">
+        <v>2.3</v>
+      </c>
+      <c r="S297">
+        <v>4.5</v>
+      </c>
+      <c r="T297">
+        <v>1.33</v>
+      </c>
+      <c r="U297">
+        <v>3.25</v>
+      </c>
+      <c r="V297">
+        <v>2.63</v>
+      </c>
+      <c r="W297">
+        <v>1.44</v>
+      </c>
+      <c r="X297">
+        <v>6.5</v>
+      </c>
+      <c r="Y297">
+        <v>1.11</v>
+      </c>
+      <c r="Z297">
+        <v>1.75</v>
+      </c>
+      <c r="AA297">
+        <v>3.47</v>
+      </c>
+      <c r="AB297">
+        <v>3.82</v>
+      </c>
+      <c r="AC297">
+        <v>1.05</v>
+      </c>
+      <c r="AD297">
+        <v>9.5</v>
+      </c>
+      <c r="AE297">
+        <v>1.25</v>
+      </c>
+      <c r="AF297">
+        <v>3.75</v>
+      </c>
+      <c r="AG297">
+        <v>1.75</v>
+      </c>
+      <c r="AH297">
+        <v>1.95</v>
+      </c>
+      <c r="AI297">
+        <v>1.75</v>
+      </c>
+      <c r="AJ297">
+        <v>2</v>
+      </c>
+      <c r="AK297">
+        <v>1.22</v>
+      </c>
+      <c r="AL297">
+        <v>1.27</v>
+      </c>
+      <c r="AM297">
+        <v>1.95</v>
+      </c>
+      <c r="AN297">
+        <v>1.5</v>
+      </c>
+      <c r="AO297">
+        <v>0.89</v>
+      </c>
+      <c r="AP297">
+        <v>1.47</v>
+      </c>
+      <c r="AQ297">
+        <v>0.89</v>
+      </c>
+      <c r="AR297">
+        <v>1.64</v>
+      </c>
+      <c r="AS297">
+        <v>1.1</v>
+      </c>
+      <c r="AT297">
+        <v>2.74</v>
+      </c>
+      <c r="AU297">
+        <v>3</v>
+      </c>
+      <c r="AV297">
+        <v>3</v>
+      </c>
+      <c r="AW297">
+        <v>15</v>
+      </c>
+      <c r="AX297">
+        <v>3</v>
+      </c>
+      <c r="AY297">
+        <v>23</v>
+      </c>
+      <c r="AZ297">
+        <v>8</v>
+      </c>
+      <c r="BA297">
+        <v>13</v>
+      </c>
+      <c r="BB297">
+        <v>1</v>
+      </c>
+      <c r="BC297">
+        <v>14</v>
+      </c>
+      <c r="BD297">
+        <v>1.5</v>
+      </c>
+      <c r="BE297">
+        <v>7</v>
+      </c>
+      <c r="BF297">
+        <v>2.85</v>
+      </c>
+      <c r="BG297">
+        <v>1.24</v>
+      </c>
+      <c r="BH297">
+        <v>3.55</v>
+      </c>
+      <c r="BI297">
+        <v>1.43</v>
+      </c>
+      <c r="BJ297">
+        <v>2.63</v>
+      </c>
+      <c r="BK297">
+        <v>1.7</v>
+      </c>
+      <c r="BL297">
+        <v>2.02</v>
+      </c>
+      <c r="BM297">
+        <v>2.07</v>
+      </c>
+      <c r="BN297">
+        <v>1.67</v>
+      </c>
+      <c r="BO297">
+        <v>2.63</v>
+      </c>
+      <c r="BP297">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="298" spans="1:68">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>7858363</v>
+      </c>
+      <c r="C298" t="s">
+        <v>68</v>
+      </c>
+      <c r="D298" t="s">
+        <v>69</v>
+      </c>
+      <c r="E298" s="2">
+        <v>45787.65625</v>
+      </c>
+      <c r="F298">
+        <v>8</v>
+      </c>
+      <c r="G298" t="s">
+        <v>73</v>
+      </c>
+      <c r="H298" t="s">
+        <v>78</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>1</v>
+      </c>
+      <c r="K298">
+        <v>1</v>
+      </c>
+      <c r="L298">
+        <v>0</v>
+      </c>
+      <c r="M298">
+        <v>1</v>
+      </c>
+      <c r="N298">
+        <v>1</v>
+      </c>
+      <c r="O298" t="s">
+        <v>87</v>
+      </c>
+      <c r="P298" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q298">
+        <v>3.75</v>
+      </c>
+      <c r="R298">
+        <v>2.2</v>
+      </c>
+      <c r="S298">
+        <v>2.88</v>
+      </c>
+      <c r="T298">
+        <v>1.4</v>
+      </c>
+      <c r="U298">
+        <v>2.75</v>
+      </c>
+      <c r="V298">
+        <v>2.75</v>
+      </c>
+      <c r="W298">
+        <v>1.4</v>
+      </c>
+      <c r="X298">
+        <v>8</v>
+      </c>
+      <c r="Y298">
+        <v>1.08</v>
+      </c>
+      <c r="Z298">
+        <v>2.6</v>
+      </c>
+      <c r="AA298">
+        <v>3.21</v>
+      </c>
+      <c r="AB298">
+        <v>2.36</v>
+      </c>
+      <c r="AC298">
+        <v>1.06</v>
+      </c>
+      <c r="AD298">
+        <v>8.5</v>
+      </c>
+      <c r="AE298">
+        <v>1.3</v>
+      </c>
+      <c r="AF298">
+        <v>3.35</v>
+      </c>
+      <c r="AG298">
+        <v>1.78</v>
+      </c>
+      <c r="AH298">
+        <v>1.92</v>
+      </c>
+      <c r="AI298">
+        <v>1.75</v>
+      </c>
+      <c r="AJ298">
+        <v>2</v>
+      </c>
+      <c r="AK298">
+        <v>1.65</v>
+      </c>
+      <c r="AL298">
+        <v>1.3</v>
+      </c>
+      <c r="AM298">
+        <v>1.34</v>
+      </c>
+      <c r="AN298">
+        <v>1.72</v>
+      </c>
+      <c r="AO298">
+        <v>1.72</v>
+      </c>
+      <c r="AP298">
+        <v>1.63</v>
+      </c>
+      <c r="AQ298">
+        <v>1.79</v>
+      </c>
+      <c r="AR298">
+        <v>1.65</v>
+      </c>
+      <c r="AS298">
+        <v>1.39</v>
+      </c>
+      <c r="AT298">
+        <v>3.04</v>
+      </c>
+      <c r="AU298">
+        <v>-1</v>
+      </c>
+      <c r="AV298">
+        <v>-1</v>
+      </c>
+      <c r="AW298">
+        <v>-1</v>
+      </c>
+      <c r="AX298">
+        <v>-1</v>
+      </c>
+      <c r="AY298">
+        <v>-1</v>
+      </c>
+      <c r="AZ298">
+        <v>-1</v>
+      </c>
+      <c r="BA298">
+        <v>-1</v>
+      </c>
+      <c r="BB298">
+        <v>-1</v>
+      </c>
+      <c r="BC298">
+        <v>-1</v>
+      </c>
+      <c r="BD298">
+        <v>2.23</v>
+      </c>
+      <c r="BE298">
+        <v>6.75</v>
+      </c>
+      <c r="BF298">
+        <v>1.77</v>
+      </c>
+      <c r="BG298">
+        <v>1.3</v>
+      </c>
+      <c r="BH298">
+        <v>3.15</v>
+      </c>
+      <c r="BI298">
+        <v>1.5</v>
+      </c>
+      <c r="BJ298">
+        <v>2.38</v>
+      </c>
+      <c r="BK298">
+        <v>1.81</v>
+      </c>
+      <c r="BL298">
+        <v>1.88</v>
+      </c>
+      <c r="BM298">
+        <v>2.28</v>
+      </c>
+      <c r="BN298">
+        <v>1.55</v>
+      </c>
+      <c r="BO298">
+        <v>2.9</v>
+      </c>
+      <c r="BP298">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
@@ -62927,31 +62927,31 @@
         <v>3.04</v>
       </c>
       <c r="AU298">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV298">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW298">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX298">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY298">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AZ298">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA298">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB298">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC298">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD298">
         <v>2.23</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="409">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1239,6 +1239,9 @@
   <si>
     <t>['5', '37']</t>
   </si>
+  <si>
+    <t>['34', '42', '59']</t>
+  </si>
 </sst>
 </file>
 
@@ -1599,7 +1602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP298"/>
+  <dimension ref="A1:BP299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3175,7 +3178,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ8">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -5026,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ17">
         <v>0.84</v>
@@ -7707,7 +7710,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ30">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR30">
         <v>2.35</v>
@@ -8322,7 +8325,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ33">
         <v>1</v>
@@ -10794,10 +10797,10 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ45">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR45">
         <v>1.63</v>
@@ -12854,7 +12857,7 @@
         <v>1.67</v>
       </c>
       <c r="AP55">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ55">
         <v>1.05</v>
@@ -13681,7 +13684,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ59">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR59">
         <v>1.61</v>
@@ -16356,7 +16359,7 @@
         <v>0.75</v>
       </c>
       <c r="AP72">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ72">
         <v>0.78</v>
@@ -19449,7 +19452,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ87">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR87">
         <v>1.36</v>
@@ -21300,7 +21303,7 @@
         <v>1.8</v>
       </c>
       <c r="AP96">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ96">
         <v>1.63</v>
@@ -22539,7 +22542,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ102">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR102">
         <v>1.86</v>
@@ -23569,7 +23572,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ107">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR107">
         <v>1.5</v>
@@ -24390,7 +24393,7 @@
         <v>0.67</v>
       </c>
       <c r="AP111">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ111">
         <v>0.89</v>
@@ -27895,7 +27898,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ128">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR128">
         <v>1.7</v>
@@ -28922,7 +28925,7 @@
         <v>0.63</v>
       </c>
       <c r="AP133">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ133">
         <v>0.72</v>
@@ -29955,7 +29958,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ138">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR138">
         <v>1.55</v>
@@ -31394,7 +31397,7 @@
         <v>0.5</v>
       </c>
       <c r="AP145">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ145">
         <v>0.67</v>
@@ -32015,7 +32018,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ148">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR148">
         <v>1.11</v>
@@ -34072,7 +34075,7 @@
         <v>0.78</v>
       </c>
       <c r="AP158">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ158">
         <v>1.79</v>
@@ -35723,7 +35726,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ166">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR166">
         <v>1.26</v>
@@ -36544,7 +36547,7 @@
         <v>0.91</v>
       </c>
       <c r="AP170">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ170">
         <v>1.05</v>
@@ -38195,7 +38198,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ178">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR178">
         <v>1.57</v>
@@ -41076,7 +41079,7 @@
         <v>1.64</v>
       </c>
       <c r="AP192">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ192">
         <v>1.58</v>
@@ -42315,7 +42318,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ198">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR198">
         <v>1.68</v>
@@ -43960,7 +43963,7 @@
         <v>0.08</v>
       </c>
       <c r="AP206">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ206">
         <v>0.11</v>
@@ -46638,7 +46641,7 @@
         <v>1.69</v>
       </c>
       <c r="AP219">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ219">
         <v>1.83</v>
@@ -46847,7 +46850,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ220">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR220">
         <v>1.72</v>
@@ -49937,7 +49940,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ235">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR235">
         <v>1.24</v>
@@ -51170,7 +51173,7 @@
         <v>0.43</v>
       </c>
       <c r="AP241">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ241">
         <v>0.83</v>
@@ -51997,7 +52000,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ245">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR245">
         <v>1.84</v>
@@ -53642,7 +53645,7 @@
         <v>1.47</v>
       </c>
       <c r="AP253">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ253">
         <v>1.79</v>
@@ -56941,7 +56944,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ269">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR269">
         <v>1.63</v>
@@ -57350,7 +57353,7 @@
         <v>1.81</v>
       </c>
       <c r="AP271">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ271">
         <v>1.83</v>
@@ -59822,7 +59825,7 @@
         <v>1.41</v>
       </c>
       <c r="AP283">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ283">
         <v>1.58</v>
@@ -60031,7 +60034,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ284">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR284">
         <v>1.77</v>
@@ -62991,6 +62994,212 @@
       </c>
       <c r="BP298">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="299" spans="1:68">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>7858364</v>
+      </c>
+      <c r="C299" t="s">
+        <v>68</v>
+      </c>
+      <c r="D299" t="s">
+        <v>69</v>
+      </c>
+      <c r="E299" s="2">
+        <v>45788.35416666666</v>
+      </c>
+      <c r="F299">
+        <v>8</v>
+      </c>
+      <c r="G299" t="s">
+        <v>85</v>
+      </c>
+      <c r="H299" t="s">
+        <v>82</v>
+      </c>
+      <c r="I299">
+        <v>0</v>
+      </c>
+      <c r="J299">
+        <v>2</v>
+      </c>
+      <c r="K299">
+        <v>2</v>
+      </c>
+      <c r="L299">
+        <v>0</v>
+      </c>
+      <c r="M299">
+        <v>3</v>
+      </c>
+      <c r="N299">
+        <v>3</v>
+      </c>
+      <c r="O299" t="s">
+        <v>87</v>
+      </c>
+      <c r="P299" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q299">
+        <v>3</v>
+      </c>
+      <c r="R299">
+        <v>2.3</v>
+      </c>
+      <c r="S299">
+        <v>3.1</v>
+      </c>
+      <c r="T299">
+        <v>1.3</v>
+      </c>
+      <c r="U299">
+        <v>3.4</v>
+      </c>
+      <c r="V299">
+        <v>2.5</v>
+      </c>
+      <c r="W299">
+        <v>1.5</v>
+      </c>
+      <c r="X299">
+        <v>6</v>
+      </c>
+      <c r="Y299">
+        <v>1.13</v>
+      </c>
+      <c r="Z299">
+        <v>2.41</v>
+      </c>
+      <c r="AA299">
+        <v>3.3</v>
+      </c>
+      <c r="AB299">
+        <v>2.49</v>
+      </c>
+      <c r="AC299">
+        <v>1.04</v>
+      </c>
+      <c r="AD299">
+        <v>10</v>
+      </c>
+      <c r="AE299">
+        <v>1.22</v>
+      </c>
+      <c r="AF299">
+        <v>4.2</v>
+      </c>
+      <c r="AG299">
+        <v>1.67</v>
+      </c>
+      <c r="AH299">
+        <v>2.1</v>
+      </c>
+      <c r="AI299">
+        <v>1.57</v>
+      </c>
+      <c r="AJ299">
+        <v>2.25</v>
+      </c>
+      <c r="AK299">
+        <v>1.46</v>
+      </c>
+      <c r="AL299">
+        <v>1.27</v>
+      </c>
+      <c r="AM299">
+        <v>1.52</v>
+      </c>
+      <c r="AN299">
+        <v>1.39</v>
+      </c>
+      <c r="AO299">
+        <v>1.28</v>
+      </c>
+      <c r="AP299">
+        <v>1.32</v>
+      </c>
+      <c r="AQ299">
+        <v>1.37</v>
+      </c>
+      <c r="AR299">
+        <v>1.44</v>
+      </c>
+      <c r="AS299">
+        <v>1.2</v>
+      </c>
+      <c r="AT299">
+        <v>2.64</v>
+      </c>
+      <c r="AU299">
+        <v>7</v>
+      </c>
+      <c r="AV299">
+        <v>4</v>
+      </c>
+      <c r="AW299">
+        <v>9</v>
+      </c>
+      <c r="AX299">
+        <v>4</v>
+      </c>
+      <c r="AY299">
+        <v>20</v>
+      </c>
+      <c r="AZ299">
+        <v>8</v>
+      </c>
+      <c r="BA299">
+        <v>4</v>
+      </c>
+      <c r="BB299">
+        <v>5</v>
+      </c>
+      <c r="BC299">
+        <v>9</v>
+      </c>
+      <c r="BD299">
+        <v>1.9</v>
+      </c>
+      <c r="BE299">
+        <v>6.75</v>
+      </c>
+      <c r="BF299">
+        <v>2.07</v>
+      </c>
+      <c r="BG299">
+        <v>1.28</v>
+      </c>
+      <c r="BH299">
+        <v>3.3</v>
+      </c>
+      <c r="BI299">
+        <v>1.49</v>
+      </c>
+      <c r="BJ299">
+        <v>2.43</v>
+      </c>
+      <c r="BK299">
+        <v>1.79</v>
+      </c>
+      <c r="BL299">
+        <v>1.9</v>
+      </c>
+      <c r="BM299">
+        <v>2.23</v>
+      </c>
+      <c r="BN299">
+        <v>1.57</v>
+      </c>
+      <c r="BO299">
+        <v>2.8</v>
+      </c>
+      <c r="BP299">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="411">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -871,6 +871,9 @@
     <t>['8', '21']</t>
   </si>
   <si>
+    <t>['6', '18', '22', '28', '90']</t>
+  </si>
+  <si>
     <t>['65']</t>
   </si>
   <si>
@@ -1242,6 +1245,9 @@
   <si>
     <t>['34', '42', '59']</t>
   </si>
+  <si>
+    <t>['32', '66']</t>
+  </si>
 </sst>
 </file>
 
@@ -1602,7 +1608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP299"/>
+  <dimension ref="A1:BP301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1861,7 +1867,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q2">
         <v>1.91</v>
@@ -2145,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ3">
         <v>1.79</v>
@@ -2354,7 +2360,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ4">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2763,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="AQ6">
         <v>0.89</v>
@@ -3715,7 +3721,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q11">
         <v>2.4</v>
@@ -4127,7 +4133,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4333,7 +4339,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q14">
         <v>3.25</v>
@@ -4539,7 +4545,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4826,7 +4832,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ16">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4951,7 +4957,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -5441,7 +5447,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ19">
         <v>0.83</v>
@@ -5569,7 +5575,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q20">
         <v>4.1</v>
@@ -5856,7 +5862,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ21">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR21">
         <v>1.37</v>
@@ -5981,7 +5987,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -6059,10 +6065,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="AQ22">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR22">
         <v>1.58</v>
@@ -6187,7 +6193,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q23">
         <v>1.91</v>
@@ -6599,7 +6605,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q25">
         <v>1.93</v>
@@ -7011,7 +7017,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q27">
         <v>3.9</v>
@@ -7217,7 +7223,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q28">
         <v>3.06</v>
@@ -7423,7 +7429,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -8453,7 +8459,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q34">
         <v>2.45</v>
@@ -8534,7 +8540,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ34">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR34">
         <v>1.74</v>
@@ -8865,7 +8871,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -8943,10 +8949,10 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ36">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR36">
         <v>0.9399999999999999</v>
@@ -9767,7 +9773,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -9895,7 +9901,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -10101,7 +10107,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -11337,7 +11343,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11415,7 +11421,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ48">
         <v>0.89</v>
@@ -11543,7 +11549,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11749,7 +11755,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q50">
         <v>5.85</v>
@@ -11830,7 +11836,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ50">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR50">
         <v>1.76</v>
@@ -11955,7 +11961,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q51">
         <v>2.2</v>
@@ -12448,7 +12454,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ53">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR53">
         <v>0.82</v>
@@ -12985,7 +12991,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q56">
         <v>2.75</v>
@@ -13397,7 +13403,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13603,7 +13609,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q59">
         <v>3.52</v>
@@ -14015,7 +14021,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -14505,7 +14511,7 @@
         <v>2.33</v>
       </c>
       <c r="AP63">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="AQ63">
         <v>0.84</v>
@@ -14839,7 +14845,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q65">
         <v>3.02</v>
@@ -15126,7 +15132,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ66">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR66">
         <v>1.81</v>
@@ -15329,7 +15335,7 @@
         <v>1.25</v>
       </c>
       <c r="AP67">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="AQ67">
         <v>1.05</v>
@@ -15457,7 +15463,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q68">
         <v>3.2</v>
@@ -15663,7 +15669,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q69">
         <v>3.76</v>
@@ -15741,7 +15747,7 @@
         <v>2.33</v>
       </c>
       <c r="AP69">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ69">
         <v>1.58</v>
@@ -16362,7 +16368,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ72">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR72">
         <v>1.82</v>
@@ -16693,7 +16699,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -16980,7 +16986,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ75">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR75">
         <v>1.41</v>
@@ -17389,7 +17395,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ77">
         <v>1.05</v>
@@ -18547,7 +18553,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18628,7 +18634,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ83">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR83">
         <v>1.89</v>
@@ -19165,7 +19171,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q86">
         <v>1.91</v>
@@ -19243,7 +19249,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="AQ86">
         <v>0.72</v>
@@ -20195,7 +20201,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20276,7 +20282,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ91">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR91">
         <v>1.77</v>
@@ -20401,7 +20407,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20479,7 +20485,7 @@
         <v>1</v>
       </c>
       <c r="AP92">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ92">
         <v>1.05</v>
@@ -21225,7 +21231,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -21431,7 +21437,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -21843,7 +21849,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q99">
         <v>2.9</v>
@@ -22049,7 +22055,7 @@
         <v>87</v>
       </c>
       <c r="P100" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22130,7 +22136,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ100">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR100">
         <v>1.3</v>
@@ -22255,7 +22261,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -22539,7 +22545,7 @@
         <v>1.6</v>
       </c>
       <c r="AP102">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="AQ102">
         <v>1.37</v>
@@ -23285,7 +23291,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -23491,7 +23497,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23697,7 +23703,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q108">
         <v>3.5</v>
@@ -23775,10 +23781,10 @@
         <v>0.86</v>
       </c>
       <c r="AP108">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ108">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR108">
         <v>1.16</v>
@@ -24109,7 +24115,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q110">
         <v>3.2</v>
@@ -24727,7 +24733,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q113">
         <v>7.5</v>
@@ -24808,7 +24814,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ113">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR113">
         <v>0.88</v>
@@ -25629,7 +25635,7 @@
         <v>0.57</v>
       </c>
       <c r="AP117">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="AQ117">
         <v>1.05</v>
@@ -25963,7 +25969,7 @@
         <v>150</v>
       </c>
       <c r="P119" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q119">
         <v>4.5</v>
@@ -26581,7 +26587,7 @@
         <v>179</v>
       </c>
       <c r="P122" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -27199,7 +27205,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q125">
         <v>4.75</v>
@@ -27611,7 +27617,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -28023,7 +28029,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q129">
         <v>2.75</v>
@@ -28229,7 +28235,7 @@
         <v>185</v>
       </c>
       <c r="P130" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q130">
         <v>1.72</v>
@@ -28307,7 +28313,7 @@
         <v>0.5</v>
       </c>
       <c r="AP130">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="AQ130">
         <v>0.83</v>
@@ -28516,7 +28522,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ131">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR131">
         <v>1.18</v>
@@ -28641,7 +28647,7 @@
         <v>186</v>
       </c>
       <c r="P132" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -28722,7 +28728,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ132">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR132">
         <v>1.55</v>
@@ -29053,7 +29059,7 @@
         <v>188</v>
       </c>
       <c r="P134" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q134">
         <v>2.55</v>
@@ -29465,7 +29471,7 @@
         <v>189</v>
       </c>
       <c r="P136" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q136">
         <v>1.7</v>
@@ -29749,7 +29755,7 @@
         <v>1</v>
       </c>
       <c r="AP137">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ137">
         <v>1</v>
@@ -30495,7 +30501,7 @@
         <v>87</v>
       </c>
       <c r="P141" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30907,7 +30913,7 @@
         <v>194</v>
       </c>
       <c r="P143" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q143">
         <v>1.95</v>
@@ -31113,7 +31119,7 @@
         <v>87</v>
       </c>
       <c r="P144" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -31525,7 +31531,7 @@
         <v>196</v>
       </c>
       <c r="P146" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q146">
         <v>2.7</v>
@@ -31937,7 +31943,7 @@
         <v>167</v>
       </c>
       <c r="P148" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -32015,7 +32021,7 @@
         <v>1.33</v>
       </c>
       <c r="AP148">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ148">
         <v>1.37</v>
@@ -32143,7 +32149,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q149">
         <v>3.1</v>
@@ -32427,7 +32433,7 @@
         <v>1.67</v>
       </c>
       <c r="AP150">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="AQ150">
         <v>1.58</v>
@@ -32761,7 +32767,7 @@
         <v>200</v>
       </c>
       <c r="P152" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q152">
         <v>3.25</v>
@@ -32842,7 +32848,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ152">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR152">
         <v>1.81</v>
@@ -33048,7 +33054,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ153">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR153">
         <v>1.62</v>
@@ -33173,7 +33179,7 @@
         <v>202</v>
       </c>
       <c r="P154" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -33379,7 +33385,7 @@
         <v>87</v>
       </c>
       <c r="P155" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33585,7 +33591,7 @@
         <v>203</v>
       </c>
       <c r="P156" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q156">
         <v>1.7</v>
@@ -33997,7 +34003,7 @@
         <v>93</v>
       </c>
       <c r="P158" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q158">
         <v>3.7</v>
@@ -34615,7 +34621,7 @@
         <v>205</v>
       </c>
       <c r="P161" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q161">
         <v>1.9</v>
@@ -35027,7 +35033,7 @@
         <v>207</v>
       </c>
       <c r="P163" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q163">
         <v>2.45</v>
@@ -35311,10 +35317,10 @@
         <v>0.8</v>
       </c>
       <c r="AP164">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="AQ164">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR164">
         <v>1.79</v>
@@ -35439,7 +35445,7 @@
         <v>144</v>
       </c>
       <c r="P165" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q165">
         <v>3.5</v>
@@ -35929,7 +35935,7 @@
         <v>1.3</v>
       </c>
       <c r="AP167">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ167">
         <v>1.21</v>
@@ -36057,7 +36063,7 @@
         <v>87</v>
       </c>
       <c r="P168" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q168">
         <v>3.6</v>
@@ -36138,7 +36144,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ168">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR168">
         <v>1.71</v>
@@ -36675,7 +36681,7 @@
         <v>87</v>
       </c>
       <c r="P171" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q171">
         <v>3.5</v>
@@ -36753,7 +36759,7 @@
         <v>0.6</v>
       </c>
       <c r="AP171">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ171">
         <v>0.67</v>
@@ -36881,7 +36887,7 @@
         <v>159</v>
       </c>
       <c r="P172" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q172">
         <v>3.4</v>
@@ -37087,7 +37093,7 @@
         <v>210</v>
       </c>
       <c r="P173" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q173">
         <v>1.5</v>
@@ -37293,7 +37299,7 @@
         <v>87</v>
       </c>
       <c r="P174" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q174">
         <v>4.33</v>
@@ -37580,7 +37586,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ175">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR175">
         <v>1.74</v>
@@ -37705,7 +37711,7 @@
         <v>212</v>
       </c>
       <c r="P176" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37911,7 +37917,7 @@
         <v>213</v>
       </c>
       <c r="P177" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q177">
         <v>2.3</v>
@@ -38323,7 +38329,7 @@
         <v>215</v>
       </c>
       <c r="P179" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38529,7 +38535,7 @@
         <v>216</v>
       </c>
       <c r="P180" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q180">
         <v>2.55</v>
@@ -39147,7 +39153,7 @@
         <v>87</v>
       </c>
       <c r="P183" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q183">
         <v>5.5</v>
@@ -39353,7 +39359,7 @@
         <v>219</v>
       </c>
       <c r="P184" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -40177,7 +40183,7 @@
         <v>96</v>
       </c>
       <c r="P188" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q188">
         <v>2.35</v>
@@ -40461,7 +40467,7 @@
         <v>0.09</v>
       </c>
       <c r="AP189">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="AQ189">
         <v>0.11</v>
@@ -40670,7 +40676,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ190">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR190">
         <v>1.72</v>
@@ -40795,7 +40801,7 @@
         <v>224</v>
       </c>
       <c r="P191" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q191">
         <v>1.95</v>
@@ -41207,7 +41213,7 @@
         <v>225</v>
       </c>
       <c r="P193" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q193">
         <v>3.6</v>
@@ -41413,7 +41419,7 @@
         <v>226</v>
       </c>
       <c r="P194" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -41700,7 +41706,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ195">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR195">
         <v>2.09</v>
@@ -41903,7 +41909,7 @@
         <v>0.67</v>
       </c>
       <c r="AP196">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ196">
         <v>0.72</v>
@@ -42109,7 +42115,7 @@
         <v>0.83</v>
       </c>
       <c r="AP197">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="AQ197">
         <v>0.67</v>
@@ -42443,7 +42449,7 @@
         <v>188</v>
       </c>
       <c r="P199" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -42649,7 +42655,7 @@
         <v>231</v>
       </c>
       <c r="P200" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q200">
         <v>2.25</v>
@@ -43061,7 +43067,7 @@
         <v>233</v>
       </c>
       <c r="P202" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -43267,7 +43273,7 @@
         <v>234</v>
       </c>
       <c r="P203" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q203">
         <v>2.6</v>
@@ -43473,7 +43479,7 @@
         <v>235</v>
       </c>
       <c r="P204" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q204">
         <v>2.15</v>
@@ -43679,7 +43685,7 @@
         <v>236</v>
       </c>
       <c r="P205" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q205">
         <v>4.6</v>
@@ -43760,7 +43766,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ205">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR205">
         <v>1.6</v>
@@ -43885,7 +43891,7 @@
         <v>237</v>
       </c>
       <c r="P206" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q206">
         <v>1.95</v>
@@ -44993,7 +44999,7 @@
         <v>0.08</v>
       </c>
       <c r="AP211">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ211">
         <v>0.11</v>
@@ -45121,7 +45127,7 @@
         <v>227</v>
       </c>
       <c r="P212" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q212">
         <v>2.75</v>
@@ -45327,7 +45333,7 @@
         <v>239</v>
       </c>
       <c r="P213" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q213">
         <v>2.5</v>
@@ -45408,7 +45414,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ213">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR213">
         <v>1.7</v>
@@ -45533,7 +45539,7 @@
         <v>86</v>
       </c>
       <c r="P214" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q214">
         <v>1.71</v>
@@ -45817,7 +45823,7 @@
         <v>1.23</v>
       </c>
       <c r="AP215">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="AQ215">
         <v>1.21</v>
@@ -45945,7 +45951,7 @@
         <v>87</v>
       </c>
       <c r="P216" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q216">
         <v>3.25</v>
@@ -46563,7 +46569,7 @@
         <v>88</v>
       </c>
       <c r="P219" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q219">
         <v>4.33</v>
@@ -46644,7 +46650,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ219">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR219">
         <v>1.58</v>
@@ -46975,7 +46981,7 @@
         <v>241</v>
       </c>
       <c r="P221" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q221">
         <v>2.25</v>
@@ -47593,7 +47599,7 @@
         <v>87</v>
       </c>
       <c r="P224" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q224">
         <v>4.33</v>
@@ -48292,7 +48298,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ227">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR227">
         <v>1.36</v>
@@ -48701,7 +48707,7 @@
         <v>1.71</v>
       </c>
       <c r="AP229">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ229">
         <v>1.63</v>
@@ -48829,7 +48835,7 @@
         <v>174</v>
       </c>
       <c r="P230" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q230">
         <v>4.75</v>
@@ -48910,7 +48916,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ230">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR230">
         <v>1.79</v>
@@ -49241,7 +49247,7 @@
         <v>87</v>
       </c>
       <c r="P232" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q232">
         <v>2.88</v>
@@ -49731,7 +49737,7 @@
         <v>1.57</v>
       </c>
       <c r="AP234">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="AQ234">
         <v>1.79</v>
@@ -50271,7 +50277,7 @@
         <v>249</v>
       </c>
       <c r="P237" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q237">
         <v>2.5</v>
@@ -50477,7 +50483,7 @@
         <v>250</v>
       </c>
       <c r="P238" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q238">
         <v>3.1</v>
@@ -50683,7 +50689,7 @@
         <v>118</v>
       </c>
       <c r="P239" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q239">
         <v>3.75</v>
@@ -50889,7 +50895,7 @@
         <v>251</v>
       </c>
       <c r="P240" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q240">
         <v>2.1</v>
@@ -51095,7 +51101,7 @@
         <v>105</v>
       </c>
       <c r="P241" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q241">
         <v>2.3</v>
@@ -51507,7 +51513,7 @@
         <v>87</v>
       </c>
       <c r="P243" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q243">
         <v>3.75</v>
@@ -51713,7 +51719,7 @@
         <v>252</v>
       </c>
       <c r="P244" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q244">
         <v>3.4</v>
@@ -52331,7 +52337,7 @@
         <v>255</v>
       </c>
       <c r="P247" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q247">
         <v>3.4</v>
@@ -52615,7 +52621,7 @@
         <v>1.33</v>
       </c>
       <c r="AP248">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="AQ248">
         <v>1.21</v>
@@ -52821,7 +52827,7 @@
         <v>1</v>
       </c>
       <c r="AP249">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ249">
         <v>1</v>
@@ -52949,7 +52955,7 @@
         <v>257</v>
       </c>
       <c r="P250" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q250">
         <v>2.5</v>
@@ -53155,7 +53161,7 @@
         <v>258</v>
       </c>
       <c r="P251" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q251">
         <v>2.05</v>
@@ -53361,7 +53367,7 @@
         <v>259</v>
       </c>
       <c r="P252" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q252">
         <v>2.63</v>
@@ -53442,7 +53448,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ252">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR252">
         <v>1.83</v>
@@ -53567,7 +53573,7 @@
         <v>87</v>
       </c>
       <c r="P253" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q253">
         <v>4.33</v>
@@ -53773,7 +53779,7 @@
         <v>260</v>
       </c>
       <c r="P254" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q254">
         <v>4.75</v>
@@ -53854,7 +53860,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ254">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR254">
         <v>1.75</v>
@@ -53979,7 +53985,7 @@
         <v>87</v>
       </c>
       <c r="P255" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q255">
         <v>2.5</v>
@@ -54185,7 +54191,7 @@
         <v>261</v>
       </c>
       <c r="P256" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q256">
         <v>3.4</v>
@@ -54597,7 +54603,7 @@
         <v>262</v>
       </c>
       <c r="P258" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q258">
         <v>3.1</v>
@@ -54803,7 +54809,7 @@
         <v>263</v>
       </c>
       <c r="P259" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q259">
         <v>2.1</v>
@@ -55421,7 +55427,7 @@
         <v>87</v>
       </c>
       <c r="P262" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q262">
         <v>2.75</v>
@@ -55627,7 +55633,7 @@
         <v>266</v>
       </c>
       <c r="P263" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q263">
         <v>2.5</v>
@@ -55708,7 +55714,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ263">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR263">
         <v>1.59</v>
@@ -56039,7 +56045,7 @@
         <v>217</v>
       </c>
       <c r="P265" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q265">
         <v>3</v>
@@ -56117,7 +56123,7 @@
         <v>0.88</v>
       </c>
       <c r="AP265">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ265">
         <v>0.89</v>
@@ -56245,7 +56251,7 @@
         <v>267</v>
       </c>
       <c r="P266" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q266">
         <v>2.88</v>
@@ -57069,7 +57075,7 @@
         <v>105</v>
       </c>
       <c r="P270" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q270">
         <v>3</v>
@@ -57147,7 +57153,7 @@
         <v>1.56</v>
       </c>
       <c r="AP270">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="AQ270">
         <v>1.79</v>
@@ -57275,7 +57281,7 @@
         <v>87</v>
       </c>
       <c r="P271" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q271">
         <v>5</v>
@@ -57356,7 +57362,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ271">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR271">
         <v>1.51</v>
@@ -57481,7 +57487,7 @@
         <v>270</v>
       </c>
       <c r="P272" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q272">
         <v>3.5</v>
@@ -57559,7 +57565,7 @@
         <v>1</v>
       </c>
       <c r="AP272">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ272">
         <v>1.05</v>
@@ -57687,7 +57693,7 @@
         <v>271</v>
       </c>
       <c r="P273" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q273">
         <v>2.35</v>
@@ -57974,7 +57980,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ274">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR274">
         <v>1.27</v>
@@ -59129,7 +59135,7 @@
         <v>275</v>
       </c>
       <c r="P280" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q280">
         <v>2.88</v>
@@ -59335,7 +59341,7 @@
         <v>276</v>
       </c>
       <c r="P281" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q281">
         <v>2.25</v>
@@ -59541,7 +59547,7 @@
         <v>277</v>
       </c>
       <c r="P282" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q282">
         <v>2.5</v>
@@ -59747,7 +59753,7 @@
         <v>87</v>
       </c>
       <c r="P283" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q283">
         <v>3.4</v>
@@ -59953,7 +59959,7 @@
         <v>87</v>
       </c>
       <c r="P284" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q284">
         <v>2.1</v>
@@ -60031,7 +60037,7 @@
         <v>1.18</v>
       </c>
       <c r="AP284">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="AQ284">
         <v>1.37</v>
@@ -60240,7 +60246,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ285">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR285">
         <v>1.82</v>
@@ -60365,7 +60371,7 @@
         <v>278</v>
       </c>
       <c r="P286" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q286">
         <v>3.25</v>
@@ -60571,7 +60577,7 @@
         <v>279</v>
       </c>
       <c r="P287" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q287">
         <v>1.73</v>
@@ -60777,7 +60783,7 @@
         <v>280</v>
       </c>
       <c r="P288" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q288">
         <v>2.2</v>
@@ -60983,7 +60989,7 @@
         <v>87</v>
       </c>
       <c r="P289" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q289">
         <v>2.5</v>
@@ -61189,7 +61195,7 @@
         <v>240</v>
       </c>
       <c r="P290" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q290">
         <v>3.25</v>
@@ -62013,7 +62019,7 @@
         <v>282</v>
       </c>
       <c r="P294" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q294">
         <v>2.4</v>
@@ -62219,7 +62225,7 @@
         <v>283</v>
       </c>
       <c r="P295" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q295">
         <v>5.5</v>
@@ -62425,7 +62431,7 @@
         <v>284</v>
       </c>
       <c r="P296" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q296">
         <v>3.5</v>
@@ -63043,7 +63049,7 @@
         <v>87</v>
       </c>
       <c r="P299" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q299">
         <v>3</v>
@@ -63200,6 +63206,418 @@
       </c>
       <c r="BP299">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="300" spans="1:68">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>7858365</v>
+      </c>
+      <c r="C300" t="s">
+        <v>68</v>
+      </c>
+      <c r="D300" t="s">
+        <v>69</v>
+      </c>
+      <c r="E300" s="2">
+        <v>45788.5625</v>
+      </c>
+      <c r="F300">
+        <v>8</v>
+      </c>
+      <c r="G300" t="s">
+        <v>74</v>
+      </c>
+      <c r="H300" t="s">
+        <v>70</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300">
+        <v>1</v>
+      </c>
+      <c r="K300">
+        <v>1</v>
+      </c>
+      <c r="L300">
+        <v>0</v>
+      </c>
+      <c r="M300">
+        <v>2</v>
+      </c>
+      <c r="N300">
+        <v>2</v>
+      </c>
+      <c r="O300" t="s">
+        <v>87</v>
+      </c>
+      <c r="P300" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q300">
+        <v>3.6</v>
+      </c>
+      <c r="R300">
+        <v>2.38</v>
+      </c>
+      <c r="S300">
+        <v>2.75</v>
+      </c>
+      <c r="T300">
+        <v>1.3</v>
+      </c>
+      <c r="U300">
+        <v>3.4</v>
+      </c>
+      <c r="V300">
+        <v>2.5</v>
+      </c>
+      <c r="W300">
+        <v>1.5</v>
+      </c>
+      <c r="X300">
+        <v>6</v>
+      </c>
+      <c r="Y300">
+        <v>1.13</v>
+      </c>
+      <c r="Z300">
+        <v>3.02</v>
+      </c>
+      <c r="AA300">
+        <v>3.39</v>
+      </c>
+      <c r="AB300">
+        <v>2.03</v>
+      </c>
+      <c r="AC300">
+        <v>1.04</v>
+      </c>
+      <c r="AD300">
+        <v>10</v>
+      </c>
+      <c r="AE300">
+        <v>1.22</v>
+      </c>
+      <c r="AF300">
+        <v>4.2</v>
+      </c>
+      <c r="AG300">
+        <v>1.67</v>
+      </c>
+      <c r="AH300">
+        <v>2.1</v>
+      </c>
+      <c r="AI300">
+        <v>1.57</v>
+      </c>
+      <c r="AJ300">
+        <v>2.25</v>
+      </c>
+      <c r="AK300">
+        <v>1.68</v>
+      </c>
+      <c r="AL300">
+        <v>1.28</v>
+      </c>
+      <c r="AM300">
+        <v>1.34</v>
+      </c>
+      <c r="AN300">
+        <v>2.44</v>
+      </c>
+      <c r="AO300">
+        <v>1.83</v>
+      </c>
+      <c r="AP300">
+        <v>2.32</v>
+      </c>
+      <c r="AQ300">
+        <v>1.89</v>
+      </c>
+      <c r="AR300">
+        <v>1.79</v>
+      </c>
+      <c r="AS300">
+        <v>1.72</v>
+      </c>
+      <c r="AT300">
+        <v>3.51</v>
+      </c>
+      <c r="AU300">
+        <v>4</v>
+      </c>
+      <c r="AV300">
+        <v>4</v>
+      </c>
+      <c r="AW300">
+        <v>7</v>
+      </c>
+      <c r="AX300">
+        <v>7</v>
+      </c>
+      <c r="AY300">
+        <v>13</v>
+      </c>
+      <c r="AZ300">
+        <v>14</v>
+      </c>
+      <c r="BA300">
+        <v>5</v>
+      </c>
+      <c r="BB300">
+        <v>3</v>
+      </c>
+      <c r="BC300">
+        <v>8</v>
+      </c>
+      <c r="BD300">
+        <v>2.18</v>
+      </c>
+      <c r="BE300">
+        <v>6.4</v>
+      </c>
+      <c r="BF300">
+        <v>1.82</v>
+      </c>
+      <c r="BG300">
+        <v>1.41</v>
+      </c>
+      <c r="BH300">
+        <v>2.65</v>
+      </c>
+      <c r="BI300">
+        <v>1.68</v>
+      </c>
+      <c r="BJ300">
+        <v>2.05</v>
+      </c>
+      <c r="BK300">
+        <v>2.08</v>
+      </c>
+      <c r="BL300">
+        <v>1.65</v>
+      </c>
+      <c r="BM300">
+        <v>2.7</v>
+      </c>
+      <c r="BN300">
+        <v>1.4</v>
+      </c>
+      <c r="BO300">
+        <v>3.55</v>
+      </c>
+      <c r="BP300">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="301" spans="1:68">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>7858366</v>
+      </c>
+      <c r="C301" t="s">
+        <v>68</v>
+      </c>
+      <c r="D301" t="s">
+        <v>69</v>
+      </c>
+      <c r="E301" s="2">
+        <v>45788.59375</v>
+      </c>
+      <c r="F301">
+        <v>8</v>
+      </c>
+      <c r="G301" t="s">
+        <v>71</v>
+      </c>
+      <c r="H301" t="s">
+        <v>80</v>
+      </c>
+      <c r="I301">
+        <v>4</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="K301">
+        <v>4</v>
+      </c>
+      <c r="L301">
+        <v>5</v>
+      </c>
+      <c r="M301">
+        <v>0</v>
+      </c>
+      <c r="N301">
+        <v>5</v>
+      </c>
+      <c r="O301" t="s">
+        <v>285</v>
+      </c>
+      <c r="P301" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q301">
+        <v>3</v>
+      </c>
+      <c r="R301">
+        <v>2.3</v>
+      </c>
+      <c r="S301">
+        <v>3.25</v>
+      </c>
+      <c r="T301">
+        <v>1.33</v>
+      </c>
+      <c r="U301">
+        <v>3.25</v>
+      </c>
+      <c r="V301">
+        <v>2.5</v>
+      </c>
+      <c r="W301">
+        <v>1.5</v>
+      </c>
+      <c r="X301">
+        <v>6.5</v>
+      </c>
+      <c r="Y301">
+        <v>1.11</v>
+      </c>
+      <c r="Z301">
+        <v>2.31</v>
+      </c>
+      <c r="AA301">
+        <v>3.21</v>
+      </c>
+      <c r="AB301">
+        <v>2.67</v>
+      </c>
+      <c r="AC301">
+        <v>1.05</v>
+      </c>
+      <c r="AD301">
+        <v>9.5</v>
+      </c>
+      <c r="AE301">
+        <v>1.25</v>
+      </c>
+      <c r="AF301">
+        <v>3.8</v>
+      </c>
+      <c r="AG301">
+        <v>1.73</v>
+      </c>
+      <c r="AH301">
+        <v>2</v>
+      </c>
+      <c r="AI301">
+        <v>1.62</v>
+      </c>
+      <c r="AJ301">
+        <v>2.2</v>
+      </c>
+      <c r="AK301">
+        <v>1.42</v>
+      </c>
+      <c r="AL301">
+        <v>1.29</v>
+      </c>
+      <c r="AM301">
+        <v>1.55</v>
+      </c>
+      <c r="AN301">
+        <v>1.33</v>
+      </c>
+      <c r="AO301">
+        <v>0.78</v>
+      </c>
+      <c r="AP301">
+        <v>1.42</v>
+      </c>
+      <c r="AQ301">
+        <v>0.74</v>
+      </c>
+      <c r="AR301">
+        <v>1.2</v>
+      </c>
+      <c r="AS301">
+        <v>1.21</v>
+      </c>
+      <c r="AT301">
+        <v>2.41</v>
+      </c>
+      <c r="AU301">
+        <v>8</v>
+      </c>
+      <c r="AV301">
+        <v>4</v>
+      </c>
+      <c r="AW301">
+        <v>9</v>
+      </c>
+      <c r="AX301">
+        <v>14</v>
+      </c>
+      <c r="AY301">
+        <v>21</v>
+      </c>
+      <c r="AZ301">
+        <v>22</v>
+      </c>
+      <c r="BA301">
+        <v>3</v>
+      </c>
+      <c r="BB301">
+        <v>5</v>
+      </c>
+      <c r="BC301">
+        <v>8</v>
+      </c>
+      <c r="BD301">
+        <v>1.75</v>
+      </c>
+      <c r="BE301">
+        <v>6.5</v>
+      </c>
+      <c r="BF301">
+        <v>2.3</v>
+      </c>
+      <c r="BG301">
+        <v>1.25</v>
+      </c>
+      <c r="BH301">
+        <v>3.45</v>
+      </c>
+      <c r="BI301">
+        <v>1.45</v>
+      </c>
+      <c r="BJ301">
+        <v>2.55</v>
+      </c>
+      <c r="BK301">
+        <v>1.73</v>
+      </c>
+      <c r="BL301">
+        <v>1.98</v>
+      </c>
+      <c r="BM301">
+        <v>2.15</v>
+      </c>
+      <c r="BN301">
+        <v>1.61</v>
+      </c>
+      <c r="BO301">
+        <v>2.75</v>
+      </c>
+      <c r="BP301">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
@@ -1246,7 +1246,7 @@
     <t>['34', '42', '59']</t>
   </si>
   <si>
-    <t>['32', '66']</t>
+    <t>['32', '67']</t>
   </si>
 </sst>
 </file>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="412">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1248,6 +1248,9 @@
   <si>
     <t>['32', '67']</t>
   </si>
+  <si>
+    <t>['28', '82']</t>
+  </si>
 </sst>
 </file>
 
@@ -1608,7 +1611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP301"/>
+  <dimension ref="A1:BP302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3802,7 +3805,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4005,7 +4008,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ12">
         <v>1.63</v>
@@ -7919,7 +7922,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ31">
         <v>0.67</v>
@@ -8334,7 +8337,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR33">
         <v>1.52</v>
@@ -9776,7 +9779,7 @@
         <v>2.32</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR40">
         <v>1.69</v>
@@ -10391,7 +10394,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ43">
         <v>0.89</v>
@@ -12042,7 +12045,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR51">
         <v>1.42</v>
@@ -14717,7 +14720,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ64">
         <v>0.83</v>
@@ -15544,7 +15547,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ68">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR68">
         <v>1.04</v>
@@ -19455,7 +19458,7 @@
         <v>1.75</v>
       </c>
       <c r="AP87">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ87">
         <v>1.37</v>
@@ -20694,7 +20697,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ93">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR93">
         <v>1.23</v>
@@ -22133,7 +22136,7 @@
         <v>1.67</v>
       </c>
       <c r="AP100">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ100">
         <v>1.89</v>
@@ -23990,7 +23993,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ109">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR109">
         <v>1.75</v>
@@ -26047,7 +26050,7 @@
         <v>0.71</v>
       </c>
       <c r="AP119">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ119">
         <v>1.79</v>
@@ -27489,7 +27492,7 @@
         <v>1.57</v>
       </c>
       <c r="AP126">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ126">
         <v>1.58</v>
@@ -29758,7 +29761,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ137">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR137">
         <v>1.17</v>
@@ -30373,7 +30376,7 @@
         <v>0.78</v>
       </c>
       <c r="AP140">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ140">
         <v>1.05</v>
@@ -30994,7 +30997,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ143">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR143">
         <v>1.68</v>
@@ -33672,7 +33675,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ156">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR156">
         <v>2.05</v>
@@ -34287,7 +34290,7 @@
         <v>0.11</v>
       </c>
       <c r="AP159">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ159">
         <v>0.11</v>
@@ -37998,7 +38001,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ177">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR177">
         <v>1.71</v>
@@ -39643,7 +39646,7 @@
         <v>1.27</v>
       </c>
       <c r="AP185">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ185">
         <v>1.21</v>
@@ -39849,7 +39852,7 @@
         <v>0.82</v>
       </c>
       <c r="AP186">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ186">
         <v>1.05</v>
@@ -41294,7 +41297,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ193">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR193">
         <v>1.37</v>
@@ -43351,7 +43354,7 @@
         <v>1.25</v>
       </c>
       <c r="AP203">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ203">
         <v>0.84</v>
@@ -44590,7 +44593,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ209">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR209">
         <v>1.64</v>
@@ -47883,10 +47886,10 @@
         <v>0.85</v>
       </c>
       <c r="AP225">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ225">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR225">
         <v>1.31</v>
@@ -50561,7 +50564,7 @@
         <v>0.64</v>
       </c>
       <c r="AP238">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ238">
         <v>0.72</v>
@@ -50770,7 +50773,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ239">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR239">
         <v>1.3</v>
@@ -51385,7 +51388,7 @@
         <v>1</v>
       </c>
       <c r="AP242">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ242">
         <v>1.05</v>
@@ -52830,7 +52833,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ249">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR249">
         <v>1.15</v>
@@ -56329,7 +56332,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP266">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ266">
         <v>0.84</v>
@@ -56744,7 +56747,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ268">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR268">
         <v>1.27</v>
@@ -57774,7 +57777,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ273">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR273">
         <v>1.63</v>
@@ -59007,7 +59010,7 @@
         <v>0.88</v>
       </c>
       <c r="AP279">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ279">
         <v>0.89</v>
@@ -61273,7 +61276,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP290">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ290">
         <v>1.05</v>
@@ -62100,7 +62103,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ294">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR294">
         <v>1.71</v>
@@ -63618,6 +63621,212 @@
       </c>
       <c r="BP301">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="302" spans="1:68">
+      <c r="A302" s="1">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>7858367</v>
+      </c>
+      <c r="C302" t="s">
+        <v>68</v>
+      </c>
+      <c r="D302" t="s">
+        <v>69</v>
+      </c>
+      <c r="E302" s="2">
+        <v>45793.65625</v>
+      </c>
+      <c r="F302">
+        <v>9</v>
+      </c>
+      <c r="G302" t="s">
+        <v>80</v>
+      </c>
+      <c r="H302" t="s">
+        <v>77</v>
+      </c>
+      <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302">
+        <v>1</v>
+      </c>
+      <c r="K302">
+        <v>1</v>
+      </c>
+      <c r="L302">
+        <v>0</v>
+      </c>
+      <c r="M302">
+        <v>2</v>
+      </c>
+      <c r="N302">
+        <v>2</v>
+      </c>
+      <c r="O302" t="s">
+        <v>87</v>
+      </c>
+      <c r="P302" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q302">
+        <v>2.88</v>
+      </c>
+      <c r="R302">
+        <v>2.5</v>
+      </c>
+      <c r="S302">
+        <v>3.1</v>
+      </c>
+      <c r="T302">
+        <v>1.25</v>
+      </c>
+      <c r="U302">
+        <v>3.75</v>
+      </c>
+      <c r="V302">
+        <v>2.2</v>
+      </c>
+      <c r="W302">
+        <v>1.62</v>
+      </c>
+      <c r="X302">
+        <v>5</v>
+      </c>
+      <c r="Y302">
+        <v>1.17</v>
+      </c>
+      <c r="Z302">
+        <v>2.43</v>
+      </c>
+      <c r="AA302">
+        <v>3.37</v>
+      </c>
+      <c r="AB302">
+        <v>2.43</v>
+      </c>
+      <c r="AC302">
+        <v>1.01</v>
+      </c>
+      <c r="AD302">
+        <v>13</v>
+      </c>
+      <c r="AE302">
+        <v>1.09</v>
+      </c>
+      <c r="AF302">
+        <v>5.3</v>
+      </c>
+      <c r="AG302">
+        <v>1.6</v>
+      </c>
+      <c r="AH302">
+        <v>2.25</v>
+      </c>
+      <c r="AI302">
+        <v>1.44</v>
+      </c>
+      <c r="AJ302">
+        <v>2.63</v>
+      </c>
+      <c r="AK302">
+        <v>1.44</v>
+      </c>
+      <c r="AL302">
+        <v>1.25</v>
+      </c>
+      <c r="AM302">
+        <v>1.57</v>
+      </c>
+      <c r="AN302">
+        <v>1.63</v>
+      </c>
+      <c r="AO302">
+        <v>1</v>
+      </c>
+      <c r="AP302">
+        <v>1.55</v>
+      </c>
+      <c r="AQ302">
+        <v>1.1</v>
+      </c>
+      <c r="AR302">
+        <v>1.32</v>
+      </c>
+      <c r="AS302">
+        <v>1.6</v>
+      </c>
+      <c r="AT302">
+        <v>2.92</v>
+      </c>
+      <c r="AU302">
+        <v>0</v>
+      </c>
+      <c r="AV302">
+        <v>6</v>
+      </c>
+      <c r="AW302">
+        <v>9</v>
+      </c>
+      <c r="AX302">
+        <v>7</v>
+      </c>
+      <c r="AY302">
+        <v>12</v>
+      </c>
+      <c r="AZ302">
+        <v>18</v>
+      </c>
+      <c r="BA302">
+        <v>9</v>
+      </c>
+      <c r="BB302">
+        <v>11</v>
+      </c>
+      <c r="BC302">
+        <v>20</v>
+      </c>
+      <c r="BD302">
+        <v>1.95</v>
+      </c>
+      <c r="BE302">
+        <v>7</v>
+      </c>
+      <c r="BF302">
+        <v>2</v>
+      </c>
+      <c r="BG302">
+        <v>1.17</v>
+      </c>
+      <c r="BH302">
+        <v>4.35</v>
+      </c>
+      <c r="BI302">
+        <v>1.3</v>
+      </c>
+      <c r="BJ302">
+        <v>3.15</v>
+      </c>
+      <c r="BK302">
+        <v>1.5</v>
+      </c>
+      <c r="BL302">
+        <v>2.35</v>
+      </c>
+      <c r="BM302">
+        <v>1.81</v>
+      </c>
+      <c r="BN302">
+        <v>1.88</v>
+      </c>
+      <c r="BO302">
+        <v>2.23</v>
+      </c>
+      <c r="BP302">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="416">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -874,6 +874,9 @@
     <t>['6', '18', '22', '28', '90']</t>
   </si>
   <si>
+    <t>['9']</t>
+  </si>
+  <si>
     <t>['65']</t>
   </si>
   <si>
@@ -1251,6 +1254,15 @@
   <si>
     <t>['28', '82']</t>
   </si>
+  <si>
+    <t>['6', '35', '41', '83']</t>
+  </si>
+  <si>
+    <t>['14', '43', '45+1']</t>
+  </si>
+  <si>
+    <t>['32', '45', '70', '88']</t>
+  </si>
 </sst>
 </file>
 
@@ -1611,7 +1623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP302"/>
+  <dimension ref="A1:BP307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1870,7 +1882,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q2">
         <v>1.91</v>
@@ -2157,7 +2169,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ3">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2566,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ5">
         <v>0.72</v>
@@ -3724,7 +3736,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q11">
         <v>2.4</v>
@@ -3802,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ11">
         <v>1.1</v>
@@ -4011,7 +4023,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ12">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4136,7 +4148,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4342,7 +4354,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q14">
         <v>3.25</v>
@@ -4420,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ14">
         <v>1.58</v>
@@ -4548,7 +4560,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4832,10 +4844,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ16">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4960,7 +4972,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -5038,10 +5050,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AQ17">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5244,7 +5256,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ18">
         <v>1.05</v>
@@ -5578,7 +5590,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q20">
         <v>4.1</v>
@@ -5659,7 +5671,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ20">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AR20">
         <v>1.27</v>
@@ -5862,7 +5874,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ21">
         <v>0.74</v>
@@ -5990,7 +6002,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -6071,7 +6083,7 @@
         <v>2.32</v>
       </c>
       <c r="AQ22">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR22">
         <v>1.58</v>
@@ -6196,7 +6208,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q23">
         <v>1.91</v>
@@ -6274,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ23">
         <v>0.72</v>
@@ -6608,7 +6620,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q25">
         <v>1.93</v>
@@ -7020,7 +7032,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q27">
         <v>3.9</v>
@@ -7101,7 +7113,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ27">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AR27">
         <v>0.45</v>
@@ -7226,7 +7238,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q28">
         <v>3.06</v>
@@ -7307,7 +7319,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ28">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR28">
         <v>0.79</v>
@@ -7432,7 +7444,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7510,7 +7522,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ29">
         <v>1.58</v>
@@ -8334,7 +8346,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AQ33">
         <v>1.1</v>
@@ -8462,7 +8474,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q34">
         <v>2.45</v>
@@ -8746,7 +8758,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ35">
         <v>1.05</v>
@@ -8874,7 +8886,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -8955,7 +8967,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ36">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR36">
         <v>0.9399999999999999</v>
@@ -9161,7 +9173,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ37">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AR37">
         <v>1.03</v>
@@ -9364,7 +9376,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ38">
         <v>0.11</v>
@@ -9904,7 +9916,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9982,7 +9994,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ41">
         <v>1.05</v>
@@ -10110,7 +10122,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10191,7 +10203,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ42">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR42">
         <v>0.95</v>
@@ -10806,7 +10818,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AQ45">
         <v>1.37</v>
@@ -11346,7 +11358,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11552,7 +11564,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11633,7 +11645,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ49">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AR49">
         <v>2.18</v>
@@ -11758,7 +11770,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q50">
         <v>5.85</v>
@@ -11839,7 +11851,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ50">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR50">
         <v>1.76</v>
@@ -11964,7 +11976,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q51">
         <v>2.2</v>
@@ -12042,7 +12054,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ51">
         <v>1.1</v>
@@ -12248,10 +12260,10 @@
         <v>0.67</v>
       </c>
       <c r="AP52">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ52">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AR52">
         <v>2.07</v>
@@ -12866,7 +12878,7 @@
         <v>1.67</v>
       </c>
       <c r="AP55">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AQ55">
         <v>1.05</v>
@@ -12994,7 +13006,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q56">
         <v>2.75</v>
@@ -13072,10 +13084,10 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ56">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AR56">
         <v>1.68</v>
@@ -13278,10 +13290,10 @@
         <v>0.5</v>
       </c>
       <c r="AP57">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ57">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AR57">
         <v>1.08</v>
@@ -13406,7 +13418,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13612,7 +13624,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q59">
         <v>3.52</v>
@@ -13896,7 +13908,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ60">
         <v>1.05</v>
@@ -14024,7 +14036,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -14308,7 +14320,7 @@
         <v>0.33</v>
       </c>
       <c r="AP62">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ62">
         <v>0.67</v>
@@ -14517,7 +14529,7 @@
         <v>2.32</v>
       </c>
       <c r="AQ63">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR63">
         <v>1.69</v>
@@ -14848,7 +14860,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q65">
         <v>3.02</v>
@@ -15135,7 +15147,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ66">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR66">
         <v>1.81</v>
@@ -15466,7 +15478,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q68">
         <v>3.2</v>
@@ -15544,7 +15556,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ68">
         <v>1.1</v>
@@ -15672,7 +15684,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q69">
         <v>3.76</v>
@@ -15956,7 +15968,7 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ70">
         <v>0.11</v>
@@ -16368,7 +16380,7 @@
         <v>0.75</v>
       </c>
       <c r="AP72">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AQ72">
         <v>0.74</v>
@@ -16702,7 +16714,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -16986,7 +16998,7 @@
         <v>0.6</v>
       </c>
       <c r="AP75">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ75">
         <v>0.74</v>
@@ -17195,7 +17207,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ76">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AR76">
         <v>1.57</v>
@@ -17604,7 +17616,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ78">
         <v>0.89</v>
@@ -17810,7 +17822,7 @@
         <v>0.25</v>
       </c>
       <c r="AP79">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ79">
         <v>0.67</v>
@@ -18019,7 +18031,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ80">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AR80">
         <v>2.17</v>
@@ -18556,7 +18568,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18637,7 +18649,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ83">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR83">
         <v>1.89</v>
@@ -18843,7 +18855,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ84">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR84">
         <v>1.61</v>
@@ -19174,7 +19186,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q86">
         <v>1.91</v>
@@ -19664,7 +19676,7 @@
         <v>0.8</v>
       </c>
       <c r="AP88">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ88">
         <v>1.05</v>
@@ -19870,7 +19882,7 @@
         <v>0.8</v>
       </c>
       <c r="AP89">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ89">
         <v>0.83</v>
@@ -20204,7 +20216,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20410,7 +20422,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -21106,7 +21118,7 @@
         <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ95">
         <v>0.89</v>
@@ -21234,7 +21246,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -21312,10 +21324,10 @@
         <v>1.8</v>
       </c>
       <c r="AP96">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AQ96">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AR96">
         <v>1.72</v>
@@ -21440,7 +21452,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -21727,7 +21739,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ98">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR98">
         <v>1.83</v>
@@ -21852,7 +21864,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q99">
         <v>2.9</v>
@@ -21930,7 +21942,7 @@
         <v>0.83</v>
       </c>
       <c r="AP99">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ99">
         <v>0.72</v>
@@ -22058,7 +22070,7 @@
         <v>87</v>
       </c>
       <c r="P100" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22139,7 +22151,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ100">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR100">
         <v>1.3</v>
@@ -22264,7 +22276,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -22342,10 +22354,10 @@
         <v>0.67</v>
       </c>
       <c r="AP101">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ101">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AR101">
         <v>1.52</v>
@@ -22960,7 +22972,7 @@
         <v>0.67</v>
       </c>
       <c r="AP104">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ104">
         <v>0.83</v>
@@ -23294,7 +23306,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -23500,7 +23512,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23706,7 +23718,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q108">
         <v>3.5</v>
@@ -24118,7 +24130,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q110">
         <v>3.2</v>
@@ -24402,7 +24414,7 @@
         <v>0.67</v>
       </c>
       <c r="AP111">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AQ111">
         <v>0.89</v>
@@ -24611,7 +24623,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ112">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AR112">
         <v>1.71</v>
@@ -24736,7 +24748,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q113">
         <v>7.5</v>
@@ -24817,7 +24829,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ113">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR113">
         <v>0.88</v>
@@ -25020,10 +25032,10 @@
         <v>1.33</v>
       </c>
       <c r="AP114">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ114">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR114">
         <v>1.76</v>
@@ -25432,7 +25444,7 @@
         <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ116">
         <v>0.67</v>
@@ -25844,7 +25856,7 @@
         <v>0.14</v>
       </c>
       <c r="AP118">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ118">
         <v>0.11</v>
@@ -25972,7 +25984,7 @@
         <v>150</v>
       </c>
       <c r="P119" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q119">
         <v>4.5</v>
@@ -26053,7 +26065,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ119">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AR119">
         <v>1.33</v>
@@ -26256,7 +26268,7 @@
         <v>1.29</v>
       </c>
       <c r="AP120">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ120">
         <v>1.21</v>
@@ -26590,7 +26602,7 @@
         <v>179</v>
       </c>
       <c r="P122" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26877,7 +26889,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ123">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR123">
         <v>2.07</v>
@@ -27208,7 +27220,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q125">
         <v>4.75</v>
@@ -27289,7 +27301,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ125">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AR125">
         <v>1.37</v>
@@ -27620,7 +27632,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -28032,7 +28044,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q129">
         <v>2.75</v>
@@ -28238,7 +28250,7 @@
         <v>185</v>
       </c>
       <c r="P130" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q130">
         <v>1.72</v>
@@ -28522,7 +28534,7 @@
         <v>0.88</v>
       </c>
       <c r="AP131">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ131">
         <v>0.74</v>
@@ -28650,7 +28662,7 @@
         <v>186</v>
       </c>
       <c r="P132" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -28728,10 +28740,10 @@
         <v>1.75</v>
       </c>
       <c r="AP132">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ132">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR132">
         <v>1.55</v>
@@ -28934,7 +28946,7 @@
         <v>0.63</v>
       </c>
       <c r="AP133">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AQ133">
         <v>0.72</v>
@@ -29062,7 +29074,7 @@
         <v>188</v>
       </c>
       <c r="P134" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q134">
         <v>2.55</v>
@@ -29140,7 +29152,7 @@
         <v>0.5</v>
       </c>
       <c r="AP134">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ134">
         <v>1.05</v>
@@ -29349,7 +29361,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ135">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AR135">
         <v>1.6</v>
@@ -29474,7 +29486,7 @@
         <v>189</v>
       </c>
       <c r="P136" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q136">
         <v>1.7</v>
@@ -29552,7 +29564,7 @@
         <v>0.13</v>
       </c>
       <c r="AP136">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ136">
         <v>0.11</v>
@@ -29964,7 +29976,7 @@
         <v>1.38</v>
       </c>
       <c r="AP138">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ138">
         <v>1.37</v>
@@ -30504,7 +30516,7 @@
         <v>87</v>
       </c>
       <c r="P141" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30585,7 +30597,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ141">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR141">
         <v>1.44</v>
@@ -30791,7 +30803,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ142">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AR142">
         <v>2.07</v>
@@ -30916,7 +30928,7 @@
         <v>194</v>
       </c>
       <c r="P143" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q143">
         <v>1.95</v>
@@ -31122,7 +31134,7 @@
         <v>87</v>
       </c>
       <c r="P144" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -31406,7 +31418,7 @@
         <v>0.5</v>
       </c>
       <c r="AP145">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AQ145">
         <v>0.67</v>
@@ -31534,7 +31546,7 @@
         <v>196</v>
       </c>
       <c r="P146" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q146">
         <v>2.7</v>
@@ -31946,7 +31958,7 @@
         <v>167</v>
       </c>
       <c r="P148" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -32152,7 +32164,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q149">
         <v>3.1</v>
@@ -32642,7 +32654,7 @@
         <v>1.11</v>
       </c>
       <c r="AP151">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ151">
         <v>1.21</v>
@@ -32770,7 +32782,7 @@
         <v>200</v>
       </c>
       <c r="P152" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q152">
         <v>3.25</v>
@@ -32851,7 +32863,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ152">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR152">
         <v>1.81</v>
@@ -33182,7 +33194,7 @@
         <v>202</v>
       </c>
       <c r="P154" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -33260,10 +33272,10 @@
         <v>1.44</v>
       </c>
       <c r="AP154">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ154">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AR154">
         <v>1.81</v>
@@ -33388,7 +33400,7 @@
         <v>87</v>
       </c>
       <c r="P155" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33594,7 +33606,7 @@
         <v>203</v>
       </c>
       <c r="P156" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q156">
         <v>1.7</v>
@@ -33878,7 +33890,7 @@
         <v>0.67</v>
       </c>
       <c r="AP157">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ157">
         <v>0.89</v>
@@ -34006,7 +34018,7 @@
         <v>93</v>
       </c>
       <c r="P158" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q158">
         <v>3.7</v>
@@ -34084,10 +34096,10 @@
         <v>0.78</v>
       </c>
       <c r="AP158">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AQ158">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AR158">
         <v>1.6</v>
@@ -34624,7 +34636,7 @@
         <v>205</v>
       </c>
       <c r="P161" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q161">
         <v>1.9</v>
@@ -34702,10 +34714,10 @@
         <v>1.33</v>
       </c>
       <c r="AP161">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ161">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR161">
         <v>1.75</v>
@@ -34908,7 +34920,7 @@
         <v>0.5</v>
       </c>
       <c r="AP162">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ162">
         <v>0.83</v>
@@ -35036,7 +35048,7 @@
         <v>207</v>
       </c>
       <c r="P163" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q163">
         <v>2.45</v>
@@ -35448,7 +35460,7 @@
         <v>144</v>
       </c>
       <c r="P165" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q165">
         <v>3.5</v>
@@ -35529,7 +35541,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ165">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AR165">
         <v>1.75</v>
@@ -36066,7 +36078,7 @@
         <v>87</v>
       </c>
       <c r="P168" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q168">
         <v>3.6</v>
@@ -36144,10 +36156,10 @@
         <v>1.8</v>
       </c>
       <c r="AP168">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ168">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR168">
         <v>1.71</v>
@@ -36556,7 +36568,7 @@
         <v>0.91</v>
       </c>
       <c r="AP170">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AQ170">
         <v>1.05</v>
@@ -36684,7 +36696,7 @@
         <v>87</v>
       </c>
       <c r="P171" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q171">
         <v>3.5</v>
@@ -36890,7 +36902,7 @@
         <v>159</v>
       </c>
       <c r="P172" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q172">
         <v>3.4</v>
@@ -36968,10 +36980,10 @@
         <v>1.4</v>
       </c>
       <c r="AP172">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ172">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AR172">
         <v>1.56</v>
@@ -37096,7 +37108,7 @@
         <v>210</v>
       </c>
       <c r="P173" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q173">
         <v>1.5</v>
@@ -37302,7 +37314,7 @@
         <v>87</v>
       </c>
       <c r="P174" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q174">
         <v>4.33</v>
@@ -37714,7 +37726,7 @@
         <v>212</v>
       </c>
       <c r="P176" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37920,7 +37932,7 @@
         <v>213</v>
       </c>
       <c r="P177" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q177">
         <v>2.3</v>
@@ -37998,7 +38010,7 @@
         <v>0.7</v>
       </c>
       <c r="AP177">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ177">
         <v>1.1</v>
@@ -38332,7 +38344,7 @@
         <v>215</v>
       </c>
       <c r="P179" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38413,7 +38425,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ179">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AR179">
         <v>1.9</v>
@@ -38538,7 +38550,7 @@
         <v>216</v>
       </c>
       <c r="P180" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q180">
         <v>2.55</v>
@@ -39028,10 +39040,10 @@
         <v>1.5</v>
       </c>
       <c r="AP182">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ182">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR182">
         <v>1.21</v>
@@ -39156,7 +39168,7 @@
         <v>87</v>
       </c>
       <c r="P183" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q183">
         <v>5.5</v>
@@ -39237,7 +39249,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ183">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AR183">
         <v>1.3</v>
@@ -39362,7 +39374,7 @@
         <v>219</v>
       </c>
       <c r="P184" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -39440,7 +39452,7 @@
         <v>0.9</v>
       </c>
       <c r="AP184">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ184">
         <v>1.05</v>
@@ -40061,7 +40073,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ187">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR187">
         <v>1.65</v>
@@ -40186,7 +40198,7 @@
         <v>96</v>
       </c>
       <c r="P188" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q188">
         <v>2.35</v>
@@ -40676,10 +40688,10 @@
         <v>1.91</v>
       </c>
       <c r="AP190">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ190">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR190">
         <v>1.72</v>
@@ -40804,7 +40816,7 @@
         <v>224</v>
       </c>
       <c r="P191" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q191">
         <v>1.95</v>
@@ -41088,7 +41100,7 @@
         <v>1.64</v>
       </c>
       <c r="AP192">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AQ192">
         <v>1.58</v>
@@ -41216,7 +41228,7 @@
         <v>225</v>
       </c>
       <c r="P193" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q193">
         <v>3.6</v>
@@ -41422,7 +41434,7 @@
         <v>226</v>
       </c>
       <c r="P194" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -41500,7 +41512,7 @@
         <v>1.25</v>
       </c>
       <c r="AP194">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ194">
         <v>1.21</v>
@@ -42324,7 +42336,7 @@
         <v>1.42</v>
       </c>
       <c r="AP198">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ198">
         <v>1.37</v>
@@ -42452,7 +42464,7 @@
         <v>188</v>
       </c>
       <c r="P199" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -42533,7 +42545,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ199">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AR199">
         <v>1.34</v>
@@ -42658,7 +42670,7 @@
         <v>231</v>
       </c>
       <c r="P200" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q200">
         <v>2.25</v>
@@ -43070,7 +43082,7 @@
         <v>233</v>
       </c>
       <c r="P202" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -43148,10 +43160,10 @@
         <v>1.67</v>
       </c>
       <c r="AP202">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ202">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AR202">
         <v>1.22</v>
@@ -43276,7 +43288,7 @@
         <v>234</v>
       </c>
       <c r="P203" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q203">
         <v>2.6</v>
@@ -43357,7 +43369,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ203">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR203">
         <v>1.28</v>
@@ -43482,7 +43494,7 @@
         <v>235</v>
       </c>
       <c r="P204" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q204">
         <v>2.15</v>
@@ -43560,7 +43572,7 @@
         <v>0.5</v>
       </c>
       <c r="AP204">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ204">
         <v>0.83</v>
@@ -43688,7 +43700,7 @@
         <v>236</v>
       </c>
       <c r="P205" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q205">
         <v>4.6</v>
@@ -43769,7 +43781,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ205">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR205">
         <v>1.6</v>
@@ -43894,7 +43906,7 @@
         <v>237</v>
       </c>
       <c r="P206" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q206">
         <v>1.95</v>
@@ -43972,7 +43984,7 @@
         <v>0.08</v>
       </c>
       <c r="AP206">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AQ206">
         <v>0.11</v>
@@ -44796,7 +44808,7 @@
         <v>0.62</v>
       </c>
       <c r="AP210">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ210">
         <v>0.72</v>
@@ -45130,7 +45142,7 @@
         <v>227</v>
       </c>
       <c r="P212" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q212">
         <v>2.75</v>
@@ -45336,7 +45348,7 @@
         <v>239</v>
       </c>
       <c r="P213" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q213">
         <v>2.5</v>
@@ -45414,7 +45426,7 @@
         <v>0.62</v>
       </c>
       <c r="AP213">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ213">
         <v>0.74</v>
@@ -45542,7 +45554,7 @@
         <v>86</v>
       </c>
       <c r="P214" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q214">
         <v>1.71</v>
@@ -45954,7 +45966,7 @@
         <v>87</v>
       </c>
       <c r="P216" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q216">
         <v>3.25</v>
@@ -46032,10 +46044,10 @@
         <v>1.46</v>
       </c>
       <c r="AP216">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ216">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AR216">
         <v>1.66</v>
@@ -46447,7 +46459,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ218">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AR218">
         <v>1.71</v>
@@ -46572,7 +46584,7 @@
         <v>88</v>
       </c>
       <c r="P219" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q219">
         <v>4.33</v>
@@ -46650,10 +46662,10 @@
         <v>1.69</v>
       </c>
       <c r="AP219">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AQ219">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR219">
         <v>1.58</v>
@@ -46984,7 +46996,7 @@
         <v>241</v>
       </c>
       <c r="P221" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q221">
         <v>2.25</v>
@@ -47271,7 +47283,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ222">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR222">
         <v>1.82</v>
@@ -47602,7 +47614,7 @@
         <v>87</v>
       </c>
       <c r="P224" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q224">
         <v>4.33</v>
@@ -47680,7 +47692,7 @@
         <v>1.62</v>
       </c>
       <c r="AP224">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ224">
         <v>1.58</v>
@@ -48713,7 +48725,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ229">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AR229">
         <v>1.11</v>
@@ -48838,7 +48850,7 @@
         <v>174</v>
       </c>
       <c r="P230" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q230">
         <v>4.75</v>
@@ -48919,7 +48931,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ230">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR230">
         <v>1.79</v>
@@ -49250,7 +49262,7 @@
         <v>87</v>
       </c>
       <c r="P232" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q232">
         <v>2.88</v>
@@ -49328,7 +49340,7 @@
         <v>1.21</v>
       </c>
       <c r="AP232">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ232">
         <v>1.21</v>
@@ -49743,7 +49755,7 @@
         <v>2.32</v>
       </c>
       <c r="AQ234">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AR234">
         <v>1.77</v>
@@ -49946,7 +49958,7 @@
         <v>1.29</v>
       </c>
       <c r="AP235">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ235">
         <v>1.37</v>
@@ -50152,7 +50164,7 @@
         <v>0.79</v>
       </c>
       <c r="AP236">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ236">
         <v>0.67</v>
@@ -50280,7 +50292,7 @@
         <v>249</v>
       </c>
       <c r="P237" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q237">
         <v>2.5</v>
@@ -50358,10 +50370,10 @@
         <v>1.07</v>
       </c>
       <c r="AP237">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ237">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR237">
         <v>1.5</v>
@@ -50486,7 +50498,7 @@
         <v>250</v>
       </c>
       <c r="P238" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q238">
         <v>3.1</v>
@@ -50692,7 +50704,7 @@
         <v>118</v>
       </c>
       <c r="P239" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q239">
         <v>3.75</v>
@@ -50898,7 +50910,7 @@
         <v>251</v>
       </c>
       <c r="P240" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q240">
         <v>2.1</v>
@@ -51104,7 +51116,7 @@
         <v>105</v>
       </c>
       <c r="P241" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q241">
         <v>2.3</v>
@@ -51182,7 +51194,7 @@
         <v>0.43</v>
       </c>
       <c r="AP241">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AQ241">
         <v>0.83</v>
@@ -51516,7 +51528,7 @@
         <v>87</v>
       </c>
       <c r="P243" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q243">
         <v>3.75</v>
@@ -51722,7 +51734,7 @@
         <v>252</v>
       </c>
       <c r="P244" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q244">
         <v>3.4</v>
@@ -51800,7 +51812,7 @@
         <v>1</v>
       </c>
       <c r="AP244">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ244">
         <v>1.05</v>
@@ -52340,7 +52352,7 @@
         <v>255</v>
       </c>
       <c r="P247" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q247">
         <v>3.4</v>
@@ -52958,7 +52970,7 @@
         <v>257</v>
       </c>
       <c r="P250" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q250">
         <v>2.5</v>
@@ -53036,10 +53048,10 @@
         <v>1</v>
       </c>
       <c r="AP250">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ250">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR250">
         <v>1.54</v>
@@ -53164,7 +53176,7 @@
         <v>258</v>
       </c>
       <c r="P251" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q251">
         <v>2.05</v>
@@ -53370,7 +53382,7 @@
         <v>259</v>
       </c>
       <c r="P252" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q252">
         <v>2.63</v>
@@ -53576,7 +53588,7 @@
         <v>87</v>
       </c>
       <c r="P253" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q253">
         <v>4.33</v>
@@ -53654,10 +53666,10 @@
         <v>1.47</v>
       </c>
       <c r="AP253">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AQ253">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AR253">
         <v>1.54</v>
@@ -53782,7 +53794,7 @@
         <v>260</v>
       </c>
       <c r="P254" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q254">
         <v>4.75</v>
@@ -53860,10 +53872,10 @@
         <v>1.73</v>
       </c>
       <c r="AP254">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ254">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR254">
         <v>1.75</v>
@@ -53988,7 +54000,7 @@
         <v>87</v>
       </c>
       <c r="P255" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q255">
         <v>2.5</v>
@@ -54194,7 +54206,7 @@
         <v>261</v>
       </c>
       <c r="P256" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q256">
         <v>3.4</v>
@@ -54272,10 +54284,10 @@
         <v>1.8</v>
       </c>
       <c r="AP256">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ256">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AR256">
         <v>1.65</v>
@@ -54606,7 +54618,7 @@
         <v>262</v>
       </c>
       <c r="P258" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q258">
         <v>3.1</v>
@@ -54812,7 +54824,7 @@
         <v>263</v>
       </c>
       <c r="P259" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q259">
         <v>2.1</v>
@@ -55430,7 +55442,7 @@
         <v>87</v>
       </c>
       <c r="P262" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q262">
         <v>2.75</v>
@@ -55508,7 +55520,7 @@
         <v>1.25</v>
       </c>
       <c r="AP262">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ262">
         <v>1.21</v>
@@ -55636,7 +55648,7 @@
         <v>266</v>
       </c>
       <c r="P263" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q263">
         <v>2.5</v>
@@ -55714,7 +55726,7 @@
         <v>0.63</v>
       </c>
       <c r="AP263">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ263">
         <v>0.74</v>
@@ -55923,7 +55935,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ264">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AR264">
         <v>2.11</v>
@@ -56048,7 +56060,7 @@
         <v>217</v>
       </c>
       <c r="P265" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q265">
         <v>3</v>
@@ -56254,7 +56266,7 @@
         <v>267</v>
       </c>
       <c r="P266" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q266">
         <v>2.88</v>
@@ -56335,7 +56347,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ266">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR266">
         <v>1.28</v>
@@ -56744,7 +56756,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP268">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ268">
         <v>1.1</v>
@@ -56950,7 +56962,7 @@
         <v>1.19</v>
       </c>
       <c r="AP269">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ269">
         <v>1.37</v>
@@ -57078,7 +57090,7 @@
         <v>105</v>
       </c>
       <c r="P270" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q270">
         <v>3</v>
@@ -57159,7 +57171,7 @@
         <v>2.32</v>
       </c>
       <c r="AQ270">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AR270">
         <v>1.81</v>
@@ -57284,7 +57296,7 @@
         <v>87</v>
       </c>
       <c r="P271" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q271">
         <v>5</v>
@@ -57362,10 +57374,10 @@
         <v>1.81</v>
       </c>
       <c r="AP271">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AQ271">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR271">
         <v>1.51</v>
@@ -57490,7 +57502,7 @@
         <v>270</v>
       </c>
       <c r="P272" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q272">
         <v>3.5</v>
@@ -57696,7 +57708,7 @@
         <v>271</v>
       </c>
       <c r="P273" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q273">
         <v>2.35</v>
@@ -57774,7 +57786,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP273">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ273">
         <v>1.1</v>
@@ -57980,7 +57992,7 @@
         <v>0.65</v>
       </c>
       <c r="AP274">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ274">
         <v>0.74</v>
@@ -58186,10 +58198,10 @@
         <v>1.76</v>
       </c>
       <c r="AP275">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ275">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AR275">
         <v>1.73</v>
@@ -58392,7 +58404,7 @@
         <v>1.35</v>
       </c>
       <c r="AP276">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ276">
         <v>1.21</v>
@@ -58601,7 +58613,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ277">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AR277">
         <v>2.15</v>
@@ -59138,7 +59150,7 @@
         <v>275</v>
       </c>
       <c r="P280" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q280">
         <v>2.88</v>
@@ -59344,7 +59356,7 @@
         <v>276</v>
       </c>
       <c r="P281" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q281">
         <v>2.25</v>
@@ -59425,7 +59437,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ281">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR281">
         <v>1.67</v>
@@ -59550,7 +59562,7 @@
         <v>277</v>
       </c>
       <c r="P282" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q282">
         <v>2.5</v>
@@ -59756,7 +59768,7 @@
         <v>87</v>
       </c>
       <c r="P283" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q283">
         <v>3.4</v>
@@ -59834,7 +59846,7 @@
         <v>1.41</v>
       </c>
       <c r="AP283">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AQ283">
         <v>1.58</v>
@@ -59962,7 +59974,7 @@
         <v>87</v>
       </c>
       <c r="P284" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q284">
         <v>2.1</v>
@@ -60249,7 +60261,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ285">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR285">
         <v>1.82</v>
@@ -60374,7 +60386,7 @@
         <v>278</v>
       </c>
       <c r="P286" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q286">
         <v>3.25</v>
@@ -60452,7 +60464,7 @@
         <v>1.5</v>
       </c>
       <c r="AP286">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ286">
         <v>1.58</v>
@@ -60580,7 +60592,7 @@
         <v>279</v>
       </c>
       <c r="P287" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q287">
         <v>1.73</v>
@@ -60786,7 +60798,7 @@
         <v>280</v>
       </c>
       <c r="P288" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q288">
         <v>2.2</v>
@@ -60867,7 +60879,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ288">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR288">
         <v>1.81</v>
@@ -60992,7 +61004,7 @@
         <v>87</v>
       </c>
       <c r="P289" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q289">
         <v>2.5</v>
@@ -61198,7 +61210,7 @@
         <v>240</v>
       </c>
       <c r="P290" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q290">
         <v>3.25</v>
@@ -61485,7 +61497,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ291">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AR291">
         <v>1.76</v>
@@ -61688,7 +61700,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP292">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ292">
         <v>1.05</v>
@@ -62022,7 +62034,7 @@
         <v>282</v>
       </c>
       <c r="P294" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q294">
         <v>2.4</v>
@@ -62228,7 +62240,7 @@
         <v>283</v>
       </c>
       <c r="P295" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q295">
         <v>5.5</v>
@@ -62434,7 +62446,7 @@
         <v>284</v>
       </c>
       <c r="P296" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q296">
         <v>3.5</v>
@@ -62718,7 +62730,7 @@
         <v>0.89</v>
       </c>
       <c r="AP297">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ297">
         <v>0.89</v>
@@ -62924,10 +62936,10 @@
         <v>1.72</v>
       </c>
       <c r="AP298">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ298">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AR298">
         <v>1.65</v>
@@ -63052,7 +63064,7 @@
         <v>87</v>
       </c>
       <c r="P299" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q299">
         <v>3</v>
@@ -63130,7 +63142,7 @@
         <v>1.28</v>
       </c>
       <c r="AP299">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AQ299">
         <v>1.37</v>
@@ -63258,7 +63270,7 @@
         <v>87</v>
       </c>
       <c r="P300" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q300">
         <v>3.6</v>
@@ -63339,7 +63351,7 @@
         <v>2.32</v>
       </c>
       <c r="AQ300">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR300">
         <v>1.79</v>
@@ -63670,7 +63682,7 @@
         <v>87</v>
       </c>
       <c r="P302" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q302">
         <v>2.88</v>
@@ -63827,6 +63839,1036 @@
       </c>
       <c r="BP302">
         <v>1.56</v>
+      </c>
+    </row>
+    <row r="303" spans="1:68">
+      <c r="A303" s="1">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>7858368</v>
+      </c>
+      <c r="C303" t="s">
+        <v>68</v>
+      </c>
+      <c r="D303" t="s">
+        <v>69</v>
+      </c>
+      <c r="E303" s="2">
+        <v>45794.55208333334</v>
+      </c>
+      <c r="F303">
+        <v>9</v>
+      </c>
+      <c r="G303" t="s">
+        <v>84</v>
+      </c>
+      <c r="H303" t="s">
+        <v>71</v>
+      </c>
+      <c r="I303">
+        <v>0</v>
+      </c>
+      <c r="J303">
+        <v>0</v>
+      </c>
+      <c r="K303">
+        <v>0</v>
+      </c>
+      <c r="L303">
+        <v>0</v>
+      </c>
+      <c r="M303">
+        <v>0</v>
+      </c>
+      <c r="N303">
+        <v>0</v>
+      </c>
+      <c r="O303" t="s">
+        <v>87</v>
+      </c>
+      <c r="P303" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q303">
+        <v>2.88</v>
+      </c>
+      <c r="R303">
+        <v>2.2</v>
+      </c>
+      <c r="S303">
+        <v>3.5</v>
+      </c>
+      <c r="T303">
+        <v>1.36</v>
+      </c>
+      <c r="U303">
+        <v>3</v>
+      </c>
+      <c r="V303">
+        <v>2.75</v>
+      </c>
+      <c r="W303">
+        <v>1.4</v>
+      </c>
+      <c r="X303">
+        <v>7</v>
+      </c>
+      <c r="Y303">
+        <v>1.1</v>
+      </c>
+      <c r="Z303">
+        <v>1.94</v>
+      </c>
+      <c r="AA303">
+        <v>3.27</v>
+      </c>
+      <c r="AB303">
+        <v>3.34</v>
+      </c>
+      <c r="AC303">
+        <v>1.02</v>
+      </c>
+      <c r="AD303">
+        <v>11.5</v>
+      </c>
+      <c r="AE303">
+        <v>1.28</v>
+      </c>
+      <c r="AF303">
+        <v>3.56</v>
+      </c>
+      <c r="AG303">
+        <v>1.83</v>
+      </c>
+      <c r="AH303">
+        <v>1.87</v>
+      </c>
+      <c r="AI303">
+        <v>1.7</v>
+      </c>
+      <c r="AJ303">
+        <v>2.05</v>
+      </c>
+      <c r="AK303">
+        <v>1.36</v>
+      </c>
+      <c r="AL303">
+        <v>1.33</v>
+      </c>
+      <c r="AM303">
+        <v>1.6</v>
+      </c>
+      <c r="AN303">
+        <v>1.42</v>
+      </c>
+      <c r="AO303">
+        <v>0.84</v>
+      </c>
+      <c r="AP303">
+        <v>1.4</v>
+      </c>
+      <c r="AQ303">
+        <v>0.85</v>
+      </c>
+      <c r="AR303">
+        <v>1.32</v>
+      </c>
+      <c r="AS303">
+        <v>1.3</v>
+      </c>
+      <c r="AT303">
+        <v>2.62</v>
+      </c>
+      <c r="AU303">
+        <v>-1</v>
+      </c>
+      <c r="AV303">
+        <v>-1</v>
+      </c>
+      <c r="AW303">
+        <v>-1</v>
+      </c>
+      <c r="AX303">
+        <v>-1</v>
+      </c>
+      <c r="AY303">
+        <v>-1</v>
+      </c>
+      <c r="AZ303">
+        <v>-1</v>
+      </c>
+      <c r="BA303">
+        <v>-1</v>
+      </c>
+      <c r="BB303">
+        <v>-1</v>
+      </c>
+      <c r="BC303">
+        <v>-1</v>
+      </c>
+      <c r="BD303">
+        <v>1.81</v>
+      </c>
+      <c r="BE303">
+        <v>6.75</v>
+      </c>
+      <c r="BF303">
+        <v>2.18</v>
+      </c>
+      <c r="BG303">
+        <v>1.25</v>
+      </c>
+      <c r="BH303">
+        <v>3.45</v>
+      </c>
+      <c r="BI303">
+        <v>1.44</v>
+      </c>
+      <c r="BJ303">
+        <v>2.55</v>
+      </c>
+      <c r="BK303">
+        <v>1.72</v>
+      </c>
+      <c r="BL303">
+        <v>1.98</v>
+      </c>
+      <c r="BM303">
+        <v>2.1</v>
+      </c>
+      <c r="BN303">
+        <v>1.64</v>
+      </c>
+      <c r="BO303">
+        <v>2.65</v>
+      </c>
+      <c r="BP303">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="304" spans="1:68">
+      <c r="A304" s="1">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>7858369</v>
+      </c>
+      <c r="C304" t="s">
+        <v>68</v>
+      </c>
+      <c r="D304" t="s">
+        <v>69</v>
+      </c>
+      <c r="E304" s="2">
+        <v>45794.65625</v>
+      </c>
+      <c r="F304">
+        <v>9</v>
+      </c>
+      <c r="G304" t="s">
+        <v>82</v>
+      </c>
+      <c r="H304" t="s">
+        <v>78</v>
+      </c>
+      <c r="I304">
+        <v>0</v>
+      </c>
+      <c r="J304">
+        <v>3</v>
+      </c>
+      <c r="K304">
+        <v>3</v>
+      </c>
+      <c r="L304">
+        <v>0</v>
+      </c>
+      <c r="M304">
+        <v>4</v>
+      </c>
+      <c r="N304">
+        <v>4</v>
+      </c>
+      <c r="O304" t="s">
+        <v>87</v>
+      </c>
+      <c r="P304" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q304">
+        <v>4.75</v>
+      </c>
+      <c r="R304">
+        <v>2.3</v>
+      </c>
+      <c r="S304">
+        <v>2.3</v>
+      </c>
+      <c r="T304">
+        <v>1.33</v>
+      </c>
+      <c r="U304">
+        <v>3.25</v>
+      </c>
+      <c r="V304">
+        <v>2.63</v>
+      </c>
+      <c r="W304">
+        <v>1.44</v>
+      </c>
+      <c r="X304">
+        <v>6.5</v>
+      </c>
+      <c r="Y304">
+        <v>1.11</v>
+      </c>
+      <c r="Z304">
+        <v>3.65</v>
+      </c>
+      <c r="AA304">
+        <v>3.41</v>
+      </c>
+      <c r="AB304">
+        <v>1.81</v>
+      </c>
+      <c r="AC304">
+        <v>1.01</v>
+      </c>
+      <c r="AD304">
+        <v>14</v>
+      </c>
+      <c r="AE304">
+        <v>1.24</v>
+      </c>
+      <c r="AF304">
+        <v>3.96</v>
+      </c>
+      <c r="AG304">
+        <v>1.77</v>
+      </c>
+      <c r="AH304">
+        <v>1.93</v>
+      </c>
+      <c r="AI304">
+        <v>1.75</v>
+      </c>
+      <c r="AJ304">
+        <v>2</v>
+      </c>
+      <c r="AK304">
+        <v>2.05</v>
+      </c>
+      <c r="AL304">
+        <v>1.2</v>
+      </c>
+      <c r="AM304">
+        <v>1.2</v>
+      </c>
+      <c r="AN304">
+        <v>1.47</v>
+      </c>
+      <c r="AO304">
+        <v>1.79</v>
+      </c>
+      <c r="AP304">
+        <v>1.4</v>
+      </c>
+      <c r="AQ304">
+        <v>1.85</v>
+      </c>
+      <c r="AR304">
+        <v>1.71</v>
+      </c>
+      <c r="AS304">
+        <v>1.36</v>
+      </c>
+      <c r="AT304">
+        <v>3.07</v>
+      </c>
+      <c r="AU304">
+        <v>-1</v>
+      </c>
+      <c r="AV304">
+        <v>-1</v>
+      </c>
+      <c r="AW304">
+        <v>-1</v>
+      </c>
+      <c r="AX304">
+        <v>-1</v>
+      </c>
+      <c r="AY304">
+        <v>-1</v>
+      </c>
+      <c r="AZ304">
+        <v>-1</v>
+      </c>
+      <c r="BA304">
+        <v>-1</v>
+      </c>
+      <c r="BB304">
+        <v>-1</v>
+      </c>
+      <c r="BC304">
+        <v>-1</v>
+      </c>
+      <c r="BD304">
+        <v>2.5</v>
+      </c>
+      <c r="BE304">
+        <v>7</v>
+      </c>
+      <c r="BF304">
+        <v>1.63</v>
+      </c>
+      <c r="BG304">
+        <v>1.24</v>
+      </c>
+      <c r="BH304">
+        <v>3.65</v>
+      </c>
+      <c r="BI304">
+        <v>1.41</v>
+      </c>
+      <c r="BJ304">
+        <v>2.65</v>
+      </c>
+      <c r="BK304">
+        <v>1.68</v>
+      </c>
+      <c r="BL304">
+        <v>2.05</v>
+      </c>
+      <c r="BM304">
+        <v>2.05</v>
+      </c>
+      <c r="BN304">
+        <v>1.68</v>
+      </c>
+      <c r="BO304">
+        <v>2.55</v>
+      </c>
+      <c r="BP304">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="305" spans="1:68">
+      <c r="A305" s="1">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>7858370</v>
+      </c>
+      <c r="C305" t="s">
+        <v>68</v>
+      </c>
+      <c r="D305" t="s">
+        <v>69</v>
+      </c>
+      <c r="E305" s="2">
+        <v>45795.35416666666</v>
+      </c>
+      <c r="F305">
+        <v>9</v>
+      </c>
+      <c r="G305" t="s">
+        <v>73</v>
+      </c>
+      <c r="H305" t="s">
+        <v>70</v>
+      </c>
+      <c r="I305">
+        <v>1</v>
+      </c>
+      <c r="J305">
+        <v>3</v>
+      </c>
+      <c r="K305">
+        <v>4</v>
+      </c>
+      <c r="L305">
+        <v>1</v>
+      </c>
+      <c r="M305">
+        <v>3</v>
+      </c>
+      <c r="N305">
+        <v>4</v>
+      </c>
+      <c r="O305" t="s">
+        <v>207</v>
+      </c>
+      <c r="P305" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q305">
+        <v>4.75</v>
+      </c>
+      <c r="R305">
+        <v>2.38</v>
+      </c>
+      <c r="S305">
+        <v>2.25</v>
+      </c>
+      <c r="T305">
+        <v>1.3</v>
+      </c>
+      <c r="U305">
+        <v>3.4</v>
+      </c>
+      <c r="V305">
+        <v>2.5</v>
+      </c>
+      <c r="W305">
+        <v>1.5</v>
+      </c>
+      <c r="X305">
+        <v>6</v>
+      </c>
+      <c r="Y305">
+        <v>1.13</v>
+      </c>
+      <c r="Z305">
+        <v>4.2</v>
+      </c>
+      <c r="AA305">
+        <v>3.72</v>
+      </c>
+      <c r="AB305">
+        <v>1.64</v>
+      </c>
+      <c r="AC305">
+        <v>1.04</v>
+      </c>
+      <c r="AD305">
+        <v>10</v>
+      </c>
+      <c r="AE305">
+        <v>1.22</v>
+      </c>
+      <c r="AF305">
+        <v>4.2</v>
+      </c>
+      <c r="AG305">
+        <v>1.67</v>
+      </c>
+      <c r="AH305">
+        <v>2.1</v>
+      </c>
+      <c r="AI305">
+        <v>1.67</v>
+      </c>
+      <c r="AJ305">
+        <v>2.1</v>
+      </c>
+      <c r="AK305">
+        <v>2.05</v>
+      </c>
+      <c r="AL305">
+        <v>1.2</v>
+      </c>
+      <c r="AM305">
+        <v>1.2</v>
+      </c>
+      <c r="AN305">
+        <v>1.63</v>
+      </c>
+      <c r="AO305">
+        <v>1.89</v>
+      </c>
+      <c r="AP305">
+        <v>1.55</v>
+      </c>
+      <c r="AQ305">
+        <v>1.95</v>
+      </c>
+      <c r="AR305">
+        <v>1.61</v>
+      </c>
+      <c r="AS305">
+        <v>1.69</v>
+      </c>
+      <c r="AT305">
+        <v>3.3</v>
+      </c>
+      <c r="AU305">
+        <v>-1</v>
+      </c>
+      <c r="AV305">
+        <v>-1</v>
+      </c>
+      <c r="AW305">
+        <v>-1</v>
+      </c>
+      <c r="AX305">
+        <v>-1</v>
+      </c>
+      <c r="AY305">
+        <v>-1</v>
+      </c>
+      <c r="AZ305">
+        <v>-1</v>
+      </c>
+      <c r="BA305">
+        <v>-1</v>
+      </c>
+      <c r="BB305">
+        <v>-1</v>
+      </c>
+      <c r="BC305">
+        <v>-1</v>
+      </c>
+      <c r="BD305">
+        <v>2.55</v>
+      </c>
+      <c r="BE305">
+        <v>6.75</v>
+      </c>
+      <c r="BF305">
+        <v>1.6</v>
+      </c>
+      <c r="BG305">
+        <v>1.26</v>
+      </c>
+      <c r="BH305">
+        <v>3.4</v>
+      </c>
+      <c r="BI305">
+        <v>1.46</v>
+      </c>
+      <c r="BJ305">
+        <v>2.5</v>
+      </c>
+      <c r="BK305">
+        <v>1.73</v>
+      </c>
+      <c r="BL305">
+        <v>1.98</v>
+      </c>
+      <c r="BM305">
+        <v>2.15</v>
+      </c>
+      <c r="BN305">
+        <v>1.61</v>
+      </c>
+      <c r="BO305">
+        <v>2.7</v>
+      </c>
+      <c r="BP305">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:68">
+      <c r="A306" s="1">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>7858371</v>
+      </c>
+      <c r="C306" t="s">
+        <v>68</v>
+      </c>
+      <c r="D306" t="s">
+        <v>69</v>
+      </c>
+      <c r="E306" s="2">
+        <v>45795.45833333334</v>
+      </c>
+      <c r="F306">
+        <v>9</v>
+      </c>
+      <c r="G306" t="s">
+        <v>79</v>
+      </c>
+      <c r="H306" t="s">
+        <v>76</v>
+      </c>
+      <c r="I306">
+        <v>0</v>
+      </c>
+      <c r="J306">
+        <v>1</v>
+      </c>
+      <c r="K306">
+        <v>1</v>
+      </c>
+      <c r="L306">
+        <v>1</v>
+      </c>
+      <c r="M306">
+        <v>1</v>
+      </c>
+      <c r="N306">
+        <v>2</v>
+      </c>
+      <c r="O306" t="s">
+        <v>261</v>
+      </c>
+      <c r="P306" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q306">
+        <v>2.88</v>
+      </c>
+      <c r="R306">
+        <v>2.4</v>
+      </c>
+      <c r="S306">
+        <v>3.2</v>
+      </c>
+      <c r="T306">
+        <v>1.29</v>
+      </c>
+      <c r="U306">
+        <v>3.5</v>
+      </c>
+      <c r="V306">
+        <v>2.25</v>
+      </c>
+      <c r="W306">
+        <v>1.57</v>
+      </c>
+      <c r="X306">
+        <v>5.5</v>
+      </c>
+      <c r="Y306">
+        <v>1.14</v>
+      </c>
+      <c r="Z306">
+        <v>2.21</v>
+      </c>
+      <c r="AA306">
+        <v>3.28</v>
+      </c>
+      <c r="AB306">
+        <v>2.75</v>
+      </c>
+      <c r="AC306">
+        <v>1.04</v>
+      </c>
+      <c r="AD306">
+        <v>10</v>
+      </c>
+      <c r="AE306">
+        <v>1.2</v>
+      </c>
+      <c r="AF306">
+        <v>4.33</v>
+      </c>
+      <c r="AG306">
+        <v>1.65</v>
+      </c>
+      <c r="AH306">
+        <v>2.1</v>
+      </c>
+      <c r="AI306">
+        <v>1.5</v>
+      </c>
+      <c r="AJ306">
+        <v>2.5</v>
+      </c>
+      <c r="AK306">
+        <v>1.4</v>
+      </c>
+      <c r="AL306">
+        <v>1.25</v>
+      </c>
+      <c r="AM306">
+        <v>1.57</v>
+      </c>
+      <c r="AN306">
+        <v>1.47</v>
+      </c>
+      <c r="AO306">
+        <v>1.05</v>
+      </c>
+      <c r="AP306">
+        <v>1.45</v>
+      </c>
+      <c r="AQ306">
+        <v>1.05</v>
+      </c>
+      <c r="AR306">
+        <v>1.65</v>
+      </c>
+      <c r="AS306">
+        <v>1.54</v>
+      </c>
+      <c r="AT306">
+        <v>3.19</v>
+      </c>
+      <c r="AU306">
+        <v>-1</v>
+      </c>
+      <c r="AV306">
+        <v>-1</v>
+      </c>
+      <c r="AW306">
+        <v>-1</v>
+      </c>
+      <c r="AX306">
+        <v>-1</v>
+      </c>
+      <c r="AY306">
+        <v>-1</v>
+      </c>
+      <c r="AZ306">
+        <v>-1</v>
+      </c>
+      <c r="BA306">
+        <v>-1</v>
+      </c>
+      <c r="BB306">
+        <v>-1</v>
+      </c>
+      <c r="BC306">
+        <v>-1</v>
+      </c>
+      <c r="BD306">
+        <v>1.9</v>
+      </c>
+      <c r="BE306">
+        <v>6.75</v>
+      </c>
+      <c r="BF306">
+        <v>2.08</v>
+      </c>
+      <c r="BG306">
+        <v>1.24</v>
+      </c>
+      <c r="BH306">
+        <v>3.55</v>
+      </c>
+      <c r="BI306">
+        <v>1.42</v>
+      </c>
+      <c r="BJ306">
+        <v>2.65</v>
+      </c>
+      <c r="BK306">
+        <v>1.7</v>
+      </c>
+      <c r="BL306">
+        <v>2.02</v>
+      </c>
+      <c r="BM306">
+        <v>2.08</v>
+      </c>
+      <c r="BN306">
+        <v>1.66</v>
+      </c>
+      <c r="BO306">
+        <v>2.65</v>
+      </c>
+      <c r="BP306">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="307" spans="1:68">
+      <c r="A307" s="1">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>7858372</v>
+      </c>
+      <c r="C307" t="s">
+        <v>68</v>
+      </c>
+      <c r="D307" t="s">
+        <v>69</v>
+      </c>
+      <c r="E307" s="2">
+        <v>45795.5625</v>
+      </c>
+      <c r="F307">
+        <v>9</v>
+      </c>
+      <c r="G307" t="s">
+        <v>85</v>
+      </c>
+      <c r="H307" t="s">
+        <v>74</v>
+      </c>
+      <c r="I307">
+        <v>1</v>
+      </c>
+      <c r="J307">
+        <v>2</v>
+      </c>
+      <c r="K307">
+        <v>3</v>
+      </c>
+      <c r="L307">
+        <v>1</v>
+      </c>
+      <c r="M307">
+        <v>4</v>
+      </c>
+      <c r="N307">
+        <v>5</v>
+      </c>
+      <c r="O307" t="s">
+        <v>286</v>
+      </c>
+      <c r="P307" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q307">
+        <v>4</v>
+      </c>
+      <c r="R307">
+        <v>2.5</v>
+      </c>
+      <c r="S307">
+        <v>2.38</v>
+      </c>
+      <c r="T307">
+        <v>1.25</v>
+      </c>
+      <c r="U307">
+        <v>3.75</v>
+      </c>
+      <c r="V307">
+        <v>2.2</v>
+      </c>
+      <c r="W307">
+        <v>1.62</v>
+      </c>
+      <c r="X307">
+        <v>5</v>
+      </c>
+      <c r="Y307">
+        <v>1.17</v>
+      </c>
+      <c r="Z307">
+        <v>3.58</v>
+      </c>
+      <c r="AA307">
+        <v>3.63</v>
+      </c>
+      <c r="AB307">
+        <v>1.77</v>
+      </c>
+      <c r="AC307">
+        <v>1.03</v>
+      </c>
+      <c r="AD307">
+        <v>11</v>
+      </c>
+      <c r="AE307">
+        <v>1.18</v>
+      </c>
+      <c r="AF307">
+        <v>4.75</v>
+      </c>
+      <c r="AG307">
+        <v>1.55</v>
+      </c>
+      <c r="AH307">
+        <v>2.3</v>
+      </c>
+      <c r="AI307">
+        <v>1.53</v>
+      </c>
+      <c r="AJ307">
+        <v>2.38</v>
+      </c>
+      <c r="AK307">
+        <v>1.9</v>
+      </c>
+      <c r="AL307">
+        <v>1.2</v>
+      </c>
+      <c r="AM307">
+        <v>1.25</v>
+      </c>
+      <c r="AN307">
+        <v>1.32</v>
+      </c>
+      <c r="AO307">
+        <v>1.63</v>
+      </c>
+      <c r="AP307">
+        <v>1.25</v>
+      </c>
+      <c r="AQ307">
+        <v>1.7</v>
+      </c>
+      <c r="AR307">
+        <v>1.46</v>
+      </c>
+      <c r="AS307">
+        <v>1.58</v>
+      </c>
+      <c r="AT307">
+        <v>3.04</v>
+      </c>
+      <c r="AU307">
+        <v>-1</v>
+      </c>
+      <c r="AV307">
+        <v>-1</v>
+      </c>
+      <c r="AW307">
+        <v>-1</v>
+      </c>
+      <c r="AX307">
+        <v>-1</v>
+      </c>
+      <c r="AY307">
+        <v>-1</v>
+      </c>
+      <c r="AZ307">
+        <v>-1</v>
+      </c>
+      <c r="BA307">
+        <v>-1</v>
+      </c>
+      <c r="BB307">
+        <v>-1</v>
+      </c>
+      <c r="BC307">
+        <v>-1</v>
+      </c>
+      <c r="BD307">
+        <v>2.4</v>
+      </c>
+      <c r="BE307">
+        <v>6.5</v>
+      </c>
+      <c r="BF307">
+        <v>1.68</v>
+      </c>
+      <c r="BG307">
+        <v>1.29</v>
+      </c>
+      <c r="BH307">
+        <v>3.2</v>
+      </c>
+      <c r="BI307">
+        <v>1.49</v>
+      </c>
+      <c r="BJ307">
+        <v>2.4</v>
+      </c>
+      <c r="BK307">
+        <v>1.8</v>
+      </c>
+      <c r="BL307">
+        <v>1.89</v>
+      </c>
+      <c r="BM307">
+        <v>2.25</v>
+      </c>
+      <c r="BN307">
+        <v>1.55</v>
+      </c>
+      <c r="BO307">
+        <v>2.9</v>
+      </c>
+      <c r="BP307">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
@@ -63981,31 +63981,31 @@
         <v>2.62</v>
       </c>
       <c r="AU303">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV303">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AW303">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX303">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY303">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AZ303">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BA303">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB303">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC303">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD303">
         <v>1.81</v>
@@ -64187,31 +64187,31 @@
         <v>3.07</v>
       </c>
       <c r="AU304">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV304">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AW304">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX304">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AY304">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ304">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="BA304">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BB304">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC304">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BD304">
         <v>2.5</v>
@@ -64393,31 +64393,31 @@
         <v>3.3</v>
       </c>
       <c r="AU305">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV305">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW305">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AX305">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY305">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="AZ305">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="BA305">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB305">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC305">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD305">
         <v>2.55</v>
@@ -64599,31 +64599,31 @@
         <v>3.19</v>
       </c>
       <c r="AU306">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV306">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW306">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AX306">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY306">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AZ306">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA306">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BB306">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC306">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BD306">
         <v>1.9</v>
@@ -64805,31 +64805,31 @@
         <v>3.04</v>
       </c>
       <c r="AU307">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV307">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW307">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX307">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY307">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AZ307">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BA307">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB307">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC307">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD307">
         <v>2.4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
@@ -760,13 +760,13 @@
     <t>['69', '83']</t>
   </si>
   <si>
-    <t>['6', '87', '90+6']</t>
+    <t>['13', '66', '83']</t>
   </si>
   <si>
     <t>['54', '65']</t>
   </si>
   <si>
-    <t>['13', '66', '83']</t>
+    <t>['6', '87', '90+6']</t>
   </si>
   <si>
     <t>['3', '49', '63', '80']</t>
@@ -826,10 +826,10 @@
     <t>['59']</t>
   </si>
   <si>
-    <t>['54', '69']</t>
+    <t>['30', '71']</t>
   </si>
   <si>
-    <t>['30', '71']</t>
+    <t>['54', '69']</t>
   </si>
   <si>
     <t>['30', '37', '42', '54', '59']</t>
@@ -1156,7 +1156,7 @@
     <t>['83']</t>
   </si>
   <si>
-    <t>['73']</t>
+    <t>['45+5', '70']</t>
   </si>
   <si>
     <t>['44', '74']</t>
@@ -1165,10 +1165,10 @@
     <t>['45+7', '86']</t>
   </si>
   <si>
-    <t>['34', '77']</t>
+    <t>['73']</t>
   </si>
   <si>
-    <t>['45+5', '70']</t>
+    <t>['34', '77']</t>
   </si>
   <si>
     <t>['33', '68']</t>
@@ -27384,7 +27384,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>7453549</v>
+        <v>7453548</v>
       </c>
       <c r="C126" t="s">
         <v>68</v>
@@ -27399,160 +27399,160 @@
         <v>16</v>
       </c>
       <c r="G126" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H126" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I126">
         <v>0</v>
       </c>
       <c r="J126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L126">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N126">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O126" t="s">
-        <v>87</v>
+        <v>182</v>
       </c>
       <c r="P126" t="s">
-        <v>87</v>
+        <v>333</v>
       </c>
       <c r="Q126">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="R126">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S126">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="T126">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U126">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V126">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W126">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X126">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Y126">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="Z126">
-        <v>2.83</v>
+        <v>3.63</v>
       </c>
       <c r="AA126">
-        <v>3.3</v>
+        <v>3.76</v>
       </c>
       <c r="AB126">
-        <v>2.45</v>
+        <v>1.89</v>
       </c>
       <c r="AC126">
         <v>1.05</v>
       </c>
       <c r="AD126">
+        <v>9.5</v>
+      </c>
+      <c r="AE126">
+        <v>1.25</v>
+      </c>
+      <c r="AF126">
+        <v>3.95</v>
+      </c>
+      <c r="AG126">
+        <v>1.65</v>
+      </c>
+      <c r="AH126">
+        <v>2.05</v>
+      </c>
+      <c r="AI126">
+        <v>1.62</v>
+      </c>
+      <c r="AJ126">
+        <v>2.2</v>
+      </c>
+      <c r="AK126">
+        <v>1.85</v>
+      </c>
+      <c r="AL126">
+        <v>1.22</v>
+      </c>
+      <c r="AM126">
+        <v>1.25</v>
+      </c>
+      <c r="AN126">
+        <v>0.86</v>
+      </c>
+      <c r="AO126">
+        <v>0.57</v>
+      </c>
+      <c r="AP126">
+        <v>1.22</v>
+      </c>
+      <c r="AQ126">
+        <v>0.67</v>
+      </c>
+      <c r="AR126">
+        <v>0.92</v>
+      </c>
+      <c r="AS126">
+        <v>1.33</v>
+      </c>
+      <c r="AT126">
+        <v>2.25</v>
+      </c>
+      <c r="AU126">
         <v>9</v>
       </c>
-      <c r="AE126">
-        <v>1.3</v>
-      </c>
-      <c r="AF126">
-        <v>3.45</v>
-      </c>
-      <c r="AG126">
-        <v>1.88</v>
-      </c>
-      <c r="AH126">
-        <v>1.9</v>
-      </c>
-      <c r="AI126">
-        <v>1.7</v>
-      </c>
-      <c r="AJ126">
-        <v>2.05</v>
-      </c>
-      <c r="AK126">
-        <v>1.6</v>
-      </c>
-      <c r="AL126">
-        <v>1.25</v>
-      </c>
-      <c r="AM126">
-        <v>1.36</v>
-      </c>
-      <c r="AN126">
-        <v>1.43</v>
-      </c>
-      <c r="AO126">
-        <v>1.57</v>
-      </c>
-      <c r="AP126">
-        <v>1.55</v>
-      </c>
-      <c r="AQ126">
-        <v>1.58</v>
-      </c>
-      <c r="AR126">
-        <v>1.26</v>
-      </c>
-      <c r="AS126">
-        <v>1.43</v>
-      </c>
-      <c r="AT126">
-        <v>2.69</v>
-      </c>
-      <c r="AU126">
-        <v>3</v>
-      </c>
       <c r="AV126">
+        <v>5</v>
+      </c>
+      <c r="AW126">
+        <v>9</v>
+      </c>
+      <c r="AX126">
         <v>6</v>
       </c>
-      <c r="AW126">
-        <v>7</v>
-      </c>
-      <c r="AX126">
-        <v>3</v>
-      </c>
       <c r="AY126">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AZ126">
         <v>12</v>
       </c>
       <c r="BA126">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BB126">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BC126">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BD126">
-        <v>1.84</v>
+        <v>2.55</v>
       </c>
       <c r="BE126">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF126">
-        <v>2.05</v>
+        <v>1.53</v>
       </c>
       <c r="BG126">
         <v>1.21</v>
@@ -27561,16 +27561,16 @@
         <v>3.9</v>
       </c>
       <c r="BI126">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="BJ126">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="BK126">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="BL126">
-        <v>2.18</v>
+        <v>2.17</v>
       </c>
       <c r="BM126">
         <v>2.05</v>
@@ -27590,7 +27590,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>7453548</v>
+        <v>7453549</v>
       </c>
       <c r="C127" t="s">
         <v>68</v>
@@ -27605,160 +27605,160 @@
         <v>16</v>
       </c>
       <c r="G127" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H127" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I127">
         <v>0</v>
       </c>
       <c r="J127">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K127">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127" t="s">
+        <v>87</v>
+      </c>
+      <c r="P127" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q127">
+        <v>3.6</v>
+      </c>
+      <c r="R127">
+        <v>2.2</v>
+      </c>
+      <c r="S127">
+        <v>2.88</v>
+      </c>
+      <c r="T127">
+        <v>1.36</v>
+      </c>
+      <c r="U127">
         <v>3</v>
       </c>
-      <c r="M127">
-        <v>2</v>
-      </c>
-      <c r="N127">
-        <v>5</v>
-      </c>
-      <c r="O127" t="s">
-        <v>182</v>
-      </c>
-      <c r="P127" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q127">
-        <v>4</v>
-      </c>
-      <c r="R127">
-        <v>2.3</v>
-      </c>
-      <c r="S127">
-        <v>2.5</v>
-      </c>
-      <c r="T127">
-        <v>1.33</v>
-      </c>
-      <c r="U127">
-        <v>3.25</v>
-      </c>
       <c r="V127">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W127">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X127">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Y127">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="Z127">
-        <v>3.63</v>
+        <v>2.83</v>
       </c>
       <c r="AA127">
-        <v>3.76</v>
+        <v>3.3</v>
       </c>
       <c r="AB127">
-        <v>1.89</v>
+        <v>2.45</v>
       </c>
       <c r="AC127">
         <v>1.05</v>
       </c>
       <c r="AD127">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE127">
+        <v>1.3</v>
+      </c>
+      <c r="AF127">
+        <v>3.45</v>
+      </c>
+      <c r="AG127">
+        <v>1.88</v>
+      </c>
+      <c r="AH127">
+        <v>1.9</v>
+      </c>
+      <c r="AI127">
+        <v>1.7</v>
+      </c>
+      <c r="AJ127">
+        <v>2.05</v>
+      </c>
+      <c r="AK127">
+        <v>1.6</v>
+      </c>
+      <c r="AL127">
         <v>1.25</v>
       </c>
-      <c r="AF127">
-        <v>3.95</v>
-      </c>
-      <c r="AG127">
-        <v>1.65</v>
-      </c>
-      <c r="AH127">
-        <v>2.05</v>
-      </c>
-      <c r="AI127">
-        <v>1.62</v>
-      </c>
-      <c r="AJ127">
-        <v>2.2</v>
-      </c>
-      <c r="AK127">
-        <v>1.85</v>
-      </c>
-      <c r="AL127">
-        <v>1.22</v>
-      </c>
       <c r="AM127">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AN127">
-        <v>0.86</v>
+        <v>1.43</v>
       </c>
       <c r="AO127">
-        <v>0.57</v>
+        <v>1.57</v>
       </c>
       <c r="AP127">
-        <v>1.22</v>
+        <v>1.55</v>
       </c>
       <c r="AQ127">
-        <v>0.67</v>
+        <v>1.58</v>
       </c>
       <c r="AR127">
-        <v>0.92</v>
+        <v>1.26</v>
       </c>
       <c r="AS127">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AT127">
-        <v>2.25</v>
+        <v>2.69</v>
       </c>
       <c r="AU127">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AV127">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW127">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AX127">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY127">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AZ127">
         <v>12</v>
       </c>
       <c r="BA127">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BB127">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BC127">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BD127">
-        <v>2.55</v>
+        <v>1.84</v>
       </c>
       <c r="BE127">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="BF127">
-        <v>1.53</v>
+        <v>2.05</v>
       </c>
       <c r="BG127">
         <v>1.21</v>
@@ -27767,16 +27767,16 @@
         <v>3.9</v>
       </c>
       <c r="BI127">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="BJ127">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="BK127">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="BL127">
-        <v>2.17</v>
+        <v>2.18</v>
       </c>
       <c r="BM127">
         <v>2.05</v>
@@ -34388,7 +34388,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>7453582</v>
+        <v>7453576</v>
       </c>
       <c r="C160" t="s">
         <v>68</v>
@@ -34403,190 +34403,190 @@
         <v>20</v>
       </c>
       <c r="G160" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H160" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J160">
         <v>1</v>
       </c>
       <c r="K160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N160">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O160" t="s">
-        <v>115</v>
+        <v>205</v>
       </c>
       <c r="P160" t="s">
-        <v>266</v>
+        <v>349</v>
       </c>
       <c r="Q160">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="R160">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="S160">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="T160">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="U160">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="V160">
         <v>2.5</v>
       </c>
       <c r="W160">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="X160">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y160">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="Z160">
-        <v>2.48</v>
+        <v>1.71</v>
       </c>
       <c r="AA160">
-        <v>3.45</v>
+        <v>7.38</v>
       </c>
       <c r="AB160">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="AC160">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AD160">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AE160">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AF160">
-        <v>3.95</v>
+        <v>4.25</v>
       </c>
       <c r="AG160">
-        <v>1.77</v>
+        <v>1.57</v>
       </c>
       <c r="AH160">
-        <v>1.98</v>
+        <v>2.25</v>
       </c>
       <c r="AI160">
+        <v>1.92</v>
+      </c>
+      <c r="AJ160">
+        <v>1.87</v>
+      </c>
+      <c r="AK160">
+        <v>1.08</v>
+      </c>
+      <c r="AL160">
+        <v>1.15</v>
+      </c>
+      <c r="AM160">
+        <v>2.95</v>
+      </c>
+      <c r="AN160">
+        <v>2</v>
+      </c>
+      <c r="AO160">
+        <v>1.33</v>
+      </c>
+      <c r="AP160">
         <v>1.55</v>
       </c>
-      <c r="AJ160">
-        <v>2.25</v>
-      </c>
-      <c r="AK160">
-        <v>1.45</v>
-      </c>
-      <c r="AL160">
-        <v>1.25</v>
-      </c>
-      <c r="AM160">
+      <c r="AQ160">
+        <v>0.85</v>
+      </c>
+      <c r="AR160">
+        <v>1.75</v>
+      </c>
+      <c r="AS160">
+        <v>1.08</v>
+      </c>
+      <c r="AT160">
+        <v>2.83</v>
+      </c>
+      <c r="AU160">
+        <v>6</v>
+      </c>
+      <c r="AV160">
+        <v>6</v>
+      </c>
+      <c r="AW160">
+        <v>4</v>
+      </c>
+      <c r="AX160">
+        <v>6</v>
+      </c>
+      <c r="AY160">
+        <v>14</v>
+      </c>
+      <c r="AZ160">
+        <v>17</v>
+      </c>
+      <c r="BA160">
+        <v>2</v>
+      </c>
+      <c r="BB160">
+        <v>4</v>
+      </c>
+      <c r="BC160">
+        <v>6</v>
+      </c>
+      <c r="BD160">
+        <v>1.34</v>
+      </c>
+      <c r="BE160">
+        <v>7</v>
+      </c>
+      <c r="BF160">
+        <v>3.55</v>
+      </c>
+      <c r="BG160">
+        <v>1.32</v>
+      </c>
+      <c r="BH160">
+        <v>3</v>
+      </c>
+      <c r="BI160">
+        <v>1.55</v>
+      </c>
+      <c r="BJ160">
+        <v>2.28</v>
+      </c>
+      <c r="BK160">
+        <v>1.9</v>
+      </c>
+      <c r="BL160">
+        <v>1.79</v>
+      </c>
+      <c r="BM160">
+        <v>2.4</v>
+      </c>
+      <c r="BN160">
         <v>1.5</v>
       </c>
-      <c r="AN160">
-        <v>1.44</v>
-      </c>
-      <c r="AO160">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AP160">
-        <v>1.56</v>
-      </c>
-      <c r="AQ160">
-        <v>0.67</v>
-      </c>
-      <c r="AR160">
-        <v>1.47</v>
-      </c>
-      <c r="AS160">
-        <v>1.39</v>
-      </c>
-      <c r="AT160">
-        <v>2.86</v>
-      </c>
-      <c r="AU160">
-        <v>8</v>
-      </c>
-      <c r="AV160">
-        <v>4</v>
-      </c>
-      <c r="AW160">
-        <v>8</v>
-      </c>
-      <c r="AX160">
-        <v>3</v>
-      </c>
-      <c r="AY160">
-        <v>28</v>
-      </c>
-      <c r="AZ160">
-        <v>8</v>
-      </c>
-      <c r="BA160">
-        <v>7</v>
-      </c>
-      <c r="BB160">
-        <v>2</v>
-      </c>
-      <c r="BC160">
-        <v>9</v>
-      </c>
-      <c r="BD160">
-        <v>1.97</v>
-      </c>
-      <c r="BE160">
-        <v>6.5</v>
-      </c>
-      <c r="BF160">
-        <v>2</v>
-      </c>
-      <c r="BG160">
-        <v>1.24</v>
-      </c>
-      <c r="BH160">
-        <v>3.55</v>
-      </c>
-      <c r="BI160">
-        <v>1.44</v>
-      </c>
-      <c r="BJ160">
-        <v>2.55</v>
-      </c>
-      <c r="BK160">
-        <v>1.71</v>
-      </c>
-      <c r="BL160">
-        <v>2</v>
-      </c>
-      <c r="BM160">
-        <v>2.08</v>
-      </c>
-      <c r="BN160">
-        <v>1.66</v>
-      </c>
       <c r="BO160">
-        <v>2.65</v>
+        <v>3.05</v>
       </c>
       <c r="BP160">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="161" spans="1:68">
@@ -34594,7 +34594,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>7453576</v>
+        <v>7453582</v>
       </c>
       <c r="C161" t="s">
         <v>68</v>
@@ -34609,190 +34609,190 @@
         <v>20</v>
       </c>
       <c r="G161" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H161" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="I161">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J161">
         <v>1</v>
       </c>
       <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+      <c r="N161">
+        <v>2</v>
+      </c>
+      <c r="O161" t="s">
+        <v>115</v>
+      </c>
+      <c r="P161" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q161">
         <v>3</v>
       </c>
-      <c r="L161">
-        <v>2</v>
-      </c>
-      <c r="M161">
+      <c r="R161">
+        <v>2.15</v>
+      </c>
+      <c r="S161">
+        <v>3.1</v>
+      </c>
+      <c r="T161">
+        <v>1.33</v>
+      </c>
+      <c r="U161">
         <v>3</v>
-      </c>
-      <c r="N161">
-        <v>5</v>
-      </c>
-      <c r="O161" t="s">
-        <v>205</v>
-      </c>
-      <c r="P161" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q161">
-        <v>1.9</v>
-      </c>
-      <c r="R161">
-        <v>2.5</v>
-      </c>
-      <c r="S161">
-        <v>6.5</v>
-      </c>
-      <c r="T161">
-        <v>1.32</v>
-      </c>
-      <c r="U161">
-        <v>3.4</v>
       </c>
       <c r="V161">
         <v>2.5</v>
       </c>
       <c r="W161">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="X161">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y161">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="Z161">
+        <v>2.48</v>
+      </c>
+      <c r="AA161">
+        <v>3.45</v>
+      </c>
+      <c r="AB161">
+        <v>2.62</v>
+      </c>
+      <c r="AC161">
+        <v>1.05</v>
+      </c>
+      <c r="AD161">
+        <v>9.5</v>
+      </c>
+      <c r="AE161">
+        <v>1.25</v>
+      </c>
+      <c r="AF161">
+        <v>3.95</v>
+      </c>
+      <c r="AG161">
+        <v>1.77</v>
+      </c>
+      <c r="AH161">
+        <v>1.98</v>
+      </c>
+      <c r="AI161">
+        <v>1.55</v>
+      </c>
+      <c r="AJ161">
+        <v>2.25</v>
+      </c>
+      <c r="AK161">
+        <v>1.45</v>
+      </c>
+      <c r="AL161">
+        <v>1.25</v>
+      </c>
+      <c r="AM161">
+        <v>1.5</v>
+      </c>
+      <c r="AN161">
+        <v>1.44</v>
+      </c>
+      <c r="AO161">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP161">
+        <v>1.56</v>
+      </c>
+      <c r="AQ161">
+        <v>0.67</v>
+      </c>
+      <c r="AR161">
+        <v>1.47</v>
+      </c>
+      <c r="AS161">
+        <v>1.39</v>
+      </c>
+      <c r="AT161">
+        <v>2.86</v>
+      </c>
+      <c r="AU161">
+        <v>8</v>
+      </c>
+      <c r="AV161">
+        <v>4</v>
+      </c>
+      <c r="AW161">
+        <v>8</v>
+      </c>
+      <c r="AX161">
+        <v>3</v>
+      </c>
+      <c r="AY161">
+        <v>28</v>
+      </c>
+      <c r="AZ161">
+        <v>8</v>
+      </c>
+      <c r="BA161">
+        <v>7</v>
+      </c>
+      <c r="BB161">
+        <v>2</v>
+      </c>
+      <c r="BC161">
+        <v>9</v>
+      </c>
+      <c r="BD161">
+        <v>1.97</v>
+      </c>
+      <c r="BE161">
+        <v>6.5</v>
+      </c>
+      <c r="BF161">
+        <v>2</v>
+      </c>
+      <c r="BG161">
+        <v>1.24</v>
+      </c>
+      <c r="BH161">
+        <v>3.55</v>
+      </c>
+      <c r="BI161">
+        <v>1.44</v>
+      </c>
+      <c r="BJ161">
+        <v>2.55</v>
+      </c>
+      <c r="BK161">
         <v>1.71</v>
       </c>
-      <c r="AA161">
-        <v>7.38</v>
-      </c>
-      <c r="AB161">
-        <v>2.55</v>
-      </c>
-      <c r="AC161">
-        <v>1.03</v>
-      </c>
-      <c r="AD161">
-        <v>15</v>
-      </c>
-      <c r="AE161">
-        <v>1.21</v>
-      </c>
-      <c r="AF161">
-        <v>4.25</v>
-      </c>
-      <c r="AG161">
-        <v>1.57</v>
-      </c>
-      <c r="AH161">
-        <v>2.25</v>
-      </c>
-      <c r="AI161">
-        <v>1.92</v>
-      </c>
-      <c r="AJ161">
-        <v>1.87</v>
-      </c>
-      <c r="AK161">
-        <v>1.08</v>
-      </c>
-      <c r="AL161">
-        <v>1.15</v>
-      </c>
-      <c r="AM161">
-        <v>2.95</v>
-      </c>
-      <c r="AN161">
-        <v>2</v>
-      </c>
-      <c r="AO161">
-        <v>1.33</v>
-      </c>
-      <c r="AP161">
-        <v>1.55</v>
-      </c>
-      <c r="AQ161">
-        <v>0.85</v>
-      </c>
-      <c r="AR161">
-        <v>1.75</v>
-      </c>
-      <c r="AS161">
-        <v>1.08</v>
-      </c>
-      <c r="AT161">
-        <v>2.83</v>
-      </c>
-      <c r="AU161">
-        <v>6</v>
-      </c>
-      <c r="AV161">
-        <v>6</v>
-      </c>
-      <c r="AW161">
-        <v>4</v>
-      </c>
-      <c r="AX161">
-        <v>6</v>
-      </c>
-      <c r="AY161">
-        <v>14</v>
-      </c>
-      <c r="AZ161">
-        <v>17</v>
-      </c>
-      <c r="BA161">
-        <v>2</v>
-      </c>
-      <c r="BB161">
-        <v>4</v>
-      </c>
-      <c r="BC161">
-        <v>6</v>
-      </c>
-      <c r="BD161">
-        <v>1.34</v>
-      </c>
-      <c r="BE161">
-        <v>7</v>
-      </c>
-      <c r="BF161">
-        <v>3.55</v>
-      </c>
-      <c r="BG161">
-        <v>1.32</v>
-      </c>
-      <c r="BH161">
-        <v>3</v>
-      </c>
-      <c r="BI161">
-        <v>1.55</v>
-      </c>
-      <c r="BJ161">
-        <v>2.28</v>
-      </c>
-      <c r="BK161">
-        <v>1.9</v>
-      </c>
       <c r="BL161">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="BM161">
-        <v>2.4</v>
+        <v>2.08</v>
       </c>
       <c r="BN161">
-        <v>1.5</v>
+        <v>1.66</v>
       </c>
       <c r="BO161">
-        <v>3.05</v>
+        <v>2.65</v>
       </c>
       <c r="BP161">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="162" spans="1:68">
@@ -46542,7 +46542,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>7454763</v>
+        <v>7453638</v>
       </c>
       <c r="C219" t="s">
         <v>68</v>
@@ -46557,190 +46557,190 @@
         <v>28</v>
       </c>
       <c r="G219" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H219" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="I219">
         <v>0</v>
       </c>
       <c r="J219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N219">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O219" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P219" t="s">
-        <v>375</v>
+        <v>87</v>
       </c>
       <c r="Q219">
-        <v>4.33</v>
+        <v>2.95</v>
       </c>
       <c r="R219">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="S219">
-        <v>2.38</v>
+        <v>3.3</v>
       </c>
       <c r="T219">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="U219">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="V219">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="W219">
+        <v>1.39</v>
+      </c>
+      <c r="X219">
+        <v>7</v>
+      </c>
+      <c r="Y219">
+        <v>1.08</v>
+      </c>
+      <c r="Z219">
+        <v>2.35</v>
+      </c>
+      <c r="AA219">
+        <v>3.39</v>
+      </c>
+      <c r="AB219">
+        <v>2.86</v>
+      </c>
+      <c r="AC219">
+        <v>1.06</v>
+      </c>
+      <c r="AD219">
+        <v>8.5</v>
+      </c>
+      <c r="AE219">
+        <v>1.33</v>
+      </c>
+      <c r="AF219">
+        <v>3.25</v>
+      </c>
+      <c r="AG219">
+        <v>1.89</v>
+      </c>
+      <c r="AH219">
+        <v>1.85</v>
+      </c>
+      <c r="AI219">
+        <v>1.73</v>
+      </c>
+      <c r="AJ219">
+        <v>1.95</v>
+      </c>
+      <c r="AK219">
+        <v>1.41</v>
+      </c>
+      <c r="AL219">
+        <v>1.31</v>
+      </c>
+      <c r="AM219">
+        <v>1.53</v>
+      </c>
+      <c r="AN219">
+        <v>1.54</v>
+      </c>
+      <c r="AO219">
+        <v>1.31</v>
+      </c>
+      <c r="AP219">
         <v>1.5</v>
       </c>
-      <c r="X219">
-        <v>6</v>
-      </c>
-      <c r="Y219">
-        <v>1.13</v>
-      </c>
-      <c r="Z219">
-        <v>3.56</v>
-      </c>
-      <c r="AA219">
-        <v>3.65</v>
-      </c>
-      <c r="AB219">
-        <v>1.94</v>
-      </c>
-      <c r="AC219">
-        <v>1.04</v>
-      </c>
-      <c r="AD219">
-        <v>10</v>
-      </c>
-      <c r="AE219">
-        <v>1.22</v>
-      </c>
-      <c r="AF219">
-        <v>4.2</v>
-      </c>
-      <c r="AG219">
-        <v>1.82</v>
-      </c>
-      <c r="AH219">
-        <v>1.92</v>
-      </c>
-      <c r="AI219">
-        <v>1.62</v>
-      </c>
-      <c r="AJ219">
-        <v>2.2</v>
-      </c>
-      <c r="AK219">
+      <c r="AQ219">
+        <v>1.37</v>
+      </c>
+      <c r="AR219">
+        <v>1.72</v>
+      </c>
+      <c r="AS219">
+        <v>1.24</v>
+      </c>
+      <c r="AT219">
+        <v>2.96</v>
+      </c>
+      <c r="AU219">
+        <v>11</v>
+      </c>
+      <c r="AV219">
+        <v>5</v>
+      </c>
+      <c r="AW219">
+        <v>11</v>
+      </c>
+      <c r="AX219">
+        <v>4</v>
+      </c>
+      <c r="AY219">
+        <v>23</v>
+      </c>
+      <c r="AZ219">
+        <v>11</v>
+      </c>
+      <c r="BA219">
+        <v>2</v>
+      </c>
+      <c r="BB219">
+        <v>5</v>
+      </c>
+      <c r="BC219">
+        <v>7</v>
+      </c>
+      <c r="BD219">
         <v>1.98</v>
       </c>
-      <c r="AL219">
-        <v>1.26</v>
-      </c>
-      <c r="AM219">
-        <v>1.22</v>
-      </c>
-      <c r="AN219">
-        <v>1.85</v>
-      </c>
-      <c r="AO219">
-        <v>1.69</v>
-      </c>
-      <c r="AP219">
-        <v>1.25</v>
-      </c>
-      <c r="AQ219">
-        <v>1.95</v>
-      </c>
-      <c r="AR219">
-        <v>1.58</v>
-      </c>
-      <c r="AS219">
-        <v>1.71</v>
-      </c>
-      <c r="AT219">
-        <v>3.29</v>
-      </c>
-      <c r="AU219">
-        <v>-1</v>
-      </c>
-      <c r="AV219">
-        <v>-1</v>
-      </c>
-      <c r="AW219">
-        <v>-1</v>
-      </c>
-      <c r="AX219">
-        <v>-1</v>
-      </c>
-      <c r="AY219">
-        <v>-1</v>
-      </c>
-      <c r="AZ219">
-        <v>-1</v>
-      </c>
-      <c r="BA219">
-        <v>6</v>
-      </c>
-      <c r="BB219">
-        <v>7</v>
-      </c>
-      <c r="BC219">
-        <v>13</v>
-      </c>
-      <c r="BD219">
-        <v>2.65</v>
-      </c>
       <c r="BE219">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF219">
-        <v>1.58</v>
+        <v>1.98</v>
       </c>
       <c r="BG219">
+        <v>1.29</v>
+      </c>
+      <c r="BH219">
+        <v>3.15</v>
+      </c>
+      <c r="BI219">
+        <v>1.5</v>
+      </c>
+      <c r="BJ219">
+        <v>2.35</v>
+      </c>
+      <c r="BK219">
+        <v>1.84</v>
+      </c>
+      <c r="BL219">
+        <v>1.84</v>
+      </c>
+      <c r="BM219">
+        <v>2.3</v>
+      </c>
+      <c r="BN219">
+        <v>1.54</v>
+      </c>
+      <c r="BO219">
+        <v>2.95</v>
+      </c>
+      <c r="BP219">
         <v>1.33</v>
-      </c>
-      <c r="BH219">
-        <v>2.95</v>
-      </c>
-      <c r="BI219">
-        <v>1.57</v>
-      </c>
-      <c r="BJ219">
-        <v>2.23</v>
-      </c>
-      <c r="BK219">
-        <v>1.94</v>
-      </c>
-      <c r="BL219">
-        <v>1.76</v>
-      </c>
-      <c r="BM219">
-        <v>2.43</v>
-      </c>
-      <c r="BN219">
-        <v>1.49</v>
-      </c>
-      <c r="BO219">
-        <v>3.15</v>
-      </c>
-      <c r="BP219">
-        <v>1.3</v>
       </c>
     </row>
     <row r="220" spans="1:68">
@@ -46748,7 +46748,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>7453638</v>
+        <v>7454763</v>
       </c>
       <c r="C220" t="s">
         <v>68</v>
@@ -46763,190 +46763,190 @@
         <v>28</v>
       </c>
       <c r="G220" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H220" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="I220">
         <v>0</v>
       </c>
       <c r="J220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O220" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P220" t="s">
-        <v>87</v>
+        <v>375</v>
       </c>
       <c r="Q220">
+        <v>4.33</v>
+      </c>
+      <c r="R220">
+        <v>2.38</v>
+      </c>
+      <c r="S220">
+        <v>2.38</v>
+      </c>
+      <c r="T220">
+        <v>1.3</v>
+      </c>
+      <c r="U220">
+        <v>3.4</v>
+      </c>
+      <c r="V220">
+        <v>2.5</v>
+      </c>
+      <c r="W220">
+        <v>1.5</v>
+      </c>
+      <c r="X220">
+        <v>6</v>
+      </c>
+      <c r="Y220">
+        <v>1.13</v>
+      </c>
+      <c r="Z220">
+        <v>3.56</v>
+      </c>
+      <c r="AA220">
+        <v>3.65</v>
+      </c>
+      <c r="AB220">
+        <v>1.94</v>
+      </c>
+      <c r="AC220">
+        <v>1.04</v>
+      </c>
+      <c r="AD220">
+        <v>10</v>
+      </c>
+      <c r="AE220">
+        <v>1.22</v>
+      </c>
+      <c r="AF220">
+        <v>4.2</v>
+      </c>
+      <c r="AG220">
+        <v>1.82</v>
+      </c>
+      <c r="AH220">
+        <v>1.92</v>
+      </c>
+      <c r="AI220">
+        <v>1.62</v>
+      </c>
+      <c r="AJ220">
+        <v>2.2</v>
+      </c>
+      <c r="AK220">
+        <v>1.98</v>
+      </c>
+      <c r="AL220">
+        <v>1.26</v>
+      </c>
+      <c r="AM220">
+        <v>1.22</v>
+      </c>
+      <c r="AN220">
+        <v>1.85</v>
+      </c>
+      <c r="AO220">
+        <v>1.69</v>
+      </c>
+      <c r="AP220">
+        <v>1.25</v>
+      </c>
+      <c r="AQ220">
+        <v>1.95</v>
+      </c>
+      <c r="AR220">
+        <v>1.58</v>
+      </c>
+      <c r="AS220">
+        <v>1.71</v>
+      </c>
+      <c r="AT220">
+        <v>3.29</v>
+      </c>
+      <c r="AU220">
+        <v>-1</v>
+      </c>
+      <c r="AV220">
+        <v>-1</v>
+      </c>
+      <c r="AW220">
+        <v>-1</v>
+      </c>
+      <c r="AX220">
+        <v>-1</v>
+      </c>
+      <c r="AY220">
+        <v>-1</v>
+      </c>
+      <c r="AZ220">
+        <v>-1</v>
+      </c>
+      <c r="BA220">
+        <v>6</v>
+      </c>
+      <c r="BB220">
+        <v>7</v>
+      </c>
+      <c r="BC220">
+        <v>13</v>
+      </c>
+      <c r="BD220">
+        <v>2.65</v>
+      </c>
+      <c r="BE220">
+        <v>6.75</v>
+      </c>
+      <c r="BF220">
+        <v>1.58</v>
+      </c>
+      <c r="BG220">
+        <v>1.33</v>
+      </c>
+      <c r="BH220">
         <v>2.95</v>
       </c>
-      <c r="R220">
-        <v>2.1</v>
-      </c>
-      <c r="S220">
-        <v>3.3</v>
-      </c>
-      <c r="T220">
-        <v>1.38</v>
-      </c>
-      <c r="U220">
-        <v>2.8</v>
-      </c>
-      <c r="V220">
-        <v>2.75</v>
-      </c>
-      <c r="W220">
-        <v>1.39</v>
-      </c>
-      <c r="X220">
-        <v>7</v>
-      </c>
-      <c r="Y220">
-        <v>1.08</v>
-      </c>
-      <c r="Z220">
-        <v>2.35</v>
-      </c>
-      <c r="AA220">
-        <v>3.39</v>
-      </c>
-      <c r="AB220">
-        <v>2.86</v>
-      </c>
-      <c r="AC220">
-        <v>1.06</v>
-      </c>
-      <c r="AD220">
-        <v>8.5</v>
-      </c>
-      <c r="AE220">
-        <v>1.33</v>
-      </c>
-      <c r="AF220">
-        <v>3.25</v>
-      </c>
-      <c r="AG220">
-        <v>1.89</v>
-      </c>
-      <c r="AH220">
-        <v>1.85</v>
-      </c>
-      <c r="AI220">
-        <v>1.73</v>
-      </c>
-      <c r="AJ220">
-        <v>1.95</v>
-      </c>
-      <c r="AK220">
-        <v>1.41</v>
-      </c>
-      <c r="AL220">
-        <v>1.31</v>
-      </c>
-      <c r="AM220">
-        <v>1.53</v>
-      </c>
-      <c r="AN220">
-        <v>1.54</v>
-      </c>
-      <c r="AO220">
-        <v>1.31</v>
-      </c>
-      <c r="AP220">
-        <v>1.5</v>
-      </c>
-      <c r="AQ220">
-        <v>1.37</v>
-      </c>
-      <c r="AR220">
-        <v>1.72</v>
-      </c>
-      <c r="AS220">
-        <v>1.24</v>
-      </c>
-      <c r="AT220">
-        <v>2.96</v>
-      </c>
-      <c r="AU220">
-        <v>11</v>
-      </c>
-      <c r="AV220">
-        <v>5</v>
-      </c>
-      <c r="AW220">
-        <v>11</v>
-      </c>
-      <c r="AX220">
-        <v>4</v>
-      </c>
-      <c r="AY220">
-        <v>23</v>
-      </c>
-      <c r="AZ220">
-        <v>11</v>
-      </c>
-      <c r="BA220">
-        <v>2</v>
-      </c>
-      <c r="BB220">
-        <v>5</v>
-      </c>
-      <c r="BC220">
-        <v>7</v>
-      </c>
-      <c r="BD220">
-        <v>1.98</v>
-      </c>
-      <c r="BE220">
-        <v>6.4</v>
-      </c>
-      <c r="BF220">
-        <v>1.98</v>
-      </c>
-      <c r="BG220">
-        <v>1.29</v>
-      </c>
-      <c r="BH220">
+      <c r="BI220">
+        <v>1.57</v>
+      </c>
+      <c r="BJ220">
+        <v>2.23</v>
+      </c>
+      <c r="BK220">
+        <v>1.94</v>
+      </c>
+      <c r="BL220">
+        <v>1.76</v>
+      </c>
+      <c r="BM220">
+        <v>2.43</v>
+      </c>
+      <c r="BN220">
+        <v>1.49</v>
+      </c>
+      <c r="BO220">
         <v>3.15</v>
       </c>
-      <c r="BI220">
-        <v>1.5</v>
-      </c>
-      <c r="BJ220">
-        <v>2.35</v>
-      </c>
-      <c r="BK220">
-        <v>1.84</v>
-      </c>
-      <c r="BL220">
-        <v>1.84</v>
-      </c>
-      <c r="BM220">
-        <v>2.3</v>
-      </c>
-      <c r="BN220">
-        <v>1.54</v>
-      </c>
-      <c r="BO220">
-        <v>2.95</v>
-      </c>
       <c r="BP220">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="221" spans="1:68">
@@ -50044,7 +50044,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>7453651</v>
+        <v>7453653</v>
       </c>
       <c r="C236" t="s">
         <v>68</v>
@@ -50059,88 +50059,88 @@
         <v>30</v>
       </c>
       <c r="G236" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="H236" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K236">
         <v>1</v>
       </c>
       <c r="L236">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M236">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N236">
         <v>3</v>
       </c>
       <c r="O236" t="s">
-        <v>248</v>
+        <v>105</v>
       </c>
       <c r="P236" t="s">
-        <v>87</v>
+        <v>380</v>
       </c>
       <c r="Q236">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="R236">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S236">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="T236">
+        <v>1.36</v>
+      </c>
+      <c r="U236">
+        <v>3</v>
+      </c>
+      <c r="V236">
+        <v>2.75</v>
+      </c>
+      <c r="W236">
         <v>1.4</v>
       </c>
-      <c r="U236">
-        <v>2.75</v>
-      </c>
-      <c r="V236">
-        <v>3</v>
-      </c>
-      <c r="W236">
-        <v>1.36</v>
-      </c>
       <c r="X236">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y236">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z236">
-        <v>1.83</v>
+        <v>1.68</v>
       </c>
       <c r="AA236">
-        <v>3.47</v>
+        <v>3.81</v>
       </c>
       <c r="AB236">
-        <v>4.3</v>
+        <v>4.75</v>
       </c>
       <c r="AC236">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD236">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE236">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AF236">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="AG236">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AH236">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="AI236">
         <v>1.8</v>
@@ -50149,100 +50149,100 @@
         <v>1.95</v>
       </c>
       <c r="AK236">
+        <v>1.17</v>
+      </c>
+      <c r="AL236">
         <v>1.22</v>
       </c>
-      <c r="AL236">
+      <c r="AM236">
+        <v>2.1</v>
+      </c>
+      <c r="AN236">
+        <v>1.79</v>
+      </c>
+      <c r="AO236">
+        <v>0.43</v>
+      </c>
+      <c r="AP236">
         <v>1.25</v>
       </c>
-      <c r="AM236">
-        <v>1.85</v>
-      </c>
-      <c r="AN236">
-        <v>1.71</v>
-      </c>
-      <c r="AO236">
-        <v>0.79</v>
-      </c>
-      <c r="AP236">
-        <v>1.55</v>
-      </c>
       <c r="AQ236">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AR236">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AS236">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AT236">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="AU236">
+        <v>3</v>
+      </c>
+      <c r="AV236">
+        <v>4</v>
+      </c>
+      <c r="AW236">
+        <v>3</v>
+      </c>
+      <c r="AX236">
+        <v>4</v>
+      </c>
+      <c r="AY236">
+        <v>6</v>
+      </c>
+      <c r="AZ236">
+        <v>10</v>
+      </c>
+      <c r="BA236">
+        <v>4</v>
+      </c>
+      <c r="BB236">
+        <v>3</v>
+      </c>
+      <c r="BC236">
         <v>7</v>
       </c>
-      <c r="AV236">
-        <v>5</v>
-      </c>
-      <c r="AW236">
-        <v>5</v>
-      </c>
-      <c r="AX236">
-        <v>7</v>
-      </c>
-      <c r="AY236">
-        <v>17</v>
-      </c>
-      <c r="AZ236">
-        <v>14</v>
-      </c>
-      <c r="BA236">
-        <v>7</v>
-      </c>
-      <c r="BB236">
-        <v>7</v>
-      </c>
-      <c r="BC236">
-        <v>14</v>
-      </c>
       <c r="BD236">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="BE236">
-        <v>7.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="BF236">
-        <v>3.48</v>
+        <v>2.97</v>
       </c>
       <c r="BG236">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="BH236">
-        <v>3.78</v>
+        <v>4.2</v>
       </c>
       <c r="BI236">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="BJ236">
-        <v>2.64</v>
+        <v>2.88</v>
       </c>
       <c r="BK236">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="BL236">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="BM236">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="BN236">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="BO236">
-        <v>2.83</v>
+        <v>2.57</v>
       </c>
       <c r="BP236">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="237" spans="1:68">
@@ -50250,7 +50250,7 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>7453657</v>
+        <v>7453656</v>
       </c>
       <c r="C237" t="s">
         <v>68</v>
@@ -50265,190 +50265,190 @@
         <v>30</v>
       </c>
       <c r="G237" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H237" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K237">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L237">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N237">
+        <v>5</v>
+      </c>
+      <c r="O237" t="s">
+        <v>248</v>
+      </c>
+      <c r="P237" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q237">
+        <v>3.1</v>
+      </c>
+      <c r="R237">
+        <v>2.1</v>
+      </c>
+      <c r="S237">
+        <v>3.5</v>
+      </c>
+      <c r="T237">
+        <v>1.4</v>
+      </c>
+      <c r="U237">
+        <v>2.75</v>
+      </c>
+      <c r="V237">
         <v>3</v>
       </c>
-      <c r="O237" t="s">
-        <v>249</v>
-      </c>
-      <c r="P237" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q237">
-        <v>2.5</v>
-      </c>
-      <c r="R237">
-        <v>2.25</v>
-      </c>
-      <c r="S237">
-        <v>4.5</v>
-      </c>
-      <c r="T237">
+      <c r="W237">
         <v>1.36</v>
       </c>
-      <c r="U237">
+      <c r="X237">
+        <v>8</v>
+      </c>
+      <c r="Y237">
+        <v>1.08</v>
+      </c>
+      <c r="Z237">
+        <v>2.35</v>
+      </c>
+      <c r="AA237">
+        <v>2.98</v>
+      </c>
+      <c r="AB237">
+        <v>3.23</v>
+      </c>
+      <c r="AC237">
+        <v>1.06</v>
+      </c>
+      <c r="AD237">
+        <v>8.5</v>
+      </c>
+      <c r="AE237">
+        <v>1.3</v>
+      </c>
+      <c r="AF237">
+        <v>3.35</v>
+      </c>
+      <c r="AG237">
+        <v>1.89</v>
+      </c>
+      <c r="AH237">
+        <v>1.85</v>
+      </c>
+      <c r="AI237">
+        <v>1.67</v>
+      </c>
+      <c r="AJ237">
+        <v>2.1</v>
+      </c>
+      <c r="AK237">
+        <v>1.38</v>
+      </c>
+      <c r="AL237">
+        <v>1.3</v>
+      </c>
+      <c r="AM237">
+        <v>1.53</v>
+      </c>
+      <c r="AN237">
+        <v>1.79</v>
+      </c>
+      <c r="AO237">
+        <v>0.64</v>
+      </c>
+      <c r="AP237">
+        <v>1.55</v>
+      </c>
+      <c r="AQ237">
+        <v>0.72</v>
+      </c>
+      <c r="AR237">
+        <v>1.28</v>
+      </c>
+      <c r="AS237">
+        <v>1.25</v>
+      </c>
+      <c r="AT237">
+        <v>2.53</v>
+      </c>
+      <c r="AU237">
+        <v>5</v>
+      </c>
+      <c r="AV237">
         <v>3</v>
       </c>
-      <c r="V237">
-        <v>2.75</v>
-      </c>
-      <c r="W237">
-        <v>1.4</v>
-      </c>
-      <c r="X237">
-        <v>7</v>
-      </c>
-      <c r="Y237">
-        <v>1.1</v>
-      </c>
-      <c r="Z237">
-        <v>1.72</v>
-      </c>
-      <c r="AA237">
-        <v>3.84</v>
-      </c>
-      <c r="AB237">
-        <v>4.4</v>
-      </c>
-      <c r="AC237">
-        <v>1.05</v>
-      </c>
-      <c r="AD237">
-        <v>9.5</v>
-      </c>
-      <c r="AE237">
-        <v>1.25</v>
-      </c>
-      <c r="AF237">
-        <v>3.7</v>
-      </c>
-      <c r="AG237">
-        <v>1.77</v>
-      </c>
-      <c r="AH237">
-        <v>1.98</v>
-      </c>
-      <c r="AI237">
-        <v>1.75</v>
-      </c>
-      <c r="AJ237">
-        <v>2</v>
-      </c>
-      <c r="AK237">
-        <v>1.22</v>
-      </c>
-      <c r="AL237">
-        <v>1.22</v>
-      </c>
-      <c r="AM237">
-        <v>1.91</v>
-      </c>
-      <c r="AN237">
-        <v>1.43</v>
-      </c>
-      <c r="AO237">
-        <v>1.07</v>
-      </c>
-      <c r="AP237">
-        <v>1.45</v>
-      </c>
-      <c r="AQ237">
-        <v>0.85</v>
-      </c>
-      <c r="AR237">
-        <v>1.5</v>
-      </c>
-      <c r="AS237">
-        <v>1.2</v>
-      </c>
-      <c r="AT237">
-        <v>2.7</v>
-      </c>
-      <c r="AU237">
-        <v>8</v>
-      </c>
-      <c r="AV237">
+      <c r="AW237">
         <v>6</v>
       </c>
-      <c r="AW237">
-        <v>9</v>
-      </c>
       <c r="AX237">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AY237">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AZ237">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="BA237">
         <v>5</v>
       </c>
       <c r="BB237">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC237">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BD237">
-        <v>1.56</v>
+        <v>1.92</v>
       </c>
       <c r="BE237">
-        <v>8.9</v>
+        <v>6.6</v>
       </c>
       <c r="BF237">
-        <v>2.94</v>
+        <v>2.38</v>
       </c>
       <c r="BG237">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="BH237">
-        <v>3.42</v>
+        <v>3.68</v>
       </c>
       <c r="BI237">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="BJ237">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="BK237">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="BL237">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="BM237">
-        <v>2.32</v>
+        <v>2.19</v>
       </c>
       <c r="BN237">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="BO237">
-        <v>3.08</v>
+        <v>2.88</v>
       </c>
       <c r="BP237">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="238" spans="1:68">
@@ -50456,7 +50456,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>7453656</v>
+        <v>7453655</v>
       </c>
       <c r="C238" t="s">
         <v>68</v>
@@ -50471,190 +50471,190 @@
         <v>30</v>
       </c>
       <c r="G238" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H238" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238">
         <v>1</v>
       </c>
       <c r="K238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L238">
+        <v>1</v>
+      </c>
+      <c r="M238">
+        <v>2</v>
+      </c>
+      <c r="N238">
         <v>3</v>
       </c>
-      <c r="M238">
-        <v>2</v>
-      </c>
-      <c r="N238">
+      <c r="O238" t="s">
+        <v>118</v>
+      </c>
+      <c r="P238" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q238">
+        <v>3.75</v>
+      </c>
+      <c r="R238">
+        <v>2.3</v>
+      </c>
+      <c r="S238">
+        <v>2.6</v>
+      </c>
+      <c r="T238">
+        <v>1.3</v>
+      </c>
+      <c r="U238">
+        <v>3.4</v>
+      </c>
+      <c r="V238">
+        <v>2.5</v>
+      </c>
+      <c r="W238">
+        <v>1.5</v>
+      </c>
+      <c r="X238">
+        <v>6</v>
+      </c>
+      <c r="Y238">
+        <v>1.13</v>
+      </c>
+      <c r="Z238">
+        <v>3.38</v>
+      </c>
+      <c r="AA238">
+        <v>3.75</v>
+      </c>
+      <c r="AB238">
+        <v>1.97</v>
+      </c>
+      <c r="AC238">
+        <v>1.04</v>
+      </c>
+      <c r="AD238">
+        <v>10</v>
+      </c>
+      <c r="AE238">
+        <v>1.2</v>
+      </c>
+      <c r="AF238">
+        <v>4.33</v>
+      </c>
+      <c r="AG238">
+        <v>1.59</v>
+      </c>
+      <c r="AH238">
+        <v>2.27</v>
+      </c>
+      <c r="AI238">
+        <v>1.57</v>
+      </c>
+      <c r="AJ238">
+        <v>2.25</v>
+      </c>
+      <c r="AK238">
+        <v>1.77</v>
+      </c>
+      <c r="AL238">
+        <v>1.22</v>
+      </c>
+      <c r="AM238">
+        <v>1.3</v>
+      </c>
+      <c r="AN238">
+        <v>1.14</v>
+      </c>
+      <c r="AO238">
+        <v>0.86</v>
+      </c>
+      <c r="AP238">
+        <v>1.22</v>
+      </c>
+      <c r="AQ238">
+        <v>1.1</v>
+      </c>
+      <c r="AR238">
+        <v>1.3</v>
+      </c>
+      <c r="AS238">
+        <v>1.58</v>
+      </c>
+      <c r="AT238">
+        <v>2.88</v>
+      </c>
+      <c r="AU238">
+        <v>2</v>
+      </c>
+      <c r="AV238">
         <v>5</v>
-      </c>
-      <c r="O238" t="s">
-        <v>250</v>
-      </c>
-      <c r="P238" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q238">
-        <v>3.1</v>
-      </c>
-      <c r="R238">
-        <v>2.1</v>
-      </c>
-      <c r="S238">
-        <v>3.5</v>
-      </c>
-      <c r="T238">
-        <v>1.4</v>
-      </c>
-      <c r="U238">
-        <v>2.75</v>
-      </c>
-      <c r="V238">
-        <v>3</v>
-      </c>
-      <c r="W238">
-        <v>1.36</v>
-      </c>
-      <c r="X238">
-        <v>8</v>
-      </c>
-      <c r="Y238">
-        <v>1.08</v>
-      </c>
-      <c r="Z238">
-        <v>2.35</v>
-      </c>
-      <c r="AA238">
-        <v>2.98</v>
-      </c>
-      <c r="AB238">
-        <v>3.23</v>
-      </c>
-      <c r="AC238">
-        <v>1.06</v>
-      </c>
-      <c r="AD238">
-        <v>8.5</v>
-      </c>
-      <c r="AE238">
-        <v>1.3</v>
-      </c>
-      <c r="AF238">
-        <v>3.35</v>
-      </c>
-      <c r="AG238">
-        <v>1.89</v>
-      </c>
-      <c r="AH238">
-        <v>1.85</v>
-      </c>
-      <c r="AI238">
-        <v>1.67</v>
-      </c>
-      <c r="AJ238">
-        <v>2.1</v>
-      </c>
-      <c r="AK238">
-        <v>1.38</v>
-      </c>
-      <c r="AL238">
-        <v>1.3</v>
-      </c>
-      <c r="AM238">
-        <v>1.53</v>
-      </c>
-      <c r="AN238">
-        <v>1.79</v>
-      </c>
-      <c r="AO238">
-        <v>0.64</v>
-      </c>
-      <c r="AP238">
-        <v>1.55</v>
-      </c>
-      <c r="AQ238">
-        <v>0.72</v>
-      </c>
-      <c r="AR238">
-        <v>1.28</v>
-      </c>
-      <c r="AS238">
-        <v>1.25</v>
-      </c>
-      <c r="AT238">
-        <v>2.53</v>
-      </c>
-      <c r="AU238">
-        <v>5</v>
-      </c>
-      <c r="AV238">
-        <v>3</v>
       </c>
       <c r="AW238">
         <v>6</v>
       </c>
       <c r="AX238">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AY238">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ238">
+        <v>16</v>
+      </c>
+      <c r="BA238">
+        <v>6</v>
+      </c>
+      <c r="BB238">
         <v>4</v>
       </c>
-      <c r="BA238">
-        <v>5</v>
-      </c>
-      <c r="BB238">
-        <v>2</v>
-      </c>
       <c r="BC238">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD238">
-        <v>1.92</v>
+        <v>2.34</v>
       </c>
       <c r="BE238">
-        <v>6.6</v>
+        <v>6.65</v>
       </c>
       <c r="BF238">
-        <v>2.38</v>
+        <v>1.94</v>
       </c>
       <c r="BG238">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="BH238">
-        <v>3.68</v>
+        <v>4.25</v>
       </c>
       <c r="BI238">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="BJ238">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="BK238">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="BL238">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="BM238">
-        <v>2.19</v>
+        <v>1.93</v>
       </c>
       <c r="BN238">
-        <v>1.57</v>
+        <v>1.77</v>
       </c>
       <c r="BO238">
-        <v>2.88</v>
+        <v>2.57</v>
       </c>
       <c r="BP238">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="239" spans="1:68">
@@ -50662,7 +50662,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>7453655</v>
+        <v>7453657</v>
       </c>
       <c r="C239" t="s">
         <v>68</v>
@@ -50677,190 +50677,190 @@
         <v>30</v>
       </c>
       <c r="G239" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H239" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I239">
         <v>0</v>
       </c>
       <c r="J239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N239">
         <v>3</v>
       </c>
       <c r="O239" t="s">
-        <v>118</v>
+        <v>249</v>
       </c>
       <c r="P239" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q239">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="R239">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S239">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="T239">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="U239">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="V239">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="W239">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="X239">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y239">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="Z239">
-        <v>3.38</v>
+        <v>1.72</v>
       </c>
       <c r="AA239">
-        <v>3.75</v>
+        <v>3.84</v>
       </c>
       <c r="AB239">
-        <v>1.97</v>
+        <v>4.4</v>
       </c>
       <c r="AC239">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD239">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE239">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AF239">
-        <v>4.33</v>
+        <v>3.7</v>
       </c>
       <c r="AG239">
-        <v>1.59</v>
+        <v>1.77</v>
       </c>
       <c r="AH239">
-        <v>2.27</v>
+        <v>1.98</v>
       </c>
       <c r="AI239">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AJ239">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AK239">
-        <v>1.77</v>
+        <v>1.22</v>
       </c>
       <c r="AL239">
         <v>1.22</v>
       </c>
       <c r="AM239">
-        <v>1.3</v>
+        <v>1.91</v>
       </c>
       <c r="AN239">
-        <v>1.14</v>
+        <v>1.43</v>
       </c>
       <c r="AO239">
-        <v>0.86</v>
+        <v>1.07</v>
       </c>
       <c r="AP239">
-        <v>1.22</v>
+        <v>1.45</v>
       </c>
       <c r="AQ239">
-        <v>1.1</v>
+        <v>0.85</v>
       </c>
       <c r="AR239">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AS239">
-        <v>1.58</v>
+        <v>1.2</v>
       </c>
       <c r="AT239">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="AU239">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AV239">
+        <v>6</v>
+      </c>
+      <c r="AW239">
+        <v>9</v>
+      </c>
+      <c r="AX239">
+        <v>11</v>
+      </c>
+      <c r="AY239">
+        <v>18</v>
+      </c>
+      <c r="AZ239">
+        <v>23</v>
+      </c>
+      <c r="BA239">
         <v>5</v>
       </c>
-      <c r="AW239">
-        <v>6</v>
-      </c>
-      <c r="AX239">
-        <v>7</v>
-      </c>
-      <c r="AY239">
-        <v>10</v>
-      </c>
-      <c r="AZ239">
-        <v>16</v>
-      </c>
-      <c r="BA239">
-        <v>6</v>
-      </c>
       <c r="BB239">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC239">
         <v>10</v>
       </c>
       <c r="BD239">
-        <v>2.34</v>
+        <v>1.56</v>
       </c>
       <c r="BE239">
-        <v>6.65</v>
+        <v>8.9</v>
       </c>
       <c r="BF239">
-        <v>1.94</v>
+        <v>2.94</v>
       </c>
       <c r="BG239">
-        <v>1.15</v>
+        <v>1.23</v>
       </c>
       <c r="BH239">
-        <v>4.25</v>
+        <v>3.42</v>
       </c>
       <c r="BI239">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="BJ239">
-        <v>2.88</v>
+        <v>2.45</v>
       </c>
       <c r="BK239">
-        <v>1.58</v>
+        <v>1.85</v>
       </c>
       <c r="BL239">
-        <v>2.17</v>
+        <v>1.85</v>
       </c>
       <c r="BM239">
-        <v>1.93</v>
+        <v>2.32</v>
       </c>
       <c r="BN239">
-        <v>1.77</v>
+        <v>1.51</v>
       </c>
       <c r="BO239">
-        <v>2.57</v>
+        <v>3.08</v>
       </c>
       <c r="BP239">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="240" spans="1:68">
@@ -50868,7 +50868,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>7453650</v>
+        <v>7453651</v>
       </c>
       <c r="C240" t="s">
         <v>68</v>
@@ -50883,43 +50883,43 @@
         <v>30</v>
       </c>
       <c r="G240" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H240" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I240">
         <v>1</v>
       </c>
       <c r="J240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L240">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M240">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N240">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O240" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P240" t="s">
-        <v>383</v>
+        <v>87</v>
       </c>
       <c r="Q240">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="R240">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S240">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="T240">
         <v>1.4</v>
@@ -50928,10 +50928,10 @@
         <v>2.75</v>
       </c>
       <c r="V240">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W240">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X240">
         <v>8</v>
@@ -50940,133 +50940,133 @@
         <v>1.08</v>
       </c>
       <c r="Z240">
+        <v>1.83</v>
+      </c>
+      <c r="AA240">
+        <v>3.47</v>
+      </c>
+      <c r="AB240">
+        <v>4.3</v>
+      </c>
+      <c r="AC240">
+        <v>1.06</v>
+      </c>
+      <c r="AD240">
+        <v>8.5</v>
+      </c>
+      <c r="AE240">
+        <v>1.33</v>
+      </c>
+      <c r="AF240">
+        <v>3.25</v>
+      </c>
+      <c r="AG240">
+        <v>1.94</v>
+      </c>
+      <c r="AH240">
+        <v>1.8</v>
+      </c>
+      <c r="AI240">
+        <v>1.8</v>
+      </c>
+      <c r="AJ240">
+        <v>1.95</v>
+      </c>
+      <c r="AK240">
+        <v>1.22</v>
+      </c>
+      <c r="AL240">
+        <v>1.25</v>
+      </c>
+      <c r="AM240">
+        <v>1.85</v>
+      </c>
+      <c r="AN240">
+        <v>1.71</v>
+      </c>
+      <c r="AO240">
+        <v>0.79</v>
+      </c>
+      <c r="AP240">
         <v>1.55</v>
       </c>
-      <c r="AA240">
-        <v>3.98</v>
-      </c>
-      <c r="AB240">
-        <v>5.8</v>
-      </c>
-      <c r="AC240">
-        <v>1.05</v>
-      </c>
-      <c r="AD240">
-        <v>9.5</v>
-      </c>
-      <c r="AE240">
-        <v>1.28</v>
-      </c>
-      <c r="AF240">
-        <v>3.6</v>
-      </c>
-      <c r="AG240">
-        <v>1.87</v>
-      </c>
-      <c r="AH240">
-        <v>1.87</v>
-      </c>
-      <c r="AI240">
-        <v>2</v>
-      </c>
-      <c r="AJ240">
-        <v>1.75</v>
-      </c>
-      <c r="AK240">
-        <v>1.12</v>
-      </c>
-      <c r="AL240">
-        <v>1.18</v>
-      </c>
-      <c r="AM240">
-        <v>2.45</v>
-      </c>
-      <c r="AN240">
-        <v>2.14</v>
-      </c>
-      <c r="AO240">
-        <v>1.07</v>
-      </c>
-      <c r="AP240">
-        <v>2.21</v>
-      </c>
       <c r="AQ240">
-        <v>1.05</v>
+        <v>0.67</v>
       </c>
       <c r="AR240">
-        <v>2.06</v>
+        <v>1.65</v>
       </c>
       <c r="AS240">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT240">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="AU240">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AV240">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW240">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AX240">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY240">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AZ240">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA240">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BB240">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BC240">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="BD240">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="BE240">
-        <v>9.5</v>
+        <v>7.2</v>
       </c>
       <c r="BF240">
-        <v>3.52</v>
+        <v>3.48</v>
       </c>
       <c r="BG240">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="BH240">
-        <v>3.9</v>
+        <v>3.78</v>
       </c>
       <c r="BI240">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="BJ240">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="BK240">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="BL240">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="BM240">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="BN240">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="BO240">
-        <v>2.75</v>
+        <v>2.83</v>
       </c>
       <c r="BP240">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="241" spans="1:68">
@@ -51074,7 +51074,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>7453653</v>
+        <v>7453650</v>
       </c>
       <c r="C241" t="s">
         <v>68</v>
@@ -51089,49 +51089,49 @@
         <v>30</v>
       </c>
       <c r="G241" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H241" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241">
         <v>1</v>
       </c>
       <c r="K241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L241">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M241">
         <v>2</v>
       </c>
       <c r="N241">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O241" t="s">
-        <v>105</v>
+        <v>251</v>
       </c>
       <c r="P241" t="s">
         <v>384</v>
       </c>
       <c r="Q241">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="R241">
         <v>2.25</v>
       </c>
       <c r="S241">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="T241">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U241">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V241">
         <v>2.75</v>
@@ -51140,19 +51140,19 @@
         <v>1.4</v>
       </c>
       <c r="X241">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y241">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z241">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="AA241">
-        <v>3.81</v>
+        <v>3.98</v>
       </c>
       <c r="AB241">
-        <v>4.75</v>
+        <v>5.8</v>
       </c>
       <c r="AC241">
         <v>1.05</v>
@@ -51164,115 +51164,115 @@
         <v>1.28</v>
       </c>
       <c r="AF241">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="AG241">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="AH241">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="AI241">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AJ241">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AK241">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="AL241">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AM241">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="AN241">
-        <v>1.79</v>
+        <v>2.14</v>
       </c>
       <c r="AO241">
-        <v>0.43</v>
+        <v>1.07</v>
       </c>
       <c r="AP241">
-        <v>1.25</v>
+        <v>2.21</v>
       </c>
       <c r="AQ241">
-        <v>0.83</v>
+        <v>1.05</v>
       </c>
       <c r="AR241">
-        <v>1.58</v>
+        <v>2.06</v>
       </c>
       <c r="AS241">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="AT241">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="AU241">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AV241">
         <v>4</v>
       </c>
       <c r="AW241">
+        <v>10</v>
+      </c>
+      <c r="AX241">
         <v>3</v>
       </c>
-      <c r="AX241">
-        <v>4</v>
-      </c>
       <c r="AY241">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="AZ241">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA241">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB241">
         <v>3</v>
       </c>
       <c r="BC241">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BD241">
-        <v>1.54</v>
+        <v>1.42</v>
       </c>
       <c r="BE241">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="BF241">
-        <v>2.97</v>
+        <v>3.52</v>
       </c>
       <c r="BG241">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="BH241">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="BI241">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="BJ241">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="BK241">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="BL241">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="BM241">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="BN241">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="BO241">
-        <v>2.57</v>
+        <v>2.75</v>
       </c>
       <c r="BP241">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="242" spans="1:68">
@@ -57460,7 +57460,7 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>7858339</v>
+        <v>7858337</v>
       </c>
       <c r="C272" t="s">
         <v>68</v>
@@ -57475,190 +57475,190 @@
         <v>5</v>
       </c>
       <c r="G272" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="H272" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I272">
         <v>0</v>
       </c>
       <c r="J272">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K272">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L272">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M272">
         <v>1</v>
       </c>
       <c r="N272">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O272" t="s">
-        <v>270</v>
+        <v>87</v>
       </c>
       <c r="P272" t="s">
-        <v>324</v>
+        <v>261</v>
       </c>
       <c r="Q272">
-        <v>3.5</v>
+        <v>2.85</v>
       </c>
       <c r="R272">
         <v>2.05</v>
       </c>
       <c r="S272">
-        <v>2.85</v>
+        <v>3.55</v>
       </c>
       <c r="T272">
+        <v>1.4</v>
+      </c>
+      <c r="U272">
+        <v>2.7</v>
+      </c>
+      <c r="V272">
+        <v>2.8</v>
+      </c>
+      <c r="W272">
         <v>1.38</v>
       </c>
-      <c r="U272">
-        <v>2.8</v>
-      </c>
-      <c r="V272">
-        <v>2.65</v>
-      </c>
-      <c r="W272">
-        <v>1.42</v>
-      </c>
       <c r="X272">
-        <v>7.1</v>
+        <v>8</v>
       </c>
       <c r="Y272">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="Z272">
-        <v>3.01</v>
+        <v>2.3</v>
       </c>
       <c r="AA272">
-        <v>3.3</v>
+        <v>3.17</v>
       </c>
       <c r="AB272">
-        <v>2.3</v>
+        <v>3.12</v>
       </c>
       <c r="AC272">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="AD272">
         <v>8.5</v>
       </c>
       <c r="AE272">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AF272">
-        <v>3.81</v>
+        <v>3.19</v>
       </c>
       <c r="AG272">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="AH272">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="AI272">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AJ272">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="AK272">
-        <v>1.57</v>
+        <v>1.35</v>
       </c>
       <c r="AL272">
         <v>1.28</v>
       </c>
       <c r="AM272">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="AN272">
-        <v>1.24</v>
+        <v>1.59</v>
       </c>
       <c r="AO272">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="AP272">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ272">
-        <v>1.05</v>
+        <v>0.74</v>
       </c>
       <c r="AR272">
+        <v>1.27</v>
+      </c>
+      <c r="AS272">
         <v>1.21</v>
       </c>
-      <c r="AS272">
-        <v>1.47</v>
-      </c>
       <c r="AT272">
-        <v>2.68</v>
+        <v>2.48</v>
       </c>
       <c r="AU272">
+        <v>4</v>
+      </c>
+      <c r="AV272">
+        <v>2</v>
+      </c>
+      <c r="AW272">
+        <v>10</v>
+      </c>
+      <c r="AX272">
+        <v>10</v>
+      </c>
+      <c r="AY272">
+        <v>15</v>
+      </c>
+      <c r="AZ272">
+        <v>13</v>
+      </c>
+      <c r="BA272">
+        <v>4</v>
+      </c>
+      <c r="BB272">
         <v>5</v>
-      </c>
-      <c r="AV272">
-        <v>7</v>
-      </c>
-      <c r="AW272">
-        <v>4</v>
-      </c>
-      <c r="AX272">
-        <v>19</v>
-      </c>
-      <c r="AY272">
-        <v>11</v>
-      </c>
-      <c r="AZ272">
-        <v>32</v>
-      </c>
-      <c r="BA272">
-        <v>3</v>
-      </c>
-      <c r="BB272">
-        <v>6</v>
       </c>
       <c r="BC272">
         <v>9</v>
       </c>
       <c r="BD272">
-        <v>2.17</v>
+        <v>1.79</v>
       </c>
       <c r="BE272">
-        <v>8.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="BF272">
+        <v>2.38</v>
+      </c>
+      <c r="BG272">
+        <v>1.19</v>
+      </c>
+      <c r="BH272">
+        <v>3.78</v>
+      </c>
+      <c r="BI272">
+        <v>1.4</v>
+      </c>
+      <c r="BJ272">
+        <v>2.64</v>
+      </c>
+      <c r="BK272">
+        <v>1.77</v>
+      </c>
+      <c r="BL272">
         <v>1.95</v>
       </c>
-      <c r="BG272">
-        <v>1.25</v>
-      </c>
-      <c r="BH272">
-        <v>3.28</v>
-      </c>
-      <c r="BI272">
-        <v>1.49</v>
-      </c>
-      <c r="BJ272">
-        <v>2.38</v>
-      </c>
-      <c r="BK272">
-        <v>1.85</v>
-      </c>
-      <c r="BL272">
-        <v>1.85</v>
-      </c>
       <c r="BM272">
-        <v>2.42</v>
+        <v>2.14</v>
       </c>
       <c r="BN272">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="BO272">
-        <v>3.2</v>
+        <v>2.83</v>
       </c>
       <c r="BP272">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="273" spans="1:68">
@@ -57705,7 +57705,7 @@
         <v>5</v>
       </c>
       <c r="O273" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P273" t="s">
         <v>399</v>
@@ -57872,7 +57872,7 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>7858337</v>
+        <v>7858339</v>
       </c>
       <c r="C274" t="s">
         <v>68</v>
@@ -57887,190 +57887,190 @@
         <v>5</v>
       </c>
       <c r="G274" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="H274" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I274">
         <v>0</v>
       </c>
       <c r="J274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L274">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M274">
         <v>1</v>
       </c>
       <c r="N274">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O274" t="s">
-        <v>87</v>
+        <v>271</v>
       </c>
       <c r="P274" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="Q274">
-        <v>2.85</v>
+        <v>3.5</v>
       </c>
       <c r="R274">
         <v>2.05</v>
       </c>
       <c r="S274">
-        <v>3.55</v>
+        <v>2.85</v>
       </c>
       <c r="T274">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="U274">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="V274">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="W274">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="X274">
-        <v>8</v>
+        <v>7.1</v>
       </c>
       <c r="Y274">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="Z274">
+        <v>3.01</v>
+      </c>
+      <c r="AA274">
+        <v>3.3</v>
+      </c>
+      <c r="AB274">
         <v>2.3</v>
       </c>
-      <c r="AA274">
-        <v>3.17</v>
-      </c>
-      <c r="AB274">
-        <v>3.12</v>
-      </c>
       <c r="AC274">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="AD274">
         <v>8.5</v>
       </c>
       <c r="AE274">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AF274">
-        <v>3.19</v>
+        <v>3.81</v>
       </c>
       <c r="AG274">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AH274">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="AI274">
-        <v>1.77</v>
+        <v>1.67</v>
       </c>
       <c r="AJ274">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="AK274">
-        <v>1.35</v>
+        <v>1.57</v>
       </c>
       <c r="AL274">
         <v>1.28</v>
       </c>
       <c r="AM274">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="AN274">
-        <v>1.59</v>
+        <v>1.24</v>
       </c>
       <c r="AO274">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="AP274">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="AQ274">
-        <v>0.74</v>
+        <v>1.05</v>
       </c>
       <c r="AR274">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="AS274">
-        <v>1.21</v>
+        <v>1.47</v>
       </c>
       <c r="AT274">
-        <v>2.48</v>
+        <v>2.68</v>
       </c>
       <c r="AU274">
+        <v>5</v>
+      </c>
+      <c r="AV274">
+        <v>7</v>
+      </c>
+      <c r="AW274">
         <v>4</v>
       </c>
-      <c r="AV274">
-        <v>2</v>
-      </c>
-      <c r="AW274">
-        <v>10</v>
-      </c>
       <c r="AX274">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AY274">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AZ274">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="BA274">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB274">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC274">
         <v>9</v>
       </c>
       <c r="BD274">
-        <v>1.79</v>
+        <v>2.17</v>
       </c>
       <c r="BE274">
-        <v>8.699999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="BF274">
+        <v>1.95</v>
+      </c>
+      <c r="BG274">
+        <v>1.25</v>
+      </c>
+      <c r="BH274">
+        <v>3.28</v>
+      </c>
+      <c r="BI274">
+        <v>1.49</v>
+      </c>
+      <c r="BJ274">
         <v>2.38</v>
       </c>
-      <c r="BG274">
-        <v>1.19</v>
-      </c>
-      <c r="BH274">
-        <v>3.78</v>
-      </c>
-      <c r="BI274">
-        <v>1.4</v>
-      </c>
-      <c r="BJ274">
-        <v>2.64</v>
-      </c>
       <c r="BK274">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="BL274">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="BM274">
-        <v>2.14</v>
+        <v>2.42</v>
       </c>
       <c r="BN274">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="BO274">
-        <v>2.83</v>
+        <v>3.2</v>
       </c>
       <c r="BP274">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="275" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="421">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -877,6 +877,18 @@
     <t>['9']</t>
   </si>
   <si>
+    <t>['29', '88']</t>
+  </si>
+  <si>
+    <t>['22', '43']</t>
+  </si>
+  <si>
+    <t>['11', '68', '75']</t>
+  </si>
+  <si>
+    <t>['21', '51']</t>
+  </si>
+  <si>
     <t>['65']</t>
   </si>
   <si>
@@ -1263,6 +1275,9 @@
   <si>
     <t>['32', '45', '70', '88']</t>
   </si>
+  <si>
+    <t>['2', '31']</t>
+  </si>
 </sst>
 </file>
 
@@ -1623,7 +1638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP307"/>
+  <dimension ref="A1:BP313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1882,7 +1897,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q2">
         <v>1.91</v>
@@ -1960,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AQ2">
         <v>1.05</v>
@@ -2166,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ3">
         <v>1.85</v>
@@ -2375,7 +2390,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ4">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2784,10 +2799,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AQ6">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2993,7 +3008,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ7">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3196,10 +3211,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AQ8">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3402,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ9">
         <v>0.67</v>
@@ -3608,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="AQ10">
         <v>0.11</v>
@@ -3736,7 +3751,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q11">
         <v>2.4</v>
@@ -4148,7 +4163,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4354,7 +4369,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q14">
         <v>3.25</v>
@@ -4435,7 +4450,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ14">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4560,7 +4575,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4972,7 +4987,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -5462,7 +5477,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ19">
         <v>0.83</v>
@@ -5590,7 +5605,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q20">
         <v>4.1</v>
@@ -5668,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ20">
         <v>1.85</v>
@@ -5877,7 +5892,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ21">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AR21">
         <v>1.37</v>
@@ -6002,7 +6017,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -6080,7 +6095,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AQ22">
         <v>1.95</v>
@@ -6208,7 +6223,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q23">
         <v>1.91</v>
@@ -6492,10 +6507,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AQ24">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR24">
         <v>1.65</v>
@@ -6620,7 +6635,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q25">
         <v>1.93</v>
@@ -6904,7 +6919,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="AQ26">
         <v>1.05</v>
@@ -7032,7 +7047,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q27">
         <v>3.9</v>
@@ -7238,7 +7253,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q28">
         <v>3.06</v>
@@ -7444,7 +7459,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7525,7 +7540,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ29">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR29">
         <v>0.96</v>
@@ -7728,10 +7743,10 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AQ30">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AR30">
         <v>2.35</v>
@@ -8143,7 +8158,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ32">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR32">
         <v>1.43</v>
@@ -8474,7 +8489,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q34">
         <v>2.45</v>
@@ -8552,10 +8567,10 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ34">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AR34">
         <v>1.74</v>
@@ -8886,7 +8901,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -8964,7 +8979,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ36">
         <v>1.95</v>
@@ -9582,7 +9597,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AQ39">
         <v>0.83</v>
@@ -9788,7 +9803,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AQ40">
         <v>1.1</v>
@@ -9916,7 +9931,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -10122,7 +10137,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10409,7 +10424,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ43">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR43">
         <v>1.33</v>
@@ -10612,7 +10627,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AQ44">
         <v>0.67</v>
@@ -10821,7 +10836,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ45">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AR45">
         <v>1.63</v>
@@ -11024,10 +11039,10 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="AQ46">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR46">
         <v>1.58</v>
@@ -11358,7 +11373,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11436,10 +11451,10 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ48">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR48">
         <v>1.15</v>
@@ -11564,7 +11579,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11770,7 +11785,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q50">
         <v>5.85</v>
@@ -11976,7 +11991,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q51">
         <v>2.2</v>
@@ -12469,7 +12484,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ53">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AR53">
         <v>0.82</v>
@@ -12672,7 +12687,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AQ54">
         <v>0.11</v>
@@ -13006,7 +13021,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q56">
         <v>2.75</v>
@@ -13418,7 +13433,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13624,7 +13639,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q59">
         <v>3.52</v>
@@ -13702,10 +13717,10 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ59">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AR59">
         <v>1.61</v>
@@ -14036,7 +14051,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -14114,10 +14129,10 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AQ61">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR61">
         <v>2.01</v>
@@ -14526,7 +14541,7 @@
         <v>2.33</v>
       </c>
       <c r="AP63">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AQ63">
         <v>0.85</v>
@@ -14860,7 +14875,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q65">
         <v>3.02</v>
@@ -14941,7 +14956,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ65">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR65">
         <v>1.79</v>
@@ -15144,7 +15159,7 @@
         <v>1.5</v>
       </c>
       <c r="AP66">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AQ66">
         <v>1.95</v>
@@ -15350,7 +15365,7 @@
         <v>1.25</v>
       </c>
       <c r="AP67">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AQ67">
         <v>1.05</v>
@@ -15478,7 +15493,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q68">
         <v>3.2</v>
@@ -15684,7 +15699,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q69">
         <v>3.76</v>
@@ -15762,10 +15777,10 @@
         <v>2.33</v>
       </c>
       <c r="AP69">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ69">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR69">
         <v>1.21</v>
@@ -16174,7 +16189,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="AQ71">
         <v>0.83</v>
@@ -16383,7 +16398,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ72">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AR72">
         <v>1.82</v>
@@ -16714,7 +16729,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -16792,7 +16807,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ74">
         <v>0.11</v>
@@ -17001,7 +17016,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ75">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AR75">
         <v>1.41</v>
@@ -17410,7 +17425,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ77">
         <v>1.05</v>
@@ -17619,7 +17634,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ78">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR78">
         <v>1.59</v>
@@ -18028,7 +18043,7 @@
         <v>0.6</v>
       </c>
       <c r="AP80">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AQ80">
         <v>1.85</v>
@@ -18237,7 +18252,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ81">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR81">
         <v>0.89</v>
@@ -18443,7 +18458,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ82">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR82">
         <v>0.92</v>
@@ -18568,7 +18583,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18646,7 +18661,7 @@
         <v>1.4</v>
       </c>
       <c r="AP83">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ83">
         <v>1.95</v>
@@ -19058,10 +19073,10 @@
         <v>1.4</v>
       </c>
       <c r="AP85">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="AQ85">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR85">
         <v>1.67</v>
@@ -19186,7 +19201,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q86">
         <v>1.91</v>
@@ -19264,7 +19279,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AQ86">
         <v>0.72</v>
@@ -19473,7 +19488,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ87">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AR87">
         <v>1.36</v>
@@ -20216,7 +20231,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20294,10 +20309,10 @@
         <v>0.5</v>
       </c>
       <c r="AP91">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AQ91">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AR91">
         <v>1.77</v>
@@ -20422,7 +20437,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20500,7 +20515,7 @@
         <v>1</v>
       </c>
       <c r="AP92">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ92">
         <v>1.05</v>
@@ -20912,10 +20927,10 @@
         <v>1.6</v>
       </c>
       <c r="AP94">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AQ94">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR94">
         <v>2.03</v>
@@ -21121,7 +21136,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ95">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR95">
         <v>1.79</v>
@@ -21246,7 +21261,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -21452,7 +21467,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -21530,7 +21545,7 @@
         <v>0.2</v>
       </c>
       <c r="AP97">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="AQ97">
         <v>0.67</v>
@@ -21736,7 +21751,7 @@
         <v>1.6</v>
       </c>
       <c r="AP98">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ98">
         <v>0.85</v>
@@ -21864,7 +21879,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q99">
         <v>2.9</v>
@@ -22070,7 +22085,7 @@
         <v>87</v>
       </c>
       <c r="P100" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22276,7 +22291,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -22560,10 +22575,10 @@
         <v>1.6</v>
       </c>
       <c r="AP102">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AQ102">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AR102">
         <v>1.86</v>
@@ -23181,7 +23196,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ105">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR105">
         <v>0.83</v>
@@ -23306,7 +23321,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -23512,7 +23527,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23593,7 +23608,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ107">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AR107">
         <v>1.5</v>
@@ -23718,7 +23733,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q108">
         <v>3.5</v>
@@ -23796,10 +23811,10 @@
         <v>0.86</v>
       </c>
       <c r="AP108">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ108">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AR108">
         <v>1.16</v>
@@ -24002,7 +24017,7 @@
         <v>1.17</v>
       </c>
       <c r="AP109">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AQ109">
         <v>1.1</v>
@@ -24130,7 +24145,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q110">
         <v>3.2</v>
@@ -24211,7 +24226,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ110">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR110">
         <v>1.65</v>
@@ -24417,7 +24432,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ111">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR111">
         <v>1.55</v>
@@ -24620,7 +24635,7 @@
         <v>2</v>
       </c>
       <c r="AP112">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="AQ112">
         <v>1.7</v>
@@ -24748,7 +24763,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q113">
         <v>7.5</v>
@@ -25238,7 +25253,7 @@
         <v>0.71</v>
       </c>
       <c r="AP115">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AQ115">
         <v>0.72</v>
@@ -25650,7 +25665,7 @@
         <v>0.57</v>
       </c>
       <c r="AP117">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AQ117">
         <v>1.05</v>
@@ -25984,7 +25999,7 @@
         <v>150</v>
       </c>
       <c r="P119" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q119">
         <v>4.5</v>
@@ -26271,7 +26286,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ120">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR120">
         <v>1.64</v>
@@ -26474,7 +26489,7 @@
         <v>0.57</v>
       </c>
       <c r="AP121">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ121">
         <v>0.83</v>
@@ -26602,7 +26617,7 @@
         <v>179</v>
       </c>
       <c r="P122" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26886,7 +26901,7 @@
         <v>1.29</v>
       </c>
       <c r="AP123">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AQ123">
         <v>0.85</v>
@@ -27092,10 +27107,10 @@
         <v>0.57</v>
       </c>
       <c r="AP124">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AQ124">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR124">
         <v>1.8</v>
@@ -27220,7 +27235,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q125">
         <v>4.75</v>
@@ -27426,7 +27441,7 @@
         <v>182</v>
       </c>
       <c r="P126" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27713,7 +27728,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ127">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR127">
         <v>1.26</v>
@@ -27916,10 +27931,10 @@
         <v>1.57</v>
       </c>
       <c r="AP128">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="AQ128">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AR128">
         <v>1.7</v>
@@ -28044,7 +28059,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q129">
         <v>2.75</v>
@@ -28122,10 +28137,10 @@
         <v>1.13</v>
       </c>
       <c r="AP129">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ129">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR129">
         <v>1.82</v>
@@ -28250,7 +28265,7 @@
         <v>185</v>
       </c>
       <c r="P130" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q130">
         <v>1.72</v>
@@ -28328,7 +28343,7 @@
         <v>0.5</v>
       </c>
       <c r="AP130">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AQ130">
         <v>0.83</v>
@@ -28537,7 +28552,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ131">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AR131">
         <v>1.18</v>
@@ -28662,7 +28677,7 @@
         <v>186</v>
       </c>
       <c r="P132" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -29074,7 +29089,7 @@
         <v>188</v>
       </c>
       <c r="P134" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q134">
         <v>2.55</v>
@@ -29486,7 +29501,7 @@
         <v>189</v>
       </c>
       <c r="P136" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q136">
         <v>1.7</v>
@@ -29770,7 +29785,7 @@
         <v>1</v>
       </c>
       <c r="AP137">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ137">
         <v>1.1</v>
@@ -29979,7 +29994,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ138">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AR138">
         <v>1.55</v>
@@ -30185,7 +30200,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ139">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR139">
         <v>1.07</v>
@@ -30516,7 +30531,7 @@
         <v>87</v>
       </c>
       <c r="P141" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30800,7 +30815,7 @@
         <v>1.63</v>
       </c>
       <c r="AP142">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AQ142">
         <v>1.7</v>
@@ -30928,7 +30943,7 @@
         <v>194</v>
       </c>
       <c r="P143" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q143">
         <v>1.95</v>
@@ -31006,7 +31021,7 @@
         <v>0.88</v>
       </c>
       <c r="AP143">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="AQ143">
         <v>1.1</v>
@@ -31134,7 +31149,7 @@
         <v>87</v>
       </c>
       <c r="P144" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -31215,7 +31230,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ144">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR144">
         <v>1.4</v>
@@ -31546,7 +31561,7 @@
         <v>196</v>
       </c>
       <c r="P146" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q146">
         <v>2.7</v>
@@ -31624,7 +31639,7 @@
         <v>1</v>
       </c>
       <c r="AP146">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ146">
         <v>1.05</v>
@@ -31830,7 +31845,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP147">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AQ147">
         <v>0.72</v>
@@ -31958,7 +31973,7 @@
         <v>167</v>
       </c>
       <c r="P148" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -32036,10 +32051,10 @@
         <v>1.33</v>
       </c>
       <c r="AP148">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ148">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AR148">
         <v>1.11</v>
@@ -32164,7 +32179,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q149">
         <v>3.1</v>
@@ -32448,10 +32463,10 @@
         <v>1.67</v>
       </c>
       <c r="AP150">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AQ150">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR150">
         <v>1.79</v>
@@ -32657,7 +32672,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ151">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR151">
         <v>1.23</v>
@@ -32782,7 +32797,7 @@
         <v>200</v>
       </c>
       <c r="P152" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q152">
         <v>3.25</v>
@@ -32860,7 +32875,7 @@
         <v>1.89</v>
       </c>
       <c r="AP152">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="AQ152">
         <v>1.95</v>
@@ -33069,7 +33084,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ153">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AR153">
         <v>1.62</v>
@@ -33194,7 +33209,7 @@
         <v>202</v>
       </c>
       <c r="P154" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -33400,7 +33415,7 @@
         <v>87</v>
       </c>
       <c r="P155" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33606,7 +33621,7 @@
         <v>203</v>
       </c>
       <c r="P156" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q156">
         <v>1.7</v>
@@ -33684,7 +33699,7 @@
         <v>0.78</v>
       </c>
       <c r="AP156">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AQ156">
         <v>1.1</v>
@@ -33893,7 +33908,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ157">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR157">
         <v>1.54</v>
@@ -34018,7 +34033,7 @@
         <v>93</v>
       </c>
       <c r="P158" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q158">
         <v>3.7</v>
@@ -34430,7 +34445,7 @@
         <v>205</v>
       </c>
       <c r="P160" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q160">
         <v>1.9</v>
@@ -35048,7 +35063,7 @@
         <v>207</v>
       </c>
       <c r="P163" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q163">
         <v>2.45</v>
@@ -35126,7 +35141,7 @@
         <v>0.5</v>
       </c>
       <c r="AP163">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ163">
         <v>0.72</v>
@@ -35332,10 +35347,10 @@
         <v>0.8</v>
       </c>
       <c r="AP164">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AQ164">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AR164">
         <v>1.79</v>
@@ -35460,7 +35475,7 @@
         <v>144</v>
       </c>
       <c r="P165" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q165">
         <v>3.5</v>
@@ -35538,7 +35553,7 @@
         <v>1</v>
       </c>
       <c r="AP165">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AQ165">
         <v>1.85</v>
@@ -35747,7 +35762,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ166">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AR166">
         <v>1.26</v>
@@ -35950,10 +35965,10 @@
         <v>1.3</v>
       </c>
       <c r="AP167">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ167">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR167">
         <v>1.07</v>
@@ -36078,7 +36093,7 @@
         <v>87</v>
       </c>
       <c r="P168" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q168">
         <v>3.6</v>
@@ -36696,7 +36711,7 @@
         <v>87</v>
       </c>
       <c r="P171" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q171">
         <v>3.5</v>
@@ -36774,7 +36789,7 @@
         <v>0.6</v>
       </c>
       <c r="AP171">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ171">
         <v>0.67</v>
@@ -36902,7 +36917,7 @@
         <v>159</v>
       </c>
       <c r="P172" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q172">
         <v>3.4</v>
@@ -37108,7 +37123,7 @@
         <v>210</v>
       </c>
       <c r="P173" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q173">
         <v>1.5</v>
@@ -37186,7 +37201,7 @@
         <v>0.1</v>
       </c>
       <c r="AP173">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AQ173">
         <v>0.11</v>
@@ -37314,7 +37329,7 @@
         <v>87</v>
       </c>
       <c r="P174" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q174">
         <v>4.33</v>
@@ -37395,7 +37410,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ174">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR174">
         <v>1.38</v>
@@ -37598,10 +37613,10 @@
         <v>0.73</v>
       </c>
       <c r="AP175">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="AQ175">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AR175">
         <v>1.74</v>
@@ -37726,7 +37741,7 @@
         <v>212</v>
       </c>
       <c r="P176" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37807,7 +37822,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ176">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR176">
         <v>1.54</v>
@@ -37932,7 +37947,7 @@
         <v>213</v>
       </c>
       <c r="P177" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q177">
         <v>2.3</v>
@@ -38219,7 +38234,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ178">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AR178">
         <v>1.57</v>
@@ -38344,7 +38359,7 @@
         <v>215</v>
       </c>
       <c r="P179" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38422,7 +38437,7 @@
         <v>1.55</v>
       </c>
       <c r="AP179">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ179">
         <v>1.7</v>
@@ -38550,7 +38565,7 @@
         <v>216</v>
       </c>
       <c r="P180" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q180">
         <v>2.55</v>
@@ -38628,7 +38643,7 @@
         <v>0.82</v>
       </c>
       <c r="AP180">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AQ180">
         <v>0.67</v>
@@ -38834,7 +38849,7 @@
         <v>0.45</v>
       </c>
       <c r="AP181">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AQ181">
         <v>0.83</v>
@@ -39168,7 +39183,7 @@
         <v>87</v>
       </c>
       <c r="P183" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q183">
         <v>5.5</v>
@@ -39374,7 +39389,7 @@
         <v>219</v>
       </c>
       <c r="P184" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -39661,7 +39676,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ185">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR185">
         <v>1.29</v>
@@ -40070,7 +40085,7 @@
         <v>1.36</v>
       </c>
       <c r="AP187">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AQ187">
         <v>0.85</v>
@@ -40198,7 +40213,7 @@
         <v>96</v>
       </c>
       <c r="P188" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q188">
         <v>2.35</v>
@@ -40279,7 +40294,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ188">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR188">
         <v>1.65</v>
@@ -40482,7 +40497,7 @@
         <v>0.09</v>
       </c>
       <c r="AP189">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AQ189">
         <v>0.11</v>
@@ -40816,7 +40831,7 @@
         <v>224</v>
       </c>
       <c r="P191" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q191">
         <v>1.95</v>
@@ -40894,7 +40909,7 @@
         <v>0.73</v>
       </c>
       <c r="AP191">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="AQ191">
         <v>0.72</v>
@@ -41103,7 +41118,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ192">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR192">
         <v>1.52</v>
@@ -41228,7 +41243,7 @@
         <v>225</v>
       </c>
       <c r="P193" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q193">
         <v>3.6</v>
@@ -41434,7 +41449,7 @@
         <v>226</v>
       </c>
       <c r="P194" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -41515,7 +41530,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ194">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR194">
         <v>1.52</v>
@@ -41718,10 +41733,10 @@
         <v>0.67</v>
       </c>
       <c r="AP195">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AQ195">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AR195">
         <v>2.09</v>
@@ -41924,7 +41939,7 @@
         <v>0.67</v>
       </c>
       <c r="AP196">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ196">
         <v>0.72</v>
@@ -42130,7 +42145,7 @@
         <v>0.83</v>
       </c>
       <c r="AP197">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AQ197">
         <v>0.67</v>
@@ -42339,7 +42354,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ198">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AR198">
         <v>1.68</v>
@@ -42464,7 +42479,7 @@
         <v>188</v>
       </c>
       <c r="P199" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -42670,7 +42685,7 @@
         <v>231</v>
       </c>
       <c r="P200" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q200">
         <v>2.25</v>
@@ -42748,10 +42763,10 @@
         <v>0.92</v>
       </c>
       <c r="AP200">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ200">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR200">
         <v>1.89</v>
@@ -43082,7 +43097,7 @@
         <v>233</v>
       </c>
       <c r="P202" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -43288,7 +43303,7 @@
         <v>234</v>
       </c>
       <c r="P203" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q203">
         <v>2.6</v>
@@ -43494,7 +43509,7 @@
         <v>235</v>
       </c>
       <c r="P204" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q204">
         <v>2.15</v>
@@ -43700,7 +43715,7 @@
         <v>236</v>
       </c>
       <c r="P205" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q205">
         <v>4.6</v>
@@ -43906,7 +43921,7 @@
         <v>237</v>
       </c>
       <c r="P206" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q206">
         <v>1.95</v>
@@ -44190,7 +44205,7 @@
         <v>0.75</v>
       </c>
       <c r="AP207">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="AQ207">
         <v>1.05</v>
@@ -44396,10 +44411,10 @@
         <v>1.5</v>
       </c>
       <c r="AP208">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AQ208">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR208">
         <v>1.72</v>
@@ -45014,7 +45029,7 @@
         <v>0.08</v>
       </c>
       <c r="AP211">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ211">
         <v>0.11</v>
@@ -45142,7 +45157,7 @@
         <v>227</v>
       </c>
       <c r="P212" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q212">
         <v>2.75</v>
@@ -45220,7 +45235,7 @@
         <v>0.92</v>
       </c>
       <c r="AP212">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ212">
         <v>1.05</v>
@@ -45348,7 +45363,7 @@
         <v>239</v>
       </c>
       <c r="P213" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q213">
         <v>2.5</v>
@@ -45429,7 +45444,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ213">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AR213">
         <v>1.7</v>
@@ -45554,7 +45569,7 @@
         <v>86</v>
       </c>
       <c r="P214" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q214">
         <v>1.71</v>
@@ -45632,10 +45647,10 @@
         <v>0.85</v>
       </c>
       <c r="AP214">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AQ214">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR214">
         <v>2.08</v>
@@ -45838,10 +45853,10 @@
         <v>1.23</v>
       </c>
       <c r="AP215">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AQ215">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR215">
         <v>1.77</v>
@@ -45966,7 +45981,7 @@
         <v>87</v>
       </c>
       <c r="P216" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Q216">
         <v>3.25</v>
@@ -46456,7 +46471,7 @@
         <v>1.77</v>
       </c>
       <c r="AP218">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AQ218">
         <v>1.7</v>
@@ -46665,7 +46680,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ219">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AR219">
         <v>1.72</v>
@@ -46790,7 +46805,7 @@
         <v>88</v>
       </c>
       <c r="P220" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q220">
         <v>4.33</v>
@@ -46996,7 +47011,7 @@
         <v>241</v>
       </c>
       <c r="P221" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q221">
         <v>2.25</v>
@@ -47280,7 +47295,7 @@
         <v>1.15</v>
       </c>
       <c r="AP222">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="AQ222">
         <v>0.85</v>
@@ -47614,7 +47629,7 @@
         <v>87</v>
       </c>
       <c r="P224" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q224">
         <v>4.33</v>
@@ -47695,7 +47710,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ224">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR224">
         <v>1.22</v>
@@ -48313,7 +48328,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ227">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AR227">
         <v>1.36</v>
@@ -48516,7 +48531,7 @@
         <v>0.86</v>
       </c>
       <c r="AP228">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AQ228">
         <v>1.05</v>
@@ -48722,7 +48737,7 @@
         <v>1.71</v>
       </c>
       <c r="AP229">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ229">
         <v>1.7</v>
@@ -48850,7 +48865,7 @@
         <v>174</v>
       </c>
       <c r="P230" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q230">
         <v>4.75</v>
@@ -49134,10 +49149,10 @@
         <v>1.71</v>
       </c>
       <c r="AP231">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ231">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR231">
         <v>1.88</v>
@@ -49262,7 +49277,7 @@
         <v>87</v>
       </c>
       <c r="P232" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q232">
         <v>2.88</v>
@@ -49343,7 +49358,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ232">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR232">
         <v>1.76</v>
@@ -49546,10 +49561,10 @@
         <v>1</v>
       </c>
       <c r="AP233">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="AQ233">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR233">
         <v>1.88</v>
@@ -49752,7 +49767,7 @@
         <v>1.57</v>
       </c>
       <c r="AP234">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AQ234">
         <v>1.85</v>
@@ -49961,7 +49976,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ235">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AR235">
         <v>1.24</v>
@@ -50086,7 +50101,7 @@
         <v>105</v>
       </c>
       <c r="P236" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q236">
         <v>2.3</v>
@@ -50292,7 +50307,7 @@
         <v>248</v>
       </c>
       <c r="P237" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q237">
         <v>3.1</v>
@@ -50498,7 +50513,7 @@
         <v>118</v>
       </c>
       <c r="P238" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q238">
         <v>3.75</v>
@@ -50704,7 +50719,7 @@
         <v>249</v>
       </c>
       <c r="P239" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q239">
         <v>2.5</v>
@@ -51116,7 +51131,7 @@
         <v>251</v>
       </c>
       <c r="P241" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q241">
         <v>2.1</v>
@@ -51194,7 +51209,7 @@
         <v>1.07</v>
       </c>
       <c r="AP241">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AQ241">
         <v>1.05</v>
@@ -51528,7 +51543,7 @@
         <v>87</v>
       </c>
       <c r="P243" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q243">
         <v>3.75</v>
@@ -51734,7 +51749,7 @@
         <v>252</v>
       </c>
       <c r="P244" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q244">
         <v>3.4</v>
@@ -52018,10 +52033,10 @@
         <v>1.27</v>
       </c>
       <c r="AP245">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="AQ245">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AR245">
         <v>1.84</v>
@@ -52224,10 +52239,10 @@
         <v>1.6</v>
       </c>
       <c r="AP246">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AQ246">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR246">
         <v>2.09</v>
@@ -52352,7 +52367,7 @@
         <v>255</v>
       </c>
       <c r="P247" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q247">
         <v>3.4</v>
@@ -52636,10 +52651,10 @@
         <v>1.33</v>
       </c>
       <c r="AP248">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AQ248">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR248">
         <v>1.81</v>
@@ -52842,7 +52857,7 @@
         <v>1</v>
       </c>
       <c r="AP249">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ249">
         <v>1.1</v>
@@ -52970,7 +52985,7 @@
         <v>257</v>
       </c>
       <c r="P250" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q250">
         <v>2.5</v>
@@ -53176,7 +53191,7 @@
         <v>258</v>
       </c>
       <c r="P251" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q251">
         <v>2.05</v>
@@ -53382,7 +53397,7 @@
         <v>259</v>
       </c>
       <c r="P252" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q252">
         <v>2.63</v>
@@ -53460,10 +53475,10 @@
         <v>0.6</v>
       </c>
       <c r="AP252">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ252">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AR252">
         <v>1.83</v>
@@ -53588,7 +53603,7 @@
         <v>87</v>
       </c>
       <c r="P253" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="Q253">
         <v>4.33</v>
@@ -53794,7 +53809,7 @@
         <v>260</v>
       </c>
       <c r="P254" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q254">
         <v>4.75</v>
@@ -54000,7 +54015,7 @@
         <v>87</v>
       </c>
       <c r="P255" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="Q255">
         <v>2.5</v>
@@ -54206,7 +54221,7 @@
         <v>261</v>
       </c>
       <c r="P256" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Q256">
         <v>3.4</v>
@@ -54490,10 +54505,10 @@
         <v>0.93</v>
       </c>
       <c r="AP257">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AQ257">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR257">
         <v>1.68</v>
@@ -54618,7 +54633,7 @@
         <v>262</v>
       </c>
       <c r="P258" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="Q258">
         <v>3.1</v>
@@ -54696,7 +54711,7 @@
         <v>1</v>
       </c>
       <c r="AP258">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ258">
         <v>1.05</v>
@@ -54824,7 +54839,7 @@
         <v>263</v>
       </c>
       <c r="P259" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="Q259">
         <v>2.1</v>
@@ -55314,10 +55329,10 @@
         <v>1.5</v>
       </c>
       <c r="AP261">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="AQ261">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR261">
         <v>1.85</v>
@@ -55442,7 +55457,7 @@
         <v>87</v>
       </c>
       <c r="P262" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q262">
         <v>2.75</v>
@@ -55523,7 +55538,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ262">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR262">
         <v>1.7</v>
@@ -55648,7 +55663,7 @@
         <v>266</v>
       </c>
       <c r="P263" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q263">
         <v>2.5</v>
@@ -55729,7 +55744,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ263">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AR263">
         <v>1.59</v>
@@ -55932,7 +55947,7 @@
         <v>1.88</v>
       </c>
       <c r="AP264">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AQ264">
         <v>1.7</v>
@@ -56060,7 +56075,7 @@
         <v>217</v>
       </c>
       <c r="P265" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q265">
         <v>3</v>
@@ -56138,10 +56153,10 @@
         <v>0.88</v>
       </c>
       <c r="AP265">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ265">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR265">
         <v>1.23</v>
@@ -56266,7 +56281,7 @@
         <v>267</v>
       </c>
       <c r="P266" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="Q266">
         <v>2.88</v>
@@ -56550,7 +56565,7 @@
         <v>1</v>
       </c>
       <c r="AP267">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AQ267">
         <v>1.05</v>
@@ -56965,7 +56980,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ269">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AR269">
         <v>1.63</v>
@@ -57090,7 +57105,7 @@
         <v>105</v>
       </c>
       <c r="P270" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q270">
         <v>3</v>
@@ -57168,7 +57183,7 @@
         <v>1.56</v>
       </c>
       <c r="AP270">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AQ270">
         <v>1.85</v>
@@ -57296,7 +57311,7 @@
         <v>87</v>
       </c>
       <c r="P271" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q271">
         <v>5</v>
@@ -57583,7 +57598,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ272">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AR272">
         <v>1.27</v>
@@ -57708,7 +57723,7 @@
         <v>270</v>
       </c>
       <c r="P273" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="Q273">
         <v>2.35</v>
@@ -57914,7 +57929,7 @@
         <v>271</v>
       </c>
       <c r="P274" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q274">
         <v>3.5</v>
@@ -57992,7 +58007,7 @@
         <v>1</v>
       </c>
       <c r="AP274">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ274">
         <v>1.05</v>
@@ -58407,7 +58422,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ276">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR276">
         <v>1.64</v>
@@ -58610,7 +58625,7 @@
         <v>1.65</v>
       </c>
       <c r="AP277">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AQ277">
         <v>1.85</v>
@@ -59025,7 +59040,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ279">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR279">
         <v>1.32</v>
@@ -59150,7 +59165,7 @@
         <v>275</v>
       </c>
       <c r="P280" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q280">
         <v>2.88</v>
@@ -59228,7 +59243,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP280">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ280">
         <v>1.05</v>
@@ -59356,7 +59371,7 @@
         <v>276</v>
       </c>
       <c r="P281" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="Q281">
         <v>2.25</v>
@@ -59434,7 +59449,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP281">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AQ281">
         <v>0.85</v>
@@ -59562,7 +59577,7 @@
         <v>277</v>
       </c>
       <c r="P282" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q282">
         <v>2.5</v>
@@ -59768,7 +59783,7 @@
         <v>87</v>
       </c>
       <c r="P283" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q283">
         <v>3.4</v>
@@ -59849,7 +59864,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ283">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR283">
         <v>1.44</v>
@@ -59974,7 +59989,7 @@
         <v>87</v>
       </c>
       <c r="P284" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q284">
         <v>2.1</v>
@@ -60052,10 +60067,10 @@
         <v>1.18</v>
       </c>
       <c r="AP284">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AQ284">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AR284">
         <v>1.77</v>
@@ -60258,7 +60273,7 @@
         <v>1.88</v>
       </c>
       <c r="AP285">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="AQ285">
         <v>1.95</v>
@@ -60386,7 +60401,7 @@
         <v>278</v>
       </c>
       <c r="P286" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Q286">
         <v>3.25</v>
@@ -60467,7 +60482,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ286">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR286">
         <v>1.73</v>
@@ -60592,7 +60607,7 @@
         <v>279</v>
       </c>
       <c r="P287" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="Q287">
         <v>1.73</v>
@@ -60670,10 +60685,10 @@
         <v>1.28</v>
       </c>
       <c r="AP287">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AQ287">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR287">
         <v>2.11</v>
@@ -60798,7 +60813,7 @@
         <v>280</v>
       </c>
       <c r="P288" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q288">
         <v>2.2</v>
@@ -60876,7 +60891,7 @@
         <v>0.89</v>
       </c>
       <c r="AP288">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ288">
         <v>0.85</v>
@@ -61004,7 +61019,7 @@
         <v>87</v>
       </c>
       <c r="P289" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="Q289">
         <v>2.5</v>
@@ -61210,7 +61225,7 @@
         <v>240</v>
       </c>
       <c r="P290" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="Q290">
         <v>3.25</v>
@@ -61494,7 +61509,7 @@
         <v>1.72</v>
       </c>
       <c r="AP291">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="AQ291">
         <v>1.7</v>
@@ -62034,7 +62049,7 @@
         <v>282</v>
       </c>
       <c r="P294" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q294">
         <v>2.4</v>
@@ -62112,7 +62127,7 @@
         <v>1.06</v>
       </c>
       <c r="AP294">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AQ294">
         <v>1.1</v>
@@ -62240,7 +62255,7 @@
         <v>283</v>
       </c>
       <c r="P295" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="Q295">
         <v>5.5</v>
@@ -62446,7 +62461,7 @@
         <v>284</v>
       </c>
       <c r="P296" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="Q296">
         <v>3.5</v>
@@ -62733,7 +62748,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ297">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR297">
         <v>1.64</v>
@@ -63064,7 +63079,7 @@
         <v>87</v>
       </c>
       <c r="P299" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="Q299">
         <v>3</v>
@@ -63145,7 +63160,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ299">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AR299">
         <v>1.44</v>
@@ -63270,7 +63285,7 @@
         <v>87</v>
       </c>
       <c r="P300" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="Q300">
         <v>3.6</v>
@@ -63348,7 +63363,7 @@
         <v>1.83</v>
       </c>
       <c r="AP300">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AQ300">
         <v>1.95</v>
@@ -63554,10 +63569,10 @@
         <v>0.78</v>
       </c>
       <c r="AP301">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ301">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AR301">
         <v>1.2</v>
@@ -63682,7 +63697,7 @@
         <v>87</v>
       </c>
       <c r="P302" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="Q302">
         <v>2.88</v>
@@ -64094,7 +64109,7 @@
         <v>87</v>
       </c>
       <c r="P304" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="Q304">
         <v>4.75</v>
@@ -64300,7 +64315,7 @@
         <v>207</v>
       </c>
       <c r="P305" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="Q305">
         <v>4.75</v>
@@ -64506,7 +64521,7 @@
         <v>261</v>
       </c>
       <c r="P306" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q306">
         <v>2.88</v>
@@ -64712,7 +64727,7 @@
         <v>286</v>
       </c>
       <c r="P307" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="Q307">
         <v>4</v>
@@ -64869,6 +64884,1242 @@
       </c>
       <c r="BP307">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="308" spans="1:68">
+      <c r="A308" s="1">
+        <v>307</v>
+      </c>
+      <c r="B308">
+        <v>7858373</v>
+      </c>
+      <c r="C308" t="s">
+        <v>68</v>
+      </c>
+      <c r="D308" t="s">
+        <v>69</v>
+      </c>
+      <c r="E308" s="2">
+        <v>45801.625</v>
+      </c>
+      <c r="F308">
+        <v>10</v>
+      </c>
+      <c r="G308" t="s">
+        <v>76</v>
+      </c>
+      <c r="H308" t="s">
+        <v>80</v>
+      </c>
+      <c r="I308">
+        <v>1</v>
+      </c>
+      <c r="J308">
+        <v>1</v>
+      </c>
+      <c r="K308">
+        <v>2</v>
+      </c>
+      <c r="L308">
+        <v>2</v>
+      </c>
+      <c r="M308">
+        <v>1</v>
+      </c>
+      <c r="N308">
+        <v>3</v>
+      </c>
+      <c r="O308" t="s">
+        <v>287</v>
+      </c>
+      <c r="P308" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q308">
+        <v>2</v>
+      </c>
+      <c r="R308">
+        <v>2.35</v>
+      </c>
+      <c r="S308">
+        <v>5.25</v>
+      </c>
+      <c r="T308">
+        <v>1.3</v>
+      </c>
+      <c r="U308">
+        <v>3.2</v>
+      </c>
+      <c r="V308">
+        <v>2.38</v>
+      </c>
+      <c r="W308">
+        <v>1.53</v>
+      </c>
+      <c r="X308">
+        <v>5.15</v>
+      </c>
+      <c r="Y308">
+        <v>1.1</v>
+      </c>
+      <c r="Z308">
+        <v>1.59</v>
+      </c>
+      <c r="AA308">
+        <v>3.69</v>
+      </c>
+      <c r="AB308">
+        <v>4.6</v>
+      </c>
+      <c r="AC308">
+        <v>1.04</v>
+      </c>
+      <c r="AD308">
+        <v>10</v>
+      </c>
+      <c r="AE308">
+        <v>1.2</v>
+      </c>
+      <c r="AF308">
+        <v>4.33</v>
+      </c>
+      <c r="AG308">
+        <v>1.76</v>
+      </c>
+      <c r="AH308">
+        <v>1.94</v>
+      </c>
+      <c r="AI308">
+        <v>1.62</v>
+      </c>
+      <c r="AJ308">
+        <v>2.1</v>
+      </c>
+      <c r="AK308">
+        <v>1.15</v>
+      </c>
+      <c r="AL308">
+        <v>1.18</v>
+      </c>
+      <c r="AM308">
+        <v>2.3</v>
+      </c>
+      <c r="AN308">
+        <v>1.79</v>
+      </c>
+      <c r="AO308">
+        <v>0.74</v>
+      </c>
+      <c r="AP308">
+        <v>1.85</v>
+      </c>
+      <c r="AQ308">
+        <v>0.7</v>
+      </c>
+      <c r="AR308">
+        <v>1.74</v>
+      </c>
+      <c r="AS308">
+        <v>1.25</v>
+      </c>
+      <c r="AT308">
+        <v>2.99</v>
+      </c>
+      <c r="AU308">
+        <v>4</v>
+      </c>
+      <c r="AV308">
+        <v>6</v>
+      </c>
+      <c r="AW308">
+        <v>12</v>
+      </c>
+      <c r="AX308">
+        <v>10</v>
+      </c>
+      <c r="AY308">
+        <v>22</v>
+      </c>
+      <c r="AZ308">
+        <v>18</v>
+      </c>
+      <c r="BA308">
+        <v>4</v>
+      </c>
+      <c r="BB308">
+        <v>6</v>
+      </c>
+      <c r="BC308">
+        <v>10</v>
+      </c>
+      <c r="BD308">
+        <v>1.35</v>
+      </c>
+      <c r="BE308">
+        <v>7.5</v>
+      </c>
+      <c r="BF308">
+        <v>3.45</v>
+      </c>
+      <c r="BG308">
+        <v>1.24</v>
+      </c>
+      <c r="BH308">
+        <v>3.65</v>
+      </c>
+      <c r="BI308">
+        <v>1.42</v>
+      </c>
+      <c r="BJ308">
+        <v>2.65</v>
+      </c>
+      <c r="BK308">
+        <v>1.66</v>
+      </c>
+      <c r="BL308">
+        <v>2.07</v>
+      </c>
+      <c r="BM308">
+        <v>2.02</v>
+      </c>
+      <c r="BN308">
+        <v>1.7</v>
+      </c>
+      <c r="BO308">
+        <v>2.55</v>
+      </c>
+      <c r="BP308">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="309" spans="1:68">
+      <c r="A309" s="1">
+        <v>308</v>
+      </c>
+      <c r="B309">
+        <v>7858374</v>
+      </c>
+      <c r="C309" t="s">
+        <v>68</v>
+      </c>
+      <c r="D309" t="s">
+        <v>69</v>
+      </c>
+      <c r="E309" s="2">
+        <v>45801.625</v>
+      </c>
+      <c r="F309">
+        <v>10</v>
+      </c>
+      <c r="G309" t="s">
+        <v>77</v>
+      </c>
+      <c r="H309" t="s">
+        <v>84</v>
+      </c>
+      <c r="I309">
+        <v>0</v>
+      </c>
+      <c r="J309">
+        <v>0</v>
+      </c>
+      <c r="K309">
+        <v>0</v>
+      </c>
+      <c r="L309">
+        <v>0</v>
+      </c>
+      <c r="M309">
+        <v>0</v>
+      </c>
+      <c r="N309">
+        <v>0</v>
+      </c>
+      <c r="O309" t="s">
+        <v>87</v>
+      </c>
+      <c r="P309" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q309">
+        <v>2.15</v>
+      </c>
+      <c r="R309">
+        <v>2.35</v>
+      </c>
+      <c r="S309">
+        <v>4.33</v>
+      </c>
+      <c r="T309">
+        <v>1.25</v>
+      </c>
+      <c r="U309">
+        <v>3.45</v>
+      </c>
+      <c r="V309">
+        <v>2.2</v>
+      </c>
+      <c r="W309">
+        <v>1.6</v>
+      </c>
+      <c r="X309">
+        <v>4.7</v>
+      </c>
+      <c r="Y309">
+        <v>1.12</v>
+      </c>
+      <c r="Z309">
+        <v>1.65</v>
+      </c>
+      <c r="AA309">
+        <v>3.64</v>
+      </c>
+      <c r="AB309">
+        <v>4.2</v>
+      </c>
+      <c r="AC309">
+        <v>1.04</v>
+      </c>
+      <c r="AD309">
+        <v>10</v>
+      </c>
+      <c r="AE309">
+        <v>1.18</v>
+      </c>
+      <c r="AF309">
+        <v>4.75</v>
+      </c>
+      <c r="AG309">
+        <v>1.65</v>
+      </c>
+      <c r="AH309">
+        <v>2.15</v>
+      </c>
+      <c r="AI309">
+        <v>1.5</v>
+      </c>
+      <c r="AJ309">
+        <v>2.35</v>
+      </c>
+      <c r="AK309">
+        <v>1.2</v>
+      </c>
+      <c r="AL309">
+        <v>1.2</v>
+      </c>
+      <c r="AM309">
+        <v>2.05</v>
+      </c>
+      <c r="AN309">
+        <v>1.47</v>
+      </c>
+      <c r="AO309">
+        <v>0.89</v>
+      </c>
+      <c r="AP309">
+        <v>1.45</v>
+      </c>
+      <c r="AQ309">
+        <v>0.9</v>
+      </c>
+      <c r="AR309">
+        <v>1.81</v>
+      </c>
+      <c r="AS309">
+        <v>1.09</v>
+      </c>
+      <c r="AT309">
+        <v>2.9</v>
+      </c>
+      <c r="AU309">
+        <v>4</v>
+      </c>
+      <c r="AV309">
+        <v>3</v>
+      </c>
+      <c r="AW309">
+        <v>11</v>
+      </c>
+      <c r="AX309">
+        <v>8</v>
+      </c>
+      <c r="AY309">
+        <v>19</v>
+      </c>
+      <c r="AZ309">
+        <v>15</v>
+      </c>
+      <c r="BA309">
+        <v>8</v>
+      </c>
+      <c r="BB309">
+        <v>6</v>
+      </c>
+      <c r="BC309">
+        <v>14</v>
+      </c>
+      <c r="BD309">
+        <v>1.42</v>
+      </c>
+      <c r="BE309">
+        <v>7</v>
+      </c>
+      <c r="BF309">
+        <v>3.15</v>
+      </c>
+      <c r="BG309">
+        <v>1.18</v>
+      </c>
+      <c r="BH309">
+        <v>4.2</v>
+      </c>
+      <c r="BI309">
+        <v>1.32</v>
+      </c>
+      <c r="BJ309">
+        <v>3.05</v>
+      </c>
+      <c r="BK309">
+        <v>1.53</v>
+      </c>
+      <c r="BL309">
+        <v>2.32</v>
+      </c>
+      <c r="BM309">
+        <v>1.83</v>
+      </c>
+      <c r="BN309">
+        <v>1.85</v>
+      </c>
+      <c r="BO309">
+        <v>2.28</v>
+      </c>
+      <c r="BP309">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="310" spans="1:68">
+      <c r="A310" s="1">
+        <v>309</v>
+      </c>
+      <c r="B310">
+        <v>7858375</v>
+      </c>
+      <c r="C310" t="s">
+        <v>68</v>
+      </c>
+      <c r="D310" t="s">
+        <v>69</v>
+      </c>
+      <c r="E310" s="2">
+        <v>45801.625</v>
+      </c>
+      <c r="F310">
+        <v>10</v>
+      </c>
+      <c r="G310" t="s">
+        <v>71</v>
+      </c>
+      <c r="H310" t="s">
+        <v>79</v>
+      </c>
+      <c r="I310">
+        <v>2</v>
+      </c>
+      <c r="J310">
+        <v>2</v>
+      </c>
+      <c r="K310">
+        <v>4</v>
+      </c>
+      <c r="L310">
+        <v>2</v>
+      </c>
+      <c r="M310">
+        <v>2</v>
+      </c>
+      <c r="N310">
+        <v>4</v>
+      </c>
+      <c r="O310" t="s">
+        <v>288</v>
+      </c>
+      <c r="P310" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q310">
+        <v>3.55</v>
+      </c>
+      <c r="R310">
+        <v>2.3</v>
+      </c>
+      <c r="S310">
+        <v>2.5</v>
+      </c>
+      <c r="T310">
+        <v>1.25</v>
+      </c>
+      <c r="U310">
+        <v>3.5</v>
+      </c>
+      <c r="V310">
+        <v>2.15</v>
+      </c>
+      <c r="W310">
+        <v>1.62</v>
+      </c>
+      <c r="X310">
+        <v>4.85</v>
+      </c>
+      <c r="Y310">
+        <v>1.11</v>
+      </c>
+      <c r="Z310">
+        <v>3.16</v>
+      </c>
+      <c r="AA310">
+        <v>3.37</v>
+      </c>
+      <c r="AB310">
+        <v>1.98</v>
+      </c>
+      <c r="AC310">
+        <v>1.04</v>
+      </c>
+      <c r="AD310">
+        <v>10</v>
+      </c>
+      <c r="AE310">
+        <v>1.17</v>
+      </c>
+      <c r="AF310">
+        <v>5</v>
+      </c>
+      <c r="AG310">
+        <v>1.65</v>
+      </c>
+      <c r="AH310">
+        <v>2.15</v>
+      </c>
+      <c r="AI310">
+        <v>1.44</v>
+      </c>
+      <c r="AJ310">
+        <v>2.55</v>
+      </c>
+      <c r="AK310">
+        <v>1.73</v>
+      </c>
+      <c r="AL310">
+        <v>1.22</v>
+      </c>
+      <c r="AM310">
+        <v>1.33</v>
+      </c>
+      <c r="AN310">
+        <v>1.42</v>
+      </c>
+      <c r="AO310">
+        <v>1.05</v>
+      </c>
+      <c r="AP310">
+        <v>1.4</v>
+      </c>
+      <c r="AQ310">
+        <v>1.05</v>
+      </c>
+      <c r="AR310">
+        <v>1.24</v>
+      </c>
+      <c r="AS310">
+        <v>1.57</v>
+      </c>
+      <c r="AT310">
+        <v>2.81</v>
+      </c>
+      <c r="AU310">
+        <v>5</v>
+      </c>
+      <c r="AV310">
+        <v>4</v>
+      </c>
+      <c r="AW310">
+        <v>11</v>
+      </c>
+      <c r="AX310">
+        <v>2</v>
+      </c>
+      <c r="AY310">
+        <v>21</v>
+      </c>
+      <c r="AZ310">
+        <v>7</v>
+      </c>
+      <c r="BA310">
+        <v>7</v>
+      </c>
+      <c r="BB310">
+        <v>0</v>
+      </c>
+      <c r="BC310">
+        <v>7</v>
+      </c>
+      <c r="BD310">
+        <v>2.08</v>
+      </c>
+      <c r="BE310">
+        <v>6.5</v>
+      </c>
+      <c r="BF310">
+        <v>1.9</v>
+      </c>
+      <c r="BG310">
+        <v>1.26</v>
+      </c>
+      <c r="BH310">
+        <v>3.4</v>
+      </c>
+      <c r="BI310">
+        <v>1.46</v>
+      </c>
+      <c r="BJ310">
+        <v>2.5</v>
+      </c>
+      <c r="BK310">
+        <v>1.74</v>
+      </c>
+      <c r="BL310">
+        <v>1.97</v>
+      </c>
+      <c r="BM310">
+        <v>2.17</v>
+      </c>
+      <c r="BN310">
+        <v>1.6</v>
+      </c>
+      <c r="BO310">
+        <v>2.7</v>
+      </c>
+      <c r="BP310">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="311" spans="1:68">
+      <c r="A311" s="1">
+        <v>310</v>
+      </c>
+      <c r="B311">
+        <v>7858376</v>
+      </c>
+      <c r="C311" t="s">
+        <v>68</v>
+      </c>
+      <c r="D311" t="s">
+        <v>69</v>
+      </c>
+      <c r="E311" s="2">
+        <v>45802.5625</v>
+      </c>
+      <c r="F311">
+        <v>10</v>
+      </c>
+      <c r="G311" t="s">
+        <v>70</v>
+      </c>
+      <c r="H311" t="s">
+        <v>82</v>
+      </c>
+      <c r="I311">
+        <v>1</v>
+      </c>
+      <c r="J311">
+        <v>1</v>
+      </c>
+      <c r="K311">
+        <v>2</v>
+      </c>
+      <c r="L311">
+        <v>1</v>
+      </c>
+      <c r="M311">
+        <v>1</v>
+      </c>
+      <c r="N311">
+        <v>2</v>
+      </c>
+      <c r="O311" t="s">
+        <v>168</v>
+      </c>
+      <c r="P311" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q311">
+        <v>1.62</v>
+      </c>
+      <c r="R311">
+        <v>3</v>
+      </c>
+      <c r="S311">
+        <v>8.5</v>
+      </c>
+      <c r="T311">
+        <v>1.2</v>
+      </c>
+      <c r="U311">
+        <v>4.33</v>
+      </c>
+      <c r="V311">
+        <v>2</v>
+      </c>
+      <c r="W311">
+        <v>1.73</v>
+      </c>
+      <c r="X311">
+        <v>4.33</v>
+      </c>
+      <c r="Y311">
+        <v>1.2</v>
+      </c>
+      <c r="Z311">
+        <v>1.23</v>
+      </c>
+      <c r="AA311">
+        <v>5.3</v>
+      </c>
+      <c r="AB311">
+        <v>8.4</v>
+      </c>
+      <c r="AC311">
+        <v>1.01</v>
+      </c>
+      <c r="AD311">
+        <v>17</v>
+      </c>
+      <c r="AE311">
+        <v>1.11</v>
+      </c>
+      <c r="AF311">
+        <v>6.25</v>
+      </c>
+      <c r="AG311">
+        <v>1.36</v>
+      </c>
+      <c r="AH311">
+        <v>2.99</v>
+      </c>
+      <c r="AI311">
+        <v>1.8</v>
+      </c>
+      <c r="AJ311">
+        <v>1.95</v>
+      </c>
+      <c r="AK311">
+        <v>1.05</v>
+      </c>
+      <c r="AL311">
+        <v>1.11</v>
+      </c>
+      <c r="AM311">
+        <v>3.7</v>
+      </c>
+      <c r="AN311">
+        <v>2.21</v>
+      </c>
+      <c r="AO311">
+        <v>1.37</v>
+      </c>
+      <c r="AP311">
+        <v>2.15</v>
+      </c>
+      <c r="AQ311">
+        <v>1.35</v>
+      </c>
+      <c r="AR311">
+        <v>2.18</v>
+      </c>
+      <c r="AS311">
+        <v>1.18</v>
+      </c>
+      <c r="AT311">
+        <v>3.36</v>
+      </c>
+      <c r="AU311">
+        <v>6</v>
+      </c>
+      <c r="AV311">
+        <v>8</v>
+      </c>
+      <c r="AW311">
+        <v>12</v>
+      </c>
+      <c r="AX311">
+        <v>7</v>
+      </c>
+      <c r="AY311">
+        <v>19</v>
+      </c>
+      <c r="AZ311">
+        <v>15</v>
+      </c>
+      <c r="BA311">
+        <v>8</v>
+      </c>
+      <c r="BB311">
+        <v>2</v>
+      </c>
+      <c r="BC311">
+        <v>10</v>
+      </c>
+      <c r="BD311">
+        <v>1.24</v>
+      </c>
+      <c r="BE311">
+        <v>7.5</v>
+      </c>
+      <c r="BF311">
+        <v>4.35</v>
+      </c>
+      <c r="BG311">
+        <v>1.36</v>
+      </c>
+      <c r="BH311">
+        <v>2.85</v>
+      </c>
+      <c r="BI311">
+        <v>1.58</v>
+      </c>
+      <c r="BJ311">
+        <v>2.18</v>
+      </c>
+      <c r="BK311">
+        <v>1.95</v>
+      </c>
+      <c r="BL311">
+        <v>1.75</v>
+      </c>
+      <c r="BM311">
+        <v>2.45</v>
+      </c>
+      <c r="BN311">
+        <v>1.48</v>
+      </c>
+      <c r="BO311">
+        <v>3.15</v>
+      </c>
+      <c r="BP311">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="312" spans="1:68">
+      <c r="A312" s="1">
+        <v>311</v>
+      </c>
+      <c r="B312">
+        <v>7858377</v>
+      </c>
+      <c r="C312" t="s">
+        <v>68</v>
+      </c>
+      <c r="D312" t="s">
+        <v>69</v>
+      </c>
+      <c r="E312" s="2">
+        <v>45802.5625</v>
+      </c>
+      <c r="F312">
+        <v>10</v>
+      </c>
+      <c r="G312" t="s">
+        <v>78</v>
+      </c>
+      <c r="H312" t="s">
+        <v>85</v>
+      </c>
+      <c r="I312">
+        <v>1</v>
+      </c>
+      <c r="J312">
+        <v>1</v>
+      </c>
+      <c r="K312">
+        <v>2</v>
+      </c>
+      <c r="L312">
+        <v>3</v>
+      </c>
+      <c r="M312">
+        <v>1</v>
+      </c>
+      <c r="N312">
+        <v>4</v>
+      </c>
+      <c r="O312" t="s">
+        <v>289</v>
+      </c>
+      <c r="P312" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q312">
+        <v>1.5</v>
+      </c>
+      <c r="R312">
+        <v>3</v>
+      </c>
+      <c r="S312">
+        <v>11</v>
+      </c>
+      <c r="T312">
+        <v>1.22</v>
+      </c>
+      <c r="U312">
+        <v>4</v>
+      </c>
+      <c r="V312">
+        <v>2</v>
+      </c>
+      <c r="W312">
+        <v>1.73</v>
+      </c>
+      <c r="X312">
+        <v>4.33</v>
+      </c>
+      <c r="Y312">
+        <v>1.2</v>
+      </c>
+      <c r="Z312">
+        <v>1.16</v>
+      </c>
+      <c r="AA312">
+        <v>5.8</v>
+      </c>
+      <c r="AB312">
+        <v>12</v>
+      </c>
+      <c r="AC312">
+        <v>1.03</v>
+      </c>
+      <c r="AD312">
+        <v>11</v>
+      </c>
+      <c r="AE312">
+        <v>1.12</v>
+      </c>
+      <c r="AF312">
+        <v>6</v>
+      </c>
+      <c r="AG312">
+        <v>1.61</v>
+      </c>
+      <c r="AH312">
+        <v>2.2</v>
+      </c>
+      <c r="AI312">
+        <v>2.05</v>
+      </c>
+      <c r="AJ312">
+        <v>1.7</v>
+      </c>
+      <c r="AK312">
+        <v>1.03</v>
+      </c>
+      <c r="AL312">
+        <v>1.09</v>
+      </c>
+      <c r="AM312">
+        <v>4.5</v>
+      </c>
+      <c r="AN312">
+        <v>2.26</v>
+      </c>
+      <c r="AO312">
+        <v>1.21</v>
+      </c>
+      <c r="AP312">
+        <v>2.3</v>
+      </c>
+      <c r="AQ312">
+        <v>1.15</v>
+      </c>
+      <c r="AR312">
+        <v>1.74</v>
+      </c>
+      <c r="AS312">
+        <v>1.28</v>
+      </c>
+      <c r="AT312">
+        <v>3.02</v>
+      </c>
+      <c r="AU312">
+        <v>6</v>
+      </c>
+      <c r="AV312">
+        <v>2</v>
+      </c>
+      <c r="AW312">
+        <v>10</v>
+      </c>
+      <c r="AX312">
+        <v>3</v>
+      </c>
+      <c r="AY312">
+        <v>17</v>
+      </c>
+      <c r="AZ312">
+        <v>5</v>
+      </c>
+      <c r="BA312">
+        <v>7</v>
+      </c>
+      <c r="BB312">
+        <v>4</v>
+      </c>
+      <c r="BC312">
+        <v>11</v>
+      </c>
+      <c r="BD312">
+        <v>1.21</v>
+      </c>
+      <c r="BE312">
+        <v>8.5</v>
+      </c>
+      <c r="BF312">
+        <v>4.8</v>
+      </c>
+      <c r="BG312">
+        <v>1.28</v>
+      </c>
+      <c r="BH312">
+        <v>3.2</v>
+      </c>
+      <c r="BI312">
+        <v>1.48</v>
+      </c>
+      <c r="BJ312">
+        <v>2.45</v>
+      </c>
+      <c r="BK312">
+        <v>1.76</v>
+      </c>
+      <c r="BL312">
+        <v>1.95</v>
+      </c>
+      <c r="BM312">
+        <v>2.17</v>
+      </c>
+      <c r="BN312">
+        <v>1.6</v>
+      </c>
+      <c r="BO312">
+        <v>2.7</v>
+      </c>
+      <c r="BP312">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="313" spans="1:68">
+      <c r="A313" s="1">
+        <v>312</v>
+      </c>
+      <c r="B313">
+        <v>7858378</v>
+      </c>
+      <c r="C313" t="s">
+        <v>68</v>
+      </c>
+      <c r="D313" t="s">
+        <v>69</v>
+      </c>
+      <c r="E313" s="2">
+        <v>45802.5625</v>
+      </c>
+      <c r="F313">
+        <v>10</v>
+      </c>
+      <c r="G313" t="s">
+        <v>74</v>
+      </c>
+      <c r="H313" t="s">
+        <v>73</v>
+      </c>
+      <c r="I313">
+        <v>1</v>
+      </c>
+      <c r="J313">
+        <v>1</v>
+      </c>
+      <c r="K313">
+        <v>2</v>
+      </c>
+      <c r="L313">
+        <v>2</v>
+      </c>
+      <c r="M313">
+        <v>1</v>
+      </c>
+      <c r="N313">
+        <v>3</v>
+      </c>
+      <c r="O313" t="s">
+        <v>290</v>
+      </c>
+      <c r="P313" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q313">
+        <v>2.5</v>
+      </c>
+      <c r="R313">
+        <v>2.38</v>
+      </c>
+      <c r="S313">
+        <v>4</v>
+      </c>
+      <c r="T313">
+        <v>1.3</v>
+      </c>
+      <c r="U313">
+        <v>3.4</v>
+      </c>
+      <c r="V313">
+        <v>2.5</v>
+      </c>
+      <c r="W313">
+        <v>1.5</v>
+      </c>
+      <c r="X313">
+        <v>6</v>
+      </c>
+      <c r="Y313">
+        <v>1.13</v>
+      </c>
+      <c r="Z313">
+        <v>1.89</v>
+      </c>
+      <c r="AA313">
+        <v>3.47</v>
+      </c>
+      <c r="AB313">
+        <v>3.33</v>
+      </c>
+      <c r="AC313">
+        <v>1.04</v>
+      </c>
+      <c r="AD313">
+        <v>10</v>
+      </c>
+      <c r="AE313">
+        <v>1.22</v>
+      </c>
+      <c r="AF313">
+        <v>4.2</v>
+      </c>
+      <c r="AG313">
+        <v>1.75</v>
+      </c>
+      <c r="AH313">
+        <v>2</v>
+      </c>
+      <c r="AI313">
+        <v>1.62</v>
+      </c>
+      <c r="AJ313">
+        <v>2.2</v>
+      </c>
+      <c r="AK313">
+        <v>1.28</v>
+      </c>
+      <c r="AL313">
+        <v>1.22</v>
+      </c>
+      <c r="AM313">
+        <v>1.77</v>
+      </c>
+      <c r="AN313">
+        <v>2.32</v>
+      </c>
+      <c r="AO313">
+        <v>1.58</v>
+      </c>
+      <c r="AP313">
+        <v>2.35</v>
+      </c>
+      <c r="AQ313">
+        <v>1.5</v>
+      </c>
+      <c r="AR313">
+        <v>1.75</v>
+      </c>
+      <c r="AS313">
+        <v>1.31</v>
+      </c>
+      <c r="AT313">
+        <v>3.06</v>
+      </c>
+      <c r="AU313">
+        <v>8</v>
+      </c>
+      <c r="AV313">
+        <v>4</v>
+      </c>
+      <c r="AW313">
+        <v>6</v>
+      </c>
+      <c r="AX313">
+        <v>14</v>
+      </c>
+      <c r="AY313">
+        <v>16</v>
+      </c>
+      <c r="AZ313">
+        <v>20</v>
+      </c>
+      <c r="BA313">
+        <v>3</v>
+      </c>
+      <c r="BB313">
+        <v>4</v>
+      </c>
+      <c r="BC313">
+        <v>7</v>
+      </c>
+      <c r="BD313">
+        <v>1.61</v>
+      </c>
+      <c r="BE313">
+        <v>6.75</v>
+      </c>
+      <c r="BF313">
+        <v>2.55</v>
+      </c>
+      <c r="BG313">
+        <v>1.3</v>
+      </c>
+      <c r="BH313">
+        <v>3.15</v>
+      </c>
+      <c r="BI313">
+        <v>1.52</v>
+      </c>
+      <c r="BJ313">
+        <v>2.33</v>
+      </c>
+      <c r="BK313">
+        <v>1.84</v>
+      </c>
+      <c r="BL313">
+        <v>1.84</v>
+      </c>
+      <c r="BM313">
+        <v>2.32</v>
+      </c>
+      <c r="BN313">
+        <v>1.52</v>
+      </c>
+      <c r="BO313">
+        <v>2.95</v>
+      </c>
+      <c r="BP313">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Belgium Pro League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="422">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -889,6 +889,9 @@
     <t>['21', '51']</t>
   </si>
   <si>
+    <t>['86']</t>
+  </si>
+  <si>
     <t>['65']</t>
   </si>
   <si>
@@ -1192,9 +1195,6 @@
     <t>['59', '90']</t>
   </si>
   <si>
-    <t>['86']</t>
-  </si>
-  <si>
     <t>['53', '58']</t>
   </si>
   <si>
@@ -1277,6 +1277,9 @@
   </si>
   <si>
     <t>['2', '31']</t>
+  </si>
+  <si>
+    <t>['61', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -1638,7 +1641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP313"/>
+  <dimension ref="A1:BP314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1897,7 +1900,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q2">
         <v>1.91</v>
@@ -3751,7 +3754,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q11">
         <v>2.4</v>
@@ -4163,7 +4166,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4244,7 +4247,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ13">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4369,7 +4372,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q14">
         <v>3.25</v>
@@ -4447,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ14">
         <v>1.5</v>
@@ -4575,7 +4578,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4987,7 +4990,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -5605,7 +5608,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q20">
         <v>4.1</v>
@@ -6017,7 +6020,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -6223,7 +6226,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q23">
         <v>1.91</v>
@@ -6301,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ23">
         <v>0.72</v>
@@ -6635,7 +6638,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q25">
         <v>1.93</v>
@@ -6922,7 +6925,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ26">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AR26">
         <v>1.53</v>
@@ -7047,7 +7050,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q27">
         <v>3.9</v>
@@ -7253,7 +7256,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q28">
         <v>3.06</v>
@@ -7459,7 +7462,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -8489,7 +8492,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q34">
         <v>2.45</v>
@@ -8773,7 +8776,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ35">
         <v>1.05</v>
@@ -8901,7 +8904,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -9931,7 +9934,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -10012,7 +10015,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ41">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AR41">
         <v>1.62</v>
@@ -10137,7 +10140,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -11373,7 +11376,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11579,7 +11582,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11785,7 +11788,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q50">
         <v>5.85</v>
@@ -11991,7 +11994,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q51">
         <v>2.2</v>
@@ -12275,7 +12278,7 @@
         <v>0.67</v>
       </c>
       <c r="AP52">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ52">
         <v>1.85</v>
@@ -13021,7 +13024,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q56">
         <v>2.75</v>
@@ -13433,7 +13436,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13639,7 +13642,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q59">
         <v>3.52</v>
@@ -13926,7 +13929,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ60">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AR60">
         <v>1.66</v>
@@ -14051,7 +14054,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -14875,7 +14878,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q65">
         <v>3.02</v>
@@ -15493,7 +15496,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q68">
         <v>3.2</v>
@@ -15699,7 +15702,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q69">
         <v>3.76</v>
@@ -15983,7 +15986,7 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ70">
         <v>0.11</v>
@@ -16729,7 +16732,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -17428,7 +17431,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ77">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AR77">
         <v>1.23</v>
@@ -17837,7 +17840,7 @@
         <v>0.25</v>
       </c>
       <c r="AP79">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ79">
         <v>0.67</v>
@@ -18583,7 +18586,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -19201,7 +19204,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q86">
         <v>1.91</v>
@@ -19694,7 +19697,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ88">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AR88">
         <v>1.14</v>
@@ -20231,7 +20234,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20437,7 +20440,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -21133,7 +21136,7 @@
         <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ95">
         <v>0.9</v>
@@ -21261,7 +21264,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -21467,7 +21470,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -21879,7 +21882,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q99">
         <v>2.9</v>
@@ -22085,7 +22088,7 @@
         <v>87</v>
       </c>
       <c r="P100" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22291,7 +22294,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -22784,7 +22787,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ103">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AR103">
         <v>1.64</v>
@@ -23321,7 +23324,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -23527,7 +23530,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23733,7 +23736,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q108">
         <v>3.5</v>
@@ -24145,7 +24148,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q110">
         <v>3.2</v>
@@ -24763,7 +24766,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q113">
         <v>7.5</v>
@@ -25047,7 +25050,7 @@
         <v>1.33</v>
       </c>
       <c r="AP114">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ114">
         <v>0.85</v>
@@ -25668,7 +25671,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ117">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AR117">
         <v>1.85</v>
@@ -25999,7 +26002,7 @@
         <v>150</v>
       </c>
       <c r="P119" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q119">
         <v>4.5</v>
@@ -26617,7 +26620,7 @@
         <v>179</v>
       </c>
       <c r="P122" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -27235,7 +27238,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q125">
         <v>4.75</v>
@@ -27441,7 +27444,7 @@
         <v>182</v>
       </c>
       <c r="P126" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -28059,7 +28062,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q129">
         <v>2.75</v>
@@ -28265,7 +28268,7 @@
         <v>185</v>
       </c>
       <c r="P130" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q130">
         <v>1.72</v>
@@ -28677,7 +28680,7 @@
         <v>186</v>
       </c>
       <c r="P132" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -29089,7 +29092,7 @@
         <v>188</v>
       </c>
       <c r="P134" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q134">
         <v>2.55</v>
@@ -29167,10 +29170,10 @@
         <v>0.5</v>
       </c>
       <c r="AP134">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ134">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AR134">
         <v>1.76</v>
@@ -29501,7 +29504,7 @@
         <v>189</v>
       </c>
       <c r="P136" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q136">
         <v>1.7</v>
@@ -30406,7 +30409,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ140">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AR140">
         <v>1.25</v>
@@ -30531,7 +30534,7 @@
         <v>87</v>
       </c>
       <c r="P141" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30943,7 +30946,7 @@
         <v>194</v>
       </c>
       <c r="P143" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q143">
         <v>1.95</v>
@@ -31149,7 +31152,7 @@
         <v>87</v>
       </c>
       <c r="P144" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -31561,7 +31564,7 @@
         <v>196</v>
       </c>
       <c r="P146" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q146">
         <v>2.7</v>
@@ -31973,7 +31976,7 @@
         <v>167</v>
       </c>
       <c r="P148" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -32179,7 +32182,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q149">
         <v>3.1</v>
@@ -32797,7 +32800,7 @@
         <v>200</v>
       </c>
       <c r="P152" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q152">
         <v>3.25</v>
@@ -33209,7 +33212,7 @@
         <v>202</v>
       </c>
       <c r="P154" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -33287,7 +33290,7 @@
         <v>1.44</v>
       </c>
       <c r="AP154">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ154">
         <v>1.7</v>
@@ -33415,7 +33418,7 @@
         <v>87</v>
       </c>
       <c r="P155" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33496,7 +33499,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ155">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AR155">
         <v>1.43</v>
@@ -33621,7 +33624,7 @@
         <v>203</v>
       </c>
       <c r="P156" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q156">
         <v>1.7</v>
@@ -34033,7 +34036,7 @@
         <v>93</v>
       </c>
       <c r="P158" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q158">
         <v>3.7</v>
@@ -34445,7 +34448,7 @@
         <v>205</v>
       </c>
       <c r="P160" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q160">
         <v>1.9</v>
@@ -35063,7 +35066,7 @@
         <v>207</v>
       </c>
       <c r="P163" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q163">
         <v>2.45</v>
@@ -35475,7 +35478,7 @@
         <v>144</v>
       </c>
       <c r="P165" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q165">
         <v>3.5</v>
@@ -36093,7 +36096,7 @@
         <v>87</v>
       </c>
       <c r="P168" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q168">
         <v>3.6</v>
@@ -36586,7 +36589,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ170">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AR170">
         <v>1.54</v>
@@ -36711,7 +36714,7 @@
         <v>87</v>
       </c>
       <c r="P171" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q171">
         <v>3.5</v>
@@ -36917,7 +36920,7 @@
         <v>159</v>
       </c>
       <c r="P172" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q172">
         <v>3.4</v>
@@ -37123,7 +37126,7 @@
         <v>210</v>
       </c>
       <c r="P173" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q173">
         <v>1.5</v>
@@ -37329,7 +37332,7 @@
         <v>87</v>
       </c>
       <c r="P174" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q174">
         <v>4.33</v>
@@ -37741,7 +37744,7 @@
         <v>212</v>
       </c>
       <c r="P176" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37947,7 +37950,7 @@
         <v>213</v>
       </c>
       <c r="P177" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q177">
         <v>2.3</v>
@@ -38025,7 +38028,7 @@
         <v>0.7</v>
       </c>
       <c r="AP177">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ177">
         <v>1.1</v>
@@ -38359,7 +38362,7 @@
         <v>215</v>
       </c>
       <c r="P179" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38565,7 +38568,7 @@
         <v>216</v>
       </c>
       <c r="P180" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q180">
         <v>2.55</v>
@@ -39183,7 +39186,7 @@
         <v>87</v>
       </c>
       <c r="P183" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q183">
         <v>5.5</v>
@@ -39389,7 +39392,7 @@
         <v>219</v>
       </c>
       <c r="P184" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -40213,7 +40216,7 @@
         <v>96</v>
       </c>
       <c r="P188" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q188">
         <v>2.35</v>
@@ -40703,7 +40706,7 @@
         <v>1.91</v>
       </c>
       <c r="AP190">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ190">
         <v>1.95</v>
@@ -40831,7 +40834,7 @@
         <v>224</v>
       </c>
       <c r="P191" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q191">
         <v>1.95</v>
@@ -41243,7 +41246,7 @@
         <v>225</v>
       </c>
       <c r="P193" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q193">
         <v>3.6</v>
@@ -41449,7 +41452,7 @@
         <v>226</v>
       </c>
       <c r="P194" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -42479,7 +42482,7 @@
         <v>188</v>
       </c>
       <c r="P199" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -42685,7 +42688,7 @@
         <v>231</v>
       </c>
       <c r="P200" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q200">
         <v>2.25</v>
@@ -42972,7 +42975,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ201">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AR201">
         <v>1.28</v>
@@ -43097,7 +43100,7 @@
         <v>233</v>
       </c>
       <c r="P202" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -43303,7 +43306,7 @@
         <v>234</v>
       </c>
       <c r="P203" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q203">
         <v>2.6</v>
@@ -43509,7 +43512,7 @@
         <v>235</v>
       </c>
       <c r="P204" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q204">
         <v>2.15</v>
@@ -43587,7 +43590,7 @@
         <v>0.5</v>
       </c>
       <c r="AP204">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ204">
         <v>0.83</v>
@@ -43715,7 +43718,7 @@
         <v>236</v>
       </c>
       <c r="P205" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q205">
         <v>4.6</v>
@@ -43921,7 +43924,7 @@
         <v>237</v>
       </c>
       <c r="P206" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q206">
         <v>1.95</v>
@@ -45157,7 +45160,7 @@
         <v>227</v>
       </c>
       <c r="P212" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q212">
         <v>2.75</v>
@@ -45238,7 +45241,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ212">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AR212">
         <v>1.93</v>
@@ -45363,7 +45366,7 @@
         <v>239</v>
       </c>
       <c r="P213" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q213">
         <v>2.5</v>
@@ -45441,7 +45444,7 @@
         <v>0.62</v>
       </c>
       <c r="AP213">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ213">
         <v>0.7</v>
@@ -45569,7 +45572,7 @@
         <v>86</v>
       </c>
       <c r="P214" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q214">
         <v>1.71</v>
@@ -45981,7 +45984,7 @@
         <v>87</v>
       </c>
       <c r="P216" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q216">
         <v>3.25</v>
@@ -46805,7 +46808,7 @@
         <v>88</v>
       </c>
       <c r="P220" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q220">
         <v>4.33</v>
@@ -47011,7 +47014,7 @@
         <v>241</v>
       </c>
       <c r="P221" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q221">
         <v>2.25</v>
@@ -47629,7 +47632,7 @@
         <v>87</v>
       </c>
       <c r="P224" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q224">
         <v>4.33</v>
@@ -48865,7 +48868,7 @@
         <v>174</v>
       </c>
       <c r="P230" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q230">
         <v>4.75</v>
@@ -49277,7 +49280,7 @@
         <v>87</v>
       </c>
       <c r="P232" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q232">
         <v>2.88</v>
@@ -49355,7 +49358,7 @@
         <v>1.21</v>
       </c>
       <c r="AP232">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ232">
         <v>1.15</v>
@@ -50101,7 +50104,7 @@
         <v>105</v>
       </c>
       <c r="P236" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q236">
         <v>2.3</v>
@@ -50307,7 +50310,7 @@
         <v>248</v>
       </c>
       <c r="P237" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q237">
         <v>3.1</v>
@@ -50513,7 +50516,7 @@
         <v>118</v>
       </c>
       <c r="P238" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q238">
         <v>3.75</v>
@@ -50719,7 +50722,7 @@
         <v>249</v>
       </c>
       <c r="P239" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q239">
         <v>2.5</v>
@@ -51131,7 +51134,7 @@
         <v>251</v>
       </c>
       <c r="P241" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q241">
         <v>2.1</v>
@@ -51212,7 +51215,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ241">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AR241">
         <v>2.06</v>
@@ -51418,7 +51421,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ242">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AR242">
         <v>1.3</v>
@@ -51543,7 +51546,7 @@
         <v>87</v>
       </c>
       <c r="P243" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q243">
         <v>3.75</v>
@@ -51749,7 +51752,7 @@
         <v>252</v>
       </c>
       <c r="P244" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q244">
         <v>3.4</v>
@@ -52367,7 +52370,7 @@
         <v>255</v>
       </c>
       <c r="P247" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q247">
         <v>3.4</v>
@@ -52985,7 +52988,7 @@
         <v>257</v>
       </c>
       <c r="P250" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q250">
         <v>2.5</v>
@@ -53191,7 +53194,7 @@
         <v>258</v>
       </c>
       <c r="P251" t="s">
-        <v>392</v>
+        <v>291</v>
       </c>
       <c r="Q251">
         <v>2.05</v>
@@ -53887,7 +53890,7 @@
         <v>1.73</v>
       </c>
       <c r="AP254">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ254">
         <v>1.95</v>
@@ -54714,7 +54717,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ258">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AR258">
         <v>1.82</v>
@@ -55457,7 +55460,7 @@
         <v>87</v>
       </c>
       <c r="P262" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q262">
         <v>2.75</v>
@@ -55535,7 +55538,7 @@
         <v>1.25</v>
       </c>
       <c r="AP262">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ262">
         <v>1.15</v>
@@ -55663,7 +55666,7 @@
         <v>266</v>
       </c>
       <c r="P263" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q263">
         <v>2.5</v>
@@ -56075,7 +56078,7 @@
         <v>217</v>
       </c>
       <c r="P265" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q265">
         <v>3</v>
@@ -57929,7 +57932,7 @@
         <v>271</v>
       </c>
       <c r="P274" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q274">
         <v>3.5</v>
@@ -58010,7 +58013,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ274">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AR274">
         <v>1.21</v>
@@ -58213,7 +58216,7 @@
         <v>1.76</v>
       </c>
       <c r="AP275">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ275">
         <v>1.7</v>
@@ -59577,7 +59580,7 @@
         <v>277</v>
       </c>
       <c r="P282" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q282">
         <v>2.5</v>
@@ -59783,7 +59786,7 @@
         <v>87</v>
       </c>
       <c r="P283" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q283">
         <v>3.4</v>
@@ -59989,7 +59992,7 @@
         <v>87</v>
       </c>
       <c r="P284" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q284">
         <v>2.1</v>
@@ -60479,7 +60482,7 @@
         <v>1.5</v>
       </c>
       <c r="AP286">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ286">
         <v>1.5</v>
@@ -61718,7 +61721,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ292">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AR292">
         <v>1.29</v>
@@ -64187,7 +64190,7 @@
         <v>1.79</v>
       </c>
       <c r="AP304">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ304">
         <v>1.85</v>
@@ -64521,7 +64524,7 @@
         <v>261</v>
       </c>
       <c r="P306" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q306">
         <v>2.88</v>
@@ -64602,7 +64605,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ306">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AR306">
         <v>1.65</v>
@@ -65551,7 +65554,7 @@
         <v>168</v>
       </c>
       <c r="P311" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q311">
         <v>1.62</v>
@@ -65963,7 +65966,7 @@
         <v>290</v>
       </c>
       <c r="P313" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q313">
         <v>2.5</v>
@@ -66120,6 +66123,212 @@
       </c>
       <c r="BP313">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="314" spans="1:68">
+      <c r="A314" s="1">
+        <v>313</v>
+      </c>
+      <c r="B314">
+        <v>7903894</v>
+      </c>
+      <c r="C314" t="s">
+        <v>68</v>
+      </c>
+      <c r="D314" t="s">
+        <v>69</v>
+      </c>
+      <c r="E314" s="2">
+        <v>45806.5625</v>
+      </c>
+      <c r="F314">
+        <v>0</v>
+      </c>
+      <c r="G314" t="s">
+        <v>82</v>
+      </c>
+      <c r="H314" t="s">
+        <v>76</v>
+      </c>
+      <c r="I314">
+        <v>0</v>
+      </c>
+      <c r="J314">
+        <v>0</v>
+      </c>
+      <c r="K314">
+        <v>0</v>
+      </c>
+      <c r="L314">
+        <v>1</v>
+      </c>
+      <c r="M314">
+        <v>2</v>
+      </c>
+      <c r="N314">
+        <v>3</v>
+      </c>
+      <c r="O314" t="s">
+        <v>291</v>
+      </c>
+      <c r="P314" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q314">
+        <v>2.84</v>
+      </c>
+      <c r="R314">
+        <v>2.36</v>
+      </c>
+      <c r="S314">
+        <v>3.42</v>
+      </c>
+      <c r="T314">
+        <v>1.29</v>
+      </c>
+      <c r="U314">
+        <v>3.4</v>
+      </c>
+      <c r="V314">
+        <v>2.49</v>
+      </c>
+      <c r="W314">
+        <v>1.5</v>
+      </c>
+      <c r="X314">
+        <v>5.7</v>
+      </c>
+      <c r="Y314">
+        <v>1.12</v>
+      </c>
+      <c r="Z314">
+        <v>2.2</v>
+      </c>
+      <c r="AA314">
+        <v>3.41</v>
+      </c>
+      <c r="AB314">
+        <v>2.69</v>
+      </c>
+      <c r="AC314">
+        <v>1.01</v>
+      </c>
+      <c r="AD314">
+        <v>12.5</v>
+      </c>
+      <c r="AE314">
+        <v>1.2</v>
+      </c>
+      <c r="AF314">
+        <v>4.16</v>
+      </c>
+      <c r="AG314">
+        <v>1.82</v>
+      </c>
+      <c r="AH314">
+        <v>1.88</v>
+      </c>
+      <c r="AI314">
+        <v>1.57</v>
+      </c>
+      <c r="AJ314">
+        <v>2.34</v>
+      </c>
+      <c r="AK314">
+        <v>1.36</v>
+      </c>
+      <c r="AL314">
+        <v>1.22</v>
+      </c>
+      <c r="AM314">
+        <v>1.53</v>
+      </c>
+      <c r="AN314">
+        <v>1.38</v>
+      </c>
+      <c r="AO314">
+        <v>1.45</v>
+      </c>
+      <c r="AP314">
+        <v>1.34</v>
+      </c>
+      <c r="AQ314">
+        <v>1.49</v>
+      </c>
+      <c r="AR314">
+        <v>1.44</v>
+      </c>
+      <c r="AS314">
+        <v>1.63</v>
+      </c>
+      <c r="AT314">
+        <v>3.07</v>
+      </c>
+      <c r="AU314">
+        <v>5</v>
+      </c>
+      <c r="AV314">
+        <v>4</v>
+      </c>
+      <c r="AW314">
+        <v>11</v>
+      </c>
+      <c r="AX314">
+        <v>13</v>
+      </c>
+      <c r="AY314">
+        <v>19</v>
+      </c>
+      <c r="AZ314">
+        <v>20</v>
+      </c>
+      <c r="BA314">
+        <v>2</v>
+      </c>
+      <c r="BB314">
+        <v>7</v>
+      </c>
+      <c r="BC314">
+        <v>9</v>
+      </c>
+      <c r="BD314">
+        <v>1.83</v>
+      </c>
+      <c r="BE314">
+        <v>6.4</v>
+      </c>
+      <c r="BF314">
+        <v>2.17</v>
+      </c>
+      <c r="BG314">
+        <v>1.3</v>
+      </c>
+      <c r="BH314">
+        <v>3.15</v>
+      </c>
+      <c r="BI314">
+        <v>1.52</v>
+      </c>
+      <c r="BJ314">
+        <v>2.33</v>
+      </c>
+      <c r="BK314">
+        <v>1.85</v>
+      </c>
+      <c r="BL314">
+        <v>1.83</v>
+      </c>
+      <c r="BM314">
+        <v>2.33</v>
+      </c>
+      <c r="BN314">
+        <v>1.52</v>
+      </c>
+      <c r="BO314">
+        <v>3.05</v>
+      </c>
+      <c r="BP314">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>
